--- a/input.xlsx
+++ b/input.xlsx
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="497">
   <si>
     <t xml:space="preserve">az_link</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B086DBVYFV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07N7LLNQJ</t>
+    <t xml:space="preserve">https://www.amazon.com/dp/B086DBVYFVhttps://www.amazon.com/dp/B08B5XH1JN/ref=sspa_dk_detail_4?psc=1&amp;pd_rd_i=B08B5XH1JN&amp;pd_rd_w=R9s43&amp;pf_rd_p=cbc856ed-1371-4f23-b89d-d3fb30edf66d&amp;pd_rd_wg=Y9YOL&amp;pf_rd_r=YBQ04YMVG1XWTSX4F8BW&amp;pd_rd_r=93fe595c-997f-4073-acc1-47a70370cb29&amp;spLa=ZW5jcnlwdGVkUXVhbGl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/NATIONAL-GEOGRAPHIC-Earth-Science-Kit/dp/B082ZLM39R/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/SwimWays-Baby-Spring-Float-Canopy/dp/B01N52SYAZ/ref=sr_1_1?dchild=1&amp;keywords=B01N52SYAZ&amp;qid=1619294793&amp;sr=8-1</t>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">https://www.amazon.com/TeeTurtle-Reversible-Octopus-Mini-Plush/dp/B07H4YQF3Q/ref=zg_bs_toys-and-games_1?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.amazon.com/NATIONAL-GEOGRAPHIC-Earth-Science-Kit/dp/B082ZLM39R/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.amazon.com/BunMo-Sensory-Autistic-Children-Fidgets/dp/B088SZ9SPH/ref=zg_bs_toys-and-games_10?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908</t>
   </si>
   <si>
@@ -1514,645 +1511,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Organic-Aloe-Vera-Gel-Freshly/dp/B07J9YVK31?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_23_0adeb85f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Equinox-Professional-Shears-Razor-Edge/dp/B00KVYBY8M/ref=sr_1_53?dchild=1&amp;keywords=New+Professional+Eyebrow+Hair+Stainless+Steel+Lady+Make+Up+Removal+Tweezer+Tips&amp;qid=1620728160&amp;s=beauty&amp;sr=1-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Mederma-Advanced-Scar-Gel-Recommended/dp/B001PQBEAI/ref=sr_1_10?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620734423&amp;s=beauty&amp;sr=1-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Philips-Norelco-OneBlade-QP2520-90/dp/B01D328BG6/ref=sr_1_2?dchild=1&amp;keywords=Nose%2C+Ear%2C+and+Eyebrow+hair+trimmer+NT5175%2F49+-+facial+hair+trimmer%2C+precision+styler%2C+%28series+5000%29%2C+Easily+andWalmartfortably+trim+unwanted+nose%2C+ear%2C+eyebrow%2C+neck%2C..%2C+By+Philips+Norelco&amp;qid=1620735114&amp;s=beauty&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Colgate-Toothbrushes-Premier-Extra-Clean/dp/B00I7HPNHS/ref=sr_1_5?dchild=1&amp;keywords=Colgate+Extra+Clean+Full+Head+ToothBrush%2C+Soft%2C+3+ea&amp;qid=1620737110&amp;s=beauty&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Panasonic-Trimmer-ER430K-Cleaning-Battery-Operated/dp/B000FYVOJC/ref=sr_1_12?dchild=1&amp;keywords=%22Happyline%22+Eyebrow+Hair+Remover+USB+Rechargeable+Eyebrow+Remover+Electric+Trimmer+Epilator+Painless+Eyebrow+Razor+for+Women+Eyebrow+Face+Lip+Hair+Remove&amp;qid=1620737145&amp;refresh=1&amp;s=beauty&amp;sr=1-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/CeraVe-Hydrating-Facial-Cleanser-Fragrance/dp/B01MSSDEPK/ref=sr_1_22?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Certified-Kate-Stimulate-Eyelashes-Treatment/dp/B01NALN8Q9/ref=sr_1_26?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Clearoo-Removal-Endoscope-Wireless-Otoscope/dp/B083QLRKRD/ref=sr_1_1?dchild=1&amp;keywords=BEBIRD+Ear+Wax+Removal+Endoscope%2C+Earwax+Remover+Tool%2C+Ear+Camera%2C1080P+FHD+Wireless+Ear+Otoscope+with+6+LED+Lights%2CEar+Scope+with+Ear+Wax+Cleaner+Tool+for+iPhone%2C+iPad+%26+Android+Smart+Phones+%28Blue%29&amp;qid=1620763364&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Listerine-Anticavity-Mouthwash-Fluoride-Packaging/dp/B00495Q5OW/ref=sr_1_29?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Goody-Ouchless-Womens-Braided-Elastic/dp/B00DFSHD5O/ref=sr_1_30?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Neutrogena-Dry-Touch-Resistant-Non-Greasy-Sunscreen/dp/B002JAYMEE/ref=sr_1_32?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Carfidant-Black-Car-Scratch-Remover/dp/B07RXV9MWB/ref=zg_bs_15718271_33?_encoding=UTF8&amp;psc=1&amp;refRID=GCWZNEEQRWYWQ7197YDQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/ONEST-Detailing-Including-Automotive-Conditioner/dp/B077C5M972/ref=zg_bs_15718271_40?_encoding=UTF8&amp;psc=1&amp;refRID=GCWZNEEQRWYWQ7197YDQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/XINDELL-Windshield-Cleaning-Extendable-Microfiber/dp/B07SGQJ6C9/ref=zg_bs_15718271_55?_encoding=UTF8&amp;psc=1&amp;refRID=EBNBSADGJX808F093RZ5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/CERAKOTE-Ceramic-Trim-Coat-Kit/dp/B07SHJVK4G/ref=zg_bs_15718271_57?_encoding=UTF8&amp;psc=1&amp;refRID=EBNBSADGJX808F093RZ5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Water-Davidoff-Women-Deodorant-Spray/dp/B000C1VVQO/ref=zg_bs_11056591_21?_encoding=UTF8&amp;psc=1&amp;refRID=ZGGFV82TJE5FQ4B4HHMX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BIOLAGE-Colorlast-Shampoo-Color-Treated-Hair/dp/B0164ND75Q/ref=zg_bs_11057131_2?_encoding=UTF8&amp;refRID=M04NN10JFHHWDZEXYYP6&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Dreamlover-Beige-Stocking-Stretchy-Contains/dp/B07RBKSYR9/ref=zg_bs_13105931_2?_encoding=UTF8&amp;psc=1&amp;refRID=WCX7636HN9WBEWQWTKT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Dreamlover-Beige-Stocking-Stretchy-Contains/dp/B07G27GXYC/ref=zg_bs_13105931_2?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/MORICA-Scrunchies-Extension-Synthetic-Hairpiece/dp/B07YQRD8VY/ref=zg_bs_13105931_3?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/MORICA-Scrunchies-Extension-Synthetic-Hairpiece/dp/B07YQR89TJ/ref=zg_bs_13105931_3?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/MORICA-Scrunchies-Extension-Synthetic-Hairpiece/dp/B07YQMJ991/ref=zg_bs_13105931_3?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/MORGLES-20pcs-Stretchy-Nylon-Stocking/dp/B07S21C4KY/ref=zg_bs_13105931_5?_encoding=UTF8&amp;psc=1&amp;refRID=WCX7636HN9WBEWQWTKT0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Elizavecca-CER-100-Collagen-Coating-Treatment/dp/B01I2ZQJSG/ref=zg_bs_11057431_2?_encoding=UTF8&amp;psc=1&amp;refRID=0PSEG907NTP9Q4DBQD3B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Pampers-Diaper-Wipes-Fresh-Pop-Top/dp/B08SSDH8H1/ref=zg_bs_baby-products_42?_encoding=UTF8&amp;psc=1&amp;refRID=F1Y9MYXC77XNG9J2763B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Groomsman-rechargeable-mustache-sharpening-05622/dp/B07BB313YL/ref=sr_1_5?dchild=1&amp;keywords=Wahl+5567-200+Ear+Nose+Brow+Dual+Head+Trimmer+Hair+Grooming+Clipper+Cutter+NEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Groomsman-rechargeable-mustache-sharpening-05622/dp/B07B9Z8LV7/ref=sr_1_5?dchild=1&amp;keywords=Wahl%2B5567-200%2BEar%2BNose%2BBrow%2BDual%2BHead%2BTrimmer%2BHair%2BGrooming%2BClipper%2BCutter%2BNEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Groomsman-rechargeable-mustache-sharpening-05622/dp/B07BBD6YVX/ref=sr_1_5?dchild=1&amp;keywords=Wahl%2B5567-200%2BEar%2BNose%2BBrow%2BDual%2BHead%2BTrimmer%2BHair%2BGrooming%2BClipper%2BCutter%2BNEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wahl-Clipper-Rechargeable-Professionals-9649/dp/B01N0993NM/ref=sr_1_3?dchild=1&amp;keywords=Wahl+5567-200+Ear+Nose+Brow+Dual+Head+Trimmer+Hair+Grooming+Clipper+Cutter+NEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Micro-Touch-Hair-Trimmer-Green/dp/B003ZW9LOQ/ref=sr_1_9?dchild=1&amp;keywords=LYUMO+4+In+1+Rechargeable+Men+Nose+Ear+Temple+Hair+Trimmer+Electric+Beard+Eyebrow+Clipper+Shaving+Kit%2C+Men+Hair+Trimmer+Shaver+Set%2C+Men+Nose+Hair+Trimmer+Set&amp;qid=1620738199&amp;s=beauty&amp;sr=1-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Majestic-Pure-Himalayan-Essential-Moisturize/dp/B01K8PEZMU/ref=sr_1_5?dchild=1&amp;keywords=3+Pack+-+Okay+African+Black+Soap%2C+Original%2C+5.5+oz&amp;qid=1620802189&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sherpa-Pink-Gourmet-Himalayan-Salt/dp/B00IZL255O/ref=sr_1_10?dchild=1&amp;keywords=Indusclassic+Pure+Original+Himalayan+Pink+Crystal+Bath+and+Spa+Sea+Salt+-+2+Pound+Medium+Grain+1%7E3mm&amp;qid=1620802135&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sherpa-Pink-Himalayan-Incredible-Nutrients/dp/B00HVJHNMQ/ref=sr_1_1?dchild=1&amp;keywords=Sherpa+Pink+Gourmet+Himalayan+Salt+-+10+lb.+Bulk+Bag+Extra-Fine+Grain+10+Pound+%28Pack+of+1%29&amp;qid=1620811905&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/LOGROTATE-Control-Rechargeable-Birthday-Diameter/dp/B07FDXY48N/ref=sr_1_2?dchild=1&amp;keywords=Pink+Salt+Wall+-+Himalayan+Salt+Cross+Lamp+USB+Power+Pink+Salt+Lamp&amp;qid=1620812650&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Himalayan-Glow-1002-Pink-Crystal/dp/B001892AX2/ref=sr_1_3?dchild=1&amp;keywords=Spantik+7+inch+Himalayan+Salt+Lamp+with+Dimmer+Cord+-+Night+Light+Natural+Crystal+Rock+Classic+Wood+Base+Authentic+from+Pakistan&amp;qid=1620812352&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/essence-Princess-Effect-Mascara-Cruelty/dp/B00T0C9XRK/ref=sr_1_35?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Colgate-Advanced-Whitening-Toothpaste-Sparkling/dp/B082F1QH7S/ref=sr_1_37?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/LETSCOM-Dimmable-Ringlight-Photography-Compatible/dp/B086JKRNXW?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_img_40_7ea3c1b9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/HIWARE-All-Purpose-Shower-Squeegee-Bathroom/dp/B082HWYQVC?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_img_43_099d0a39&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9AW/ref=sr_1_44?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9KC/ref=sr_1_44?dchild=1&amp;keywords=Zizzili%2BBasics%2BSurgical%2BGrade%2BStainless%2BSteel%2BFine%2BPointed%2BTweezers%7CPrecision%2BAligned%2BTips%2Bfor%2BSplinter%2C%2BEyebrow%2B%26%2BFacial%2BHair%2BRemoval%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-44&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9EADS/ref=sr_1_44?dchild=1&amp;keywords=Zizzili%2BBasics%2BSurgical%2BGrade%2BStainless%2BSteel%2BFine%2BPointed%2BTweezers%7CPrecision%2BAligned%2BTips%2Bfor%2BSplinter%2C%2BEyebrow%2B%26%2BFacial%2BHair%2BRemoval%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-44&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Colgate-Cavity-Protection-Toothpaste-Fluoride/dp/B01BNEWDFQ/ref=sr_1_48?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Colgate-Tartar-Protection-Toothpaste-Whitening/dp/B01BNF1USQ/ref=sr_1_1?dchild=1&amp;keywords=Colgate+Tartar+Protection+Toothpaste+with+Whitening%2C+Mint+-+6+ounce+%286+Pack%29+NEW&amp;qid=1620822270&amp;s=beauty&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Hollywood-Dimmable-Control-Bathroom-Included/dp/B07R1XJNT9?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_img_56_daa6553a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Chende-Hollywood-Dimmable-Lighting-Dressing/dp/B075XLRHNQ/ref=sr_1_15?dchild=1&amp;keywords=Led+Vanity+Mirror+Lights%2C+Hollywood+Style+Vanity+Make+Up+Light%2C+10ft+Ultra+Bright+White+LED%2C+Dimmable+Touch+Control+Lights+Strip%2C+for+Makeup+Vanity+Table+%26+Bathroom+Mirror%2C+Mirror+Not+Included&amp;qid=1620825266&amp;s=hi&amp;sr=1-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Daybetter-Flexible-Changing-Remote-Control/dp/B08B8D53HS?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_tlt_5_9f1ea82e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Adapter-QGeeM-Thunderbolt-Compatible-Pixelbook/dp/B07JW7GT7H?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_tlt_37_a6197f74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Syncwire-Rotation-Universal-Kickstand-Compatible/dp/B07V6P9QT9/ref=sr_1_1?dchild=1&amp;keywords=Syncwire+Cell+Phone+Ring+Holder+Stand+%5B2+Pack%5D%2C+360+Degree+Rotation+Universal+Finger+Ring+Kickstand+With+Polished+Metal+Phone+Grip+For+Magnetic+Car+Mount+Compatible+With+Iphone%2C+Samsung%2C+Lg%2C+Sony&amp;qid=1620825825&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Plastic-HOMENOTE-Decorative-Drainage-Succulents/dp/B083LYM3TZ?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_tlt_130_8dd30d10&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Glendan-Brush-Slicker-Grooming-Shedding/dp/B071RSQJSZ?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_img_305_0d437914&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Paint-Painting-Ceramic-Acrylic-Markers/dp/B07485T22B?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_img_308_3f9fc022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Bingcute-1-0MM-Elastic-Making-Jewelry/dp/B01LX50N4Y/ref=zg_bs_262593011_3?_encoding=UTF8&amp;refRID=HNB131RA07PZJH408Z2E&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Bingcute-1-0MM-Elastic-Making-Jewelry/dp/B01LZQM2AH/ref=zg_bs_262593011_3?_encoding=UTF8&amp;refRID=HNB131RA07PZJH408Z2E&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/essence-Princess-Effect-Mascara-Cruelty/dp/B08JX7VS2P/ref=zg_bs_beauty_1?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B0861BJQ28/ref=twister_B07YNXDSCZ?_encoding=UTF8&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Neutrogena-Cleansing-Towelettes-Alcohol-Free-Waterproof/dp/B07FLD6T6Q/ref=zg_bs_beauty_4?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Softsoap-Liquid-Hand-Soap-Aloe/dp/B079FYJC97/ref=zg_bs_beauty_6?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Tweezers-Set-Professional-Eyebrows/dp/B07QSY7XK6/ref=zg_bs_beauty_28?_encoding=UTF8&amp;psc=1&amp;refRID=8CFJXTMYMRAW91XMFGXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9AW/ref=zg_bs_beauty_29?_encoding=UTF8&amp;psc=1&amp;refRID=8CFJXTMYMRAW91XMFGXQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9KC/ref=zg_bs_beauty_29?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9EADS/ref=zg_bs_beauty_29?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Measuring-Reusable-Finger-Measure-Jewelry/dp/B08JLW2C8J/ref=zg_bs_arts-crafts_27?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Reynolds-Pitmasters-Choice-Strength-Aluminum/dp/B06XQ3KXYZ/ref=sr_1_1?dchild=1&amp;keywords=Reynolds+Wrap%C2%AE+Pitmaster%27s+Choice%E2%84%A2+Aluminum+Foil+37.5+sq.+ft.+Box&amp;qid=1620912827&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Reynolds-Wrap-Aluminum-Foil-Square/dp/B00UNT0Y2M/ref=sr_1_2?dchild=1&amp;keywords=Reynolds+Wrap+Heavy+Duty+Aluminum+Foil+Roll%2C+18%22+x+1000+ft%2C+Silver+-RFP625&amp;qid=1620925931&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Glad-Pressn-Seal-Plastic-Food/dp/B00KKC6C2I/ref=sr_1_5?dchild=1&amp;keywords=Fanci-Foil+Wrap+20%22X15%27-Silver&amp;qid=1620926112&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Reynolds-Kitchens-Parchment-Non-Stick-Square/dp/B07F6F631N/ref=sr_1_4?dchild=1&amp;keywords=Reynolds+Kitchens+Non-Stick+Baking+Parchment+Paper+Sheets+-+12x16+Inch%2C+22+Count&amp;qid=1620912644&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Range-Kleen-B24TC-Toaster-Cookie/dp/B00CXY9F2A/ref=sr_1_2?dchild=1&amp;keywords=Range+Kleen+Non+Stick+Toaster+Oven+Cookie+Sheet+8+Inches+by+10+Inches&amp;qid=1620926579&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Baking-Cooling-Nonstick-Stainless-Non-Toxic/dp/B08B5SVPJQ/ref=sr_1_1?dchild=1&amp;keywords=Baking+Sheet+with+Rack+Set+%5B2+Sheets%2B2+Racks%5D%2C+HUSHIDA+Stainless+Steel+Cookie+Sheet+Pan+with+Cooling+Rack+for+Oven%2816%22+x+12%22+x+1%22+%29%2C+Nonstick+Baking+Pans+Tray%2C+Non-Toxic%2C+Heavy+Duty%2C+Easy+Clean&amp;qid=1620974039&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-21-Inch-2105-0109-Perfect-Non-Stick/dp/B00KIF5LLK/ref=sr_1_1?dchild=1&amp;keywords=Wilton+Perfect+Results+Premium+Non-Stick+21+x+15-Inch+Mega+Baking+Pan&amp;qid=1620974429&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Fat-Daddios-PRD-83-Round-Silver/dp/B0013374AM/ref=sr_1_2?dchild=1&amp;keywords=Fat+Daddio%27s+Round+Springform+Cake+Baking+Pan+with+Steel+Buckle%2C+10+x+3+Inch&amp;qid=1620975021&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sirius-Electronic-Distress-Daytime-Whistle/dp/B081GHJ9XC/ref=sr_1_3?dchild=1&amp;keywords=Whisk%2CStnls+Stl+Wires%2C11%22&amp;qid=1620976571&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Moretoes-10x10x5-Pastries-Cookies-Cupcakes/dp/B07RXVGKCC/ref=sr_1_3?dchild=1&amp;keywords=Cake+Boxes+8+x+8+x+4%2C+Bakery+Box+Has+Double+Window%2C+Cake+Supplies%2C+15+Pack.&amp;qid=1621005966&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-Elegance-Cupcake-Liners-150-Count/dp/B00TM6WZO2/ref=sr_1_5?dchild=1&amp;keywords=240+Pc+Colorful+Paper+Baking+Cups+Cupcake+Liners+Muffin+Mini+Cake+Mold+Assorted&amp;qid=1621007168&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Stainless-Steel-Salt-Pepper-Grinder/dp/B0788B6LC8/ref=sr_1_1?dchild=1&amp;keywords=Stainless+Steel+Salt+and+Pepper+Grinder+Set+-+Two+Piece+Set+-+Glass+and+Stainless+Steel+Mill+-+Large+Capacity+Shakers+-+Top+Loading+Design+By+Mason+Mills&amp;qid=1621008175&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Great-Credentials-Stainless-Versatile-Shakers/dp/B01LWX1UD1/ref=sr_1_4?dchild=1&amp;keywords=Set+of+2+10Ounce+Stainless+Steel+Dredge+Shaker+with+Handle+by+Tezzorio%2C+Commercial+Grade+Spice+Dredge+Shaker+for+Restaurants+Bak&amp;qid=1621008682&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Circleware-Dispenser-Container-Stainless-Himalayan/dp/B077QQZSFT/ref=sr_1_1?dchild=1&amp;keywords=Circleware+68252+Cafe+Contempo+Elegant+Glass+Salt+and+Pepper+Shakers+Dispenser%2C+Clear+Bottom+Jar+Bottle+Container+with+Stainless+Steel+Top%2C+Perfect+for+Himalayan+Seasoning+Herbs+Spices%2C+4.4+oz%2C+Copper&amp;qid=1621013545&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Rubbermaid-FreshWorks-Produce-Storage-Containers/dp/B01FCR7MYM/ref=sr_1_2?dchild=1&amp;keywords=Progressive+PKS-900+Prepworks+Large+Produce+ProKeeper&amp;qid=1621067068&amp;s=home-garden&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Solutions-Progressive-GBK-8-Adjustable-Expandable/dp/B001BB2LMM/ref=sr_1_2?dchild=1&amp;keywords=Progressive+Adjustable+Bread+Keeper&amp;qid=1621067193&amp;s=home-garden&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Prepworks-Progressive-ProKeeper-Air-Tight-Storage/dp/B016MZSSCI/ref=sr_1_4?dchild=1&amp;keywords=Progressive+Adjustable+Bread+Keeper&amp;qid=1621067193&amp;s=home-garden&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Homemade-Kozy-Kitchen-Foldable-Enhanced/dp/B07LHDJ4KT/ref=sr_1_1?dchild=1&amp;keywords=Bread+Slicers+for+Homemade+Bread+and+Loaf+Cakes+By+Kozy+Kitchen%2C+100%25+Organic+Bamboo+Bread+Slicing+Guide%2C+Compact+Foldable+Bread+Cutter+Guide%2C+Enhanced+Bamboo+Wooden+Bagel+Slicer&amp;qid=1621067824&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Swing-Top-Glass-Bottles-Chalkboard/dp/B01LB1862A/ref=sr_1_1_sspa?dchild=1&amp;keywords=Bormioli+Rocco+4L+Swing+Top+Fido+Glass+Jar&amp;qid=1621071477&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWloyUUZZVFVCQThVJmVuY3J5cHRlZElkPUEwMDk5OTU2MkQ2UlNVOTdVRVE2UiZlbmNyeXB0ZWRBZElkPUEwNzM2MjYxMUIwVTAwSjJVTkg3TiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Bormioli-Rocco-149240M02121197-Canning-Italian/dp/B072M8G8NP/ref=sr_1_3?dchild=1&amp;keywords=Bormioli%2BRocco%2BFido%2BLarge%2B2L%2BGlass%2BJar%2B(2%2BPack)%2Bwith%2BAirtight%2BLid%2Bfor%2BFood%2BStorage&amp;qid=1621071655&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sensory-Fidget-Special-Anti-Anxiety-Assortment/dp/B08Y7QL9QN/ref=zg_bsnr_toys-and-games_2?_encoding=UTF8&amp;psc=1&amp;refRID=ZF1Y771R0RZJJGCZPTE0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Deiss%C2%AE-Dual-Julienne-Vegetable-Peeler/dp/B00LKRZ9Y4/ref=sr_1_1?dchild=1&amp;keywords=ZYLISS+3-in-1+Mango+Slicer%2C+Peeler+and+Pit+Remover+Tool&amp;qid=1621164171&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Contigo-AUTOSEAL-Vaccuum-Insulated-Stainless-Travel/dp/B00KR9OIZM/ref=sr_1_4?dchild=1&amp;keywords=Contigo+AUTOSEAL+West+Loop+Vaccuum-Insulated+Stainless+Steel+Travel+Mug%2C+20+oz%2C+Latte&amp;qid=1621164995&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gatorade-Thirst-Quencher-Powder-Glacier/dp/B0776HZ26P/ref=sr_1_8?dchild=1&amp;keywords=gatorade+stainless+steel+26+oz+bottle+-+green&amp;qid=1621165156&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/HadinEEon-Electric-Cappuccino-Chocolate-Automatic/dp/B07PHSKR76/ref=sr_1_3?dchild=1&amp;keywords=Zyliss+Milk+Frother+in+Red&amp;qid=1621164782&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Kuhn-Rikon-2262-Safety-Master/dp/B000B6NXL6/ref=sr_1_6?dchild=1&amp;keywords=ZYLISS+Lock+N%27+Lift+Can+Opener+with+Lid+Lifter+Magnet%2C+White+%2F+Gray&amp;qid=1621170967&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B007Y6P5M6/ref=sr_1_3?dchild=1&amp;keywords=2+PACKS+%3A+Gatorade+G2+Sports+Drink%2C+Grape%2C+Low+Calorie%2C+12-Ounce+Bottles&amp;qid=1621171237&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gatorade-Pods-Glacier-Freeze-3-25oz/dp/B08DKLR3BK/ref=sr_1_12?dchild=1&amp;keywords=Gatorade%2BFrost%2BThirst%2BQuencher%2C%2BArctic%2BBlitz%2C%2B12%2BOunce%2BBottles%2B(Pack%2Bof%2B24)&amp;qid=1621171509&amp;sr=8-12&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/OlarHike-Grilling-Accessories-Stainless-Thermometer/dp/B07VV58SW1/ref=sr_1_1?dchild=1&amp;keywords=IOTC+Kitchen+tool+Set+Accesories+Stainless+Steel+Cooking+Utensils%2C+One+Size%2C+Set+of+8&amp;qid=1621172929&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/ThermoPro-TP50-Digital-Thermometer-Temperature/dp/B01H1R0K68/ref=sr_1_1?dchild=1&amp;keywords=ThermoPro+TP50%26TP52+Digital+Hygrometer+Indoor+Thermometer+Rome+Temperature+and+Humidity+Gauge+Monitor+Indicator+Meter&amp;qid=1621174224&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Medical-Thermometer-Temperature-Underarm-Children/dp/B07ZRN3QBY/ref=sr_1_12?dchild=1&amp;keywords=ThermoPro+TP49x+2+Pcs+Indoor+Thermometer+%26+Hygrometer+with+Humidity+Gauge+24hours&amp;qid=1621174400&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Stoner-Invisible-Glass-Windscreen-Cleaner/dp/B000M3V95U/ref=sr_1_4?dchild=1&amp;keywords=Invisible+Glass+Clean+and+Repel+19+oz+Aerosol+Can&amp;qid=1621444399&amp;s=automotive&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B01HDL5B5C?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Chemical-Guys-BUF_900-Conditioning-Brush/dp/B0023V727S/ref=sr_1_4?dchild=1&amp;keywords=Chemical+Guy+BUF900+Edge+Conditioning+Brush&amp;qid=1621444949&amp;s=automotive&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Casserole-Carrier-Food-Warmer-Portable/dp/B00H861ESQ/ref=sr_1_1?dchild=1&amp;keywords=Casserole+Carrier+and+Food+Warmer+-+Portable+Travel+Casserole+Tote+%28Holds+up+to+11%22x17%22+Casserole+-+Keeps+warm+up+to+one+hour%29-Red&amp;qid=1621424756&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-Candy-Melts-Dipping-Scoop/dp/B00HB555W0/ref=sr_1_2?dchild=1&amp;keywords=Wilton+Candy+Mold+Melt+Dipping+Scoop+Tool&amp;qid=1621411209&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Harris-Benzoyl-Peroxide-Bottle-Ounce/dp/B00D5X791C/ref=sr_1_5?dchild=1&amp;keywords=harris+benzoyl+peroxide+wash+5%25+bottle%2C+5+ounce&amp;qid=1621234458&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Perrigo-Benzoyl-Peroxide-Medication-Quantity/dp/B071HVKYJF/ref=sr_1_1?dchild=1&amp;keywords=Perrigo+Benzoyl+Peroxide+10%25+Acne+Medication+Face+Wash+5+Ounce&amp;qid=1621234737&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Hanging-Hanger-Kitchen-Closet-Plants/dp/B07Q6WRYBS/ref=sr_1_7?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.walmart.com/ip/CeraVe-SA-Body-Wash-For-Rough-Bumpy-Skin-10-oz/506811454</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Saferell-Thermometer-Backlight-Calibration-Foldable/dp/B08MW1DSDZ/ref=sr_1_2?dchild=1&amp;keywords=GNP%2BDigital%2BThermometer%2Bwith%2BProbe%2BCovers.%2BFast%2BRead%2C%2BFlexible-tip&amp;qid=1621233483&amp;sr=8-2&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/CeraVe-Salicylic-Ounce-Fragrance-Exfoliate/dp/B077TWXCQV/ref=sr_1_12?dchild=1&amp;keywords=Face+and+Body+Wash+with+Manuka+Honey%2C+Coconut+Oil+and+Aloe+Vera+-+Relieves+Symptoms+of+Acne%2C+Eczema%2C+Rosacea%2C+Psoriasis+%26+Seborrheic+Dermatitis+-+Treatment+for+Blemishes%2C+Dry+and+Itchy+Skin+%284oz%29&amp;qid=1621235263&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/CeraVe-Moisturizing-Cream-Daily-Moisturizer/dp/B00TTD9BRC/ref=sr_1_1?dchild=1&amp;keywords=Face+and+Body+Cream+Moisturizer+-+Nourishing+Aloe+Vera+-+Manuka+Honey+for+Rosacea+Eczema+Psoriasis+Rashes+Itchiness+Redness+-+Natural+Organic+Cracked+Skin+Relief+-+Anti+Aging+-+Anti+Wrinkl&amp;qid=1621235325&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/LilyAna-Naturals-Retinol-Cream-Moisturizer/dp/B01ES349CY/ref=sr_1_2?dchild=1&amp;keywords=Face+and+Body+Cream+Moisturizer+-+Nourishing+Aloe+Vera+-+Manuka+Honey+for+Rosacea+Eczema+Psoriasis+Rashes+Itchiness+Redness+-+Natural+Organic+Cracked+Skin+Relief+-+Anti+Aging+-+Anti+Wrinkl&amp;qid=1621235325&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Medication-Treatment-Prevention-Blackheads-Whiteheads/dp/B00OVIA1MY/ref=sr_1_1?dchild=1&amp;keywords=Benzoyl+Peroxide+5+%25+Generic+for+Oxy+Balance+Acne+Medication+Gel+for+Treatment+and+Prevention+of+Acne+Pimples%2C+Acne+Blemishes%2C+Blackheads+or+Whiteheads.+1.5+oz.+per+Tube+Pack+4+Toral+6+oz.&amp;qid=1621243093&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07TLNSYSF/ref=redir_mobile_desktop?_encoding=UTF8&amp;aaxitk=3642b012cebd01d23644ae247f18ed05&amp;hsa_cr_id=3554120140301&amp;pd_rd_plhdr=t&amp;pd_rd_r=933d1b57-3581-4bbc-ac7c-a24d51f98f00&amp;pd_rd_w=0PDiI&amp;pd_rd_wg=mUwqg&amp;ref_=sbx_be_s_sparkle_mcd_asin_2_title&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/PURPLE-CANYON-White-Sage-Bundles/dp/B08589GXMM/ref=sr_1_3?dchild=1&amp;keywords=5+Pcs+White+Sage+Bundles+4%22+%2B+15+Palo+Santo+Sticks+-+Smudge+Kit+Refills&amp;qid=1621262075&amp;s=home-garden&amp;sr=1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Cuisinart-CCJ-500-Control-Brushed-Stainless/dp/B004VS32HA/ref=sr_1_3?dchild=1&amp;keywords=FAGINEY+Manual+Press+juicer%2CNew+Stainless+Steel+Lemon+Squeezer+Citrus+Fruit+Orange+juice+Extractor%2C+Silver+plating&amp;qid=1621246770&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/JAMIE-OLIVER-Stainless-Steel-Masher/dp/B0045EPNBI/ref=sr_1_2?dchild=1&amp;keywords=Jamie+Oliver+Stainless+Steel+Masher&amp;qid=1621247617&amp;sr=8-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/U-S-Kitchen-Supply-Horizontal-Vegetables/dp/B01MD1D8TD/ref=sr_1_1?dchild=1&amp;keywords=U.S.+Kitchen+Supply+Stainless+Steel+Potato+Masher+with+our+Wide+and+Ergonomic+Horizontal+Handle&amp;qid=1621253284&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Farberware-5211438-Professional-Resistant-Masher-Safe/dp/B07D15V7T3/ref=sr_1_1_sspa?dchild=1&amp;keywords=Tovolo+Silicone+Potato+Masher+-+Charcoal&amp;qid=1621245524&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEySFJJOFBYNEY2WlZUJmVuY3J5cHRlZElkPUEwNDI2MTYyMUZaMEFBVEc0UE1DVyZlbmNyeXB0ZWRBZElkPUEwNDk5NDQ0M1NMTTMwN0VCTjdRJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ==</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Howard-ORS016-Orange-Wood-Polish/dp/B000GLHW22/ref=sr_1_1?dchild=1&amp;keywords=Howard+Products+ORS016+Orange+Oil+Wood+Polish%2C+16+oz&amp;qid=1621255018&amp;s=home-garden&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Rust-Oleum-245221-Universal-Surface-Metallic/dp/B0016HLAH8/ref=sr_1_1?dchild=1&amp;keywords=Rust-Oleum+245221+Universal+All+Surface+Spray+Paint%2C+11+oz%2C+Metallic+Pure+Gold&amp;qid=1621261463&amp;s=home-garden&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Alternative-Imagination-Meditating-Sustainable-Harvested/dp/B019G1YO5A/ref=sr_1_3?dchild=1&amp;keywords=Allway+1-1%2F16+in.+W+x+10.25+in.+L+Stainless+Steel+Wire+Brush&amp;qid=1621253843&amp;s=home-garden&amp;sr=1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/HEM-Celestial-Incense-Variety-Planet/dp/B00LH1Q6V8/ref=sr_1_1?dchild=1&amp;keywords=hem+celestial+incense+variety+sun+moon+star+planet+galaxy%2C+100+stick&amp;qid=1621263191&amp;s=home-garden&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Satya-Sandalwood-Patchouli-Lavender-Positive/dp/B01EB1QOGW/ref=sr_1_2?dchild=1&amp;keywords=Satya+Sai+Baba+Set+of+6+Nag+Champa+Incense+Scents+by+Original+Variety+Pack+of+6+Aromatic+Scents+to+Freshen+Air%2C+Purify%2C+Cleanse+%28Relaxation+Mix%29&amp;qid=1621263321&amp;s=home-garden&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Popular-Incense-Scents-Sticks-Burner/dp/B01N8YTLRK/ref=sr_1_7?dchild=1&amp;keywords=Fragrance+Fengshui+Fire%2C+Metal%2C+Wood%2C+Earth%2C+Chakra+and+Meditation+Best+Sellers+Variety+Pack+of+6+Box+120+Incense+Sticks&amp;qid=1621262963&amp;s=home-garden&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Salt-Pepper-Shakers-Glass-Clear/dp/B06XH11C7K/ref=sr_1_7?dchild=1&amp;keywords=Grant+Howard+39130+Modern+Square+4+Ounce+Glass+Salt+and+Pepper+Shaker+Set%2C+Clear&amp;qid=1621275735&amp;s=home-garden&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Glass-Salt-Pepper-Shaker-Greenbrier/dp/B00LZE2314/ref=sr_1_1?dchild=1&amp;keywords=1x+glass+salt+%26+pepper+shaker+set+by+greenbrier&amp;qid=1621276094&amp;s=home-garden&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Salt-Pepper-Shakers-JoyJolt-Dishwasher/dp/B07TWNXRTX/ref=sr_1_1_sspa?dchild=1&amp;keywords=JoyJolt+Revere+Glass+Salt+And+Pepper+Shaker&amp;qid=1621276356&amp;s=home-garden&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExU1dJUjBVRlBWMDg0JmVuY3J5cHRlZElkPUEwMzk0MjI3M0ZWMVMxU1A1R01aNiZlbmNyeXB0ZWRBZElkPUEwNjgyNjM0MkxPMTlWTFA3NzhBMSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU=</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Folgers-Classic-Medium-Coffee-Keurig/dp/B07YF5C8RT/ref=sr_1_2?dchild=1&amp;keywords=Revival+Roaster%2C+96+Count+Variety+Pack+for+Keurig+K-cups+with+10+Different+Blends&amp;qid=1621276898&amp;s=home-garden&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Lavazza-Coffee-Medium-Espresso-2-2-Pound/dp/B000SDKDM4/ref=sr_1_5?dchild=1&amp;keywords=Lavazza+Classico+Single-Serve+Coffee+K-Cups+for+Keurig+Brewer%2C+Medium+Roast%2C+16-Count+Box&amp;qid=1621277367&amp;s=home-garden&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sunflower-Kitchen-Decor-Piece-Linen/dp/B01N8TK2N5/ref=sr_1_2?dchild=1&amp;keywords=Grant+Howard+28+Ounce+Small+Hand+Painted+Sunflower+Round+Kitchen+Storage+Jar&amp;qid=1621275709&amp;s=home-garden&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sunflower-Kitchen-Decor-Piece-Linen/dp/B01N8TMPPV/ref=sr_1_2?dchild=1&amp;keywords=Grant%2BHoward%2B28%2BOunce%2BSmall%2BHand%2BPainted%2BSunflower%2BRound%2BKitchen%2BStorage%2BJar&amp;qid=1621275709&amp;s=home-garden&amp;sr=1-2&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sunflower-Kitchen-Decor-Piece-Linen/dp/B01MXIJBZG/ref=sr_1_2?dchild=1&amp;keywords=Grant%2BHoward%2B28%2BOunce%2BSmall%2BHand%2BPainted%2BSunflower%2BRound%2BKitchen%2BStorage%2BJar&amp;qid=1621275709&amp;s=home-garden&amp;sr=1-2&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Peets-Coffee-Dickasons-Complex-Layered/dp/B01N2KFHRS/ref=sr_1_5?dchild=1&amp;keywords=Market+%26+Main+Coffee%2C+Donut+Shop%2C+Medium+Roast%2C+K+Cups%2C+80+Count&amp;qid=1621278921&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Starbucks-Medium-Single-Coffee-Brewers/dp/B009GDBNF8/ref=sr_1_1?dchild=1&amp;keywords=Starbucks+Pike+Place+K-Cups+%2872+ct.%29&amp;qid=1621279293&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Peets-Coffee-Brilliant-Ethiopian-Natural/dp/B01LWJLJ63/ref=sr_1_1_sspa?dchild=1&amp;keywords=Starbucks+Pike+Place+K-Cups+%2872+ct.%29&amp;qid=1621279421&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJWUI3TUFUWTQ1UFomZW5jcnlwdGVkSWQ9QTAyOTQzNjMxNUhGMkoxNUlMMDYmZW5jcnlwdGVkQWRJZD1BMDc1MTU2ODFUWDY2Q0gzNVY5WTEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Folgers-Simply-Smooth-Ground-Coffee/dp/B010ULG4C6/ref=sr_1_2?dchild=1&amp;keywords=Folgers+Simply+Smooth+Coffee%2C+Mild+Roast+Ground+Coffee%2C+31.1+Ounces%2C+Packaging+May+Vary&amp;qid=1621280115&amp;s=grocery&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Folgers-Classic-Ground-Coffee-Medium/dp/B07CMCLT3X/ref=sr_1_3?dchild=1&amp;keywords=Folgers+Simply+Smooth+Coffee%2C+Medium+Roast+Ground+Coffee%2C+11.5+Ounces%2C+6+Count&amp;qid=1621280243&amp;s=grocery&amp;sr=1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gourmet-Collection-Mediterranean-Himalayan-Spice/dp/B00WBX0KQ8/ref=sr_1_1?dchild=1&amp;keywords=The+Gourmet+Collection+Mediterranean+Pink+Himalayan+Salt+7+Oz&amp;qid=1621280549&amp;s=grocery&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Amazon-Brand-Granulated-Garlic-Ounces/dp/B07QW1GKR1/ref=sr_1_1?dchild=1&amp;keywords=Moringa+Turmeric+5+Spice+Seasoning+Immunity+Booster+-+All+Organic+Turmeric+Spice%2C+Moringa+Leaf+Powder%2C+Pink+Himalayan+Sea+Salt%2C+Black+Pepper+%26+Garlic+Powder+in+a+4+oz+Glass+Salt+Shaker&amp;qid=1621281089&amp;s=grocery&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/True-Lemon-Bulk-Dispenser-Count/dp/B003YP3MUS/ref=sr_1_8?dchild=1&amp;keywords=Shaker+for+Salt%2FPepper+Clear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/SaltWorks-Mediterra-Mediterranean-Coarse-Grain/dp/B07JJLKR7F/ref=sr_1_5?dchild=1&amp;keywords=Shaker%2Bfor%2BSalt%2FPepper%2BClear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/SaltWorks-Mediterra-Mediterranean-Coarse-Grain/dp/B07JJFM6Y3/ref=sr_1_5?dchild=1&amp;keywords=Shaker%2Bfor%2BSalt%2FPepper%2BClear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/SaltWorks-Mediterra-Mediterranean-Coarse-Grain/dp/B07JJNR8HJ/ref=sr_1_5?dchild=1&amp;keywords=Shaker%2Bfor%2BSalt%2FPepper%2BClear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-5&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/FIJI-Natural-Artesian-Water-Bottles/dp/B004CQWWKY/ref=sr_1_6?dchild=1&amp;keywords=TRUE+LIME+Water+Enhancer%2C+Bulk+Pack+%28500+Packets%29%7CZero+Calorie+Unsweetened+Water+Flavoring%7CFor+Water%2C+Bottled+Water+%26+Recipes%7CWater+Flavor+Packets+Made+with+Real+Limes&amp;qid=1621281973&amp;s=grocery&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Propel-Strawberry-Beverage-Electrolytes-Vitamins/dp/B016S52Q7U/ref=sr_1_7?dchild=1&amp;keywords=TRUE+LIME+Water+Enhancer%2C+Bulk+Pack+%28500+Packets%29%7CZero+Calorie+Unsweetened+Water+Flavoring%7CFor+Water%2C+Bottled+Water+%26+Recipes%7CWater+Flavor+Packets+Made+with+Real+Limes&amp;qid=1621281973&amp;s=grocery&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Propel-Calorie-Beverage-Electrolytes-Vitamins/dp/B016S52Q4I/ref=sr_1_1?dchild=1&amp;keywords=Propel%2C+Peach%2C+Zero+Calorie+Water+Beverage+with+Electrolytes+%26+Vitamins+C%26E%2C+24+Fl+Oz%2C+pack+of+12&amp;qid=1621323129&amp;s=grocery&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Propel-Nutrient-Enhanced-Beverage-strawberry/dp/B01HYGPR64/ref=sr_1_2?dchild=1&amp;keywords=Propel+Zero+Calorie+Nutrient+Enhanced+Water+Beverage+Mix+%2836+packets%29+%28berry%2C+grape+%26+kiwi+strawberry%29&amp;qid=1621323246&amp;s=grocery&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sparkling-Strawberry-Antioxidants-Vitamins-Bottles/dp/B003P02I70/ref=sr_1_4?dchild=1&amp;keywords=Hint+Fruit+Water+Strawberry+And+Kiwi%2C+16+Fl+Oz&amp;qid=1621323428&amp;s=grocery&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gatorade-Thirst-Quencher-Flavor-Variety/dp/B07MQNF2LL/ref=sr_1_2?dchild=1&amp;keywords=Propel%2C+Watermelon%2C+Zero+Calorie+Water+Beverage+with+Electrolytes+%26+Vitamins+C%26E%2C+24+Fl+Oz+%28Pack+of+12%29&amp;qid=1621323222&amp;s=grocery&amp;sr=1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B008NYVYPK/ref=sr_1_4?dchild=1&amp;keywords=Level+Water+%28Ultra-Purified+Water%2B%29+16.9+oz%2C+Ionic+Minerals+Added+For+Superior+Taste+and+Hydration%2C+9.0%2B+pH%2C+24%2Fcase&amp;qid=1621330343&amp;s=grocery&amp;sr=1-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B008NYVYPK/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR+Sports+Drink+Sports+Beverage%2C+Tropical+Punch%2C+Natural+Flavor+With+Vitamins%2C+Potassium-Packed+Electrolytes%2C+No+Preservatives%2C+Perfect+For+Athletes%2C+16+Fl+Oz+%28Pack+of+12%29&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B007Y6P4WM/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR%2BSports%2BDrink%2BSports%2BBeverage%2C%2BTropical%2BPunch%2C%2BNatural%2BFlavor%2BWith%2BVitamins%2C%2BPotassium-Packed%2BElectrolytes%2C%2BNo%2BPreservatives%2C%2BPerfect%2BFor%2BAthletes%2C%2B16%2BFl%2BOz%2B(Pack%2Bof%2B12)&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B007Y6P5M6/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR%2BSports%2BDrink%2BSports%2BBeverage%2C%2BTropical%2BPunch%2C%2BNatural%2BFlavor%2BWith%2BVitamins%2C%2BPotassium-Packed%2BElectrolytes%2C%2BNo%2BPreservatives%2C%2BPerfect%2BFor%2BAthletes%2C%2B16%2BFl%2BOz%2B(Pack%2Bof%2B12)&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B07SDPHWBC/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR%2BSports%2BDrink%2BSports%2BBeverage%2C%2BTropical%2BPunch%2C%2BNatural%2BFlavor%2BWith%2BVitamins%2C%2BPotassium-Packed%2BElectrolytes%2C%2BNo%2BPreservatives%2C%2BPerfect%2BFor%2BAthletes%2C%2B16%2BFl%2BOz%2B(Pack%2Bof%2B12)&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Carfidant-Scratch-Swirl-Remover-Scratches/dp/B07HNHC828?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_img_44_0d9f6747</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Carfidant-Black-Car-Scratch-Remover/dp/B07RXV9MWB/ref=sr_1_6?dchild=1&amp;keywords=Carfidant+Scratch+and+Swirl+Remover+-+Ultimate+Car+Scratch+Remover+-+Polish+%26+Paint+Restorer+-+Easily+Repair+Paint+Scratches%2C+Scratches%2C+Water+Spots%21+Car+Buffer+Kit&amp;qid=1621340429&amp;s=automotive&amp;sr=1-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Freshware-CB-306SC-12-Pack-Silicone-Reusable/dp/B00GASLY56/ref=sr_1_1?dchild=1&amp;keywords=Freshware+12-Pack+Mini+Rectangle+Reusable+Silicone+Baking+Cup%2C+Rainbow+Colors%2C+CB-308SC&amp;qid=1621365859&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-Perfect-Results-Non-Stick-Bakeware/dp/B001K26ZPG/ref=sr_1_1?dchild=1&amp;keywords=NOGIS+Mini+Muffin+Pan+-+Silicone+Cupcake+Molds+12+Pack+-+Small+Baking+Cups+Truffle+Cake+Pan+Set+Nonstick&amp;qid=1621366086&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-Non-Stick-Bakeware-Bar-Cookies-12-Cavity/dp/B008KE7JLG/ref=sr_1_7?dchild=1&amp;keywords=NOGIS+Mini+Muffin+Pan+-+Silicone+Cupcake+Molds+12+Pack+-+Small+Baking+Cups+Truffle+Cake+Pan+Set+Nonstick&amp;qid=1621366086&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-Decorating-Tools-5-Piece-Brush/dp/B00IE6Y6J8/ref=sr_1_3?dchild=1&amp;keywords=Wilton+Candy+Melts+Decorating+Tip+Set%2C+5+pc.&amp;qid=1621409525&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Individual-Cupcake-Container-Hamburgers-Sandwich/dp/B07PJHGP93/ref=sr_1_1?dchild=1&amp;keywords=50+Single+Individual+Cupcake+Container%2C+Plastic+Clear+Dome+Cupcake+Carrier%2C+Party+Favors+Cake+Boxes+%26+Muffin+Cases%2C+Cups+for+Hamburgers+Sandwich+Salad+Fruit+%28Pack+of+50%29&amp;qid=1621411088&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/ecoZen-Lifestyle-Unicorn-Wrappers-Decorations/dp/B07NTTMMST/ref=sr_1_5?dchild=1&amp;keywords=DIY-Lish+Cupcake+Decorating+Kit-Mermaid&amp;qid=1621418186&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Silicone-Cooking-Utensils-Kitchen-Utensil/dp/B07HGCJB1F/ref=sr_1_4?dchild=1&amp;keywords=fatchoi+silicone+basting+pastry+%26+bbq+brushes%2Cdurable%2Cheat+resistant+kitchen+utensils+cooking+good+helper&amp;qid=1621418326&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Wilton-Meringue-Powder-8-oz/dp/B000ZNOVCA/ref=sr_1_9?dchild=1&amp;keywords=Wilton+Shimmer+Snowflake+Icing+Decorations%2C+24-count&amp;qid=1621418663&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/AirBake-Natural-Pack-Cookie-Sheet/dp/B000063SKU/ref=sxin_7?asc_contentid=amzn1.osa.a21d4df0-f6f5-41f6-a2d8-ec5e0314c7dc.ATVPDKIKX0DER.en_US&amp;asc_contenttype=article&amp;ascsubtag=amzn1.osa.a21d4df0-f6f5-41f6-a2d8-ec5e0314c7dc.ATVPDKIKX0DER.en_US&amp;creativeASIN=B002HWSATC&amp;cv_ct_cx=Good%2BCook%2BSet%2BOf%2B3%2BNon-Stick%2BCookie%2BSheet&amp;cv_ct_id=amzn1.osa.a21d4df0-f6f5-41f6-a2d8-ec5e0314c7dc.ATVPDKIKX0DER.en_US&amp;cv_ct_pg=search&amp;cv_ct_we=asin&amp;cv_ct_wn=osp-single-source-earns-comm&amp;dchild=1&amp;keywords=Good%2BCook%2BSet%2BOf%2B3%2BNon-Stick%2BCookie%2BSheet&amp;linkCode=oas&amp;pd_rd_i=B002HWSATC&amp;pd_rd_r=c38bba36-6d76-4329-bd45-a46ae48343fa&amp;pd_rd_w=YUnKy&amp;pd_rd_wg=GP3rE&amp;pf_rd_p=c5aa77b7-f0ac-4b95-b207-5ef230c60c9b&amp;pf_rd_r=AK6CE7HGQJS321190WGV&amp;qid=1621419684&amp;sr=1-1-64f3a41a-73ca-403a-923c-8152c45485fe&amp;tag=pur0e40b-20&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Scraper-Stainless-Polished-Measuring-Multipurpose/dp/B01D1GE1KE/ref=sr_1_7?dchild=1&amp;keywords=4-Inch+Super+heavy+173g+Stainless+Steel+Pizza+Cutter+Wheel%2C+Sharp+Cutters%2C+Pizza+Wheel%2C+Pizza+Slicer+-+For+Pizza+Lovers+Support+dishwasher+for+easy+cleaning&amp;qid=1621420088&amp;s=home-garden&amp;sr=1-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/AirBake-Natural-Cookie-Sheet-16/dp/B000EOSFHC/ref=sr_1_5?dchild=1&amp;keywords=airbake+natural+cookie+sheet%2C+16x14+in&amp;qid=1621420441&amp;s=home-garden&amp;sr=1-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/COSORI-Electric-Reminder-Touchscreen-Certified/dp/B07T2LCKNF/ref=sr_1_fkmr1_1?dchild=1&amp;keywords=T-fal%2BAirbake%2BNonstick%2BPizza%2BPan%2C%2BSet%2Bof%2B2%2C%2B12.75%22%2Band%2B15.75&amp;qid=1621419924&amp;s=home-garden&amp;sr=1-1-fkmr1&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/COSORI-Electric-Reminder-Touchscreen-Certified/dp/B07T2LGN8P/ref=sr_1_fkmr1_1?dchild=1&amp;keywords=T-fal%2BAirbake%2BNonstick%2BPizza%2BPan%2C%2BSet%2Bof%2B2%2C%2B12.75%22%2Band%2B15.75&amp;qid=1621419924&amp;s=home-garden&amp;sr=1-1-fkmr1&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/LEVOIT-Purifier-Home-Allergies-Pets/dp/B083TMWFSZ/ref=sr_1_fkmr5_2?dchild=1&amp;keywords=BLACK%2BDECKER%2BTabletop%2BAir%2BPurifier%2B-%2B3-Stage%2BFiltration%2BSystem%2B-%2BHEPA%2BAir%2BPurifiers%2Bfor%2BHome&amp;qid=1621421069&amp;s=home-garden&amp;sr=1-2-fkmr5&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/XINDELL-Windshield-Cleaning-Extendable-Microfiber/dp/B07SGQJ6C9/ref=sr_1_1?dchild=1&amp;keywords=3+Pack+Microfiber+Windshield+Clean+Car+Auto+Wiper+Cleaner+Glass+Window+Brush+Kit&amp;qid=1621443944&amp;s=automotive&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Chemical-Guys-MIC498-Black-Microfiber/dp/B01JIHUNKM/ref=sr_1_2?dchild=1&amp;keywords=Car%2BWash%2BMitt%2B4%2BPack%2BExtra%2BLarge%2BSize%2BCleaning%2BTowels%2BTools%2BKits%2BPremium%2BChenille%2BMicrofiber%2BClean%2BTowel%2BMitts%2BWashing%2BGlove%2Bwith%2BLint%2BFree%2B%26%2BScratch%2BFree%2B(Light%2BBlue%2B%2B%2BDark%2BBlue%2B%2B%2BOrange%2B%2B%2BPurple)&amp;qid=1621443678&amp;s=automotive&amp;sr=1-2&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/DII-Welcome-Seashells-Spring-Doormat/dp/B07SPXXW9N/ref=sr_1_1?dchild=1&amp;keywords=DII+Give+Thanks+Pumpkin+Doormat&amp;qid=1621503502&amp;s=lawn-garden&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gorilla-Grip-Original-Patented-Washable/dp/B01F5K9YNS/ref=sr_1_3?dchild=1&amp;keywords=The+Original+GORILLA+GRIP+Non-Slip+Area+Rug+Pad%2C+Made+In+USA+%285%5C%27+x+7%5C%27%29+NEW&amp;qid=1621505105&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gorilla-Grip-Original-Patented-Washable/dp/B071ZQVTRS/ref=sr_1_3?dchild=1&amp;keywords=The%2BOriginal%2BGORILLA%2BGRIP%2BNon-Slip%2BArea%2BRug%2BPad%2C%2BMade%2BIn%2BUSA%2B(5%5C%27%2Bx%2B7%5C%27)%2BNEW&amp;qid=1621505105&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Whitmor-Over-Rack-36-36-Pair-White/dp/B0019FOUQ0/ref=sr_1_5?dchild=1&amp;keywords=18-Pair+over-The-Door+Shoe+Rack&amp;qid=1621752775&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/10-Shelf-Hanging-Organizer-Holder-Closet/dp/B01BCCMBII/ref=sr_1_3?dchild=1&amp;keywords=Zober%2B5-Shelf%2BHanging%2BCloset%2BOrganizer%2B12%2Bx%2B11%2B%C2%BD%2Bx%2B42%2Binches%2C%2B6%2BSide%2BMesh%2BPockets%2Band%2B2%2BSturdy%2BHooks%2C%2Bfor%2BClothes%2BStorage%2C%2Band%2BShoes%2C%2BEtc.%2B-%2BGrey&amp;qid=1621753067&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Flexzion-Organizer-Footwear-Stationery-Accessories/dp/B07S69R3FT/ref=sr_1_1?dchild=1&amp;keywords=Hanging+Shoe+Organizer%2C+Over+the+Door+Closet+Shoes+Storage+Hanger%2C+Footwear+Holder%2C+24+Clear+Plastic+Pockets+w%2F+3+Steel+Hooks+for+Cloth+Cleaning+Supplies+House+Stationery+Accessories%2C+White&amp;qid=1621754127&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/24-Pockets-SimpleHouseware-Crystal-Organizer/dp/B01D58DRVC/ref=sr_1_5?dchild=1&amp;keywords=Household+Essentials+311390+Hanging+Shoe+Storage+Organizer+for+Closets+-20+pocket+-+Natural+Canvas&amp;qid=1621754326&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/MISSLO-Organizer-Large-Pockets-White/dp/B01N2JICUM/ref=sr_1_3?dchild=1&amp;keywords=12+Large+Mesh+Pockets+non-woven+Fabrics+Hanging+Shoe+Organiser+Rack+Behind+Doors+Shoes+Rack+Storage+Wall+Bag&amp;qid=1621754574&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/MISSLO-Organizer-Large-Pockets-White/dp/B01D9VYQTC/ref=sr_1_3?dchild=1&amp;keywords=12%2BLarge%2BMesh%2BPockets%2Bnon-woven%2BFabrics%2BHanging%2BShoe%2BOrganiser%2BRack%2BBehind%2BDoors%2BShoes%2BRack%2BStorage%2BWall%2BBag&amp;qid=1621754574&amp;sr=8-3&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Amooca-Headrest-Organizer-Uiversal-Universal/dp/B07SGBR7T8/ref=sr_1_3?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/JINSHUNFA-Wall-Transparent-Reusable-Waterproof/dp/B074Y4V445/ref=sr_1_5?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Adhesive-Mounted-Hanging-Bedroom-Entryway/dp/B08JHNZMDG/ref=sr_1_1?dchild=1&amp;keywords=4+Pack+Adhesive+Hooks+Metal+Heavy+Duty+Wall+Mounted+3M+Sticky+Hook+for+Hanging+Coat%2C+Scarf%2C+Bag%2C+Towel%2C+Keys+for+Home%2C+Bedroom%2C+Entryway+NO+Damage+Wall+Hangers+Round+Matte+Black&amp;qid=1621759232&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/SAVORI-Organizer-Headrest-Backseat-Universal/dp/B07S6SGPM7/ref=sr_1_9?dchild=1&amp;keywords=4%2BPACK%2BCar%2BHeadrest%2BHooks%2B-%2BVehicle%2BUniversal%2BCar%2BOrganizer%2BCar%2BBack%2BSeat%2BHeadrest%2BHanger%2BHolder%2BHook%2Bfor%2BBag%2BPurse%2BCloth%2BGrocery%2C%2BBlack-%2BColoured&amp;qid=1621758957&amp;sr=8-9&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/SAVORI-Organizer-Headrest-Backseat-Universal/dp/B07RZXPZ45/ref=sr_1_1?dchild=1&amp;keywords=SAVORI+Auto+Hooks+Bling+Car+Hangers+Organizer+Seat+Headrest+Hooks+Strong+and+Durable+Backseat+Hanger+Storage+Universal+for+SUV+Truck+Vehicle+2+Pack+%28Sky+Blue%29&amp;qid=1621759491&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Sunferno-Headrest-Hooks-Pack-Exceptionally/dp/B07CCHR66G/ref=sr_1_17?dchild=1&amp;keywords=4+PACK+Car+Headrest+Hooks+-+Vehicle+Universal+Car+Organizer+Car+Back+Seat+Headrest+Hanger+Holder+Hook+for+Bag+Purse+Cloth+Grocery%2C+Black-+Coloured&amp;qid=1621758957&amp;sr=8-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/High-Road-Contour-Headrest-Hangers/dp/B018Y0ZOYY/ref=sr_1_38?dchild=1&amp;keywords=4+PACK+Car+Headrest+Hooks+-+Vehicle+Universal+Car+Organizer+Car+Back+Seat+Headrest+Hanger+Holder+Hook+for+Bag+Purse+Cloth+Grocery%2C+Black-+Coloured&amp;qid=1621758957&amp;sr=8-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Butterfly-Craze-Floor-Pillow-Cover/dp/B074Q36KZ1/ref=sr_1_1?dchild=1&amp;keywords=butterfly+craze+kid%27s+floor+pillow+bed+cover+-+use+as+nap+mat%2C+portable+toddler+bed+alternative+for+sleepovers%2C+travel%2C+napping%2C+or+as+a+lounger+for+reading%2C+playing.+cover+only%21&amp;qid=1621760049&amp;s=home-garden&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/IMILLET-Holder-Mounted-Organizer-Storage/dp/B07TWF7V2Q/ref=sr_1_5?dchild=1&amp;keywords=Mop+and+Broom+Holder%2C+Wall+Mounted+Organizer-Mop+and+Broom+Storage+Tool+Rack+with+4+Ball+Slots+and+5+Hooks&amp;qid=1621761971&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Tenby-Living-2-Pack-Organizer-Hanger/dp/B01HFJYEQE/ref=sr_1_4?dchild=1&amp;keywords=Longstem+Organizer+Tie+Belt+Rack+Hanging+Closet+Valet+Accessory+Organizer+in+Black&amp;qid=1621762731&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Magazine-Storage-Pockets-Organizational-School/dp/B0019S20CS/ref=sr_1_1?dchild=1&amp;keywords=over+The+Door+Magazine+Storage+Pockets+Hooks+Books+Organizational+Back+To+School+Office+Home%2C+14%27W+X32H%2C+Color%3A+Black+%26&amp;qid=1621763186&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07RFSQYSG?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/mDesign-Cabinet-Kitchen-Storage-Organizer/dp/B07CS6L9CY/ref=sr_1_1?dchild=1&amp;keywords=mDesign+Farmhouse+Metal+Wire+Wall+%26+Cabinet+Door+Mount+Kitchen+Storage+Organizer+Basket+Rack+-+Mount+to+Walls+and+Cabinet+Doors+in+Kitchen%2C+Pantry%2C+and+Under+Sink+-+Satin&amp;qid=1621763950&amp;sr=8-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07LC45CZM?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07BNSMFB7?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07D5JD1VD?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07CS8ZSP3?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07NQV2XLW?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07MQGJ1JY?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07G3LC3BS?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B07SKCCKVN?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Mkeke-Compatible-iPhone-Protector-Tempered/dp/B07HRN9J19/ref=zg_bs_wireless_1?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Temdan-Clear-Case-Compatible-iPhone/dp/B08JYYPT33/ref=zg_bs_wireless_15?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/QHOHQ-iPhone-12-Pro-Max/dp/B088DXSTNW/ref=zg_bs_wireless_17?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/JETech-Screen-Protector-6-1-Inch-Tempered/dp/B07GZSDHSK/ref=zg_bs_wireless_19?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/JETech-iPhone-6-1-Inch-Shock-Absorption-Bumper/dp/B07H9PN1KF/ref=sr_1_9?dchild=1&amp;keywords=JETech+Case+for+Apple+iPhone+XR+6.1-Inch%2C+Shock-Absorption+Bumper+Cover%2C+HD+Clear&amp;qid=1621261491&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Charger-LUOATIP-Adapter-Charging-Replacement/dp/B07TK6MPNB/ref=zg_bs_wireless_24?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Protector-Compatible-Tempered-Anti-Scratch-Friendly/dp/B01LXZDPDR/ref=zg_bs_wireless_30?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/JETech-Screen-Protector-5-5-Inch-Tempered/dp/B01KNVY2FO/ref=zg_bs_wireless_39?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/pzoz-Compatible-Protector-Accessories-Coverage/dp/B07R4HQRXP/ref=zg_bs_wireless_44?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/dp/B08NWCQ92L/ref=twister_B08MZW4JJ1?_encoding=UTF8&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/JETech-Screen-Protector-4-7-Inch-Tempered/dp/B07QQZDDR4/ref=zg_bs_wireless_56?_encoding=UTF8&amp;psc=1&amp;refRID=MKV33J1RRW63362ZCAJM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Zarbees-Naturals-Gummies-Melatonin-Natural/dp/B076KTYCD3/ref=sr_1_1?dchild=1&amp;keywords=Zarbee%27s+Naturals+Sleep+with+Melatonin+Natural+Mixed+Fruit+Flavor+Supplement%2C+60+count&amp;qid=1621620462&amp;s=hpc&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Gigantic-Earrings-Plated-Silver-Hypoallergenic/dp/B07GZRS2P5/ref=zg_bs_3880961_7?_encoding=UTF8&amp;refRID=9RNGSA6NY0VNXDK2412B&amp;th=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Styles-Invisible-Adjuster-Loose-Rings/dp/B07P95BW9M/ref=sr_1_1?dchild=1&amp;keywords=2+Styles+Invisible+Ring+Size+Adjuster+for+Loose+Rings+%E2%80%93+Ring+Guard%2C+Ring+Sizer%2C+11+Sizes+Fit+for+Man+and+Woman+Ring&amp;qid=1621759429&amp;s=arts-crafts&amp;sr=1-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.amazon.com/Silicone-Earring-Safety-Hypoallergenic-Yalis/dp/B07BBN671P/ref=sr_1_2?dchild=1&amp;keywords=1000+Pcs+Clear+Earring+Backs+Safety+Silicone+Bullet+Earring+Clutch+Earrings+Jewelry+Accessories&amp;qid=1621760334&amp;sr=8-2</t>
   </si>
 </sst>
 </file>
@@ -2323,11 +1681,11 @@
   </sheetPr>
   <dimension ref="A1:A722"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A489" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A501" activeCellId="0" sqref="A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.56"/>
@@ -2360,4312 +1718,3648 @@
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="2" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="2" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="503" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A503" s="2" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="504" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A504" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="505" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A505" s="2" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="506" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A506" s="2" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="508" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A508" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="509" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A509" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="510" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A510" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="511" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A511" s="2" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="512" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A512" s="2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="513" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A513" s="2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="514" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A514" s="2" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="515" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A515" s="2" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="516" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A516" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="517" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A517" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="518" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A518" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="519" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A519" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A520" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="521" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A521" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="522" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A522" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="523" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A523" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="524" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A524" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="525" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A525" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="526" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A526" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="527" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A527" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="528" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A528" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="529" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A529" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="530" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A530" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="531" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A531" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="532" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A532" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="533" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A533" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="534" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A534" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="535" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A535" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="536" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A536" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="537" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A537" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="538" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A538" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="539" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A539" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="540" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A540" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="541" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A541" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="542" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A542" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="543" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A543" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="544" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A544" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="546" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A546" s="2" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="547" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A547" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="548" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A548" s="2" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="549" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A549" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="550" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A550" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="551" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A551" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="552" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A552" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="553" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A553" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="554" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A554" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="555" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A555" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="556" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="557" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A557" s="2" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="558" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A558" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="559" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A559" s="2" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="560" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A560" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="561" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A561" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="562" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A562" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="563" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A563" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="564" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A564" s="2" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="565" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A565" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="2" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A567" s="2" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="568" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="2" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="569" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="570" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="571" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A571" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="572" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A572" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="573" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="574" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A574" s="2" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="575" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="576" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="2" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="577" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A577" s="2" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="578" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="579" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="2" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="580" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="2" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="2" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="584" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="2" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="585" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="2" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="586" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="2" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="587" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="588" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A588" s="2" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="589" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A589" s="2" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="590" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A590" s="2" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="591" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A591" s="2" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="592" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A592" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="593" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A593" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="594" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A594" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="595" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="596" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="597" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="599" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="2" t="s">
-        <v>595</v>
-      </c>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="2"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A503" s="2"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A504" s="2"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="2"/>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="2"/>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="2"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A508" s="2"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A509" s="2"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A510" s="2"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A511" s="2"/>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A512" s="2"/>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A513" s="2"/>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A514" s="2"/>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A515" s="2"/>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A516" s="2"/>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A517" s="2"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A518" s="2"/>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A519" s="2"/>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A520" s="2"/>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A521" s="2"/>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A522" s="2"/>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A523" s="2"/>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A524" s="2"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A525" s="2"/>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A526" s="2"/>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A527" s="2"/>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A528" s="2"/>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A529" s="2"/>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A530" s="2"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A531" s="2"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A532" s="2"/>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A533" s="2"/>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A534" s="2"/>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A535" s="2"/>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A536" s="2"/>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A537" s="2"/>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A538" s="2"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A539" s="2"/>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A540" s="2"/>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A541" s="2"/>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A542" s="2"/>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A543" s="2"/>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A544" s="2"/>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="2"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A546" s="2"/>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A547" s="2"/>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A548" s="2"/>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A549" s="2"/>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A550" s="2"/>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A551" s="2"/>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A552" s="2"/>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A553" s="2"/>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A554" s="2"/>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A555" s="2"/>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A556" s="2"/>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A557" s="2"/>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A558" s="2"/>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A559" s="2"/>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A560" s="2"/>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A561" s="2"/>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A562" s="2"/>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A563" s="2"/>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A564" s="2"/>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A565" s="2"/>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A566" s="2"/>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A567" s="2"/>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A568" s="2"/>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="2"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A570" s="2"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A571" s="2"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A572" s="2"/>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A573" s="2"/>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A574" s="2"/>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A575" s="2"/>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A576" s="2"/>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A577" s="2"/>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="2"/>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="2"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A580" s="2"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="2"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A582" s="2"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A583" s="2"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A584" s="2"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="2"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A586" s="2"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="2"/>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A588" s="2"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A589" s="2"/>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A590" s="2"/>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A591" s="2"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A592" s="2"/>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A593" s="2"/>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A594" s="2"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A595" s="2"/>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="2"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="2"/>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="2"/>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="2"/>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="6" t="s">
-        <v>596</v>
-      </c>
+      <c r="A600" s="6"/>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="602" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="603" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="604" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="2" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="605" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="2" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="606" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A606" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="607" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="2" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A609" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="2" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="612" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="613" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="614" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="2" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="615" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="2" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="616" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="2" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="617" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="2" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="618" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="2" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="619" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="620" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="2" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="621" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="2" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="622" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="623" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="2" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="624" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="625" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="626" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="628" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="629" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="630" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="2" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="631" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="632" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="633" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="2" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="634" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="2" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="635" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="636" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="2" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="637" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="2" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="638" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="2" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="639" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="2" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="640" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="641" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="642" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="2" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="643" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="2" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="2" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="2" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="649" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="2" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="650" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="2" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="652" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="2" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="653" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="2" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="2" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="655" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="2" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="657" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="658" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="659" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="2" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="660" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="661" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="662" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="2" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="663" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="664" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="2" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="665" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="2" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="2" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="2" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="669" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="2" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="670" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="671" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="2" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="672" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="674" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="2" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="675" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="676" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="677" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="678" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="679" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="681" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="682" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="2" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="683" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="684" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="2" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="685" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="686" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="687" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="2" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="688" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="689" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="2" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="690" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="691" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="692" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="693" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="2" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="694" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="695" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="696" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="2" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="697" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="698" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="2" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="699" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="2" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="700" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="701" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="702" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A702" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="703" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A703" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="704" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A704" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="705" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A705" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="706" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="2" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="707" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="708" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="709" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="710" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="2" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="711" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A711" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="712" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A712" s="2" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="713" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A713" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="714" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A714" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="715" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A715" s="2" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="716" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A716" s="2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="717" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A717" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="718" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A718" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="719" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A719" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="720" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A720" s="2" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="721" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A721" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="2" t="s">
-        <v>710</v>
-      </c>
+      <c r="A601" s="6"/>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A602" s="2"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="2"/>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A604" s="2"/>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A605" s="2"/>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A606" s="2"/>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="2"/>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="2"/>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A609" s="2"/>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="2"/>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="2"/>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A612" s="2"/>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A613" s="2"/>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="2"/>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="2"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="2"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="2"/>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="2"/>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="2"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="2"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="2"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="2"/>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="2"/>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="2"/>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="2"/>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A626" s="2"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="2"/>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="2"/>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="2"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="2"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="2"/>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="2"/>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="2"/>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="2"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="2"/>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="2"/>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="2"/>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="2"/>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="2"/>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="2"/>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="2"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="2"/>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="2"/>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="2"/>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="2"/>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="2"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="2"/>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="2"/>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="2"/>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="2"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="2"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="2"/>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="2"/>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="2"/>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="2"/>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="2"/>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="2"/>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="2"/>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="2"/>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="2"/>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="2"/>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="2"/>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="2"/>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="2"/>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="2"/>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="2"/>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="2"/>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="2"/>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="2"/>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="2"/>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="2"/>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="2"/>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="2"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="2"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="2"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="2"/>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="2"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="2"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="2"/>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="2"/>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="2"/>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="2"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="2"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="2"/>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="2"/>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="2"/>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="2"/>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="2"/>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="2"/>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="2"/>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="2"/>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="2"/>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="2"/>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="2"/>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="2"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="2"/>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="2"/>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="2"/>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="2"/>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="2"/>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="2"/>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="2"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="2"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="2"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="2"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="2"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="2"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="2"/>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="2"/>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="2"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="2"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="2"/>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="2"/>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="2"/>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="2"/>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="2"/>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="2"/>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="2"/>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="2"/>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="2"/>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="2"/>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://www.amazon.com/dp/B086DBVYFV"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://www.amazon.com/dp/B07N7LLNQJ"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://www.amazon.com/SwimWays-Baby-Spring-Float-Canopy/dp/B01N52SYAZ/ref=sr_1_1?dchild=1&amp;keywords=B01N52SYAZ&amp;qid=1619294793&amp;sr=8-1"/>
-    <hyperlink ref="A5" r:id="rId4" display="https://www.amazon.com/TeeTurtle-Reversible-Octopus-Mini-Plush/dp/B07H4YQF3Q/ref=zg_bs_toys-and-games_1?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
-    <hyperlink ref="A6" r:id="rId5" display="https://www.amazon.com/NATIONAL-GEOGRAPHIC-Earth-Science-Kit/dp/B082ZLM39R/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
-    <hyperlink ref="A7" r:id="rId6" display="https://www.amazon.com/BunMo-Sensory-Autistic-Children-Fidgets/dp/B088SZ9SPH/ref=zg_bs_toys-and-games_10?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
-    <hyperlink ref="A8" r:id="rId7" display="https://www.amazon.com/YRYM-HT-Alignment-Application-Silhouette/dp/B07KPB38LK/ref=zg_bs_arts-crafts_9?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
-    <hyperlink ref="A9" r:id="rId8" display="https://www.amazon.com/Canson-Watercolor-Textured-Charcoal-7022446/dp/B0049UXGD0/ref=zg_bs_arts-crafts_25?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
-    <hyperlink ref="A10" r:id="rId9" display="https://www.amazon.com/Cricut-FabricGrip-Cutting-12x12-Pack/dp/B079W93LJ4/ref=zg_bs_arts-crafts_33?_encoding=UTF8&amp;refRID=49P5KA9NAP4JNGG6XX6C&amp;th=1"/>
-    <hyperlink ref="A11" r:id="rId10" display="https://www.amazon.com/Crayola-Construction-Classic-Projects-Classrooms/dp/B003W0PBR2/ref=zg_bs_arts-crafts_42?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
-    <hyperlink ref="A12" r:id="rId11" display="https://www.amazon.com/Disney-Pixar-Story-Alien-Remix/dp/B08F31J1ZP/ref=sr_1_3?dchild=1&amp;keywords=Disney%2FPixar+Toy+Story+Lotso+Plush&amp;qid=1619282124&amp;sr=8-3"/>
-    <hyperlink ref="A13" r:id="rId12" display="https://www.amazon.com/Seventh-Generation-Diapers-Sensitive-Protection/dp/B08399LKT9/ref=sr_1_12?dchild=1&amp;keywords=Seventh+Generation+Baby+Diapers%2C+Size+5%2C+132+count%2C+One+Month+Supply%2C+for+Sensitive+Skin&amp;qid=1619336559&amp;s=hpc&amp;sr=1-12"/>
-    <hyperlink ref="A14" r:id="rId13" display="https://www.amazon.com/Seventh-Generation-Diapers-Count-Sensitive/dp/B084H4LCNN/ref=sr_1_10?dchild=1&amp;keywords=Seventh+Generation+Baby+Diapers%2C+Size+5%2C+132+count%2C+One+Month+Supply%2C+for+Sensitive+Skin&amp;qid=1619336559&amp;s=hpc&amp;sr=1-10"/>
-    <hyperlink ref="A15" r:id="rId14" display="https://www.amazon.com/Dove-Body-Wash-Pump-Moisture/dp/B00MEDOY2G/ref=sr_1_6?crid=FATV902REHPB&amp;dchild=1&amp;keywords=body+wash&amp;qid=1619417238"/>
-    <hyperlink ref="A16" r:id="rId15" display="https://www.amazon.com/Frequency-BeautyHuoLian-Portable-Tightening-Wrinkles/dp/B07VSPYY4Q/ref=sr_1_1?dchild=1&amp;keywords=High+Frequency+Facial+Machine%2C+FAZJEUNE+Portable+High+Frequency+Machine+Skin+Therapy+Wand+Handle+Skin+Tightening+Acne+Spot+Wrinkles+Reducing+Puffy+Eyes+Dark+Circles+Dispel+Freckle+4+in+1&amp;qid=1619347939&amp;sr=8-1"/>
-    <hyperlink ref="A17" r:id="rId16" display="https://www.amazon.com/Grout-Sealer-Spray-Bottle-Silicone/dp/B074M77F9N/ref=sr_1_1?dchild=1&amp;keywords=Homax+Tile+Guard+Penetrating+Grout+Sealer+Spray%2C+22+Ounce&amp;qid=1619426065&amp;sr=8-1"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://www.amazon.com/dp/B08B5XH1JN/ref=sspa_dk_detail_4?psc=1&amp;pd_rd_i=B08B5XH1JN&amp;pd_rd_w=R9s43&amp;pf_rd_p=cbc856ed-1371-4f23-b89d-d3fb30edf66d&amp;pd_rd_wg=Y9YOL&amp;pf_rd_r=YBQ04YMVG1XWTSX4F8BW&amp;pd_rd_r=93fe595c-997f-4073-acc1-47a70370cb29&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE1UUg1U09GNzgyMFcmZW5jcnlwdGVkSWQ9QTEwMDQ3NTkxMFJJWUkwMlJXTFJIJmVuY3J5cHRlZEFkSWQ9QTA5NjcwNzAyREJOQlM5RENWMUsmd2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWMmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://www.amazon.com/Oviitech-Protector-Outlets-Charging-Extension/dp/B07Q5DWKRC/ref=sr_1_1?dchild=1&amp;keywords=Oviitech+Surge+Protector+Power+Strip+Tower+5+AC+Outlets+with+3+USB+Charging+Ports%283.1A+Total%29%2C+4+Feet+Cord+Wire+Extension%2CWhite+and+Gray%2C+ETL+Listed&amp;qid=1619429198&amp;s=electronics&amp;sr=1-1"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://www.amazon.com/Vertical-EletecPro-Extension-Protector-Protection/dp/B074PMPM2B/ref=sr_1_3?dchild=1&amp;keywords=Power+Strip+Tower%2CEletecPro+Surge+Protector+Electric+Charging+Station+2500W+10A%2CSmart+Extension+Lead+Socket+2M%2F5.56ft+Overload+Protection+8+outlets+and+4+USB+Ports+Universal+Socket%28White%29&amp;qid=1619429513&amp;s=electronics&amp;sr=1-3"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://www.amazon.com/Insect-Lore-Butterfly-Garden-Caterpillars/dp/B087YKKT98/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=JDBHHMCF6GFJAH70HKFE"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://www.amazon.com/ZNNCO-Silicone-Special-Reliever-Emotional/dp/B08SCHX7PJ/ref=zg_bs_toys-and-games_4?_encoding=UTF8&amp;psc=1&amp;refRID=JDBHHMCF6GFJAH70HKFE"/>
-    <hyperlink ref="A23" r:id="rId22" display="https://www.amazon.com/TOUGS-Pumice-Stone-Feet-Exfoliation/dp/B07XS3SM71/ref=sr_1_1?dchild=1&amp;keywords=TOUGS+Pumice+Stone+for+Feet%2C+Hard+Skin+Callus+Remover+and+Scrubber%2C+Callus+Remover+Foot+Scrubber+Home+Pedicure+Exfoliation%2C+4+Pack&amp;qid=1619468057&amp;s=beauty&amp;sr=1-1"/>
-    <hyperlink ref="A24" r:id="rId23" display="https://www.amazon.com/Lansinoh-Breastmilk-Breastfeeding-Directly-Essentials/dp/B006XISCNA/ref=zg_bs_baby-products_12?_encoding=UTF8&amp;psc=1&amp;refRID=DM81VBVKBE9QM30FEMBP"/>
-    <hyperlink ref="A25" r:id="rId24" display="https://www.amazon.com/Haakaa-Breast-Manual-Silicone-Breastfeeding/dp/B07CWK4S5W/ref=bmx_2?pd_rd_w=ciRNf&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=DQ05AH6D7G5RX27S5YNE&amp;pd_rd_r=70b19ad7-0f3b-4707-ae11-c44c7ff9dbd5&amp;pd_rd_wg=9XbHs&amp;pd_rd_i=B07CWK4S5W&amp;psc=1"/>
-    <hyperlink ref="A26" r:id="rId25" display="https://www.amazon.com/Dr-Browns-Piece-Breastmilk-Storage/dp/B07KGL4NQJ/ref=bmx_5?pd_rd_w=ciRNf&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=DQ05AH6D7G5RX27S5YNE&amp;pd_rd_r=70b19ad7-0f3b-4707-ae11-c44c7ff9dbd5&amp;pd_rd_wg=9XbHs&amp;pd_rd_i=B07KGL4NQJ&amp;psc=1"/>
-    <hyperlink ref="A27" r:id="rId26" display="https://www.amazon.com/Amazon-Brand-Diaper-Refills-Genie/dp/B06Y2731JC/ref=zg_bs_baby-products_22?_encoding=UTF8&amp;psc=1&amp;refRID=1TC15A7WPRAXKE4VH2YR"/>
-    <hyperlink ref="A28" r:id="rId27" display="https://www.amazon.com/Nuby-Floating-Purple-Octopus-Interactive/dp/B083ZZSGLR/ref=sr_1_4?dchild=1&amp;fst=as%3Aoff&amp;m=ATVPDKIKX0DER&amp;pf_rd_i=165793011&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=ea45a373-9b52-4966-a0a7-59ff9594ea26&amp;pf_rd_r=647HFARZPBGXYFHCT3EB&amp;pf_rd_s=merchandised-search-6&amp;pf_rd_t=101&amp;qid=1619514021&amp;refinements=p_6%3AATVPDKIKX0DER%2Cp_36%3A-1000&amp;rnid=386491011&amp;s=toys-and-games&amp;sr=1-4"/>
-    <hyperlink ref="A29" r:id="rId28" display="https://www.amazon.com/Munchkin-Rinse-Shampoo-Rinser-Blue/dp/B01M6416TW/ref=pd_rhf_ee_s_pd_crcd_2?pd_rd_w=O9Q76&amp;pf_rd_p=8019ba47-0a12-4976-b76b-5c932d60db6f&amp;pf_rd_r=DN6XM5Q4BQ3Y5WAKVMTS&amp;pd_rd_r=d92b0098-50f3-4886-8b3b-f05f33dbabbe&amp;pd_rd_wg=c9cBP&amp;pd_rd_i=B01M6416TW&amp;psc=1"/>
-    <hyperlink ref="A30" r:id="rId29" display="https://www.amazon.com/Plackers-Twin-Line-Dental-Floss-Picks/dp/B003N2DXPG/ref=sr_1_7?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Dental+Floss+%26+Picks&amp;qid=1619518560&amp;s=beauty&amp;sr=1-7&amp;ts_id=13213824011"/>
-    <hyperlink ref="A31" r:id="rId30" display="https://www.amazon.com/Bath-Body-Works-BORA-Fragrance/dp/B085FV83GV/ref=sr_1_8?dchild=1&amp;keywords=Bath+and+Body+Works+Lavender+in+Bloom+Fine+Fragrance+Mist+8+Ounce+Fall+2020&amp;qid=1619551276&amp;s=beauty&amp;sr=1-8"/>
-    <hyperlink ref="A32" r:id="rId31" display="https://www.amazon.com/Bath-Body-Works-Fragrance-Mango/dp/B00UI3O2ZS/ref=rtpb_4?pd_rd_w=vWGyl&amp;pf_rd_p=be844577-fee7-4bbc-8dda-083e56cc6f0d&amp;pf_rd_r=7ES4RR5ZA7DXSZQSH87M&amp;pd_rd_r=f7dabcdb-75c2-4019-9ef5-7ca6962475db&amp;pd_rd_wg=KFZhX&amp;pd_rd_i=B00UI3O2ZS&amp;psc=1"/>
-    <hyperlink ref="A33" r:id="rId32" display="https://www.amazon.com/dp/B0013G6M8O/ref=sspa_dk_detail_9?psc=1&amp;pd_rd_i=B0013G6M8O&amp;pd_rd_w=vXBRe&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=76lgD&amp;pf_rd_r=CZTN2P1CNBJXQRNG3SG8&amp;pd_rd_r=7f099d4d-ca1e-42fe-b116-1e420e2edbc9&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFZMFBDNkZMV1VYVlUmZW5jcnlwdGVkSWQ9QTAxNjE4NTczNVpQQklXMllVTjdVJmVuY3J5cHRlZEFkSWQ9QTA3NDYxNDMzVjJJOVdOTVE4WEQ0JndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A34" r:id="rId33" display="https://www.amazon.com/s?k=Gorilla+Grip+Original+Premium+Luxury+Bath+Rug%2C+30x20+Inch%2C+Incredibly+Soft%2C+Thick%2C+Absorbent+Bathroom+Mat+Rugs%2C+Machine+Wash+and+Dry%2C+Plush+Carpet+Mats+for+Bath+Room%2C+Shower%2C+Hot+Tub%2C+Coral&amp;i=garden&amp;ref=nb_sb_noss"/>
-    <hyperlink ref="A35" r:id="rId34" display="https://www.amazon.com/CHULUX-Single-Coffee-Travel-Brewer/dp/B016UO0GDA/ref=sr_1_14_sspa?dchild=1&amp;keywords=Cafflano+World%27s+First+Portable+All-in-one+Coffee+Maker+Tumbler+Hand+Mill+Grinder+Dripper&amp;qid=1619173773&amp;sr=8-14-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFPUkRYRlJKWUdVSVcmZW5jcnlwdGVkSWQ9QTA1MTk3NzJTV1hZTjRWWERISlgmZW5jcnlwdGVkQWRJZD1BMDczMDk5MjNDVkNOVzY1N0JLNjUmd2lkZ2V0TmFtZT1zcF9idGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A36" r:id="rId35" display="https://www.amazon.com/Royal-Gourmet-Portable-4-Burner-Versatile/dp/B01ENV3UDA/ref=sr_1_1?dchild=1&amp;keywords=Royal+Gourmet+GD401+Portable+Propane+Gas+Grill+and+Griddle+Combo+with+Side+Table%7C4-Burner%2C+Folding+Legs%2CVersatile%2C+Outdoor%7CBlack&amp;qid=1619178096&amp;s=lawn-garden&amp;sr=1-1"/>
-    <hyperlink ref="A37" r:id="rId36" display="https://www.amazon.com/Zacurate-Fingertip-Oximeter-Saturation-Batteries/dp/B07PQ8WTC4/ref=sr_1_1?dchild=1&amp;keywords=Zacurate+Pro+Series+500DL+Fingertip+Pulse+Oximeter+Blood+Oxygen+Saturation+Monitor+with+Silicon+Cover%2C+Batteries+and+Lanyard+%28Royal+Black%29&amp;qid=1619241932&amp;s=hpc&amp;sr=1-1"/>
-    <hyperlink ref="A38" r:id="rId37" display="https://www.amazon.com/Quarts-Kitchen-Convection-Oven-Countertop/dp/B01JIBOA7U/ref=sr_1_1?dchild=1&amp;keywords=NutriChef+PKSTIND48+-+Electric+Induction+Cooktop+-+Digital+Kitchen+Countertop+Hot+Plate+Burners+with+Adjustable+Temperature+Control%2C+Ceramic+Glass+%28Dual+Zone%29&amp;qid=1619243721&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A39" r:id="rId38" display="https://www.amazon.com/Hamilton-Beach-Countertop-Toaster-Roll-Top/dp/B06WGNC8Q4/ref=sr_1_4?dchild=1&amp;keywords=Hamilton+Beach+Convection+Toaster+Oven%7CModel%23+31331&amp;qid=1619244383&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A40" r:id="rId39" display="https://www.amazon.com/McCulloch-MC1275-Heavy-Duty-Cleaner-Accessories/dp/B0000DF0RB/ref=sr_1_1_sspa?dchild=1&amp;keywords=McCulloch+MC-1275+Heavy-Duty+Steam+Cleaner&amp;qid=1619245217&amp;s=home-garden&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzVUs3QjlDODFVUTc3JmVuY3J5cHRlZElkPUEwNTgxNzMzMjUzRlJHUUJPSzhNSSZlbmNyeXB0ZWRBZElkPUEwNTkxMzY3MTZDMFZaNlNZMEgzVCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A41" r:id="rId40" display="https://www.amazon.com/BISSELL-CrossWave-Cleaner-Wet-Dry-1785A/dp/B01DTYAZO4/ref=sr_1_2_sspa?dchild=1&amp;keywords=BISSELL+SpinWave+Hard+Floor+Spin+Mop&amp;qid=1619277455&amp;s=home-garden&amp;sr=1-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWDZHVEJSQjFJUThMJmVuY3J5cHRlZElkPUEwNjgzMjc5MUxaSVI1WVZHUENKMSZlbmNyeXB0ZWRBZElkPUEwMjc3ODMxMkRZR1o3MVRJOFFKVCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A42" r:id="rId41" display="https://www.amazon.com/BISSELL-Crosswave-Vacuum-Cleaner-2306A/dp/B079WCPPQD/ref=sr_1_1?dchild=1&amp;keywords=BISSELL+Crosswave+Pet+Pro+All+in+One+Wet+Dry+Vacuum+Cleaner+and+Mop+for+Hard+Floors+and+Area+Rugs%2C+2306A&amp;qid=1619278049&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A43" r:id="rId42" display="https://www.amazon.com/WX030L-Power-Portable-Vacuum-Cleaner/dp/B085T48S7K/ref=sr_1_1?dchild=1&amp;keywords=WORX+WX030L+-+Vacuum+cleaner+-+portable+-+bagless&amp;qid=1619280049&amp;s=appliances&amp;sr=1-1"/>
-    <hyperlink ref="A44" r:id="rId43" display="https://www.amazon.com/Tineco-Cordless-Lightweight-Powerful-Multi-Surface/dp/B082VRFWB8/ref=sr_1_1?dchild=1&amp;keywords=Tineco+FloorOne+S3+Smart+Cordless+Hard+Floor+Cleaner+Wet+Dry+Vacuum&amp;qid=1619286813&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A45" r:id="rId44" display="https://www.amazon.com/Tineco-Cordless-Handheld-Charging-Hardwood/dp/B07R9KDNKL/ref=sr_1_1?dchild=1&amp;keywords=Tineco+A11+Hero+Cordless+Lightweight+Stick%2FHandheld+Vacuum+Cleaner%2C+450W+Motor+for+Ultra+Powerful+Suction+for+Carpet%2C+Hard+Floor+%26+Pet&amp;qid=1619287316&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A46" r:id="rId45" display="https://www.amazon.com/Brentwood-TS-292BL-Touch-2-Slice-Toaster/dp/B07VD9ZK2N/ref=sr_1_2?dchild=1&amp;keywords=Btwd+Cool+Touch+2-Slice+Extra+Wide+Slot+Retro+Toaster+in+Blue&amp;qid=1619290294&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A47" r:id="rId46" display="https://www.amazon.com/Stainless-Countertop-Portable-Electric-CMHP-C180/dp/B07DPDNTJT/ref=sr_1_2?dchild=1&amp;keywords=Elite+EDB-302BF+Cuisine+Electric+Double+Cast+Burner+Hot+Plate+Black&amp;qid=1619291668&amp;sr=8-2"/>
-    <hyperlink ref="A48" r:id="rId47" display="https://www.amazon.com/Cusimax-Electric-Cast-Iron-Portable-Upgraded/dp/B07D71TD67/ref=sr_1_1?dchild=1&amp;keywords=CUSIMAX+Electric+Hot+Plate+for+Cooking+Portable+Single+Burner+1500W+Cast+Iron+hot+plates+Heat-up+in+Seconds+Adjustable+Temperature+Control+Stainless+Steel+Non-Slip+Rubber+Feet+Upgraded+Version+B101&amp;qid=1619292012&amp;sr=8-1"/>
-    <hyperlink ref="A49" r:id="rId48" display="https://www.amazon.com/Elite-Cuisine-EDB-302BF-Temperature-Indicator/dp/B00C8C5I8M/ref=sr_1_1_sspa?dchild=1&amp;keywords=IMUSA+USA+GAU-80306+1500W+Electric+Double+Burner%2C+Black&amp;qid=1619292413&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWEZDTUMyNFlMRVlUJmVuY3J5cHRlZElkPUEwNTMyNzI3MU5FWUJTQVEzVkZNSiZlbmNyeXB0ZWRBZElkPUEwNTA5NDE3MVJMT0tDQ1dFUUhRVyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A50" r:id="rId49" display="https://www.amazon.com/Cuisinart-ICE-30BC-Indulgence-2-Quart-Automatic/dp/B0006ONQOC/ref=sr_1_5?dchild=1&amp;keywords=Cuisinart+Specialty+Appliances+Countertop+Single+Burner&amp;qid=1619292832&amp;sr=8-5"/>
-    <hyperlink ref="A51" r:id="rId50" display="https://www.amazon.com/Cuisinart-WAF-F10-Belgian-Waffle-Stainless/dp/B01IU7JPT6/ref=sr_1_2?dchild=1&amp;keywords=Cuisinart+Double+Belgian+Waffle+Maker+Round%2C+Stainless+Steel%7CWAF-F20&amp;qid=1619294490&amp;sr=8-2"/>
-    <hyperlink ref="A52" r:id="rId51" display="https://www.amazon.com/DECKER-Rotating-Waffle-Black-WMD200B/dp/B00UH1Z2OG/ref=sr_1_1?dchild=1&amp;keywords=BLACK%2BDECKER+Rotating+Waffle+Maker+with+Dual+Cooking+Plates%2C+Black%2C+WMD200B&amp;qid=1619294823&amp;sr=8-1"/>
-    <hyperlink ref="A53" r:id="rId52" display="https://www.amazon.com/DECKER-Belgian-Waffle-Stainless-WMB500/dp/B000BQO7ZM/ref=sr_1_4?dchild=1&amp;keywords=BLACK%2BDECKER+Rotating+Waffle+Maker+with+Dual+Cooking+Plates%2C+Black%2C+WMD200B&amp;qid=1619295007&amp;sr=8-4"/>
-    <hyperlink ref="A54" r:id="rId53" display="https://www.amazon.com/Victoria-GAD-025-Pre-Seasoned-Bacon-Weight/dp/B00HWEY616/ref=sr_1_3?dchild=1&amp;keywords=Victoria+Cast+Iron+Panini%2C+Burger%2C+Bacon%2C+Grill+Press+Seasoned+with+100%25+Kosher+Certified+Non-GMO+Flaxseed+Oil%2C+8.3+x+4.4+Inch%2C+Black&amp;qid=1619295358&amp;sr=8-3"/>
-    <hyperlink ref="A55" r:id="rId54" display="https://www.amazon.com/Cuisinart-ICE-21PK-Frozen-Yogurt-Sorbet/dp/B01CUT54SG/ref=sr_1_4?dchild=1&amp;keywords=Frozen+Yogurt+-+Ice+Cream+%26+Sorbet+Maker&amp;qid=1619295898&amp;sr=8-4"/>
-    <hyperlink ref="A56" r:id="rId55" display="https://www.amazon.com/Cuisinart-ICE-21-Quart-Frozen-Yogurt-Ice/dp/B003KYSLMW/ref=sr_1_4?dchild=1&amp;keywords=Cuisinart+ICE-21R+Frozen+Yogurt%2C+Ice+Cream+%26+Sorbet+Maker%2C+Red+%28Certified+Refurbished%29&amp;qid=1619296106&amp;sr=8-4"/>
-    <hyperlink ref="A57" r:id="rId56" display="https://www.amazon.com/Presto-04830-PowerPop-Microwave-Multi-Popper/dp/B00005IBXK/ref=sr_1_3?dchild=1&amp;keywords=Ecolution+Original+Microwave+Micro-Pop+Popcorn+Popper+Borosilicate+Glass%2C+3-in-1+Silicone+Lid%2C+Dishwasher+Safe%2C+BPA+Free%2C+3+Qt+-+Family+Size%2C+Red&amp;qid=1619357863&amp;sr=8-3"/>
-    <hyperlink ref="A58" r:id="rId57" display="https://www.amazon.com/Cuisinart-TOB-260N1-Convection-Toaster-Stainless/dp/B01M0AWSJX/ref=sr_1_9?dchild=1&amp;keywords=Cuisinart+CCO-50BKN+Deluxe+Electric+Can+Opener%2C+Black+%5BKitchen%5D&amp;qid=1619358995&amp;sr=8-9"/>
-    <hyperlink ref="A59" r:id="rId58" display="https://www.amazon.com/Cuisinart-CTG-00-SMB-Stainless-Steel-Mixing/dp/B004YZEO9K/ref=sr_1_7?dchild=1&amp;keywords=Cuisinart+CTG-00-BCR7+Barrel+Crock+with+Tools%2C+Set+of+7&amp;qid=1619361200&amp;sr=8-7"/>
-    <hyperlink ref="A60" r:id="rId59" display="https://www.amazon.com/SHARDOR-Electric-Removable-Stainless-grinding/dp/B07LG33LV3/ref=sr_1_1?dchild=1&amp;keywords=DR+MILLS+DM-7441+Electric+Dried+Spice+and+Coffee+Grinder%2C+Blade+%26+cup+made+with+SUS304+stianlees+steel&amp;qid=1619369129&amp;s=home-garden&amp;sr=1-1-catcorr"/>
-    <hyperlink ref="A61" r:id="rId60" display="https://www.amazon.com/BLACK-DECKER-Thermal-Coffeemaker-CM2035B/dp/B00LU2I3V0/ref=sr_1_3?dchild=1&amp;keywords=BLACK%2BDECKER+12-Cup*+Replacement+Carafe%2C+Glass%2C+GC3000B-T&amp;qid=1619369470&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A62" r:id="rId61" display="https://www.amazon.com/U-Taste-Piece-Measuring-Spoons-Stainless/dp/B01L26QE14/ref=sr_1_3?dchild=1&amp;keywords=Akurn+10-Piece+Measuring+Cups+and+Spoons+Set%2C+Includes+5+Measuring+Cups+and+5+Measuring+Spoons%2C+Stainless+Steel+Measuring+Cups+and+Spoons+with+Non-Slip+Multi-Color+Silicone+Grips%2C+Dishwasher-Safe&amp;qid=1619424163&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A63" r:id="rId62" display="https://www.amazon.com/Chefs-Path-Airtight-Storage-Container/dp/B08J6LRKL4/ref=sr_1_1?dchild=1&amp;keywords=Chef%27s+Path+Airtight+Food+Storage+Container+Set+-+8+PC+-+Kitchen+%26+Pantry+Organization+-+BPA-Free+-+Plastic+Canisters+with+Durable+Lids+Ideal+for+Cereal%2C+Flour+%26+Sugar+-+Labels%2C+Marker+%26+Spoon+Set&amp;qid=1619434916&amp;sr=8-1"/>
-    <hyperlink ref="A64" r:id="rId63" display="https://www.amazon.com/Bayco-Containers-Airtight-BPA-Free-Approved/dp/B07VT1YYXG/ref=sr_1_7?dchild=1&amp;keywords=Bayco+8+Pack+Glass+Meal+Prep+Containers+3+Compartment%2C+Glass+Food+Storage+Containers+with+Lids%2C+Airtight+Glass+Lunch+Bento+Boxes%2C+BPA-Free+%26+Leak+Proof+%288+lids+%26+8+Containers%29+-+White&amp;qid=1619435636&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A65" r:id="rId64" display="https://www.amazon.com/Compartment-Meal-Prep-Containers-Microwavable/dp/B073N49WSY/ref=sr_1_1?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436509&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A66" r:id="rId65" display="https://www.amazon.com/Compartment-Meal-Prep-Containers-Microwavable/dp/B01J93IP3C/ref=sr_1_3_sspa?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzOTJWVUdXWkVVM0FCJmVuY3J5cHRlZElkPUExMDQyNjI3MlRHSk1SRzhYWk1aSCZlbmNyeXB0ZWRBZElkPUEwNDU1NjM3MU0yWjZENENQTzgyMiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A67" r:id="rId66" display="https://www.amazon.com/Igluu-Meal-Prep-Plastic-Containers/dp/B07VF6LYJN/ref=sr_1_9?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-9"/>
-    <hyperlink ref="A68" r:id="rId67" display="https://www.amazon.com/Containers-Storage-Airtight-Microwave-Dishwasher/dp/B07R8BQD66/ref=sr_1_17?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-17"/>
-    <hyperlink ref="A69" r:id="rId68" display="https://www.amazon.com/Containers-Storage-Microwave-Freezer-Dishwasher/dp/B07HRRV96C/ref=sr_1_27?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-27"/>
-    <hyperlink ref="A70" r:id="rId69" display="https://www.amazon.com/Kitchen-Mama-Electric-Can-Opener/dp/B087NK4RMV/ref=sr_1_1?dchild=1&amp;keywords=Kitchen+Mama+Electric+Can+Opener%3A+Open+Your+Cans+with+A+Simple+Push+of+Button+-+No+Sharp+Edge%2C+Food-Safe+and+Battery+Operated+Handheld+Can+Opener%28Red%29&amp;qid=1619443751&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A71" r:id="rId70" display="https://www.amazon.com/Cuisinart-CCO-50BKN-Deluxe-Electric-Opener/dp/B001C2F5NW/ref=sr_1_3?dchild=1&amp;keywords=Kitchen+Mama+One+Touch+Electric+Can+Opener%3A+Open+Your+Cans+with+A+Simple+Push+of+Button+and+Automatic+Shut-off+-+No+Sharp+Edge%2C+Food-Safe+and+Battery+Powered+Can+Opener+%28Purple%29&amp;qid=1619444132&amp;s=home-garden&amp;sr=1-3-catcorr"/>
-    <hyperlink ref="A72" r:id="rId71" display="https://www.amazon.com/Prepworks-Progressive-Collapsible-Salad-Spinner/dp/B0050EF6RS/ref=sr_1_11?dchild=1&amp;keywords=MUELLER+Large+5L+Salad+Spinner+Vegetable+Washer+with+Bowl%2C+Anti-Wobble+Tech%2C+Lockable+Colander+Basket+and+Smart+Lock+Lid+-+Lettuce+Washer+and+Dryer+-+Easy+Water+Drain+System+and+Compact+Storage&amp;qid=1619445329&amp;s=home-garden&amp;sr=1-11"/>
-    <hyperlink ref="A73" r:id="rId72" display="https://www.amazon.com/Presto-22-inch-Electric-Griddle-Removable/dp/B005FYF3OY/ref=zg_bs_kitchen_58?_encoding=UTF8&amp;psc=1&amp;refRID=9W9PYDF4K6AM7TKNQFHE"/>
-    <hyperlink ref="A74" r:id="rId73" display="https://www.amazon.com/Non-Stick-Even-Heating-Tortillas-Quesadillas-Immersible/dp/B08L6SJG3N/ref=sr_1_1_sspa?dchild=1&amp;keywords=Presto+07061+22-inch+Electric+Griddle+With+Removable+Handles%2CBlack&amp;qid=1619446121&amp;s=home-garden&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFPU0oyMVBJMlVOSkcmZW5jcnlwdGVkSWQ9QTA3Mjc5NzAzSlNNVjMwT1RFNERSJmVuY3J5cHRlZEFkSWQ9QTAzNjExOTYzUzBIS0gxN01TWFNVJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A75" r:id="rId74" display="https://www.amazon.com/Presto-16-inch-Electric-Foldaway-Skillet/dp/B00591GG58/ref=sr_1_5?dchild=1&amp;keywords=Presto+07061+22-inch+Electric+Griddle+With+Removable+Handles%2CBlack&amp;qid=1619446121&amp;s=home-garden&amp;sr=1-5"/>
-    <hyperlink ref="A76" r:id="rId75" display="https://www.amazon.com/Presto-06850-16-inch-Electric-Skillet/dp/B0000BYC7K/ref=sr_1_8?dchild=1&amp;keywords=Presto+06857+16-inch+Electric+Foldaway+Skillet%2C+Black&amp;qid=1619446689&amp;s=home-garden&amp;sr=1-8"/>
-    <hyperlink ref="A77" r:id="rId76" display="https://www.amazon.com/BELLA-14607-Immersible-Non-Stick-Multipurpose/dp/B01LZZGH3R/ref=sr_1_11_sspa?dchild=1&amp;keywords=Presto+06850+16-inch+Electric+Skillet&amp;qid=1619447220&amp;s=home-garden&amp;sr=1-11-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEySzQ1OExHVENQMVhUJmVuY3J5cHRlZElkPUEwODQ1ODcyM1I2UjFBVDVSRDhWQiZlbmNyeXB0ZWRBZElkPUEwMzA2MzMzM05IN1JNN0tYTUJETCZ3aWRnZXROYW1lPXNwX210ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A78" r:id="rId77" display="https://www.amazon.com/NESCO-ES-08-Electric-Skillet-Black/dp/B00NXZQGBQ/ref=pd_di_sccai_1?pd_rd_w=ZBezn&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=ZBHHK7W3WWCKTZ68KB7D&amp;pd_rd_r=1f949785-a7bc-4a47-9d8b-a9c250f42187&amp;pd_rd_wg=hV7tu&amp;pd_rd_i=B00NXZQGBQ&amp;psc=1"/>
-    <hyperlink ref="A79" r:id="rId78" display="https://www.amazon.com/Ultrean-Airfryer-Programmable-Detachable-Anti-scratch/dp/B07FF117K7/ref=sr_1_7?dchild=1&amp;keywords=Philips+HD9220%2F29+Airfryer%2C+1.8lb%2F2.75qt%2C+Black&amp;qid=1619457740&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A80" r:id="rId79" display="https://www.amazon.com/Cuisinart-CBM-18N-Programmable-Conical-Burr/dp/B001NGO28Q/ref=sr_1_3?dchild=1&amp;keywords=Cuisinart+DBM-8+Stainless+Steel+Supreme+Grind+Automatic+Burr+Mill&amp;qid=1619510687&amp;sr=8-3"/>
-    <hyperlink ref="A81" r:id="rId80" display="https://www.amazon.com/Stainless-Adjustable-Settings-Electric-Percolator/dp/B07Z8P348W/ref=sr_1_13?dchild=1&amp;keywords=Baratza+Sette+270+Conical+Burr+Grinder&amp;qid=1619512091&amp;sr=8-13"/>
-    <hyperlink ref="A82" r:id="rId81" display="https://www.amazon.com/Sensarte-Nonstick-Pro-Grid-Reversible-Aluminum/dp/B086PMZ68G/ref=sr_1_2_sspa?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619514695&amp;s=home-garden&amp;sr=1-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTzVZVFFLWjRGMFpPJmVuY3J5cHRlZElkPUEwNDgwNjEzMUdEUVY4OFlMMEMwNSZlbmNyeXB0ZWRBZElkPUEwODM1NTE3M1FSU0YxR1BWMFlDUSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A83" r:id="rId82" display="https://www.amazon.com/Lodge-Reversible-Griddle-Combo-Double-Sided/dp/B002CMLTXG/ref=sr_1_4?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619514695&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A84" r:id="rId83" display="https://www.amazon.com/Lodge-Pro-Grid-Griddle-Reversible-Easy-Grip/dp/B00008GKDQ/ref=sr_1_5?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619514695&amp;s=home-garden&amp;sr=1-5"/>
-    <hyperlink ref="A85" r:id="rId84" display="https://www.amazon.com/Cast-Iron-Square-Grill-Glass/dp/B07VPLR9RS/ref=sr_1_4?dchild=1&amp;keywords=Cast+Iron+Square+Grill+Pan+with+Glass+Lid+-+10.5+Inch+Pre-Seasoned+Skillet+with+Handle+Cover+and+Pan+Scraper+-+Grill%2C+Stovetop%2C+Induction+Safe+-+Indoor+and+Outdoor+Use+-+for+Grilling%2C+Frying%2C+Sauteing&amp;qid=1619516155&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A86" r:id="rId85" display="https://www.amazon.com/BELLA-14606-Titanium-Non-Stick-Electric-griddles/dp/B01LZZNGD7/ref=sr_1_59?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619516269&amp;s=home-garden&amp;sr=1-59"/>
-    <hyperlink ref="A87" r:id="rId86" display="https://www.amazon.com/Professional-Griddle-Spatula-Set-Accessories/dp/B07H4QVVMF/ref=sr_1_296?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619523021&amp;s=home-garden&amp;sr=1-296"/>
-    <hyperlink ref="A88" r:id="rId87" display="https://www.amazon.com/New-Star-Foodservice-38309-8-5-Inch/dp/B00NHMQ1B0/ref=sr_1_297?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619523021&amp;s=home-garden&amp;sr=1-297"/>
-    <hyperlink ref="A89" r:id="rId88" display="https://www.amazon.com/New-Star-Foodservice-43068-6-5-Inch/dp/B019R31DJC/ref=sr_1_3?dchild=1&amp;keywords=New+Star+Foodservice+38309+Wood+Handle+Slant+Edge+Grill+Scraper%2C+4-Inch+x+8.5-Inch&amp;qid=1619523560&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A90" r:id="rId89" display="https://www.amazon.com/New-Star-Foodservice-36152-Hamburger/dp/B00NHMQ0PW/ref=sr_1_2?dchild=1&amp;keywords=New+Star+Foodservice+36299+Wood+Handle+Heavy+Duty+Hamburger+Turner%2FSpatula+with+Cutting+Edge%2C+11.5-Inch&amp;qid=1619523664&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A91" r:id="rId90" display="https://www.amazon.com/New-Star-Foodservice-38200-21-Inch/dp/B00BGDRUIU/ref=sr_1_1?dchild=1&amp;keywords=New+Star+Foodservice+38200+Wood+Handle+Flexible+Grill+Turner%2FSpatula%2C+21-Inch&amp;qid=1619523797&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A92" r:id="rId91" display="https://www.amazon.com/Seville-Classics-Foldable-Handwoven-Hyacinth/dp/B00C78TRG6/ref=sr_1_6?dchild=1&amp;keywords=Storage+Baskets+%26+Bins&amp;qid=1619530747&amp;s=home-garden&amp;sr=1-6"/>
-    <hyperlink ref="A93" r:id="rId92" display="https://www.amazon.com/Storage-Collapsible-Organizer-Nursery-Geometric/dp/B075JDWPCJ/ref=sr_1_10?dchild=1&amp;keywords=Storage+Baskets+%26+Bins&amp;qid=1619530747&amp;s=home-garden&amp;sr=1-10"/>
-    <hyperlink ref="A94" r:id="rId93" display="https://www.amazon.com/INDRESSME-XXXLarge-Laundry-Comforter-Cushions/dp/B085HFHW42/ref=sr_1_30?dchild=1&amp;keywords=Storage%2BBaskets%2B%26%2BBins&amp;qid=1619531935&amp;s=home-garden&amp;sr=1-30&amp;th=1"/>
-    <hyperlink ref="A95" r:id="rId94" display="https://www.amazon.com/Set-Refrigerator-Pantry-Organizer-Countertops/dp/B07TVTSHHJ/ref=sr_1_10?dchild=1&amp;keywords=Set+Of+4+Clear+Pantry+Organizer+Bins+Stackable+Household+Plastic+Food+Storage+Basket+with+Wide+Open+Front+for+Kitchen%2C+Countertops%2C+Cabinets%2C+Refrigerator%2C+Freezer%2C+Bedrooms%2C+Bathrooms+-+12%22+Wide&amp;qid=1619533521&amp;s=home-garden&amp;sr=1-10"/>
-    <hyperlink ref="A96" r:id="rId95" display="https://www.amazon.com/mDesign-Household-Organizer-Cabinets-Bathroom/dp/B078YXHF1R/ref=sr_1_1?dchild=1&amp;keywords=mDesign+Household+Metal+Wire+Storage+Organizer+Bins+Basket+with+Handles+for+Kitchen+Cabinets%2C+Pantry%2C+Bathroom%2C+Landry+Room%2C+Closets%2C+Garage+-+4+Pack%2C+12%22+x+6%22+x+8%22%2C+Chrome&amp;qid=1619599997&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A97" r:id="rId96" display="https://www.amazon.com/Smart-Design-Adjustable-Organizer-Shelves/dp/B00683MM9K/ref=sr_1_1?dchild=1&amp;keywords=Smart+Design+Over+The+Door+Adjustable+Pantry+Organizer+Rack+w%2F+6+Adjustable+Shelves+-+Large+58+Inch+-+Steel+Construction+w%2F+Hooks+%26+Screws+-+for+Cans%2C+Food%2C+Misc.+Item+-+Kitchen+%5BWhite%5D&amp;qid=1619600689&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A98" r:id="rId97" display="https://www.amazon.com/Simple-Trending-Stackable-Expandable-Adjustable/dp/B07RVG3S1D/ref=sr_1_7?dchild=1&amp;keywords=SEGMART+Shoe+Rack+Bench%2C+3-Tier+35%22+x+11%22+x+18%22+Bamboo+Shoe+Organizer%2C+Sturdy+Storage+Shelf+Holds+Up+to+551+Lbs%2C+Ideal+for+Entryway+Bathroom+Living+Corridor+Wardrobe+Cabinet+Garage+Foyer%2C+Q8637&amp;qid=1619602769&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A99" r:id="rId98" display="https://www.amazon.com/HOMFA-Bamboo-Organizer-Entryway-Storage/dp/B0723BNHVQ/ref=sr_1_33?dchild=1&amp;keywords=SEGMART+Shoe+Rack+Bench%2C+3-Tier+35%22+x+11%22+x+18%22+Bamboo+Shoe+Organizer%2C+Sturdy+Storage+Shelf+Holds+Up+to+551+Lbs%2C+Ideal+for+Entryway+Bathroom+Living+Corridor+Wardrobe+Cabinet+Garage+Foyer%2C+Q8637&amp;qid=1619603448&amp;s=home-garden&amp;sr=1-33"/>
-    <hyperlink ref="A100" r:id="rId99" display="https://www.amazon.com/Countertop-Tabletop-Perfect-Kitchen-Storage/dp/B07WJDXZKT/ref=sr_1_11?dchild=1&amp;keywords=Bar+%26+Wine+Accessories&amp;qid=1619604250&amp;s=home-garden&amp;sr=1-11"/>
-    <hyperlink ref="A101" r:id="rId100" display="https://www.amazon.com/Expert-Cocktail-Shaker-Home-Bar/dp/B01MXRSMZP/ref=sr_1_30?dchild=1&amp;keywords=Bar+%26+Wine+Accessories&amp;qid=1619604648&amp;s=home-garden&amp;sr=1-30"/>
-    <hyperlink ref="A102" r:id="rId101" display="https://www.amazon.com/MyGift-Modern-Copper-Stemless-Glasses/dp/B07F3FMJZ5/ref=sr_1_32?dchild=1&amp;keywords=Bar+%26+Wine+Accessories&amp;qid=1619604648&amp;s=home-garden&amp;sr=1-32"/>
-    <hyperlink ref="A103" r:id="rId102" display="https://www.amazon.com/MyGift-Copper-Toned-Stemmed-Wine-Glasses/dp/B07S7Y5M4F/ref=sr_1_1?dchild=1&amp;keywords=14+oz+Copper-Toned+Stemmed+Wine+Glasses%2C+Set+of+4&amp;qid=1619635223&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A104" r:id="rId103" display="https://www.amazon.com/MyGift-Modern-Tilted-Stemless-Glasses/dp/B07V9J6X2Y/ref=sr_1_1?dchild=1&amp;keywords=MyGift%2BModern%2BTilted%2BSilver%2BStemless%2BWine%2BGlasses%2C%2BSet%2Bof%2B4&amp;qid=1619605834&amp;s=home-garden&amp;sr=1-1&amp;th=1"/>
-    <hyperlink ref="A105" r:id="rId104" display="https://www.amazon.com/OUII-Flat-Griddle-Accessories-Blackstone/dp/B08C4XG1HQ/ref=sr_1_1?dchild=1&amp;keywords=OUII+Flat+Top+Griddle+Accessories+Set+for+Blackstone+and+Camp+Chef+Griddle+-+9+Pieces+Set+with+Griddle+Cleaning+Kit+and+Carry+Bag%21+Metal+Spatula%2C+Scraper+for+Hibachi+Grill+and+Teppanyaki+Grill&amp;qid=1619606830&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A106" r:id="rId105" display="https://www.amazon.com/T-fal-Anodized-Cookware-Thermo-Spot-Indicator/dp/B00TQJWF1I/ref=sr_1_2_sspa?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619611892&amp;s=home-garden&amp;sr=1-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQ1hHNzE5VDE3MDlVJmVuY3J5cHRlZElkPUEwNzk5NDU3MUlRMDNJUlhaQVAxMyZlbmNyeXB0ZWRBZElkPUEwNTg5NTAxMzFYVTcwTkRJWUdUVCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A107" r:id="rId106" display="https://www.amazon.com/Rachael-Ray-Porcelain-Nonstick-Cookware/dp/B00JYHNNYK/ref=sr_1_4?dchild=1&amp;keywords=Pots%2B%26%2BPans&amp;qid=1619611892&amp;s=home-garden&amp;sr=1-4&amp;th=1"/>
-    <hyperlink ref="A108" r:id="rId107" display="https://www.amazon.com/YouCopia-50157-Store-Adjustable-Large/dp/B07T2JZ1WP/ref=sr_1_53?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619617771&amp;s=home-garden&amp;sr=1-53"/>
-    <hyperlink ref="A109" r:id="rId108" display="https://www.amazon.com/Expandable-Organizers-AHNR-Adjustable-Compartments/dp/B07X3TLXN7/ref=sr_1_49?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619617771&amp;s=home-garden&amp;sr=1-49"/>
-    <hyperlink ref="A110" r:id="rId109" display="https://www.amazon.com/Updated-Organizer-Cabinet-Adjustable-ORDORA/dp/B08DY9HRWD/ref=sr_1_51?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619617771&amp;s=home-garden&amp;sr=1-51"/>
-    <hyperlink ref="A111" r:id="rId110" display="https://www.amazon.com/Love-KANKEI-Organizer-Cookware-Utensils-Organization/dp/B07L2XP76X/ref=sr_1_104?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619620449&amp;s=home-garden&amp;sr=1-104"/>
-    <hyperlink ref="A112" r:id="rId111" display="https://www.amazon.com/Cuisinart-CPS-445-Pizza-Grilling-Set/dp/B00F3BH9Y6/ref=sr_1_3?dchild=1&amp;keywords=Chef+Pomodoro+Aluminum+Metal+Pizza+Peel+with+Foldable+Wood+Handle+for+Easy+Storage+12-Inch+x+14-Inch%2C+Gourmet+Luxury+Pizza+Paddle+for+Baking+Homemade+Pizza+Bread&amp;qid=1619621283&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A113" r:id="rId112" display="https://www.amazon.com/Pizza-Cutter-Kitchenstar-Stainless-Slicer/dp/B01MXXD7QS/ref=sr_1_1?dchild=1&amp;keywords=14%E2%80%9D+Pizza+Cutter+by+Kitchenstar%7CSharp+Stainless+Steel+Slicer+Knife+-+Rocker+Style+w+Blade+Cover%7CChop+and+Slices+Perfect+Portions+%2B+Dishwasher+Safe+%E2%80%93+Premium+Pizza+Oven+Accessories&amp;qid=1619622372&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A114" r:id="rId113" display="https://www.amazon.com/Terra-Flame-Stone-Fire-Table/dp/B08DTD2NTJ/ref=sr_1_1?dchild=1&amp;keywords=Terra+Flame+Tabletop+Fire+Bowls+%E2%80%93+Graphite+Table+Top+Fire+Bowl+for+Indoor+and+Outdoor%2C+Portable+Fireplace+and+Table+Top+Fire+Pit+for+Patio%2C+Stone+Design+Centrepiece&amp;qid=1619690296&amp;sr=8-1"/>
-    <hyperlink ref="A115" r:id="rId114" display="https://www.amazon.com/Rocky-Mountain-Goods-Fireplace-Poker/dp/B01N6IPOSH/ref=sr_1_10?dchild=1&amp;keywords=Sunnydaze+Fire+Pit+Poker+Stick+-+Durable+Heat+Resistant+Handle+-+Outdoor+Campfire+Accessory+-+Fireplace+Tool+-+Indoor+%26+Outdoor+Steel+Camping+Tool+-+16+Inch&amp;qid=1619690496&amp;sr=8-10"/>
-    <hyperlink ref="A116" r:id="rId115" display="https://www.amazon.com/Rocky-Mountain-Goods-Firewood-Tongs/dp/B01MXBQMVF/ref=sr_1_12?dchild=1&amp;keywords=Sunnydaze+Fire+Pit+Poker+Stick+-+Durable+Heat+Resistant+Handle+-+Outdoor+Campfire+Accessory+-+Fireplace+Tool+-+Indoor+%26+Outdoor+Steel+Camping+Tool+-+16+Inch&amp;qid=1619690496&amp;sr=8-12"/>
-    <hyperlink ref="A117" r:id="rId116" display="https://www.amazon.com/VicTsing-Burner-Grill-Cover-Brands/dp/B01IBOH0HW/ref=sr_1_5?dchild=1&amp;keywords=Gas+Grill+Cover+Heavy+Duty+Waterproof+Replacement+for+Weber+GENESIS+SILVER+A+NG+W%2FCAST+IRON+GRATES+%282000-2001%29+-+52+inch+W+x+26+inch+D+x+43+inch+H&amp;qid=1619691733&amp;sr=8-5"/>
-    <hyperlink ref="A118" r:id="rId117" display="https://www.amazon.com/Dyna-Glo-Signature-DGSS1382VCS-D-Heavy-Duty-Vertical/dp/B06W5R4XTQ/ref=sr_1_8?dchild=1&amp;keywords=Smokers&amp;qid=1619692155&amp;sr=8-8"/>
-    <hyperlink ref="A119" r:id="rId118" display="https://www.amazon.com/Weber-711001-Mountain-14-Inch-Charcoal/dp/B00FKE67V2/ref=sr_1_13?dchild=1&amp;keywords=Smokers&amp;qid=1619692155&amp;sr=8-13"/>
-    <hyperlink ref="A120" r:id="rId119" display="https://www.amazon.com/Char-Broil-American-Gourmet-Offset-Standard/dp/B00365FI9E/ref=sr_1_20?dchild=1&amp;keywords=Smokers&amp;qid=1619692155&amp;sr=8-20"/>
-    <hyperlink ref="A121" r:id="rId120" display="https://www.amazon.com/Realcook-Vertical-Charcoal-Outdoor-Cooking/dp/B07QKH47TM/ref=sr_1_21?dchild=1&amp;keywords=Smokers&amp;qid=1619692318&amp;sr=8-21"/>
-    <hyperlink ref="A122" r:id="rId121" display="https://www.amazon.com/ASMOKE-AS300-Tailgating-Waterproof-Stainless/dp/B08JCQ4C79/ref=sr_1_1?dchild=1&amp;keywords=ASMOKE+AS300+Electric+Portable+Wood+Pellet+Tailgating+tabletop+Grill+and+Smoker+w%2F+Waterproof+Cover+and+Stainless+Steel+Meat+Probe%2C256+Sq.+in.+Cooking+Area%2C8+in+1+BBQ+Set%2CPID+Control%2C+Apple+Red&amp;qid=1619693458&amp;sr=8-1"/>
-    <hyperlink ref="A123" r:id="rId122" display="https://www.amazon.com/ASMOKE-Portable-Pellet-Control-Cooking/dp/B08GLBD2R4/ref=sr_1_32_sspa?dchild=1&amp;keywords=Smokers&amp;qid=1619692318&amp;sr=8-32-spons&amp;psc=1&amp;smid=A3OL44O6TXPJBK&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFFSlNGQ0c3TjdJUFYmZW5jcnlwdGVkSWQ9QTAwNDE4MTlLMjZITFNKNUU1UzgmZW5jcnlwdGVkQWRJZD1BMDgxMDM3N0FOMjBTMUFNQTk4NCZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A124" r:id="rId123" display="https://www.amazon.com/ASMOKE-Portable-Pellet-Control-Cooking/dp/B08KZWFSXL/ref=sr_1_32_sspa?dchild=1&amp;keywords=Smokers&amp;qid=1619692318&amp;sr=8-32-spons&amp;smid=A3OL44O6TXPJBK&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFFSlNGQ0c3TjdJUFYmZW5jcnlwdGVkSWQ9QTAwNDE4MTlLMjZITFNKNUU1UzgmZW5jcnlwdGVkQWRJZD1BMDgxMDM3N0FOMjBTMUFNQTk4NCZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
-    <hyperlink ref="A125" r:id="rId124" display="https://www.amazon.com/Camp-Chef-MS2HP-Mountain-Pressure/dp/B004S3HDBO/ref=sr_1_3?dchild=1&amp;keywords=camp+chef+18%22+propane+smoker+vault+with+matchless+ignition&amp;qid=1619696721&amp;sr=8-3"/>
-    <hyperlink ref="A126" r:id="rId125" display="https://www.amazon.com/Masterbuilt-MB20074719-Bluetooth-Digital-Electric/dp/B07NQPLB19/ref=sr_1_65_sspa?dchild=1&amp;keywords=Smokers&amp;qid=1619696639&amp;sr=8-65-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMEhOWUVGN1RVUlBYJmVuY3J5cHRlZElkPUEwNDAwMTI3MjBCRDZaV0UyREVIVyZlbmNyeXB0ZWRBZElkPUEwNDQzMDgzMk9SQlo0WVJSVE4zNiZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A127" r:id="rId126" display="https://www.amazon.com/12-Inch-Pellet-Smoker-Tube-Heavy-Duty/dp/B08DKRY641/ref=sr_1_68?dchild=1&amp;keywords=Smokers&amp;qid=1619697072&amp;sr=8-68"/>
-    <hyperlink ref="A128" r:id="rId127" display="https://www.amazon.com/Unifit-Electric-Temperature-Controller-Replacement/dp/B07XYW7K9M/ref=sr_1_5?dchild=1&amp;keywords=Stanbroil+Replacement+Part+Electric+Smoker+and+Grill+Heating+Element+with+Adjustable+Thermostat+Cord+Controller&amp;qid=1619697775&amp;sr=8-5"/>
-    <hyperlink ref="A129" r:id="rId128" display="https://www.amazon.com/WEWE-Brushed-Kitchen-Stainless-Faucets/dp/B01H3OMH7Y/ref=sr_1_2_sspa?dchild=1&amp;keywords=Kitchen+Faucets&amp;qid=1619698309&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExVDRRSDdOME1GNVcxJmVuY3J5cHRlZElkPUEwODQ4OTMwMk1DTTRaQ0FMTTlYMyZlbmNyeXB0ZWRBZElkPUEwNDg2NDI4M0JITEhRQUxMRjFMTSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A130" r:id="rId129" display="https://www.amazon.com/Moen-87233SRS-One-Handle-Pulldown-Stainless/dp/B082VWC75W/ref=sr_1_6?dchild=1&amp;keywords=Kitchen+Faucets&amp;qid=1619698309&amp;sr=8-6"/>
-    <hyperlink ref="A131" r:id="rId130" display="https://www.amazon.com/Kitchen-Contemporary-Gooseneck-Stainless-Sprayer/dp/B07KT2VF3H/ref=sr_1_1?dchild=1&amp;keywords=Pull+Down+Kitchen+Sink+Faucet+-Arofa+A02BY+Contemporary+Matte+Black+Single+Handle+Gooseneck+Stainless+Steel+Pull+Out+Kitchen+Faucet+with+Sprayer&amp;qid=1619704716&amp;sr=8-1"/>
-    <hyperlink ref="A132" r:id="rId131" display="https://www.amazon.com/Aimadi-Contemporary-Kitchen-Sink-Faucet/dp/B07C1L5GL5/ref=sr_1_54?dchild=1&amp;keywords=Kitchen+Faucets&amp;qid=1619705170&amp;sr=8-54"/>
-    <hyperlink ref="A133" r:id="rId132" display="https://www.amazon.com/KOHLER-1155355-VS-Spray-Vibrant-Stainless/dp/B006VRBLZO/ref=sr_1_9?dchild=1&amp;keywords=Kohler+K-22035+Simplice+4+GPM+Deck+Mounted+Single+Lever+Laundry+Pull-Out+Spray+Faucet&amp;qid=1619705472&amp;sr=8-9"/>
-    <hyperlink ref="A134" r:id="rId133" display="https://www.amazon.com/Vornado-Large-Whole-Room-Circulator/dp/B00KF60O00/ref=sr_1_6?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-6"/>
-    <hyperlink ref="A135" r:id="rId134" display="https://www.amazon.com/Vornado-Heavy-Duty-Circulator-High-Impact-Collapsible/dp/B078HWWJ8S/ref=sr_1_5?dchild=1&amp;keywords=Vornado+EXO51+Heavy+Duty+Small+Air+Circulator&amp;qid=1619769433&amp;s=home-garden&amp;sr=1-5"/>
-    <hyperlink ref="A136" r:id="rId135" display="https://www.amazon.com/Taotronics-Oscillating-Space-Saving-Portable-Bladeless/dp/B085TKZDQC/ref=sr_1_7?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A137" r:id="rId136" display="https://www.amazon.com/Vornado-Energy-Circulator-Variable-Control/dp/B019VW6PDI/ref=sr_1_3?dchild=1&amp;keywords=Vornado+6803DC+Energy+Smart+Pedestal+Air+Circulator+with+Variable+Speed+Control&amp;qid=1619769816&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A138" r:id="rId137" display="https://www.amazon.com/Oscillating-Cooling-Settings-Portable-Children/dp/B07ZYTMQ2V/ref=sr_1_28?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-28"/>
-    <hyperlink ref="A139" r:id="rId138" display="https://www.amazon.com/Vornado-Flippi-Personal-Circulator-Vintage/dp/B004HI7950/ref=sr_1_29?dchild=1&amp;keywords=Basics%2BAir-Circulator%2B3%2BSpeed%2BSmall%2BRoom%2BFloor%2BFan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-29&amp;th=1"/>
-    <hyperlink ref="A140" r:id="rId139" display="https://www.amazon.com/Honeywell-HYF290B-Quietset-Whole-Room-Oscillating/dp/B01N0LQJN6/ref=sr_1_1?dchild=1&amp;keywords=Woozoo+7%27+Blade+Personal+Air+Circulator+Fan%2C+Black+PCF-HE18N&amp;qid=1619773028&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A141" r:id="rId140" display="https://www.amazon.com/Vornado-Whole-Room-Tower-Circulator/dp/B0084DAI3O/ref=sr_1_33?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619772583&amp;s=home-garden&amp;sr=1-33"/>
-    <hyperlink ref="A142" r:id="rId141" display="https://www.amazon.com/Harbor-Breeze-Brushed-Ceiling-3-Blade/dp/B071GCWSHJ/ref=sr_1_21?dchild=1&amp;keywords=Ceiling+Fans&amp;qid=1619768420&amp;sr=8-21"/>
-    <hyperlink ref="A143" r:id="rId142" display="https://www.amazon.com/Vornado-Full-Size-Circulator-Variable-Adjustable/dp/B01NAYU9MY/ref=sr_1_1?dchild=1&amp;keywords=Vornado+783DC+Energy+Smart+Full-Size+Air+Circulator+Fan+with+Variable+Speed+Control+and+Adjustable+Height&amp;qid=1619774729&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A144" r:id="rId143" display="https://www.amazon.com/Brother-ST150HDH-Strong-Computerized-Machine/dp/B07V9PC6XT/ref=sr_1_1?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-1"/>
-    <hyperlink ref="A145" r:id="rId144" display="https://www.amazon.com/Brother-Quilting-Stitches-Auto-Size-Buttonholes/dp/B000JQM1DE/ref=sr_1_3?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-3"/>
-    <hyperlink ref="A146" r:id="rId145" display="https://www.amazon.com/Brother-1034D-Thread-Serger-Differential/dp/B0000CBK1L/ref=sr_1_6?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-6"/>
-    <hyperlink ref="A147" r:id="rId146" display="https://www.amazon.com/dp/B00VWK4B0M?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A148" r:id="rId147" display="https://www.amazon.com/Brother-Quilting-Computerized-Stitches-Included/dp/B088JDJ6MS/ref=sr_1_7?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-7"/>
-    <hyperlink ref="A149" r:id="rId148" display="https://www.amazon.com/MumCraft-Multipurpose-Sewing-Package-Assorted/dp/B001PNIWT2/ref=sr_1_21?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-21"/>
-    <hyperlink ref="A150" r:id="rId149" display="https://www.amazon.com/MumCraft-Multipurpose-Sewing-Package-Assorted/dp/B001PNIWT2/ref=sr_1_2?dchild=1&amp;keywords=Multipurpose+Sewing+Clips+with+Tin+Box+Package%2C+Assorted+Colors%2C+Pack+of+100&amp;qid=1619776467&amp;sr=8-2"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://www.amazon.com/Twinkle-Window-Curtain-String-Light/dp/B01LLSNG1E/ref=sr_1_1?dchild=1&amp;keywords=home+decorRustic+Wall+Sconces+Mason+Jar+Sconces+Handmade+Wall+Art+Hanging+Design+with+Remote+Control+LED+Fairy+Lights+and+White+Peony%2CFarmhouse+Kitchen+Decorations+Wall+Home+Decor+Living+Room+Lights+Set+of+Two&amp;qid=1619784146&amp;sr=8-1"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://www.amazon.com/Sullivans-Ceramic-Various-Distressed-CM2333/dp/B07DQCJ84X/ref=sr_1_5?dchild=1&amp;keywords=home+decor&amp;qid=1619784140&amp;sr=8-5"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://www.amazon.com/Bloom-Times-Bathroom-Artificial-Decorations/dp/B07698CVNW/ref=sr_1_3?dchild=1&amp;keywords=2pcs+Retro+Artificial+Succulents+Simulation+Green+Plants+Creative+Fake+Potted+Bonsai+Decor+for+Home&amp;qid=1619785253&amp;sr=8-3"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://www.amazon.com/Bloom-Times-Artificial-Eucalyptus-Farmhouse/dp/B07W5DZ84J/ref=sr_1_1?dchild=1&amp;keywords=THE+BLOOM+TIMES+Set+of+3+Small+Potted+Artificial+Plants+Plastic+Fake+Greenery+Faux+Plants+in+Pots+for+Rustic+Home+Office+Desk+Farmhouse+Bathroom+Kitchen+Indoor+Decor&amp;qid=1619785401&amp;sr=8-1"/>
-    <hyperlink ref="A155" r:id="rId154" display="https://www.amazon.com/MIAIU-Artificial-Greenery-Farmhouse-Bathroom/dp/B07YYWGK66/ref=sr_1_19?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-19"/>
-    <hyperlink ref="A156" r:id="rId155" display="https://www.amazon.com/CEWOR-Artificial-Bathroom-Decorations-Multicolored/dp/B07CMXM45H/ref=sr_1_45?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-45"/>
-    <hyperlink ref="A157" r:id="rId156" display="https://www.amazon.com/UArtlines-Artificial-Bathroom-Decorations-Colorful/dp/B07DVGGL39/ref=sr_1_53?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-53"/>
-    <hyperlink ref="A158" r:id="rId157" display="https://www.amazon.com/Nubry-Succulent-Artificial-Succulents-Decoration/dp/B083J1Q24G/ref=sr_1_1?dchild=1&amp;keywords=Nubry+Mini+Fake+Succulent+Plants+Artificial+Plastic+Succulents+Potted+Faux+Assorted+Plants+for+Home+Office+Table+Decoration%2C+Set+of+6&amp;qid=1619786094&amp;sr=8-1"/>
-    <hyperlink ref="A159" r:id="rId158" display="https://www.amazon.com/COCOBOO-Plants-Bathroom-Balcony-Decoration/dp/B08GKD4NWM/ref=sr_1_57_sspa?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-57-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFDSEJWMVhRNlhXMFYmZW5jcnlwdGVkSWQ9QTA1MzQ5NDAxSVQ2RlZSVTJHQ1RMJmVuY3J5cHRlZEFkSWQ9QTAyODU0MTMyRDNDME5WTExUQzlIJndpZGdldE5hbWU9c3BfYnRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A160" r:id="rId159" display="https://www.amazon.com/CEWOR-Plants-Artificial-Plastic-Decoration/dp/B07PJZ5BCR/ref=sr_1_54?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785600&amp;sr=8-54"/>
-    <hyperlink ref="A161" r:id="rId160" display="https://www.amazon.com/Artificial-Succulent-Decorative-Succulents-Decoration/dp/B0814B4KG8/ref=sr_1_1?dchild=1&amp;keywords=Artificial+Succulent+Plants+Potted%2C+Set+of+6+Mini+Artificial+Plants+with+Pots+Assorted+Decorative+Faux+Succulents+in+Pots+for+Office+Wedding+Home+Decoration+Ultra+Realistic+Design&amp;qid=1619788433&amp;sr=8-1"/>
-    <hyperlink ref="A162" r:id="rId161" display="https://www.amazon.com/Succulents-Plants-Artificial-Potted-Wedding/dp/B07L6Y1PL9/ref=sr_1_55?dchild=1&amp;keywords=Nubry+Mini+Fake+Succulent+Plants+Artificial+Plastic+Succulents+Potted+Faux+Assorted+Plants+for+Home+Office+Table+Decoration%2C+Set+of+6&amp;qid=1619788982&amp;sr=8-55"/>
-    <hyperlink ref="A163" r:id="rId162" display="https://www.amazon.com/Zcaukya-Artificial-Eucalyptus-Rosemary-Greenery/dp/B0819RS59C/ref=sr_1_35?dchild=1&amp;keywords=JC+nateva+Set+of+6+Packs+Mini+Potted+Fake+Plants+Faux+Eucalyptus+Plants+Artificial+Plants+for+Home+Decor+Indoor&amp;qid=1619785193&amp;sr=8-35"/>
-    <hyperlink ref="A164" r:id="rId163" display="https://www.amazon.com/Modern-Realistic-Looking-Potted-Plants/dp/B07Z9TQXRX/ref=sr_1_59?dchild=1&amp;keywords=Nubry+Mini+Fake+Succulent+Plants+Artificial+Plastic+Succulents+Potted+Faux+Assorted+Plants+for+Home+Office+Table+Decoration%2C+Set+of+6&amp;qid=1619788982&amp;sr=8-59"/>
-    <hyperlink ref="A165" r:id="rId164" display="https://www.amazon.com/Nearly-Natural-5357-Golden-4-Feet/dp/B00FUNF4NK/ref=sr_1_1_sspa?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExQzZUNVpLUFEwMTIxJmVuY3J5cHRlZElkPUEwNTAzMjIyMktKS0kxTThSWFFTUiZlbmNyeXB0ZWRBZElkPUEwOTcyNjA3SERSWEhTOElJWVlOJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A166" r:id="rId165" display="https://www.amazon.com/Nearly-Natural-5660-Paradise-Artificial/dp/B07CL7F52T/ref=sr_1_5?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-5"/>
-    <hyperlink ref="A167" r:id="rId166" display="https://www.amazon.com/4-5ft-Paradise-Artificial-Plant-Touch/dp/B08DP4B4L9/ref=sr_1_1?dchild=1&amp;keywords=Nearly+Natural+4.5ft.+Bird+of+Paradise+Artificial+Plant+%28Real+Touch%29&amp;qid=1619852687&amp;sr=8-1"/>
-    <hyperlink ref="A168" r:id="rId167" display="https://www.amazon.com/Nearly-Natural-5289-Golden-6-5-Feet/dp/B004XWCZXQ/ref=sr_1_14?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-14"/>
-    <hyperlink ref="A169" r:id="rId168" display="https://www.amazon.com/Nearly-Natural-5295-Kentia-4-Feet/dp/B004XWD0OO/ref=sr_1_31?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-31"/>
-    <hyperlink ref="A170" r:id="rId169" display="https://www.amazon.com/Nearly-Natural-5000-Decorative-3-Feet/dp/B008XUZO96/ref=sr_1_43?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-43"/>
-    <hyperlink ref="A171" r:id="rId170" display="https://www.amazon.com/Nearly-Natural-8083-Planter-Artificial/dp/B07CJNYFJ3/ref=sr_1_60?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619854180&amp;sr=8-60"/>
-    <hyperlink ref="A172" r:id="rId171" display="https://www.amazon.com/Nearly-Natural-5437-Hawaiian-6-Feet/dp/B00ODS8A7A/ref=sr_1_61?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619854180&amp;sr=8-61"/>
-    <hyperlink ref="A173" r:id="rId172" display="https://www.amazon.com/LIGHTSHARE-Lighted-Decorate-Birthday-Christmas/dp/B00NOLU4VM/ref=sr_1_3?dchild=1&amp;keywords=Lightshare+5ft.+Green+Palm+Tree+with+56+LED+Lights&amp;qid=1619854011&amp;sr=8-3"/>
-    <hyperlink ref="A174" r:id="rId173" display="https://www.amazon.com/Lightshare-Blossom-included-Festival-Christmas/dp/B00KAS8G1W/ref=sr_1_18?dchild=1&amp;keywords=Lightshare+5ft.+Green+Palm+Tree+with+56+LED+Lights&amp;qid=1619854011&amp;sr=8-18"/>
-    <hyperlink ref="A175" r:id="rId174" display="https://www.amazon.com/National-Tree-Crestwood-Bristles-CW7-306-30WBC1/dp/B074D8DTLV/ref=sr_1_14?dchild=1&amp;keywords=National+Tree+30+inch+Glittery+Pomegranate+Pine+Wreath+with+Battery+Operated+LED+Lights-Size%3A24%22&amp;qid=1619853673&amp;sr=8-14"/>
-    <hyperlink ref="A176" r:id="rId175" display="https://www.amazon.com/Vanthylit-Pre-lit-Halloween-Branches-Waterproof/dp/B0863R9PPD/ref=sr_1_1?dchild=1&amp;keywords=Vanthylit+Pre-lit+3PK+Multi+Color+Twig+Branches+Light+with+30%27%27+60+LED+Bulbs+Waterproof+Plug+in+Brown+Willow+Branch+Lights+for+Outdoor+and+Indoor+Decor&amp;qid=1619858777&amp;sr=8-1"/>
-    <hyperlink ref="A177" r:id="rId176" display="https://www.amazon.com/Pack-Branch-Lights-Decorative-Decoration/dp/B076NGT3PZ/ref=sr_1_15?dchild=1&amp;keywords=DK177+Led+Branch+Light+Battery+Operated+Lighted+Branch+Vase+Filler+Willow+Tree+Artificial+Little+Twig+Power+Brown+30+Inch+20+LED+for+Home+Romantic+Decoration%2C+Pack+of+2%2C+Warm+White&amp;qid=1619858589&amp;sr=8-15"/>
-    <hyperlink ref="A178" r:id="rId177" display="https://www.amazon.com/Lxcom-Decoration-Festival-Decorations-Crafting/dp/B07KT1ZC63/ref=sr_1_7?dchild=1&amp;keywords=DK177+Led+Branch+Light+Battery+Operated+Lighted+Branch+Vase+Filler+Willow+Tree+Artificial+Little+Twig+Power+Brown+30+Inch+20+LED+for+Home+Romantic+Decoration%2C+Pack+of+2%2C+Warm+White&amp;qid=1619858589&amp;sr=8-7"/>
-    <hyperlink ref="A179" r:id="rId178" display="https://www.amazon.com/Nearly-Natural-9641-Artificial-Planter/dp/B07PXTYMFL/ref=sr_1_4?dchild=1&amp;keywords=Nearly+Natural+4%E2%80%99+Sansevieria+Artificial+White+Tower+Planter+Silk+Plants+Green&amp;qid=1619854434&amp;sr=8-4"/>
-    <hyperlink ref="A180" r:id="rId179" display="https://www.amazon.com/Nearly-Natural-Artificial-Silver-Planter/dp/B076BS92BF/ref=sr_1_47?dchild=1&amp;keywords=Nearly+Natural+4%E2%80%99+Sansevieria+Artificial+White+Tower+Planter+Silk+Plants+Green&amp;qid=1619854434&amp;sr=8-47"/>
-    <hyperlink ref="A181" r:id="rId180" display="https://www.amazon.com/Nearly-Natural-8472-Succulent-Artificial/dp/B07MWSNWBC/ref=sr_1_1?dchild=1&amp;keywords=Nearly+Natural+8%3F+Triple+Agave+Succulent+Artificial+Plant+in+White+Vase&amp;qid=1619860689&amp;sr=8-1"/>
-    <hyperlink ref="A182" r:id="rId181" display="https://www.amazon.com/YSBER-Gypsophila-Artificial-Wedding-Decoration/dp/B07R76NYJY/ref=sr_1_38?dchild=1&amp;keywords=PU%2BMini%2BArtificial%2BTulip%2BFake%2BFlower%2BReal%2BTouch%2BWedding%2BFlower%2BBouquet%2Bfor%2BHome%2BParty%2BDecoration%2BPack%2Bof%2B10&amp;qid=1619875152&amp;sr=8-38&amp;th=1"/>
-    <hyperlink ref="A183" r:id="rId182" display="https://www.amazon.com/AGEOMET-Artificial-Greenery-Resistant-Decoration/dp/B07Q9QHP7V/ref=sr_1_6?dchild=1&amp;keywords=YXYQR+8+Pack+UV+Resistant+Outdoor+Artificial+Flowers+Bulk+Faux+Plastic+Plants+Outside+Indoor+Fake+Hanging+Greenery+Shrubs+Arrangement+for+Backyard+Window+Box+Porch+Home+Decoration+%28Red%29&amp;qid=1619790469&amp;s=home-garden&amp;sr=1-6"/>
-    <hyperlink ref="A184" r:id="rId183" display="https://www.amazon.com/Artificial-Outdoor-Resistant-Branches-Greenery/dp/B07QC6RCHG/ref=sr_1_7?dchild=1&amp;keywords=YXYQR+8+Pack+UV+Resistant+Outdoor+Artificial+Flowers+Bulk+Faux+Plastic+Plants+Outside+Indoor+Fake+Hanging+Greenery+Shrubs+Arrangement+for+Backyard+Window+Box+Porch+Home+Decoration+%28Red%29&amp;qid=1619790469&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A185" r:id="rId184" display="https://www.amazon.com/CEWOR-Artificial-Boxwood-Courtyard-Decoration/dp/B07PKK8W4Y/ref=sr_1_19?dchild=1&amp;keywords=YXYQR+8+Pack+UV+Resistant+Outdoor+Artificial+Flowers+Bulk+Faux+Plastic+Plants+Outside+Indoor+Fake+Hanging+Greenery+Shrubs+Arrangement+for+Backyard+Window+Box+Porch+Home+Decoration+%28Red%29&amp;qid=1619790469&amp;s=home-garden&amp;sr=1-19"/>
-    <hyperlink ref="A186" r:id="rId185" display="https://www.amazon.com/Homesick-Scented-Candle-Mississippi-Version/dp/B088SD7R7K/ref=sr_1_4?dchild=1&amp;keywords=Homesick+Scented+Candle%2C+Mississippi&amp;qid=1619877934&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A187" r:id="rId186" display="https://www.amazon.com/Scented-Candle-Soy-Candles-Aromatherapy/dp/B07NMPYQC6/ref=sr_1_1?dchild=1&amp;keywords=Benevolence+LA+Premium+Oud+Wood+Hand+Poured+Scented+Candles%2C+8+oz%7C45+Hour+Burn%2C+Long+Lasting%2C+Highly+Scented%2C+All+Natural+Soy+Candles%7CRelaxing+Aromatherapy+Candle+with+Matte+Black+Glass+Gift+Box&amp;qid=1619878736&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A188" r:id="rId187" display="https://www.amazon.com/dp/B08PYHCCQY/ref=cm_gf_abbm_iaad_d_p0_qd0_uxDcWTIjtwbJ5MYsbWY4"/>
-    <hyperlink ref="A189" r:id="rId188" display="https://www.amazon.com/dp/B08PK5ZTXB/ref=cm_gf_abbm_iaab_d_p0_qd0_lMvvOGH6rHvV2ba2ehDj"/>
-    <hyperlink ref="A190" r:id="rId189" display="https://www.amazon.com/Aussie-Miracle-Conditioner-Treatment-Australian/dp/B0857LTYZ2/ref=zg_bs_17911767011_3?_encoding=UTF8&amp;psc=1&amp;refRID=Z0AF5D8CNA8DBBTDSJHZ"/>
-    <hyperlink ref="A191" r:id="rId190" display="https://www.amazon.com/Conditioner-Thinning-Thickening-Treatment-Regrowth/dp/B07ZTQN7JP/ref=sr_1_5?dchild=1&amp;keywords=Biotin+Shampoo+and+Conditioner+for+Thinning+Hair+Growth+Thickening+Shampoo+for+Hair+Loss+Treatment+NATURAL+Sulfate+Free+for+Color+Treated+Hair+Regrowth+Treatment+for+Men+and+Women&amp;qid=1619794847&amp;s=beauty&amp;sr=1-5"/>
-    <hyperlink ref="A192" r:id="rId191" display="https://www.amazon.com/Aussie-Clarifying-Refreshing-Australian-Pepperberry/dp/B08833JPSD/ref=sr_1_1?dchild=1&amp;keywords=Destress+Clarifying+Shampoo%2C+Infused+with+Reing+Mosa+Mint+and+Australian+Pepperberry%2C+Fresh%2C+10.1+Fl+Oz&amp;qid=1619795326&amp;s=beauty&amp;sr=1-1"/>
-    <hyperlink ref="A193" r:id="rId192" display="https://www.amazon.com/Essential-Shampoo-Conditioner-Botanic-Hearth/dp/B081B9T4Z1/ref=sr_1_1?dchild=1&amp;keywords=Top+6+Essential+Oils+Herbal+Shampoo+and+Conditioner+Set+By+Botanic+Hearth+-+Sulfate+%26+Paraben+Free+-+Hair+Growth+Stimulating+for+Daily+Use%2C+Men+and+Women+%28Packaging+May+Vary%29+-+16+fl+oz+each&amp;qid=1619796255&amp;s=beauty&amp;sr=1-1"/>
-    <hyperlink ref="A194" r:id="rId193" display="https://www.amazon.com/Neutrogena-Conditioner-Over-Processed-Intensive-Meadowfoam/dp/B001E6TZTG/ref=sr_1_fkmr1_1?dchild=1&amp;keywords=PNPJLRTLFFPJ+Neutrogena+Triple+Moisture+Daily+Deep+Conditioner+for+Extra+Dry+Hair%2C+Damaged+%26+Over-Processed+Hair%2C+Intensive+Hydrating+Conditioner+with+Olive%2C+Meadowfoam+%26+Sweet+Almond%2C+8.5+fl.+oz+%28Pack+of+3%29+Neutrogena+https%3A%2F%2Fwww.walmart.com%2Fip%2FNeutrogena-Triple-Moisture-Daily-Deep-Conditioner-Extra-Dry-Hair-Damaged-Over-Processed-Intensive-Hydrating-Olive-Meadowfoam-Sweet-Almond-8-5-fl-oz-P%2F822877594+74388a98-1df5-40ca-b9d4-9fecdca1f895.a235c84467e57cb75c6a06d2ad709e33.jpeg+52.97&amp;qid=1619796714&amp;s=beauty&amp;sr=1-1-fkmr1"/>
-    <hyperlink ref="A195" r:id="rId194" display="https://www.amazon.com/Hygge-Games-Should-Known-Trivia/dp/B0778TY7XP/ref=zg_bs_toys-and-games_1?_encoding=UTF8&amp;psc=1&amp;refRID=W8J3S260V7932SSRC0S0"/>
-    <hyperlink ref="A196" r:id="rId195" display="https://www.amazon.com/Digimon-Original-Digivice-Virtual-Monster/dp/B0846PQT2M/ref=sr_1_2?dchild=1&amp;keywords=Digimon+Bandai+Original+Digivice+Virtual+Pet+Monster+-+Translucent+Purple&amp;qid=1619797579&amp;s=toys-and-games&amp;sr=1-2"/>
-    <hyperlink ref="A197" r:id="rId196" display="https://www.amazon.com/Digimon-Original-Digivice-Virtual-Monster/dp/B0846PDD1B/ref=sr_1_1?dchild=1&amp;keywords=Bandai+Digimon+Original+Digivice+Virtual+Pet+Monster+Handheld+Game+-+Green+Pink&amp;qid=1619797647&amp;s=toys-and-games&amp;sr=1-1"/>
-    <hyperlink ref="A198" r:id="rId197" display="https://www.amazon.com/Thats-Natural-Children-No-Sugar-Preservatives/dp/B075SM6DKW/ref=sr_1_1?dchild=1&amp;keywords=That%27s+it+Apple+%2B+Banana+100%25+Natural+Real+Fruit+Bar%2C+Best+High+Fiber+Vegan%2C+Gluten+Free+Healthy+Snack%2C+Paleo+for+Children+%26+Adults%2C+Non+GMO+Sugar-Free%2C+No+Preservatives+Energy+Food+%2812+Pack%29&amp;qid=1619798402&amp;s=grocery&amp;sr=1-1"/>
-    <hyperlink ref="A199" r:id="rId198" display="https://www.amazon.com/WUQID-Infinity-Relieving-Fidgeting-Anxiety/dp/B08KGV5MZD/ref=zg_bs_toys-and-games_38?_encoding=UTF8&amp;psc=1&amp;refRID=W8J3S260V7932SSRC0S0"/>
-    <hyperlink ref="A200" r:id="rId199" display="https://www.amazon.com/Real-Littles-Collectible-Stationary-Surprises/dp/B08GD2GTG9/ref=sr_1_1_sspa?dchild=1&amp;keywords=5+Surprise+Mini+Brands+Mystery+Capsule+Real+Miniature+Brands+Collectible+Toy+by+ZURU+%283+Pack%29&amp;qid=1619799115&amp;s=toys-and-games&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyUEVXS1RBWDVYM1hZJmVuY3J5cHRlZElkPUEwNzg0NDQ3SzRaSUNDTzdNM1MzJmVuY3J5cHRlZEFkSWQ9QTA4OTQ3MzgzOVVHV0tOWDBDTjgwJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A201" r:id="rId200" display="https://www.amazon.com/Mega-Bloks-80-Piece-Building-Classic/dp/B007GE75HY/ref=zg_bs_toys-and-games_52?_encoding=UTF8&amp;psc=1&amp;refRID=WXQY8207YJ862NX001HY"/>
-    <hyperlink ref="A202" r:id="rId201" display="https://www.amazon.com/IronBuddy-Rabbit-Moving-Jumping-Winter/dp/B07GDCFG34/ref=zg_bs_toys-and-games_64?_encoding=UTF8&amp;psc=1&amp;refRID=WXQY8207YJ862NX001HY"/>
-    <hyperlink ref="A203" r:id="rId202" display="https://www.amazon.com/Ethereal-Nature-Hair-Oil-Peppermint/dp/B07XSBNCF2/ref=sr_1_2?dchild=1&amp;keywords=Ethereal+Nature+Hair+Oil+Peppermint+75+Ml&amp;qid=1619806711&amp;sr=8-2"/>
-    <hyperlink ref="A204" r:id="rId203" display="https://www.amazon.com/Zerhunt-Machine-Durable-Automatic-Operated/dp/B07VZF7X31/ref=zg_bs_toys-and-games_97?_encoding=UTF8&amp;psc=1&amp;refRID=Y0GSCMQSJ838X9N3H2JM"/>
-    <hyperlink ref="A205" r:id="rId204" display="https://www.amazon.com/Hairfinity-Nourishing-Botanical-Naturally-Ingredients/dp/B01LXJHTSO/ref=sr_1_5?dchild=1&amp;keywords=Hairfinity+Botanical+Hair+Oil+-+Growth+Treatment+for+Dry+Damaged+Hair+and+Scalp+with+Jojoba%2C+Olive%2C+Sweet+Almond+Oils+and+More+-+Silicone+and+Sulfate+Free+1.76+oz&amp;qid=1619806806&amp;sr=8-5"/>
-    <hyperlink ref="A206" r:id="rId205" display="https://www.amazon.com/Ethereal-Nature-Blends-Natural-Happy/dp/B07N7HYX61/ref=sr_1_6?dchild=1&amp;keywords=Ethereal+Nature+Hair+Oil+Peppermint+75+Ml&amp;qid=1619806748&amp;sr=8-6"/>
-    <hyperlink ref="A207" r:id="rId206" display="https://www.amazon.com/Ethereal-Nature-Lemon-Fluid-Ounce/dp/B07P5SPY3C/ref=sr_1_8?dchild=1&amp;keywords=Ethereal+Nature+Hair+Oil+Peppermint+75+Ml&amp;qid=1619806748&amp;sr=8-8"/>
-    <hyperlink ref="A208" r:id="rId207" display="https://www.amazon.com/Hairfinity-Nourishing-Botanical-Naturally-Ingredients/dp/B01LXJHTSO/ref=sr_1_5?dchild=1&amp;keywords=Hairfinity+Botanical+Hair+Oil+-+Growth+Treatment+for+Dry+Damaged+Hair+and+Scalp+with+Jojoba%2C+Olive%2C+Sweet+Almond+Oils+and+More+-+Silicone+and+Sulfate+Free+1.76+oz&amp;qid=1619806806&amp;sr=8-5"/>
-    <hyperlink ref="A209" r:id="rId208" display="https://www.amazon.com/LAMAZE-L27014A1-Lamaze-Mortimer-Moose/dp/B000I2MRLU/ref=sr_1_23?dchild=1&amp;keywords=baby+toys&amp;qid=1619810844&amp;sr=8-23"/>
-    <hyperlink ref="A210" r:id="rId209" display="https://www.amazon.com/Pinkfong-Baby-Shark-Sing-Alongs-Sound/dp/B08BHX1RMV/ref=sr_1_28?dchild=1&amp;keywords=baby+toys&amp;qid=1619810844&amp;sr=8-28"/>
-    <hyperlink ref="A211" r:id="rId210" display="https://www.amazon.com/Sassy-Fishy-Fascination-Station-Removable/dp/B01M1YKAT9/ref=sr_1_42?dchild=1&amp;keywords=baby+toys&amp;qid=1619810844&amp;sr=8-42"/>
-    <hyperlink ref="A212" r:id="rId211" display="https://www.amazon.com/dp/B085ZNBR2S/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B085ZNBR2S&amp;pd_rd_w=GzJDW&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=uvVWp&amp;pf_rd_r=ABK4BT96RKHDS61WQMGM&amp;pd_rd_r=28621f51-cc54-4e97-8008-519035ea8da7&amp;smid=A240RAB5V5497R&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExR05YTEw5SjNBQjBMJmVuY3J5cHRlZElkPUEwOTU2MzE0RkZPVFU0WU9FVzY3JmVuY3J5cHRlZEFkSWQ9QTA4Mzc2MzEyQVlIM1VGUzRDMVZFJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A213" r:id="rId212" display="https://www.amazon.com/Yeetec-Sensory-Puzzles-Fillers-Favours/dp/B07PS6JW56/ref=zg_bs_toys-and-games_85?_encoding=UTF8&amp;psc=1&amp;refRID=0TQ8MW5G8G9ZVWQ5Z5YT"/>
-    <hyperlink ref="A214" r:id="rId213" display="https://www.amazon.com/Case-Throw-Burrito-Exploding-Kittens/dp/B088LZLS9J/ref=sr_1_1?dchild=1&amp;keywords=Case+for+Throw+Throw+Burrito+by+Exploding+Kittens+-+A+Dodgeball+Card+Game+-+Family-Friendly+Party+Games+-+Card+Games+for+Adults%2C+Teens+%26+Kids+Not+Fits+for+Extreme+Outdoor+Edition%3FRainbow%3F%28CASE+ONLY%29&amp;qid=1619850780&amp;s=toys-and-games&amp;sr=1-1"/>
-    <hyperlink ref="A215" r:id="rId214" display="https://www.amazon.com/dp/B08DHVW3KP/ref=sspa_dk_detail_4?psc=1&amp;pd_rd_i=B08DHVW3KP&amp;pd_rd_w=eFy4C&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=kqbv8&amp;pf_rd_r=29JDZVYP1Q8RDPHS42H7&amp;pd_rd_r=00d3b570-766d-4332-b3ba-8f746ff64f79&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTjNIU1ZGWkcwNFg0JmVuY3J5cHRlZElkPUEwNjc0ODQ5MkIxUkkwQUJKOUxaUiZlbmNyeXB0ZWRBZElkPUEwNzA1NzQ5MVRHNzNNWlU3UVU1SiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A216" r:id="rId215" display="https://www.amazon.com/Corner-Shower-Caddy-Suction-Cup/dp/B08BHY41CY/ref=sr_1_1?dchild=1&amp;keywords=Corner+Shower+Caddy+Suction+Cup+Wall+Mounted+Shower+Shelf+Bathroom+Storage+Basket+No-Drilling&amp;qid=1619865695&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A217" r:id="rId216" display="https://www.amazon.com/ThermoPro-Thermometer-Grilling-Waterproof-Ambidextrous/dp/B07XXSYLL8/ref=gbps_tit_s-5_73d8_6341e5e9?smid=ASOOYMPIKYKXM&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
-    <hyperlink ref="A218" r:id="rId217" display="https://www.amazon.com/Grinder-Adjustable-ceramic-grinding-Spices-2/dp/B072MS24SG/ref=sr_1_1?dchild=1&amp;keywords=Wooden+Salt+Pepper+Grinder+Wood+Spice+Grinder+8+inch+OAK+Wood+Spice+Grinder+Shaker+Salt+and+Pepper+Grinder+Combo%28Set+of+2%29&amp;qid=1619865986&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A219" r:id="rId218" display="https://www.amazon.com/COLE-MASON-Derwent-Pepper-Grinder/dp/B003OICYZO/ref=pd_di_sccai_7?pd_rd_w=YWDn9&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=QYG2KEBC6NF6E3T104RM&amp;pd_rd_r=8c0055f6-f89a-447f-9fc0-7bde1ff29612&amp;pd_rd_wg=QsBZ4&amp;pd_rd_i=B003OICYZO&amp;psc=1"/>
-    <hyperlink ref="A220" r:id="rId219" display="https://www.amazon.com/Childom-Colorful-Girlfriend-Valentines-Anniversary/dp/B082KGXWTQ/ref=gbps_tit_s-5_73d8_8f3d7893?smid=A1CBUH4GU178NF&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMDhSMUEwRzFOT0lHJmVuY3J5cHRlZElkPUEwMDM5NjYzMVhFTVZYQllaMFo5TSZlbmNyeXB0ZWRBZElkPUEwMTg4NzgxM043WkxDSk9FOTVUQSZ3aWRnZXROYW1lPXNwX2diX21haW5fc3VwcGxlJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A221" r:id="rId220" display="https://www.amazon.com/Colorful-Artificial-Christmas-Valentines-Anniversary/dp/B07ZR8RRX5/ref=sr_1_4?dchild=1&amp;keywords=Mom+Gifts%2C+Mother%27s+Day+Birthday+Gifts+Colorful+Artificial+Flower+Rose+Gift+Led+Light+String+on+The+Colorful+Flower%2C+Lasts+Forever+in+A+Glass+Dome%2C+Unique+Gifts+for+Mom+Mothers+Day+Anniversary&amp;qid=1619867495&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A222" r:id="rId221" display="https://www.amazon.com/dp/B07BLLMLFC/ref=sspa_dk_detail_6?psc=1&amp;pd_rd_i=B07BLLMLFC&amp;pd_rd_w=GmWMI&amp;pf_rd_p=09863aa3-e7de-40af-890c-436734981743&amp;pd_rd_wg=rlcxB&amp;pf_rd_r=KQH4SJ7J42HP3GEPYDW7&amp;pd_rd_r=5a163af7-514a-431a-bb16-80d0b7406399&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMDIyQjJEUFlNWDlSJmVuY3J5cHRlZElkPUExMDM4MDI0MVVRNzlMQUVWVTNLQiZlbmNyeXB0ZWRBZElkPUExMDQ1MjIwVko0VU9HRUtEV0tZJndpZGdldE5hbWU9c3BfZGV0YWlsX3RoZW1hdGljJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A223" r:id="rId222" display="https://www.amazon.com/Seropy-Kitchen-Foldable-Stainless-17-8x11-8/dp/B08S6M3NXV/ref=gbps_tit_s-5_73d8_96e3f427?smid=A1DEM51R5GTSWS&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
-    <hyperlink ref="A224" r:id="rId223" display="https://www.amazon.com/Nicewell-Digital-Stainless-Graduation-Tempered/dp/B08LVH11XB/ref=gbps_tit_s-5_73d8_ff1e5b74?smid=A28HMYRLN7K5RQ&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
-    <hyperlink ref="A225" r:id="rId224" display="https://www.amazon.com/MLVOC-Comfortable-Breathable-Washable-Contoured/dp/B082K8ZNQ1/ref=gbps_tit_s-5_73d8_04bc9ac9?smid=A1J6G81LV8GYZO&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
-    <hyperlink ref="A226" r:id="rId225" display="https://www.amazon.com/Burn-XT-Thermogenic-Fat-Burner-Suppressant/dp/B01BXLYEQ0/ref=sr_1_6?dchild=1&amp;keywords=Snap+Keto+%26+Detox+Pills+Advanced+Weight+Loss+Bundle+-+Colon+Cleanser%2C+fat+burner%2C+Ketosis+Diet+Pills+for+Women+and+Men+-+120+Capsules&amp;qid=1619937270&amp;sr=8-6"/>
-    <hyperlink ref="A227" r:id="rId226" display="https://www.amazon.com/Vinegar-Capsules-Formula-Appetite-suppressant/dp/B07GNZNNFN/ref=sr_1_7?dchild=1&amp;keywords=Snap+Keto+%26+Detox+Pills+Advanced+Weight+Loss+Bundle+-+Colon+Cleanser%2C+fat+burner%2C+Ketosis+Diet+Pills+for+Women+and+Men+-+120+Capsules&amp;qid=1619937270&amp;sr=8-7"/>
-    <hyperlink ref="A228" r:id="rId227" display="https://www.amazon.com/AirHeads-Chewy-Fruit-Variety-Packaging/dp/B0017L4PH0/ref=sr_1_2?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-2"/>
-    <hyperlink ref="A229" r:id="rId228" display="https://www.amazon.com/Neliblu-Fingers-Stretchy-Glitter-Birthday/dp/B01NCBCMD9/ref=sr_1_16?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-16"/>
-    <hyperlink ref="A230" r:id="rId229" display="https://www.amazon.com/40-Piece-Bubble-Wands-Assortment-Favors/dp/B06VTXPFHJ/ref=sr_1_20?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-20"/>
-    <hyperlink ref="A231" r:id="rId230" display="https://www.amazon.com/Building-Creative-Birthday-Carnival-Supplies/dp/B07Q81FRHN/ref=sr_1_23?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-23"/>
-    <hyperlink ref="A232" r:id="rId231" display="https://www.amazon.com/Super-Outlet-Treasure-Activity-Decorations/dp/B0149IF78I/ref=sr_1_46?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-46"/>
-    <hyperlink ref="A233" r:id="rId232" display="https://www.amazon.com/Construction-Birthday-Supplies-Complete-Decorations/dp/B083D77CJ6/ref=sxin_9_pa_sp_search_thematic_sspa?cv_ct_cx=Birthday+Party+Decorations&amp;dchild=1&amp;keywords=Birthday+Party+Decorations&amp;pd_rd_i=B083D77CJ6&amp;pd_rd_r=667a2d6b-1c39-409b-9a30-4b58e18a50ad&amp;pd_rd_w=rhErO&amp;pd_rd_wg=egdEp&amp;pf_rd_p=9d5c7dec-ad7e-424f-9792-7751bf0f49a3&amp;pf_rd_r=069MH2JQWNE5EQ09C6SH&amp;qid=1619970292&amp;sr=1-2-a73d1c8c-2fd2-4f19-aa41-2df022bcb241-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExQTBGRkJLVzRGNTdMJmVuY3J5cHRlZElkPUEwMTM4NDY2MjFOOFZQRU9UUFZTUCZlbmNyeXB0ZWRBZElkPUEwNjEzNTI2MjMxTDhJSktCWlFYNCZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A234" r:id="rId233" display="https://www.amazon.com/PartyHooman-16th-Birthday-Decorations-Box/dp/B07P8DQ776/ref=sr_1_3?dchild=1&amp;keywords=Sweet+16+Party+Supplies+WITH+Photo+Booth+Backdrop+and+Props+-Rose+Gold+Sweet+16+Decorations+-+16th+Birthday+Party+Supplies+WITH+Happy+Birthday+Banner%2C+16%2C+Confetti+and+Mylar+Balloons%7CSweet+Sixteen&amp;qid=1619972552&amp;sr=8-3"/>
-    <hyperlink ref="A235" r:id="rId234" display="https://www.amazon.com/Birthday-Decorations-Supplies-balloons-Confetti/dp/B07FPWTCMD/ref=sr_1_2?dchild=1&amp;keywords=Sweet+16+Party+Supplies+WITH+Photo+Booth+Backdrop+and+Props+-Rose+Gold+Sweet+16+Decorations+-+16th+Birthday+Party+Supplies+WITH+Happy+Birthday+Banner%2C+16%2C+Confetti+and+Mylar+Balloons%7CSweet+Sixteen&amp;qid=1619972665&amp;sr=8-2"/>
-    <hyperlink ref="A236" r:id="rId235" display="https://www.amazon.com/Rose-Gold-Birthday-Party-Decoration/dp/B08CKBNKYG/ref=sr_1_9?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-9"/>
-    <hyperlink ref="A237" r:id="rId236" display="https://www.amazon.com/Partyville-Dinosaur-Party-Decorations-Birthday/dp/B08LLF9F2G/ref=sr_1_11?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-11"/>
-    <hyperlink ref="A238" r:id="rId237" display="https://www.amazon.com/THAWAY-Pineapple-Decorations-Artificial-Pineapples/dp/B07TT9JZKS/ref=sr_1_23?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-23"/>
-    <hyperlink ref="A239" r:id="rId238" display="https://www.amazon.com/CHRORINE-Birthday-Decorations-Snowflake-Snowflakes/dp/B08B4JQSPM/ref=sr_1_43?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-43"/>
-    <hyperlink ref="A240" r:id="rId239" display="https://www.amazon.com/Surprise-Hanging-Swirl-Decorations-12pc/dp/B07FMB86WB/ref=sr_1_2?dchild=1&amp;keywords=LOL+Surprise%21+Hanging+Swirl+Decorations+%2812pc%29&amp;qid=1619974903&amp;sr=8-2"/>
-    <hyperlink ref="A241" r:id="rId240" display="https://www.amazon.com/Dodecagon-12-Side-Relieves-Depression-Children/dp/B071CFZ4BD/ref=sr_1_1?dchild=1&amp;keywords=Fidget+Dodecagon+%26ndash%3B12-Side+Fidget+Cube+Relieves+Stress+and+Anxiety+Anti+Depression+Cube+for+Children+and+Adults+with+ADHD+ADD+OCD+Autism+%28A1+Black%29&amp;qid=1619938799&amp;sr=8-1"/>
-    <hyperlink ref="A242" r:id="rId241" display="https://www.amazon.com/Amazon-Brand-Solimo-Magnesium-Sulfate/dp/B07NJPMVG9/ref=zg_bs_beauty_18?_encoding=UTF8&amp;psc=1&amp;refRID=FR39RJ9QPK8RTTAMQW1A"/>
-    <hyperlink ref="A243" r:id="rId242" display="https://www.amazon.com/Coach-Soak-Recovery-Magnesium-Essential/dp/B07W4M3797/ref=sr_1_8?dchild=1&amp;keywords=Lavender+Epsom+Salt+%281+Gallon+Bucket%2C+8+lb%29+by+Earthborn+Elements%2C+Infused+with+Lavender+Essential+Oil%2C+Promotes+Relaxation+%26+Sleep%2C+Stress+Relief%2C+Aromatherapy&amp;qid=1619938677&amp;s=hpc&amp;sr=1-8"/>
-    <hyperlink ref="A244" r:id="rId243" display="https://www.amazon.com/Zak-Plastic-Sandwich-Storage-Containers/dp/B07622H15N/ref=sr_1_3?dchild=1&amp;keywords=Zak+Designs+Hello+Kitty+Plastic+Travel+Tumbler+5.0+average+based+on+1+product+rating+5+1+4+0+3+0+2+0+1+0+Would+recommend+Good+value+Good+quality&amp;qid=1619939507&amp;sr=8-3"/>
-    <hyperlink ref="A245" r:id="rId244" display="https://www.amazon.com/Zak-Designs-VMPA-0010-Vampirina-Gregoria/dp/B07DQ8YRW5/ref=sr_1_1_sspa?dchild=1&amp;keywords=Zak+Vampirina+Divided+Plate&amp;qid=1619939900&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE5MEFZRDlJNDNORkwmZW5jcnlwdGVkSWQ9QTA4NjczMjgyREc5QkFKVFhTT0NTJmVuY3J5cHRlZEFkSWQ9QTA2MDUyODM5RUJJUURMRzZCTkUmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A246" r:id="rId245" display="https://www.amazon.com/McCook-Pieces-Stainless-Sharpening-Kitchen/dp/B07XSC4GF2/ref=sr_1_1_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Chef%27s+Knives&amp;qid=1619940235&amp;s=kitchen&amp;sr=1-1-spons&amp;ts_id=289857&amp;psc=1&amp;smid=A25JCRI82MG2LI&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFaVkNSWDFYWlRKR1cmZW5jcnlwdGVkSWQ9QTAzNTE4NzcxSEFGMlc5WlhaVVgyJmVuY3J5cHRlZEFkSWQ9QTAzNzkwMzRXUTlPODA0OVdPVjAmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A247" r:id="rId246" display="https://www.amazon.com/Gorilla-Grip-Sharpener-Professional-Sharpening/dp/B089H2BF2T/ref=sr_1_1_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Knife+Sharpeners&amp;qid=1619941884&amp;s=kitchen&amp;sr=1-1-spons&amp;ts_id=289867&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTUxDQVRHTkVQR1NLJmVuY3J5cHRlZElkPUEwMjE5NTI3OElaUVBFTDlaV1NOJmVuY3J5cHRlZEFkSWQ9QTA1NzE1MTMyVjhaQlE1S1I0QUlQJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A248" r:id="rId247" display="https://www.amazon.com/dp/B077BBDFK2/ref=cm_gf_aajy_iaal_d_p0_qd0_V1Q9Gsf4KS0jZqhfJGpB"/>
-    <hyperlink ref="A249" r:id="rId248" display="https://www.amazon.com/dp/B08PNYYL72/ref=sspa_dk_detail_0?pd_rd_i=B08Z3D3399&amp;pd_rd_w=nFh0l&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=TpWm6&amp;pf_rd_r=EKS0BMDC6A93JSF3TK5Z&amp;pd_rd_r=8a6bd001-3f1d-443c-9b3a-e3e9167252a8&amp;smid=A2G3XCNY3AIGWM&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjJCVEtVWFhKVUJKJmVuY3J5cHRlZElkPUEwMTg4NDk1MzhCREQ0VUIxUEcwRSZlbmNyeXB0ZWRBZElkPUEwNzQ0MTY5MUpFR1NLVE5VWkJENiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
-    <hyperlink ref="A250" r:id="rId249" display="https://www.amazon.com/dp/B01FOS1WJK/ref=cm_gf_aajy_iaam_d_p0_qd2_dUgLPei4nchqtqXdzpCI"/>
-    <hyperlink ref="A251" r:id="rId250" display="https://www.amazon.com/dp/B0713ZFTLX/ref=twister_B08JCDWN7X?_encoding=UTF8&amp;psc=1"/>
-    <hyperlink ref="A252" r:id="rId251" display="https://www.amazon.com/321-STRONG-Foam-Roller-Myofascial/dp/B017TDA0ZK/ref=sr_1_1?dchild=1&amp;keywords=321%2BSTRONG%2BFoam%2BRoller%2B-%2BMedium%2BDensity%2BDeep%2BTissue%2BMassager%2Bfor%2BMuscle%2BMassage%2Band%2BMyofascial%2BTrigger%2BPoint%2BRelease%2C%2Bwith%2B4K%2BeBook(Red)&amp;qid=1619947409&amp;s=sporting-goods&amp;sr=1-1&amp;th=1"/>
-    <hyperlink ref="A253" r:id="rId252" display="https://www.amazon.com/madesmart-2-Tier-Organizer-Dividers-Large/dp/B06Y2FS8FK/ref=sr_1_3?dchild=1&amp;keywords=madesmart+2-Tier+Organizer+Bath+Collection+Slide-out+Baskets+with+Handles%2C+Space+Saving%2C+Multi-purpose+Storage+%26+BPA-Fre%2C+Large%2C+Frost-with+Dividers&amp;qid=1619951846&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A254" r:id="rId253" display="https://www.amazon.com/Laundry-Hosiery-Stocking-Underwear-Lingerie/dp/B017NEYOQQ?ref_=Oct_s9_apbd_oup_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=ac3936e9-35c3-52af-b60d-bd74d73d8163&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841"/>
-    <hyperlink ref="A255" r:id="rId254" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07RSMBZ6H?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841"/>
-    <hyperlink ref="A256" r:id="rId255" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07H8MFRT8?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
-    <hyperlink ref="A257" r:id="rId256" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07K2JQM3N?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
-    <hyperlink ref="A258" r:id="rId257" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07H8M99BT?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
-    <hyperlink ref="A259" r:id="rId258" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B082YVR2PL?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
-    <hyperlink ref="A260" r:id="rId259" display="https://www.amazon.com/LITOM-Landscape-Spotlights-Waterproof-Landscaping/dp/B083PTZVZB/ref=sr_1_1?dchild=1&amp;keywords=LITOM+12+LEDs+Solar+Landscape+Spotlights%2C+IP67+Waterproof+Solar+Powered+Wall+Lights+2-in-1+Wireless+Outdoor+Solar+Landscaping+Light+for+Yard+Garden+Driveway+Porch+Walkway+Pool+Patio+6+Pack+Cold+White&amp;qid=1620050475&amp;sr=8-1"/>
-    <hyperlink ref="A261" r:id="rId260" display="https://www.amazon.com/WERNNSAI-Video-Game-Party-Supplies/dp/B07MMTPBKT/ref=sr_1_68?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619976788&amp;sr=8-68"/>
-    <hyperlink ref="A262" r:id="rId261" display="https://www.amazon.com/Birthday-Lettering-Inflatable-Decorations-Ecofriendly/dp/B07GXQ4ZV2/ref=sr_1_3?dchild=1&amp;keywords=Happy+Birthday+Decoration+Set+with+Inflator+Letter+Balloons+Banner+Bunting+Paper+Pompoms+Foil+Unicorn+Cute+Kids+Gifts&amp;qid=1620035219&amp;sr=8-3"/>
-    <hyperlink ref="A263" r:id="rId262" display="https://www.amazon.com/AOZITA-Mason-Jar-Bathroom-Accessories/dp/B07Y4Q4J9H/ref=sr_1_1?dchild=1&amp;keywords=Mason+Jar+Bathroom+Accessories+Set+4+Pcs+-+Mason+Jar+Soap+Dispenser+%26+2+Apothecary+Jars+%26+Toothbrush+Holder+-+Rustic+Farmhouse+Decor%2C+Bathroom+Home+Decor+Clearance%2C+Countertop+Vanity+Organize+-+Black&amp;qid=1620036072&amp;sr=8-1"/>
-    <hyperlink ref="A264" r:id="rId263" display="https://www.amazon.com/Ferrero-Collection-Assorted-Chocolates-Piece/dp/B01BDI89SW/ref=sr_1_1?dchild=1&amp;keywords=Ferrero+Rocher+Fine+Hazelnut+Milk+Chocolates%2C+24+Count%2C+Assorted+Coconut+Candy+and+Chocolate+Collection+Gift+Box%2C+9.1+oz&amp;qid=1620037419&amp;s=grocery&amp;sr=1-1"/>
-    <hyperlink ref="A265" r:id="rId264" display="https://www.amazon.com/dp/B004MPA8P6/ref=cm_gf_abdf_iaaa_d_p0_qd0_ktUs1IzdOruQzdgunlIY"/>
-    <hyperlink ref="A266" r:id="rId265" display="https://www.amazon.com/WELCHS-Mixed-Fruit-Snacks-Ounce/dp/B00HFC2E82/ref=sr_1_3?dchild=1&amp;keywords=My+College+Crate+Microwaveables+Ultimate+Snack+Care+Package+for+College+Students+-+Variety+Assortment+of+Microwaveables%2C+Mac+%26+Cheese%2C+Popcorn%2C+Ramen%2C+Chips%2C+Gummies+%26+Candies+%2850+Snacks%29&amp;qid=1620037716&amp;s=grocery&amp;sr=1-3"/>
-    <hyperlink ref="A267" r:id="rId266" display="https://www.amazon.com/Kidde-468093-Two-Story-Anti-Slip-13-Foot/dp/B00005OU7B/ref=sr_1_4_sspa?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNzI4QUwxM1oyWEgyJmVuY3J5cHRlZElkPUEwNjIxNTUyMlhVUkJQWERVT0FMWSZlbmNyeXB0ZWRBZElkPUEwMTA1NTUwMkZWRDFESjNMQ0pBTiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A268" r:id="rId267" display="https://www.amazon.com/SABRE-Wedge-Security-Alarm-Siren/dp/B00M30SQGA/ref=sr_1_13?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-13"/>
-    <hyperlink ref="A269" r:id="rId268" display="https://www.amazon.com/Toeeson-Triggered-Security-Burglar-Windows/dp/B07PGXQYC9/ref=sr_1_15?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-15"/>
-    <hyperlink ref="A270" r:id="rId269" display="https://www.amazon.com/Defender-Security-10827-Door-Reinforcement/dp/B00D2K367Y/ref=sr_1_18?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-18"/>
-    <hyperlink ref="A271" r:id="rId270" display="https://www.amazon.com/Medical-Adjustable-Stability-Tool-Free-Assembly/dp/B06ZZVW94J/ref=sr_1_25?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-25"/>
-    <hyperlink ref="A272" r:id="rId271" display="https://www.amazon.com/SentrySafe-CHW20205-Fireproof-Waterproof-Interior/dp/B015P0X7F4/ref=sr_1_1?dchild=1&amp;keywords=SentrySafe+CHW20205+Fireproof+Waterproof+Box+with+Key+Lock+and+Interior+Light%2C+0.28+Cubic+Feet&amp;qid=1620049685&amp;sr=8-1"/>
-    <hyperlink ref="A273" r:id="rId272" display="https://www.amazon.com/Babyproofing-Wappa-Baby-Protectors-Installation/dp/B01N7H7J47/ref=sr_1_54?dchild=1&amp;keywords=Home+Safety&amp;qid=1620050118&amp;sr=8-54"/>
-    <hyperlink ref="A274" r:id="rId273" display="https://www.amazon.com/Bug-Zapper-Attractant-Waterproof-Electronic/dp/B083RBJ6F6/ref=sr_1_5?dchild=1&amp;keywords=Intelabe+Bug+Zapper%2C+Mosquito+Killer+USB+Rechargeable+Electric+Fly+Swatter+for+Home%2C+Outdoor%2C+Powerful+4000V+Grid%2C+Detachable+Flashlight%2C+LED+Light%2C+Safe+to+Touch+with+3-Layer+Safety+Mesh-White&amp;qid=1620050980&amp;sr=8-5"/>
-    <hyperlink ref="A275" r:id="rId274" display="https://www.amazon.com/Perfect-Birthday-Childrens-Shooting-Compatible/dp/B08HZF6V5X/ref=sr_1_2?dchild=1&amp;keywords=Gun+Toy+Gift+for+Boys+Age+of+4+5+6+7+8+9+10+11+12+Years+Old+Kids+Girls+Perfect+Present+for+Birthday+Children%27s+Day+with+Moving+Shooting+Target+2+Blaster+Gun+and+18+Foam+Balls%2C+Compatible+with+NERF+Gun&amp;qid=1619981925&amp;sr=8-2"/>
-    <hyperlink ref="A276" r:id="rId275" display="https://www.amazon.com/USA-Toyz-Compatible-Targets-Shooting/dp/B07GDNPGBS/ref=sr_1_2?dchild=1&amp;keywords=USA+Toyz+Astroshot+Zero+G+Shooting+Game+-+Nerf+Compatible+Floating+Hovering+Ball+Targets+for+Shooting+with+1+Foam+Blaster+Toy+Gun%2C+10+Floating+Ball+Gun+Targets%2C+12+Foam+Darts%2C+and+1+Foam+Dart+Holder&amp;qid=1619982053&amp;sr=8-2"/>
-    <hyperlink ref="A277" r:id="rId276" display="https://www.amazon.com/USA-Toyz-AstroShot-Shooting-Games/dp/B08B472W13/ref=sr_1_1?dchild=1&amp;keywords=USA+Toyz+AstroShot+Zero+GSX+Glow+in+The+Dark+Shooting+Games+-+Compatible+Nerf+Target%2C+Floating+Ball+Shooting+Game+for+Kids+with+Foam+Dart+Toy+Gun%2C+10+Floating+Ball+Targets%2C+and+5+Flip+Targets&amp;qid=1619982189&amp;sr=8-1"/>
-    <hyperlink ref="A278" r:id="rId277" display="https://www.amazon.com/SaltWorks-French-Flower-Artisan-Shaker/dp/B01N6VT89L/ref=sr_1_1?dchild=1&amp;keywords=SaltWorks%2C+Artisan+Salt+Company+Fleur+de+Sel+French+Flower+of+Salt%2C+Shaker+Jar%2C+Sea+Salt%2C+5.5+Oz%2C+%28Pack+Of+1%29&amp;qid=1619982789&amp;sr=8-1"/>
-    <hyperlink ref="A279" r:id="rId278" display="https://www.amazon.com/dp/B00GHAGGOG/ref=s9_acsd_otopr_hd_bw_bBGS71_c2_x_1_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-11&amp;pf_rd_r=7436Y67P7NZSFJCMS32A&amp;pf_rd_t=101&amp;pf_rd_p=2b72e6e2-4702-5ced-b555-8de815dd282f&amp;pf_rd_i=166461011"/>
-    <hyperlink ref="A280" r:id="rId279" display="https://www.amazon.com/dp/B089F7YR1T/ref=s9_acsd_otopr_hd_bw_bBGS71_c2_x_5_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-11&amp;pf_rd_r=7436Y67P7NZSFJCMS32A&amp;pf_rd_t=101&amp;pf_rd_p=2b72e6e2-4702-5ced-b555-8de815dd282f&amp;pf_rd_i=166461011"/>
-    <hyperlink ref="A281" r:id="rId280" display="https://www.amazon.com/dp/B01NCUPCD4/ref=s9_acsd_otopr_hd_bw_bBGS71_c2_x_7_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-11&amp;pf_rd_r=7436Y67P7NZSFJCMS32A&amp;pf_rd_t=101&amp;pf_rd_p=2b72e6e2-4702-5ced-b555-8de815dd282f&amp;pf_rd_i=166461011"/>
-    <hyperlink ref="A282" r:id="rId281" display="https://www.amazon.com/Mattel-Games-Magic-Ball-Retro/dp/B0149MC426/ref=sr_1_22?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Toys+%26+Games+Activities+%26+Amusements&amp;qid=1619989021&amp;s=toys-and-games&amp;sr=1-22&amp;ts_id=166027011"/>
-    <hyperlink ref="A283" r:id="rId282" display="https://www.amazon.com/Sticky-Classic-Indoor-Outdoor-Activity/dp/B086PZLD69/ref=sr_1_29_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Toys+%26+Games+Activities+%26+Amusements&amp;qid=1619989021&amp;s=toys-and-games&amp;sr=1-29-spons&amp;ts_id=166027011&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNUtZUzRFQURFUjFZJmVuY3J5cHRlZElkPUEwMzA3ODUxMU9KWDM5WENPNUxZVyZlbmNyeXB0ZWRBZElkPUEwMTEzNzUyMzZOVjdWVjM4MlYxSSZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A284" r:id="rId283" display="https://www.amazon.com/Maui-Vera-Organic-Sunburn-Moisturizer/dp/B06WD47PDL/ref=sr_1_1?dchild=1&amp;keywords=Maui+Vera+Organic+Sunburn+Relief+%26+After+Sun+Moisturizer%2C+6.5+ounce&amp;qid=1620025501&amp;s=beauty&amp;sr=1-1"/>
-    <hyperlink ref="A285" r:id="rId284" display="https://www.amazon.com/dp/B08N9Q24M9/ref=s9_acsd_ri_bw_c2_x_2_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-6&amp;pf_rd_r=BNTJGK6TJQ77FK181D6R&amp;pf_rd_t=101&amp;pf_rd_p=6359c963-d826-464b-bb12-76e3482a54bc&amp;pf_rd_i=289754"/>
-    <hyperlink ref="A286" r:id="rId285" display="https://www.amazon.com/Lodge-Skillet-Pre-Seasoned-Ready-Stove/dp/B00006JSUA/ref=lp_289814_1_1"/>
-    <hyperlink ref="A287" r:id="rId286" display="https://www.amazon.com/Lodge-Skillet-Pre-Seasoned-Ready-Stove/dp/B00006JSUA/ref=lp_289814_1_1"/>
-    <hyperlink ref="A288" r:id="rId287" display="https://www.amazon.com/Lodge-Square-Pre-seasoned-Draining-Grilling/dp/B0000CF66W/ref=lp_289814_1_10"/>
-    <hyperlink ref="A289" r:id="rId288" display="https://www.amazon.com/Contour-Gauge-Duplication-Profile-Tool-Adjustable-Lock/dp/B08B8RGZCS/ref=sr_1_1?dchild=1&amp;pf_rd_i=510136&amp;pf_rd_p=e99ef764-988c-547d-af5e-9379bdbb5519&amp;pf_rd_r=2FXWZ7NP7QJY7TCPACY9&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;qid=1620030064&amp;sr=8-1"/>
-    <hyperlink ref="A290" r:id="rId289" display="https://www.amazon.com/Gorilla-Grip-Original-Non-Adhesive-Cabinets/dp/B07GJWL9PT/ref=sr_1_4?dchild=1&amp;keywords=Gorilla%2BGrip%2BOriginal%2BOversized%2BCutting%2BBoard%2C%2B3%2BPiece%2C%2BJuice%2BGrooves%2C%2BLarger%2BThicker%2BBoards%2C%2BEasy%2BGrip%2BHandle%2C%2BPerfect%2Bfor%2Bthe%2BDishwasher%2C%2BNon%2BPorous%2C%2BExtra%2BLarge%2C%2BKitchen%2C%2BSet%2Bof%2B3%2C%2BBlack%2BGray&amp;qid=1620032805&amp;s=home-garden&amp;sr=1-4&amp;th=1"/>
-    <hyperlink ref="A291" r:id="rId290" display="https://www.amazon.com/Organic-Bamboo-Cutting-Board-Groove/dp/B08VD26MQ4?ref_=Oct_s9_apbd_obs_hd_bw_b1DP1&amp;pf_rd_r=SK4G2QKN0J14SXVMWFS9&amp;pf_rd_p=9fbb06f2-7e23-5438-b252-b0af0bfdda24&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=289851"/>
-    <hyperlink ref="A292" r:id="rId291" display="https://www.amazon.com/Komax-2-4-quart-Suitable-Lemonade-Leakproof/dp/B082FMVZZM/ref=sr_1_3?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Carafes+%26+Pitchers&amp;qid=1620036856&amp;s=kitchen&amp;sr=1-3&amp;ts_id=13217521"/>
-    <hyperlink ref="A293" r:id="rId292" display="https://www.amazon.com/Honeysuckle-Planter-Patio-Pot-Tequila/dp/B07B5GJ6MJ/ref=sr_1_11?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Planters&amp;qid=1620038294&amp;s=lawn-garden&amp;sr=1-11&amp;ts_id=553798"/>
-    <hyperlink ref="A294" r:id="rId293" display="https://www.amazon.com/Honeysuckle-Planter-Patio-Pot-Vanilla/dp/B072VM7YTZ/ref=sr_1_2?dchild=1&amp;keywords=Honeysuckle+Planter%2C+Patio+Pot%2C+15%22+Vanilla&amp;qid=1620038569&amp;s=lawn-garden&amp;sr=1-2"/>
-    <hyperlink ref="A295" r:id="rId294" display="https://www.amazon.com/Accessories-Dispenser-Toothbrush-Apothecary-Countertop/dp/B08VHWLZ7K/ref=sr_1_18?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Bathroom+Accessories&amp;qid=1620038116&amp;s=bedbath&amp;sr=1-18&amp;ts_id=1063238"/>
-    <hyperlink ref="A296" r:id="rId295" display="https://www.amazon.com/LiBa-Mildew-Resistant-Anti-Bacterial-Curtain/dp/B00LS9UD2M/ref=sr_1_11?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Shower+Curtains%2C+Hooks+%26+Liners&amp;qid=1620038838&amp;s=bedbath&amp;sr=1-11&amp;ts_id=1063246"/>
-    <hyperlink ref="A297" r:id="rId296" display="https://www.amazon.com/HBlife-Acrylic-Jewelry-Cosmetic-Organizer/dp/B08FFNWF99/ref=sr_1_4?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Cosmetic+Display+Cases&amp;qid=1620038092&amp;s=beauty&amp;sr=1-4&amp;ts_id=13861693011"/>
-    <hyperlink ref="A298" r:id="rId297" display="https://www.amazon.com/AMEITECH-Organizer-Adjustable-Lipsticks-Transparent/dp/B073S4PQ6H/ref=sr_1_5?dchild=1&amp;keywords=Makeup+Organizer%2C+360+Degree+Rotating+Adjustable+Cosmetic+Storage+Display+Case+with+8+Layers+Large+Capacity%2C+Fits+Jewelry%2CMakeup+Brushes%2C+Lipsticks+and+More%2C+Clear+Transparent&amp;qid=1620773989&amp;sr=8-5"/>
-    <hyperlink ref="A299" r:id="rId298" display="https://www.amazon.com/Dublin-Decorative-Toilet-Cleaning-Holder/dp/B075X3G25Z/ref=bmx_1?pd_rd_w=bi8Ez&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=HSG5PPF13AEXDYX77146&amp;pd_rd_r=4e3f6d64-0f32-4d13-8fe6-6bf5129d2cf1&amp;pd_rd_wg=JOqOC&amp;pd_rd_i=B075X3G25Z&amp;psc=1"/>
-    <hyperlink ref="A300" r:id="rId299" display="https://www.amazon.com/Weiai-Organizer-Acrylic-Cosmetics-Solution/dp/B07ZT6H5TH/ref=pd_pspc_cs_dps_d_0?pd_rd_w=Q0O7s&amp;pf_rd_p=b5eb2e75-f9f6-41f5-b1a4-f525faf5a1f1&amp;pf_rd_r=BXBH55D6MG1TJ6XSZKET&amp;pd_rd_r=e01690d9-20f1-46d5-8c64-ec2dfb8a7261&amp;pd_rd_wg=Oivjj&amp;pd_rd_i=B07ZT6H5TH"/>
-    <hyperlink ref="A301" r:id="rId300" display="https://www.amazon.com/Zapper-Outdoor-Electric-Mosquito-Zappers/dp/B08C7YRNPK/ref=sr_1_10?dchild=1&amp;keywords=Flowtron+BK-40D+Electronic+Insect+Killer%2C+1+Acre+Coverage%2CBlack&amp;qid=1620051338&amp;s=lawn-garden&amp;sr=1-10"/>
-    <hyperlink ref="A302" r:id="rId301" display="https://www.amazon.com/Greluna-Waterproof-Lighting-Landscape-Driveway/dp/B07BC4S8S6/ref=sr_1_27?dchild=1&amp;keywords=Pack+of+4+Solar+Powered+Outdoor+Landscape+Warm+Light+for+Garden+Yard+Fence&amp;qid=1620050415&amp;sr=8-27"/>
-    <hyperlink ref="A303" r:id="rId302" display="https://www.amazon.com/GIGALUMI-Pathway-Waterproof-Landscape-Stainless/dp/B086GKPHKP/ref=sr_1_59?dchild=1&amp;keywords=Pack%2Bof%2B4%2BSolar%2BPowered%2BOutdoor%2BLandscape%2BWarm%2BLight%2Bfor%2BGarden%2BYard%2BFence&amp;qid=1620117579&amp;sr=8-59&amp;th=1"/>
-    <hyperlink ref="A304" r:id="rId303" display="https://www.amazon.com/GIGALUMI-Pathway-Waterproof-Landscape-Driveway/dp/B07YZ4LTH3/ref=sr_1_1?dchild=1&amp;keywords=GIGALUMI+12+Pack+Solar+Pathway+Lights+Outdoor%2C+Waterproof+Outdoor+Solar+Lights+for+Garden%2C+Landscape%2C+Path%2C+Yard%2C+Patio%2C+Driveway%2C+Walkway&amp;qid=1620123876&amp;sr=8-1"/>
-    <hyperlink ref="A305" r:id="rId304" display="https://www.amazon.com/Waterproof-Crystal-Lighting-Outdoor-Decorations/dp/B07PF3FLDX/ref=sr_1_2?dchild=1&amp;keywords=20ft%2B30%2BLED%2BSolar%2BString%2BBall%2BLights%2BOutdoor%2BWaterproof%2BWarm%2BWhite%2BGarden%2BDecor&amp;qid=1620124204&amp;sr=8-2&amp;th=1"/>
-    <hyperlink ref="A306" r:id="rId305" display="https://www.amazon.com/Joomer-Christmas-Waterproof-Decorative-Decoration/dp/B07L86TVQF/ref=sr_1_2?dchild=1&amp;keywords=Joomer+2+Pack+Solar+Christmas+Lights+72ft+200+LED+8+Modes+Solar+String+Lights+Waterproof+Solar+Fairy+Lights+for+Garden%2C+Patio%2C+Fence%2C+Balcony%2C+Outdoors+%28Green%29&amp;qid=1620124705&amp;sr=8-2"/>
-    <hyperlink ref="A307" r:id="rId306" display="https://www.amazon.com/Joomer-Christmas-Waterproof-Decorative-Decoration/dp/B07L88CFZZ/ref=sr_1_2?dchild=1&amp;keywords=Joomer%2B2%2BPack%2BSolar%2BChristmas%2BLights%2B72ft%2B200%2BLED%2B8%2BModes%2BSolar%2BString%2BLights%2BWaterproof%2BSolar%2BFairy%2BLights%2Bfor%2BGarden%2C%2BPatio%2C%2BFence%2C%2BBalcony%2C%2BOutdoors%2B(Green)&amp;qid=1620124705&amp;sr=8-2&amp;th=1"/>
-    <hyperlink ref="A308" r:id="rId307" display="https://www.amazon.com/Joomer-Christmas-Waterproof-Outdoor-Gardens/dp/B07H7HB5SL/ref=sr_1_1?dchild=1&amp;keywords=Joomer+Solar+Christmas+Lights+72ft+200+LED+8+Modes+Solar+String+Lights+Waterproof+Solar+Fairy+Lights+for+Garden%2C+Patio%2C+Fence%2C+Balcony%2C+Outdoors+%28Green%29&amp;qid=1620124989&amp;sr=8-1"/>
-    <hyperlink ref="A309" r:id="rId308" display="https://www.amazon.com/Waterproof-Crystal-Lighting-Christmas-Decorations/dp/B07J631GXC/ref=sr_1_2?dchild=1&amp;keywords=Joomer+Globe+Solar+String+Lights%2C+20ft+30+LED+Outdoor+Bulb+String+Lights%2CWaterproof+8+Modes+Solar+Patio+Lights+for+Patio%2C+Garden%2C+Gazebo%2C+Yard%2C+Outdoors+%28White%29&amp;qid=1620125085&amp;sr=8-2"/>
-    <hyperlink ref="A310" r:id="rId309" display="https://www.amazon.com/Waterproof-Connectable-Outdoor-Landscape-Lighting/dp/B07VBKFQ1C/ref=sr_1_8?dchild=1&amp;keywords=Walcut+50Ft+2+Wire+LED+Rope+Lights%2C+Cool+White+Lights+with+Clear+PVC+Jacket%2C+Connectable+and+Flexible%2C+for+Indoor+Wedding+Christmas+Party+and+Waterproof+for+Outdoor+Decoration&amp;qid=1620125252&amp;s=hi&amp;sr=1-8"/>
-    <hyperlink ref="A311" r:id="rId310" display="https://www.amazon.com/Outdoor-Crystal-Decorative-Waterproof-Christmas/dp/B0881RDRMJ/ref=sxin_9_pa_sp_search_thematic_sspa?cv_ct_cx=20ft+30+LED+Solar+String+Ball+Lights+Outdoor+Waterproof+Warm+White+Garden+Decor&amp;dchild=1&amp;keywords=20ft+30+LED+Solar+String+Ball+Lights+Outdoor+Waterproof+Warm+White+Garden+Decor&amp;pd_rd_i=B0881RDRMJ&amp;pd_rd_r=7514efce-c125-4c59-8780-afa94d443c26&amp;pd_rd_w=up9Q9&amp;pd_rd_wg=RRK3v&amp;pf_rd_p=9d5c7dec-ad7e-424f-9792-7751bf0f49a3&amp;pf_rd_r=PQ6DCKQ8G7DFDNED6BFH&amp;qid=1620124204&amp;sr=1-2-a73d1c8c-2fd2-4f19-aa41-2df022bcb241-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyRTE1WVRVUTVZMTUwJmVuY3J5cHRlZElkPUEwNDgzNzQxMlFEWks2QlBLRVRQMyZlbmNyeXB0ZWRBZElkPUEwMTE0Mjc4Mzk4WERHTFMyNDZMTyZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A312" r:id="rId311" display="https://www.amazon.com/LAFEINA-String-Waterproof-Ball-Decorations/dp/B07MFJJ2CR/ref=sr_1_1?dchild=1&amp;keywords=Solar+String+Lights+Outdoor%2C+23ft+50+LED+Waterproof+Crystal+Ball+Fairy+Lights+Outside+Decorative+Lighting+for+Garden+Patio+Holiday+Decorations+%28Pink%29&amp;qid=1620125963&amp;s=lawn-garden&amp;sr=1-1"/>
-    <hyperlink ref="A313" r:id="rId312" display="https://www.amazon.com/Brightech-Ambience-Pro-Waterproof-Commercial/dp/B01IQVWJIA/ref=sr_1_1?dchild=1&amp;keywords=Brightech+Ambience+Pro+-+Waterproof+LED+Outdoor+String+Lights+-+Hanging%2C+Dimmable+2w+Vintage+Edison+Bulbs+-+24+Ft+Commercial+Grade+Patio+Lights+Create+Cafe+Ambience+In+Your+Backyard+-+black&amp;qid=1620127072&amp;sr=8-1"/>
-    <hyperlink ref="A314" r:id="rId313" display="https://www.amazon.com/TONULAX-Solar-Lights-Outdoor-Multi-Color/dp/B07DCSYTSR/ref=sr_1_4?dchild=1&amp;keywords=Solar+Flower+Lights+with+20+Cherry+Blossom%2COutdoor+Solar+Lights%2C+2+Pack+Solar+Fairy+Lights+Waterproof+Multi-Color+Solar+Powered+Garden+Lights%2C+Bigger+Solar+Panel+for+Pathway+Patio+Yard+Christmas+Decor&amp;qid=1620117229&amp;sr=8-4"/>
-    <hyperlink ref="A315" r:id="rId314" display="https://www.amazon.com/Solar-Lights-Outdoor-Multi-Color-Decoration/dp/B07GP2S846/ref=sr_1_1?dchild=1&amp;keywords=Solar+Lights+Outdoor+-+New+Upgraded+Solar+Garden+Lights%2C+Multi-Color+Changing+Lily+Solar+Flower+Lights+for+Patio%2CYard+Decoration%2C+Bigger+Flower+and+Wider+Solar+Panel+%282+Pack%2CBlue+and+White%29&amp;qid=1620135651&amp;sr=8-1"/>
-    <hyperlink ref="A316" r:id="rId315" display="https://www.amazon.com/Maggift-Powered-Garden-Lights-Automatic/dp/B01M9F6P2G/ref=sr_1_7?dchild=1&amp;keywords=Solar+Flower+Lights+with+20+Cherry+Blossom%2COutdoor+Solar+Lights%2C+2+Pack+Solar+Fairy+Lights+Waterproof+Multi-Color+Solar+Powered+Garden+Lights%2C+Bigger+Solar+Panel+for+Pathway+Patio+Yard+Christmas+Decor&amp;qid=1620117229&amp;sr=8-7"/>
-    <hyperlink ref="A317" r:id="rId316" display="https://www.amazon.com/TONULAX-Solar-Garden-Lights-Decorative/dp/B0831J58HD/ref=sr_1_10?dchild=1&amp;keywords=Solar+Flower+Lights+with+20+Cherry+Blossom%2COutdoor+Solar+Lights%2C+2+Pack+Solar+Fairy+Lights+Waterproof+Multi-Color+Solar+Powered+Garden+Lights%2C+Bigger+Solar+Panel+for+Pathway+Patio+Yard+Christmas+Decor&amp;qid=1620117229&amp;sr=8-10"/>
-    <hyperlink ref="A318" r:id="rId317" display="https://www.amazon.com/TONULAX-Flickering-Landscape-Decoration-Lighting/dp/B083NST39D/ref=sr_1_1?dchild=1&amp;keywords=TONULAX+Solar+Lights+Outdoor%2CStump+On+Fire+Torch+Lights%2CFlickering+Flame+Lantern+Lights%2CSolar+Powered+Landscape+Decoration+Lighting+for+Garden+Patio+Pathway+Deck+Yard+Decor%282+Pack%29&amp;qid=1620136474&amp;sr=8-1"/>
-    <hyperlink ref="A319" r:id="rId318" display="https://www.amazon.com/Centerpieces-Operated-Waterproof-Children-Decorations/dp/B07MDGQRLY/ref=sr_1_1?dchild=1&amp;keywords=Flower+String+Lights+for+Girls+Kids+Bedroom+Decorations+-+Pink+Cherry+Blossom+30+LED+Decorative+Fairy+Night+Light+-+Waterproof+Indoor+Outdoor+Wedding+Birthday+Party+Wall+Decor+Battery+Operated+10FT&amp;qid=1620136936&amp;sr=8-1"/>
-    <hyperlink ref="A320" r:id="rId319" display="https://www.amazon.com/Bona-Lemon-Mint-Floor-Care/dp/B0821WZK6N/ref=sr_1_5?dchild=1&amp;keywords=Bona%C2%AE+Hard-Surface+Floor+Cleaner+36oz&amp;qid=1620198207&amp;sr=8-5"/>
-    <hyperlink ref="A321" r:id="rId320" display="https://www.amazon.com/FloorPops-FP2942-Medina-Stick-Floor/dp/B07QFBX8R1/ref=sr_1_3?dchild=1&amp;keywords=118%27%27x7.87%22+Self+Adhesive+Vinyl+Floor+Tiles+Waterproof+Stain+Resistant+Wall+Tile&amp;qid=1620198874&amp;sr=8-3"/>
-    <hyperlink ref="A322" r:id="rId321" display="https://www.amazon.com/MTO0302-Beveled-Metallic-Mosaic-Tile/dp/B07F7FPJQH/ref=sr_1_1?dchild=1&amp;keywords=MTO0302+Modern+Beveled+Hexagon+Beige+White+Glossy+Metallic+Glass+Mosaic+Tile&amp;qid=1620199239&amp;sr=8-1"/>
-    <hyperlink ref="A323" r:id="rId322" display="https://www.amazon.com/Contour-Legacy-Support-Sciatica-Pressure/dp/B07MFN8FRT/ref=sr_1_4?dchild=1&amp;keywords=Elevated+Wellness+Pillow+for+Sleeping+%E2%80%93+Shredded+Memory+Foam+%E2%80%93+Queen+%E2%80%93+Cooling+Bamboo+Cover&amp;qid=1620205989&amp;sr=8-4"/>
-    <hyperlink ref="A324" r:id="rId323" display="https://www.amazon.com/Munchkin-Piece-Snack-Catcher-Green/dp/B01GKZNWTO/ref=sr_1_4?dchild=1&amp;keywords=zak%21snak+Spider-Man+Snack+%26+Drink+Cups+10+oz.&amp;qid=1620206688&amp;sr=8-4"/>
-    <hyperlink ref="A325" r:id="rId324" display="https://www.amazon.com/Munchkin-Divided-Suction-Plates-Green/dp/B07G8RZG7K/ref=sr_1_5?dchild=1&amp;keywords=Munchkin+Splash+Toddler+Divided+Plates%2C+Blue%2FGreen%2C+2+Pack%2C+Colors+May+Vary&amp;qid=1620206963&amp;sr=8-5"/>
-    <hyperlink ref="A326" r:id="rId325" display="https://www.amazon.com/Munchkin-Fresh-Food-Feeder-Green/dp/B000GK5XY2/ref=sr_1_4?dchild=1&amp;keywords=2+Pack+-+Munchkin+Healthflow+Fresh+Food+Feeder+1+Each&amp;qid=1620207613&amp;sr=8-4"/>
-    <hyperlink ref="A327" r:id="rId326" display="https://www.amazon.com/Munchkin-Fresh-Food-Feeder-Green/dp/B000GK5XY2/ref=sr_1_4?dchild=1&amp;keywords=2+Pack+-+Munchkin+Healthflow+Fresh+Food+Feeder+1+Each&amp;qid=1620207613&amp;sr=8-5"/>
-    <hyperlink ref="A328" r:id="rId327" display="https://www.amazon.com/Munchkin-White-Hot-Safety-Spoons/dp/B0013NB70A/ref=sr_1_2?dchild=1&amp;keywords=Munchkin+Deluxe+Fresh+Food+Feeder%2C+1+Pack%2C+Colors+Vary&amp;qid=1620207836&amp;sr=8-2"/>
-    <hyperlink ref="A329" r:id="rId328" display="https://www.amazon.com/Munchkin-Piece-Soft-Tip-Infant-Spoons/dp/B006VB29D8/ref=sr_1_4?dchild=1&amp;keywords=Munchkin+Deluxe+Fresh+Food+Feeder%2C+1+Pack%2C+Colors+Vary&amp;qid=1620207836&amp;sr=8-4"/>
-    <hyperlink ref="A330" r:id="rId329" display="https://www.amazon.com/Munchkin-Stay-Suction-Bowl-Pack/dp/B07L4P5MLB/ref=sr_1_6?dchild=1&amp;keywords=3+Pack+-+Munchkin+Soft-Tip+Infant+Spoons%2C+Assorted+Colors+6+ea&amp;qid=1620208027&amp;sr=8-6"/>
-    <hyperlink ref="A331" r:id="rId330" display="https://www.amazon.com/Munchkin-16104-Bath-Bobbers-Toy/dp/B01G1JQY2G/ref=sr_1_8?dchild=1&amp;keywords=3+Pack+-+Munchkin+Soft-Tip+Infant+Spoons%2C+Assorted+Colors+6+ea&amp;qid=1620208027&amp;sr=8-8"/>
-    <hyperlink ref="A332" r:id="rId331" display="https://www.amazon.com/Munchkin-Piece-Fork-Spoon-Set/dp/B006SFUCSG/ref=sr_1_7?dchild=1&amp;keywords=3+Pack+-+Munchkin+Soft-Tip+Infant+Spoons%2C+Assorted+Colors+6+ea&amp;qid=1620208027&amp;sr=8-7"/>
-    <hyperlink ref="A333" r:id="rId332" display="https://www.amazon.com/LEGO-30302-Ultimate-Spider-Man-Polybag/dp/B00K5TK0AG/ref=sr_1_1?dchild=1&amp;keywords=LEGO+Marvel+Super+Heroes+30302+Ultimate+Spider-Man+Glider+Polybag&amp;qid=1620209723&amp;sr=8-1"/>
-    <hyperlink ref="A334" r:id="rId333" display="https://www.amazon.com/Cascade-Platinum-Dishwasher-Detergent-Actionpacs/dp/B07CTQ8THP/ref=sr_1_1?dchild=1&amp;keywords=Cascade+Platinum+Plus+Dishwasher+Pods%2C+ActionPacs+Detergent%2C+Lemon%2C+70+Count&amp;qid=1620669825&amp;sr=8-1"/>
-    <hyperlink ref="A335" r:id="rId334" display="https://www.amazon.com/Supplement-Melatonin-L-Theanine-Chamomile-BlackBerry/dp/B07H8NZZJB/ref=sr_1_4?dchild=1&amp;keywords=Olly+Sleep+Melatonin+Gummy%2C+3Mgper+Serving%2C+All+Natural+Flavor+%26+Colors.+35+Day+Supply+%2870+Gummies%29%2C+L+Theanine%2C+Chamomile%2C+Lemon+Balm&amp;qid=1620218078&amp;sr=8-4"/>
-    <hyperlink ref="A336" r:id="rId335" display="https://www.amazon.com/Finish-5170078234-NULL-75-O/dp/B000VDRF18/ref=sr_1_1?dchild=1&amp;keywords=Finish+Powder+Dishwasher+Detergent%2C+Lemon+Fresh+Scent%2C+75+oz%28Pack+of+2%29&amp;qid=1620218354&amp;sr=8-1"/>
-    <hyperlink ref="A337" r:id="rId336" display="https://www.amazon.com/COSRX-Advanced-Snail-Essence-Renewal/dp/B07N3SMBRM/ref=sr_1_1?dchild=1&amp;keywords=%28+2pack+%29+%5B+COSRX+%5D+Advanced+Snail+96+Mucin+Power+Essence+100ml&amp;qid=1620219518&amp;sr=8-1"/>
-    <hyperlink ref="A338" r:id="rId337" display="https://www.amazon.com/Affresh-W10282479-Dishwasher-Cleaner-Tablets/dp/B002R0DXQE/ref=sr_1_14?dchild=1&amp;keywords=Affresh+W10282479+Dishwasher+Cleaner%2C+6+Tablets&amp;qid=1620220225&amp;sr=8-14"/>
-    <hyperlink ref="A339" r:id="rId338" display="https://www.amazon.com/SweetLeaf-Natural-Stevia-Sweetener-70/dp/B00430EJR8/ref=sr_1_1?dchild=1&amp;keywords=Sweetleaf+Sweetener+Packets+70+ct%2C+70+PC+%28Pack+of+3%29&amp;qid=1620220697&amp;sr=8-1"/>
-    <hyperlink ref="A340" r:id="rId339" display="https://www.amazon.com/Resolve-Professional-Strength-Carpet-Cleaner/dp/B011O2T8A0/ref=sr_1_1?dchild=1&amp;keywords=Resolve+Professional+Strength+Spot+and+Stain+Carpet+Cleaner%2C+32+oz&amp;qid=1620230976&amp;sr=8-1"/>
-    <hyperlink ref="A341" r:id="rId340" display="https://www.amazon.com/AIMAIAIMAI-Silicone-Bathroom-Draining-Waterfall/dp/B08B4TT9QM/ref=sr_1_1?dchild=1&amp;keywords=HEMOTON+3pcs+Soap+Holder+Lightweight+Portable+Soap+Saver+Easy+Cleaning+Soap+Dish+with+Drain+Soap+Box+for+Bathroom+Shower+%28Creamy+White%29&amp;qid=1620233411&amp;sr=8-1"/>
-    <hyperlink ref="A342" r:id="rId341" display="https://www.amazon.com/Popular-Bath-Dispenser-Lotion-Collection/dp/B004GXAJ12/ref=sr_1_2?dchild=1&amp;keywords=Popular+Bath+Phoenix+Beige+%26+Copper+Bath+Collection+Tumbler+Hand+Crafted&amp;qid=1620235461&amp;sr=8-2"/>
-    <hyperlink ref="A343" r:id="rId342" display="https://www.amazon.com/Chef-Craft-12001-6-Silver/dp/B001WS77SC/ref=sr_1_2?dchild=1&amp;keywords=Short+Turner+Grey+Nylon+Select&amp;qid=1620240052&amp;sr=8-2"/>
-    <hyperlink ref="A344" r:id="rId343" display="https://www.amazon.com/Chef-Craft-13010-Premium-Silicone/dp/B01BKAU5WQ/ref=sr_1_2?dchild=1&amp;keywords=Chef+Craft+Premium+Red+Silicone+Turner%2FSpatula&amp;qid=1620240178&amp;sr=8-2"/>
-    <hyperlink ref="A345" r:id="rId344" display="https://www.amazon.com/Chef-Craft-13010-Premium-Silicone/dp/B01BKAU66G/ref=sr_1_2?dchild=1&amp;keywords=Chef%2BCraft%2BPremium%2BRed%2BSilicone%2BTurner%2FSpatula&amp;qid=1620240178&amp;sr=8-2&amp;th=1"/>
-    <hyperlink ref="A346" r:id="rId345" display="https://www.amazon.com/Spatula-Resistant-Silicone-Stainless-Steel/dp/B015W8IUQU/ref=sr_1_18_sspa?dchild=1&amp;keywords=Chef+Craft+Premium+Orange+Silicone+Spatula&amp;qid=1620240508&amp;sr=8-18-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFQMkpLNzVWUDFSMkYmZW5jcnlwdGVkSWQ9QTA0NDM2NDIySVRFQ1pXT1BYOEFXJmVuY3J5cHRlZEFkSWQ9QTA1OTgxNjcyWlNBS1ZBTUFJM09SJndpZGdldE5hbWU9c3BfbXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A347" r:id="rId346" display="https://www.amazon.com/Chef-Craft-13465-11-Blue/dp/B01BKAUK7G/ref=sr_1_2_sspa?dchild=1&amp;keywords=Chef+Craft+Premium+Blue+Silicone+Spatula&amp;qid=1620240696&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQTlZUjJUSTAwTlMzJmVuY3J5cHRlZElkPUEwNDM5NTgyNVhTTUZPMko1S0Q3JmVuY3J5cHRlZEFkSWQ9QTAyOTE0MzIySk9JVFI1TUVLNVY2JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A348" r:id="rId347" display="https://www.amazon.com/Deiss-Citrus-Zester-Cheese-Grater/dp/B0738C7RXF/ref=sr_1_2?dchild=1&amp;keywords=DI+ORO+2-Piece+Kitchen+Grater+Set+%E2%80%93+Handheld+Coarse+Cheese+Grater+and+Fine+Lemon+Zester+%E2%80%93+Effortlessly+Grates+All+Food+Types+and+Cleans+Easy+%E2%80%93+Ergonomic+Comfort+Grip+and+Razor+Sharp+Stainless+Steel&amp;qid=1620241006&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A349" r:id="rId348" display="https://www.amazon.com/YFWOOD-Basting-Replacement-Grilling-Smoking/dp/B07WBY55V4/ref=sr_1_1?dchild=1&amp;keywords=Cotonie+BBQ+Basting+Mops+18+Inch+Grill+Basting+Brush+Wooden+Long+Handle+with&amp;qid=1620283239&amp;sr=8-1"/>
-    <hyperlink ref="A350" r:id="rId349" display="https://www.amazon.com/hblife-Acrylic-Decorative-Rhinestones-Bathroom/dp/B077F7XKZH/ref=pd_rhf_se_s_gcx-rhf_1?pd_rd_w=PqZa1&amp;pf_rd_p=2ae4ccb1-7034-4114-8654-5ba995870d70&amp;pf_rd_r=JTB83BNP55BQ7SR5WFCN&amp;pd_rd_r=0ef5e942-9a8a-4160-b8de-f379ddd753c6&amp;pd_rd_wg=ccf8f&amp;pd_rd_i=B01N2Z2YQ4&amp;th=1"/>
-    <hyperlink ref="A351" r:id="rId350" display="https://www.amazon.com/YATTICH-Electric-Patterns-Furniture-YT-191/dp/B083CZ6ZQ5/ref=sr_1_1?dchild=1&amp;keywords=PaintWIZ+HandHeld+Paint+Sprayer+PRO%2C+PW25150+HVLP+Spray+Gun+Spray+System&amp;qid=1620287397&amp;sr=8-1"/>
-    <hyperlink ref="A352" r:id="rId351" display="https://www.amazon.com/YATTICH-Sprayer-Patterns-Furniture-Cabinets/dp/B08THKLXKL/ref=sr_1_1?dchild=1&amp;keywords=Yattich+Paint+Sprayer%2C+700W+High+Power+Hvlp+Spray+Gun+With+5+Copper+Nozzles+%26+3+Patterns%2C+Easy+To+Spray+And+Clean%2C+For+Furniture%2C+Cabinets%2C+Fence%2C+Railing%2C+Garden+Chairs+Etc.+Yt-201-A+%28Yellow%29&amp;qid=1620287678&amp;sr=8-1"/>
-    <hyperlink ref="A353" r:id="rId352" display="https://www.amazon.com/YATTICH-Sprayer-Patterns-Furniture-Cabinets/dp/B089YV1D4K/ref=sr_1_1?dchild=1&amp;keywords=YATTICH+Paint+Sprayer%2C+700W+High+Power+HVLP+Spray+Gun%2C+5+Copper+Nozzles+%26+3+Patterns%2C+Easy+to+Clean%2C+for+Furniture%2C+Cabinets%2C+Fence%2C+Car%2C+Bicycle%2C+Garden+Chairs+etc.+YT-201-A&amp;qid=1620287736&amp;sr=8-1"/>
-    <hyperlink ref="A354" r:id="rId353" display="https://www.amazon.com/Dicfeos-Container-Furniture-Spraying-Cleaning/dp/B082HGH48D/ref=sr_1_1?dchild=1&amp;keywords=Dicfeos+Paint+Sprayer%2C+700W+High+Power+Hvlp+Home+Spray+Gun+With+1300Ml+Container%2C+4+Nozzle+Sizes+For+Fence%2C+Cabinet+And+Furniture%2C+Easy+Spraying+And+Cleaning&amp;qid=1620287842&amp;sr=8-1"/>
-    <hyperlink ref="A355" r:id="rId354" display="https://www.amazon.com/Tooluxe-31209L-Cleaning-Maintenance-Complete/dp/B00GGQKK52/ref=sr_1_11?dchild=1&amp;keywords=4+Piece+HVLP+Air+Powered+Gravity+Feed+Fed+and+Pot+Spray+Gun+Paint+Sprayer+Set&amp;qid=1620288164&amp;sr=8-11"/>
-    <hyperlink ref="A356" r:id="rId355" display="https://www.amazon.com/Cuisipro-Silicone-Wok-Turner-12-5-Inch/dp/B00TZLUOJW/ref=sr_1_5?dchild=1&amp;keywords=Cuisipro+Silicone+%26+Stainless+Steel+Wok+Turner%2C+Red&amp;qid=1620289526&amp;sr=8-5"/>
-    <hyperlink ref="A357" r:id="rId356" display="https://www.amazon.com/KitchenAid-KO038OHOBA-Gourmet-Cookie-Lifter/dp/B07TMR7THF/ref=sr_1_22?dchild=1&amp;keywords=oxo+good+grips+silicone+cookie+spatula&amp;qid=1620290418&amp;sr=8-22"/>
-    <hyperlink ref="A358" r:id="rId357" display="https://www.amazon.com/KitchenAid-KO031OHOBA-Gourmet-Scraper-Spatula/dp/B07TMR8B28/ref=sr_1_1?dchild=1&amp;keywords=KitchenAid+KO031OHOBA+Gourmet+Scraper+Spatula%2C+one+size%2C+Matte+Black&amp;qid=1620290560&amp;sr=8-1"/>
-    <hyperlink ref="A359" r:id="rId358" display="https://www.amazon.com/KitchenAid-KO031OHOBA-Gourmet-Scraper-Spatula/dp/B07TLNSW2Z/ref=sr_1_1?dchild=1&amp;keywords=KitchenAid%2BKO031OHOBA%2BGourmet%2BScraper%2BSpatula%2C%2Bone%2Bsize%2C%2BMatte%2BBlack&amp;qid=1620290560&amp;sr=8-1&amp;th=1"/>
-    <hyperlink ref="A360" r:id="rId359" display="https://www.amazon.com/KitchenAid-KO031OHOBA-Gourmet-Scraper-Spatula/dp/B07TPYD8N2/ref=sr_1_1?dchild=1&amp;keywords=KitchenAid%2BKO031OHOBA%2BGourmet%2BScraper%2BSpatula%2C%2Bone%2Bsize%2C%2BMatte%2BBlack&amp;qid=1620290560&amp;sr=8-1&amp;th=1"/>
-    <hyperlink ref="A361" r:id="rId360" display="https://www.amazon.com/Joseph-UNITG0100SW-Uni-Tool-Utensil-Slotted/dp/B002STMD0Q/ref=sr_1_10?dchild=1&amp;keywords=Two-in-one+Turners+Silicone+Spatula+For+Frying+Steak+High+Temperature+Resistance+Household+Kitchen+Tools&amp;qid=1620301788&amp;sr=8-10"/>
-    <hyperlink ref="A362" r:id="rId361" display="https://www.amazon.com/Lifewit-Laundry-Freestanding-Water-Resistant-Bathroom/dp/B07CWSCN3L/ref=sr_1_1?dchild=1&amp;keywords=Outtop+Waterproof+Sheets+Laundry+Clothes+Laundry+Basket+Storage+Basket+Folding+Storage&amp;qid=1620302819&amp;sr=8-1"/>
-    <hyperlink ref="A363" r:id="rId362" display="https://www.amazon.com/Tovolo-Tight-Fitting-Stacking-Sweet-Treat/dp/B00JRXQ6CC/ref=sr_1_2?dchild=1&amp;keywords=Tovolo+Mini+Melamine+Berry+Colander+-+Blue&amp;qid=1620456938&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A364" r:id="rId363" display="https://www.amazon.com/Regency-Natural-Cooking-Twine-Cotton/dp/B002NU6HOI/ref=sr_1_4?dchild=1&amp;keywords=Regency+Natural+Ultra+Fine+100%25+Cotton+Cheesecloth+9+sq.ft&amp;qid=1620458645&amp;sr=8-4"/>
-    <hyperlink ref="A365" r:id="rId364" display="https://www.amazon.com/Cuisinart-CTG-00-3MS-Stainless-Steel-Strainers/dp/B007TUQF9O/ref=sr_1_1?dchild=1&amp;keywords=cuisinart+set+of+3+fine+mesh+stainless+steel+strainer&amp;qid=1620458776&amp;sr=8-1"/>
-    <hyperlink ref="A366" r:id="rId365" display="https://www.amazon.com/Fengbao-2PCS-Kitchen-Sink-Strainer/dp/B01CWXLMB8/ref=sr_1_1?dchild=1&amp;keywords=Unique+Bargains+Kitchen+Stainless+Steel+Round+Shape+Mesh+Screen+Sink+Strainer+8.5cm+Dia+2+Pcs&amp;qid=1620460669&amp;sr=8-1"/>
-    <hyperlink ref="A367" r:id="rId366" display="https://www.amazon.com/AquaBliss-Output-12-Stage-Shower-Filter/dp/B01MUBU0YC/ref=sr_1_3?dchild=1&amp;keywords=Cloth+coffee+strainer+colador.+Wood+handle+with+metal+ring.+Pack+of+3&amp;qid=1620460797&amp;sr=8-3"/>
-    <hyperlink ref="A368" r:id="rId367" display="https://www.amazon.com/AquaDance-Experience-Officially-Independently-Performance/dp/B07WGWHV2G/ref=sr_1_2?dchild=1&amp;keywords=AquaDance%2B7%22%2BPremium%2BHigh%2BPressure%2B3-Way%2BRainfall%2BCombo%2Bwith%2BStainless%2BSteel%2BHose%2B%E2%80%93%2BEnjoy%2BLuxurious%2B6-setting%2BRain%2BShower%2BHead%2Band%2BHand%2BHeld%2BShower%2BSeparately%2Bor%2BTogether%2B%E2%80%93%2BBrushed%2BNickel%2BFinish&amp;qid=1620460967&amp;sr=8-2&amp;th=1"/>
-    <hyperlink ref="A369" r:id="rId368" display="https://www.amazon.com/Resistance-Bands-Set-Accessories-Stackable/dp/B08J7ZL2P1/ref=sr_1_4_sspa?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-4-spons&amp;psc=1&amp;smid=A3DXZQUC71AZXG&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFZVUw0S1VVV1dTTFUmZW5jcnlwdGVkSWQ9QTA2OTQ1MDEzTTVDREU3SlI5QkUwJmVuY3J5cHRlZEFkSWQ9QTAyODkzOTMzMEoySUZTS0xQSjI3JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A370" r:id="rId369" display="https://www.amazon.com/Sunny-Health-Fitness-Elliptical-Frictionless/dp/B07QZHNWK8/ref=sr_1_5?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-5"/>
-    <hyperlink ref="A371" r:id="rId370" display="https://www.amazon.com/Sunny-Health-Fitness-Treadmill-Mat/dp/B0786PLYTR/ref=sr_1_21?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-21"/>
-    <hyperlink ref="A372" r:id="rId371" display="https://www.amazon.com/Giotto-Gallon-Motivational-Paracord-Removable/dp/B0878R9YQN/ref=sr_1_25?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-25"/>
-    <hyperlink ref="A373" r:id="rId372" display="https://www.amazon.com/Brieftons-Glass-Water-Bottles-Stainless/dp/B01DN6001G/ref=sr_1_2?dchild=1&amp;keywords=Borosilicate+Glass+Water+Bottle%2C+BPA+Free+Glass+Drinking+Bottle+with+Neoprene+Sleeve+and+Leak-Proof+Stainless+Steel+Lid%2832oz+Wine+red%29&amp;qid=1620469331&amp;sr=8-2"/>
-    <hyperlink ref="A374" r:id="rId373" display="https://www.amazon.com/Hygge-Games-Should-Known-Trivia/dp/B0778TY7XP/ref=sr_1_6?dchild=1&amp;keywords=Board+games&amp;qid=1620469601&amp;sr=8-6"/>
-    <hyperlink ref="A375" r:id="rId374" display="https://www.amazon.com/Hasbro-Gaming-Kingdom-Adventures-Exclusive/dp/B00000DMF5/ref=sr_1_7?dchild=1&amp;keywords=Board+games&amp;qid=1620469601&amp;sr=8-7"/>
-    <hyperlink ref="A376" r:id="rId375" display="https://www.amazon.com/Jax-8002-Sequence-Game/dp/B00000IVAK/ref=sr_1_15?dchild=1&amp;keywords=Board+games&amp;qid=1620469601&amp;sr=8-15"/>
-    <hyperlink ref="A377" r:id="rId376" display="https://www.amazon.com/Hasbro-Gaming-Board-Amazon-Exclusive/dp/B06XY48MK1/ref=sr_1_28?dchild=1&amp;keywords=Board+games&amp;qid=1620472803&amp;sr=8-28"/>
-    <hyperlink ref="A378" r:id="rId377" display="https://www.amazon.com/Hunt-Killer-Immersive-Independent-Detectives/dp/B085ZNYPR3/ref=sr_1_35?dchild=1&amp;keywords=Board+games&amp;qid=1620472803&amp;sr=8-35"/>
-    <hyperlink ref="A379" r:id="rId378" display="https://www.amazon.com/ThinkFun-Zingo-Builder-Early-Reading/dp/B00GRV5JMU/ref=sr_1_2?dchild=1&amp;keywords=ThinkFun+Zingo+Word+Builder+Early+Reading+Game+-+Award+Winning+Game+for+Pre-Readers+and+Early+Readers&amp;qid=1620474435&amp;sr=8-2"/>
-    <hyperlink ref="A380" r:id="rId379" display="https://www.amazon.com/ThinkFun-Zingo-Sight-Words-Reading/dp/B008RU8GC4/ref=sr_1_1?dchild=1&amp;keywords=ThinkFun+Zingo+Sight+Words+Award+Winning+Early+Reading+Game+for+Pre-K+to+2nd+Grade+-+Toy+of+the+Year+Finalist%2C+A+Fun+and+Educational+Game+Developed+by+Educators+for+Boys+and+Girls+-+Style%3A+Zingo+Sight&amp;qid=1620474522&amp;sr=8-1"/>
-    <hyperlink ref="A381" r:id="rId380" display="https://www.amazon.com/Skin-Scrubber-Blackhead-Comedones-Extractor/dp/B07TY46K8Q/ref=sr_1_1?dchild=1&amp;keywords=facial+product&amp;qid=1620068599&amp;sr=8-1"/>
-    <hyperlink ref="A382" r:id="rId381" display="https://www.amazon.com/Humidifier-Atomizer-Moisturizing-Cleansing-Blackhead/dp/B07MFKH5NS/ref=sxin_10?asc_contentid=amzn1.osa.0652660b-f329-4157-8db2-53c85f209d43.ATVPDKIKX0DER.en_US&amp;asc_contenttype=article&amp;ascsubtag=amzn1.osa.0652660b-f329-4157-8db2-53c85f209d43.ATVPDKIKX0DER.en_US&amp;creativeASIN=B07MFKH5NS&amp;cv_ct_cx=facial+product&amp;cv_ct_id=amzn1.osa.0652660b-f329-4157-8db2-53c85f209d43.ATVPDKIKX0DER.en_US&amp;cv_ct_pg=search&amp;cv_ct_we=asin&amp;cv_ct_wn=osp-single-source-pecos-desktop&amp;dchild=1&amp;keywords=facial+product&amp;linkCode=oas&amp;pd_rd_i=B07MFKH5NS&amp;pd_rd_r=375d9f2f-9fa1-4ee0-ac56-a1c765e16127&amp;pd_rd_w=ENvc2&amp;pd_rd_wg=O7LSJ&amp;pf_rd_p=9ca0c43d-5b2f-4d08-be2c-4bf20950d3e4&amp;pf_rd_r=9CMXCS2GSJ8286ADTP0A&amp;qid=1620068599&amp;sr=1-3-c26ac7f6-b43f-4741-a772-17cad7536576&amp;tag=buyersguide0e-20"/>
-    <hyperlink ref="A383" r:id="rId382" display="https://www.amazon.com/Cr%C3%A9pe-Erase-Advanced-Restorative-Introductory/dp/B07SQPSMC6/ref=pd_rhf_se_s_sspa_dk_rhf_search_pt_sub_0_1/138-3300996-7449919?_encoding=UTF8&amp;pd_rd_i=B07SQPSMC6&amp;pd_rd_r=d6fa41a2-f1a4-46c4-b4a1-a78f4a414158&amp;pd_rd_w=bueh9&amp;pd_rd_wg=Doxtp&amp;pf_rd_p=e680275b-9049-45d9-8358-fb967c5fbab8&amp;pf_rd_r=ATTEC5JQWA1H4PQ66D0K&amp;psc=1&amp;refRID=ATTEC5JQWA1H4PQ66D0K&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyTUZWQjE1OVFIOFdDJmVuY3J5cHRlZElkPUEwNTE2ODMxM0paTjhXN1VNTDNJNCZlbmNyeXB0ZWRBZElkPUEwMDM0MjQ5MVI2QVZGUTFKT0ZCViZ3aWRnZXROYW1lPXNwX3JoZl9zZWFyY2hfcGVyc29uYWxpemVkJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A384" r:id="rId383" display="https://www.amazon.com/Cocktail-Shaker-Bar-Set-Cresimo/dp/B07T4SDTQC/ref=sr_1_50?crid=31BSX5OQFUZIB&amp;dchild=1&amp;keywords=home+accessories&amp;qid=1620071025&amp;sprefix=home+a%2Caps%2C548&amp;sr=8-50"/>
-    <hyperlink ref="A385" r:id="rId384" display="https://www.amazon.com/Mixology-Bartender-Kit-Bartending-Experience/dp/B07DZS2VXJ/ref=sr_1_4?dchild=1&amp;keywords=Mixology+Bartender+Kit%3A+11-Piece+Bar+Tool+Set+with+Rustic+Wood+Stand+-+Perfect+Home+Bartending+Kit+and+Cocktail+Shaker+Set+For+an+Awesome+Drink+Mixing+Experience+%28Silver%29&amp;qid=1620072412&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A386" r:id="rId385" display="https://www.amazon.com/PharMeDoc-Pregnancy-Maternity-Detachable-Extension/dp/B07JR3T1G6/ref=sr_1_14?crid=21VRBFZZUDLUH&amp;dchild=1&amp;keywords=body+pillow&amp;qid=1620072930&amp;sprefix=body%2Caps%2C506&amp;sr=8-14"/>
-    <hyperlink ref="A387" r:id="rId386" display="https://www.amazon.com/Beauticom-Acrylic-Cosmetics-Ointments-Products/dp/B01KU3UPSS/ref=sr_1_19?crid=34EEIEX1LS3N0&amp;dchild=1&amp;keywords=hair%2Bproducts&amp;qid=1620119084&amp;s=apparel&amp;sprefix=hair%2Bpro%2Cfashion%2C431&amp;sr=1-19&amp;th=1"/>
-    <hyperlink ref="A388" r:id="rId387" display="https://www.amazon.com/Microfiber-26inch-Purple-Absorbent-Turban/dp/B07R6PQVW5/ref=sr_1_2_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Hair%2BDrying%2BTowels&amp;qid=1620124895&amp;s=beauty&amp;sr=1-2-spons&amp;ts_id=3784491&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzQlI0WVpVTkVPSFFWJmVuY3J5cHRlZElkPUEwMTI5NzQ0MklIOEI1MFZOMDFYNCZlbmNyeXB0ZWRBZElkPUEwMjk5MDg5M1RVV1NVTU8zRFcyNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
-    <hyperlink ref="A389" r:id="rId388" display="https://www.amazon.com/Microfiber-26inch-Purple-Absorbent-Turban/dp/B07KM3CMZM/ref=sr_1_2_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Hair%2BDrying%2BTowels&amp;qid=1620124895&amp;s=beauty&amp;sr=1-2-spons&amp;ts_id=3784491&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzQlI0WVpVTkVPSFFWJmVuY3J5cHRlZElkPUEwMTI5NzQ0MklIOEI1MFZOMDFYNCZlbmNyeXB0ZWRBZElkPUEwMjk5MDg5M1RVV1NVTU8zRFcyNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
-    <hyperlink ref="A390" r:id="rId389" display="https://www.amazon.com/Conair-Double-Ceramic-Curling-1-inch/dp/B07CKKGR83/ref=sr_1_10?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Styling%2BTools%2B%26%2BAppliances&amp;qid=1620125463&amp;s=beauty&amp;sr=1-10&amp;ts_id=11058091&amp;th=1"/>
-    <hyperlink ref="A391" r:id="rId390" display="https://www.amazon.com/Conair-Double-Ceramic-Curling-1-inch/dp/B07CKT4DFR/ref=sr_1_10?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Styling%2BTools%2B%26%2BAppliances&amp;qid=1620125463&amp;s=beauty&amp;sr=1-10&amp;ts_id=11058091&amp;th=1"/>
-    <hyperlink ref="A392" r:id="rId391" display="https://www.amazon.com/Utoplike-Bathtub-Extending-Relaxing-Organizer/dp/B07H3MYDWJ/ref=sr_1_5?dchild=1&amp;keywords=Utoplike+Bathtub+Caddy+Tray+Shelf+Across+Tub%2C+Bamboo+Expandable+Bath+Tub+Rack+Holds+Book+Wine+Glass+Towel+ipad+Phone+Food+Tablet+Soap+for+Bathroom+Spa&amp;qid=1620138925&amp;sr=8-5"/>
-    <hyperlink ref="A393" r:id="rId392" display="https://www.amazon.com/Mind-Reader-3TOILR-BLK-Accessories-Organizer/dp/B07N9F5HL6/ref=sr_1_2_sspa?dchild=1&amp;keywords=Mind+Reader+3TOILR-BLK+3+Tier+Organizer%2C+Bathroom+Space+Saver%2C+Over+The+Toilet+Rack%2C+Black&amp;qid=1620139837&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzVDI2NExQUERJTEQ3JmVuY3J5cHRlZElkPUEwNjEyOTc1UEYwVjNaRVMwQ1VMJmVuY3J5cHRlZEFkSWQ9QTAzMjQwOTkzMTc4QVk2Njc5UVpBJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A394" r:id="rId393" display="https://www.amazon.com/Luxetique-Lavender-Drawstring-Birthday-Christmas/dp/B07TVR4836/ref=sr_1_1?dchild=1&amp;keywords=Spa+Luxetique+Spa+Gift+Baskets%2C+Spa+Gift+Box%2C+Lavender+Bath+Set%2C+6+Pcs+Home+Spa+Set+Includes+Body+Lotion%2C+Shower+Gel%2C+Bubble+Bath%2C+Hand+Cream%2C+Travel+Bag.+Best+Gift+Sets+for+Women.&amp;qid=1620140111&amp;sr=8-1"/>
-    <hyperlink ref="A395" r:id="rId394" display="https://www.amazon.com/dp/B07F38QHYW?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
-    <hyperlink ref="A396" r:id="rId395" display="https://www.amazon.com/dp/B07JQF1YY1?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
-    <hyperlink ref="A397" r:id="rId396" display="https://www.amazon.com/dp/B07G7Z88CV?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
-    <hyperlink ref="A398" r:id="rId397" display="https://www.amazon.com/dp/B07P1KFDT5?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
-    <hyperlink ref="A399" r:id="rId398" display="https://www.amazon.com/Bomb-Fortune-telling-Purple-Mystic/dp/B01LZHZN7A/ref=sr_1_1?dchild=1&amp;keywords=Da+Bomb+Fortune+Telling+Bath+Bomb%2C+Blue%2FPurple&amp;qid=1620195410&amp;sr=8-1"/>
-    <hyperlink ref="A400" r:id="rId399" display="https://www.amazon.com/Bomb-Tattoo-Yellow-Sandalwood-Ounce/dp/B07CTQ35XQ/ref=sr_1_6?dchild=1&amp;keywords=Set+of+4+-+Da+Bomb+Bath+Fizzers+Cupid+Bath+Bomb+-+3.5oz+-+Strawberry+Scent&amp;qid=1620195581&amp;sr=8-6"/>
-    <hyperlink ref="A401" r:id="rId400" display="https://www.amazon.com/Bomb-Dragon-White-Fresh-Ounce/dp/B07CV8KDPW/ref=sr_1_7?dchild=1&amp;keywords=Set+of+4+-+Da+Bomb+Bath+Fizzers+Cupid+Bath+Bomb+-+3.5oz+-+Strawberry+Scent&amp;qid=1620195581&amp;sr=8-7"/>
-    <hyperlink ref="A402" r:id="rId401" display="https://www.amazon.com/Bomb-Treasure-bomb-Gold-Coconut/dp/B0764HJSWD/ref=sr_1_24?dchild=1&amp;keywords=Set+of+4+-+Da+Bomb+Bath+Fizzers+Cupid+Bath+Bomb+-+3.5oz+-+Strawberry+Scent&amp;qid=1620195581&amp;sr=8-24"/>
-    <hyperlink ref="A403" r:id="rId402" display="https://www.amazon.com/V-TOP-Stopper-Silicone-Bathtub-Bathroom/dp/B076JD153W/ref=sr_1_100_sspa?dchild=1&amp;keywords=bath+product&amp;qid=1620198807&amp;sr=8-100-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE4TERXSUNZNFZLSVAmZW5jcnlwdGVkSWQ9QTAwNjkxMTUzRUJJVkRQSFdQQkFKJmVuY3J5cHRlZEFkSWQ9QTA0NTkwNTRCNDYyVFFTTzgxTUsmd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A404" r:id="rId403" display="https://www.amazon.com/Bomb-Fairy-Purple-Buttercup-Ounce/dp/B07CTKH9BT/ref=sr_1_1?dchild=1&amp;keywords=Da+Bomb+Fairy+Bath+Bomb&amp;qid=1620196682&amp;sr=8-1"/>
-    <hyperlink ref="A405" r:id="rId404" display="https://www.amazon.com/dp/B003E2PGMI?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1"/>
-    <hyperlink ref="A406" r:id="rId405" display="https://www.amazon.com/dp/B07TV9B4DV/ref=twister_B07YF3FRFM?_encoding=UTF8&amp;psc=1"/>
-    <hyperlink ref="A407" r:id="rId406" display="https://www.amazon.com/amFilm-Tempered-Screen-Protector-Nintendo-Switch/dp/B01N3ASPNV/ref=sr_1_2?dchild=1&amp;keywords=DWK+Animal+Napkin+and+Salt+and+Pepper+Holder%7CNapkin+Holders+for+Tables%7CNapkin+Holders+for+Kitchen%7CKitchen+Table+Decor%7CSalt+and+Pepper+Shaker%7CKitchen+Decor+-White+Tiger&amp;qid=1620203312&amp;sr=8-2"/>
-    <hyperlink ref="A408" r:id="rId407" display="https://www.amazon.com/Umite-Chef-Utensils-Non-stick-Resistant/dp/B087TDMVM8/ref=sr_1_3?dchild=1&amp;keywords=Umite+Chef+Kitchen+Cooking+Utensils+Set%2C+24+pcs+Non-stick+Silicone+Cooking+Kitchen+Utensils+Spatula+Set+with+Holder%2C+Wooden+Handle+Heat+Resistant+Silicone+Kitchen+Gadgets+Utensil+Set+%28Colorful%29&amp;qid=1620206984&amp;sr=8-3"/>
-    <hyperlink ref="A409" r:id="rId408" display="https://www.amazon.com/Kitchen-Gizmo-Snap-Strain-Red/dp/B081FGJHC9/ref=sr_1_13?dchild=1&amp;keywords=kitchen%2Baccesories&amp;qid=1620206628&amp;sr=8-13&amp;th=1"/>
-    <hyperlink ref="A410" r:id="rId409" display="https://www.amazon.com/Porcelain-Condiment-Spice-Container-Lids/dp/B076H6459H/ref=sr_1_1?dchild=1&amp;keywords=Porcelain+Condiment+Jar+Spice+Container+with+Lids+-+Bamboo+Cap+Holder+Spot%2C+Ceramic+Serving+Spoon%2C+Wooden+Tray+-+Best+Pottery+Cruet+Pot+for+Your+Home%2C+Kitchen%2C+Counter.+White%2C170+ML+%285.8+OZ%29%2C+Set+of+3&amp;qid=1620208007&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A411" r:id="rId410" display="https://www.amazon.com/Sweejar-Royal-Ceramic-Sugar-Creamer/dp/B07X94PLLQ/ref=bmx_4?pd_rd_w=9V8FT&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=JS8NVY0SC4RBPHD70PYW&amp;pd_rd_r=cc41db8e-ce42-4a13-9599-e25a93326282&amp;pd_rd_wg=28l8o&amp;pd_rd_i=B07X7Z961K&amp;th=1"/>
-    <hyperlink ref="A412" r:id="rId411" display="https://www.amazon.com/DOAROCA-Electric-Efficiency-Stainless-Attachments/dp/B08LGC65Y9/ref=sr_1_1?dchild=1&amp;keywords=DOAROCA+Electric+Hand+Mixer+5+Speed+Handhold+Mixer%2C+400w+Ultra+Power+High+Speed+%26+Efficiency+Kitchen+Mixer+with+6+Stainless+Steel+Attachments%2C+Storage+Stand&amp;qid=1620212223&amp;sr=8-1"/>
-    <hyperlink ref="A413" r:id="rId412" display="https://www.amazon.com/Grant-Howard-Rooster-Vinegar-Multicolor/dp/B001Q8I1WE/ref=sr_1_1?dchild=1&amp;keywords=Grant+Howard+39264+Rooster+Glass+Oil+%26+Vinegar+Cruet+Dispenser+Bottle%2C+16+Ounce&amp;qid=1620212739&amp;sr=8-1"/>
-    <hyperlink ref="A414" r:id="rId413" display="https://www.amazon.com/Function-Overload-Protection-Certification-Supports/dp/B07Q2P77JL/ref=sr_1_1?dchild=1&amp;keywords=Smart+Plug+Gosund+15A+Smart+Home+WiFi+Outlet+Work+with+Alexa+Google+Home%2C4+Pack+Mini+Socket+with+Timer+Function+and+Overload+Protection%2C+Support+High+Power+Appliance%2C+Fcc&amp;qid=1620224150&amp;sr=8-1"/>
-    <hyperlink ref="A415" r:id="rId414" display="https://www.amazon.com/Amazer-Toothbrush-Stainless-Toothpaste-Multi-Functional/dp/B07BMVGH5H/ref=sr_1_34?crid=26Z23Y4QOOX8W&amp;dchild=1&amp;keywords=home+assecories&amp;qid=1620224076&amp;sprefix=home+assec%2Caps%2C420&amp;sr=8-34"/>
-    <hyperlink ref="A416" r:id="rId415" display="https://www.amazon.com/Mason-Jar-Toothbrush-Holder-Accessories/dp/B07PFPFW3Z/ref=sr_1_1?dchild=1&amp;keywords=Mason%2BJar%2BToothbrush%2BHolder%2B-%2BBronze%2B-%2Bwith%2B16%2Bounce%2BBall%2BMason%2BJar%2CPremium%2BRustproof%2B304%2BStainless%2BSteel%2BLid%2Band%2BChalkboard%2BLabels%2B-%2BRustic%2BFarmhouse%2BDecor%2BBronze%2BBathroom%2BAccessories%2B%2F%2BBronze&amp;qid=1620225244&amp;sr=8-1&amp;th=1"/>
-    <hyperlink ref="A417" r:id="rId416" display="https://www.amazon.com/Mason-Jar-Toothbrush-Holder-Accessories/dp/B07PFPFW3Z/ref=sr_1_1?dchild=1&amp;keywords=Mason%2BJar%2BToothbrush%2BHolder%2B-%2BBronze%2B-%2Bwith%2B16%2Bounce%2BBall%2BMason%2BJar%2CPremium%2BRustproof%2B304%2BStainless%2BSteel%2BLid%2Band%2BChalkboard%2BLabels%2B-%2BRustic%2BFarmhouse%2BDecor%2BBronze%2BBathroom%2BAccessories%2B%2F%2BBronze&amp;qid=1620225244&amp;sr=8-1&amp;th=1"/>
-    <hyperlink ref="A418" r:id="rId417" display="https://www.amazon.com/Macaron-Acrylic-Handmade-Barettes-Accessories/dp/B07ZK64XZJ/ref=sr_1_2?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620239684&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-2"/>
-    <hyperlink ref="A419" r:id="rId418" display="https://www.amazon.com/Allucho-Headbands-Hairband-Accessories-Christmas/dp/B07WYLS2NP/ref=sr_1_8?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620239684&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-8"/>
-    <hyperlink ref="A420" r:id="rId419" display="https://www.amazon.com/Merroyal-Fascinator-Feathers-Headband-Favors/dp/B07Y76VMC7/ref=sr_1_51_sspa?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair%2Baccessories&amp;qid=1620241280&amp;s=apparel&amp;sprefix=hair%2B%2Cfashion%2C433&amp;sr=1-51-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyMktYWTA5TVdPUUUzJmVuY3J5cHRlZElkPUEwNzEyMDYyMzlQTzFRWkpHNFNZUyZlbmNyeXB0ZWRBZElkPUEwMzAyNjE3MTRZM0FHTTA5RUZRWSZ3aWRnZXROYW1lPXNwX2F0Zl9uZXh0JmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1"/>
-    <hyperlink ref="A421" r:id="rId420" display="https://www.amazon.com/Segbeauty-Continuous-Aerosol-Trigger-Hairstyling/dp/B08BRKHM1H/ref=sr_1_64?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair%2Baccessories&amp;qid=1620241280&amp;s=apparel&amp;sprefix=hair%2B%2Cfashion%2C433&amp;sr=1-64&amp;th=1"/>
-    <hyperlink ref="A422" r:id="rId421" display="https://www.amazon.com/Relavel-Cosmetic-Organizer-Adjustable-Shoulder/dp/B087RMXZ3F/ref=sr_1_78?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620241280&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-78"/>
-    <hyperlink ref="A423" r:id="rId422" display="https://www.amazon.com/SWEETV-Jeweled-Baroque-Queen-Crown/dp/B074M6577N/ref=sr_1_177?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620242681&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-177"/>
-    <hyperlink ref="A424" r:id="rId423" display="https://www.amazon.com/Furora-LIGHTING-Flameless-Operated-Flickering/dp/B07V3532SD/ref=sr_1_1_sspa?dchild=1&amp;keywords=room%2Bdecor&amp;qid=1620246120&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyR0IzN0M0MVdCN1pWJmVuY3J5cHRlZElkPUEwMjU0MzUxMUtGM09IMkhRTjU1NyZlbmNyeXB0ZWRBZElkPUEwNjgyODU2M0tOSTM4TVdTUEZFWSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
-    <hyperlink ref="A425" r:id="rId424" display="https://www.amazon.com/Steamer-Nano-Humidifier-Atomizer-Moisturizing-Stainless/dp/B0835669M4/ref=sr_1_1_sspa?crid=9TFHTVYT33T9&amp;dchild=1&amp;keywords=facial+steamer&amp;qid=1620248156&amp;sprefix=facial%2Caps%2C489&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFaMlNNWlQzM1k1VSZlbmNyeXB0ZWRJZD1BMDIzMjY3NDEyRTNTQldQNVlNSDYmZW5jcnlwdGVkQWRJZD1BMDk0OTE2ODFHS1VPWE1SQTJZOFUmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A426" r:id="rId425" display="https://www.amazon.com/Steamer-Nano-Humidifier-Atomizer-Moisturizing-Stainless/dp/B0878XF7B9/ref=sr_1_1_sspa?crid=9TFHTVYT33T9&amp;dchild=1&amp;keywords=facial%2Bsteamer&amp;qid=1620248156&amp;sprefix=facial%2Caps%2C489&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFaMlNNWlQzM1k1VSZlbmNyeXB0ZWRJZD1BMDIzMjY3NDEyRTNTQldQNVlNSDYmZW5jcnlwdGVkQWRJZD1BMDk0OTE2ODFHS1VPWE1SQTJZOFUmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1"/>
-    <hyperlink ref="A427" r:id="rId426" display="https://www.amazon.com/Jasfura-Spring-Flower-Decorative-Cushion/dp/B08R9JK5KS/ref=sr_1_5?dchild=1&amp;keywords=Popeven%2BSet%2Bof%2B4%2BSpring%2BTeal%2BFlower%2BThrow%2BPillow%2BCovers%2B18x18%2BInch%2BDecorative%2BCouch%2BPillow%2BCases%2BCotton%2BLinen%2BCase%2BSquare%2BCushion%2BCovers%2Bfor%2BLiving%2BRoom%2C%2BBed%2C%2BSofa%2Band%2BCar%2B(Teal)&amp;qid=1620279050&amp;s=home-garden&amp;sr=1-5&amp;th=1"/>
-    <hyperlink ref="A428" r:id="rId427" display="https://www.amazon.com/MIZON-Black-Snail-Repair-Cream/dp/B00B4PWEJU/ref=sr_1_1?dchild=1&amp;keywords=Premium+Snail+Repair+Cream%2C+Intensive+Care%2C+Korean+Skin+Care+With+Black+Snail+Mucin+%26+Plant+Extracts%2C+Facial+Moisturizing+Snail+Mucin+Extract%2C+Wrinkle+Care%2C+Blemish+Care+And+Firming+%2875Ml%2C+2.5+Fl+Oz%29&amp;qid=1620281171&amp;sr=8-1"/>
-    <hyperlink ref="A429" r:id="rId428" display="https://www.amazon.com/MIZON-Snail-Repair-Cream-75ml/dp/B00NTWT90I/ref=sr_1_5?dchild=1&amp;keywords=Korean+Skin+Care+Set%3A+Mizon%27s+All+in+One+Snail+Repair+Cream+2+Pack%2C+Face+Moisturizer+with+Snail+Mucin+Extract%2C+Anti-wrinkles%2C+Acne+Scars+and+Dark+Spots+Treatment%2C+5.06+Oz+%2875ml+x2%29&amp;qid=1620281454&amp;sr=8-5"/>
-    <hyperlink ref="A430" r:id="rId429" display="https://www.amazon.com/Mizon-Original-Skin-Energy-Hyaluronic/dp/B00HSFXEYO/ref=sr_1_16?dchild=1&amp;keywords=Mizon+All+In+One+Snail+Repair+Cream%2C+2.53+Oz&amp;qid=1620281745&amp;sr=8-16"/>
-    <hyperlink ref="A431" r:id="rId430" display="https://www.amazon.com/Cracked-Moisturizing-Soothing-Ingredients-Elbows/dp/B0872YW6BX/ref=sr_1_8?dchild=1&amp;keywords=Mizon+All+In+One+Snail+Repair+Cream%2C+2.53+Oz&amp;qid=1620281745&amp;sr=8-8"/>
-    <hyperlink ref="A432" r:id="rId431" display="https://www.amazon.com/COSRX-Hyaluronic-Intensive-Cream-100ml/dp/B072FH17NJ/ref=sr_1_22?dchild=1&amp;keywords=korean+cosmetics+elensilia+escargot+original+repair+cream+with+snail+extracts+50g%2B50g+2ea&amp;qid=1620281822&amp;sr=8-22"/>
-    <hyperlink ref="A433" r:id="rId432" display="https://www.amazon.com/Elensilia-French-Propolis-Resistem-Cream/dp/B00TP4GEE8/ref=sr_1_55?dchild=1&amp;keywords=korean+cosmetics+elensilia+escargot+original+repair+cream+with+snail+extracts+50g%2B50g+2ea&amp;qid=1620291125&amp;sr=8-55"/>
-    <hyperlink ref="A434" r:id="rId433" display="https://www.amazon.com/Essence-Moisturizing-Brighten-Nourishing-Collagen/dp/B07Z3WYFJ3/ref=sr_1_53?dchild=1&amp;keywords=korean+cosmetics+elensilia+escargot+original+repair+cream+with+snail+extracts+50g%2B50g+2ea&amp;qid=1620291125&amp;sr=8-53"/>
-    <hyperlink ref="A435" r:id="rId434" display="https://www.amazon.com/Stanley-Classic-Vacuum-Bottle-Hammertone/dp/B000FZX93K/ref=sr_1_4?dchild=1&amp;keywords=Roll+over+image+to+zoom+in+Stanley+Classic+Vacuum+Insulated+Wide+Mouth+Bottle+-+BPA-Free+18%2F8+Stainless+Steel+Thermos+for+Cold+and+Hot+Beverages+%E2%80%93+Keeps+Liquid+Hot+or+Cold+for+Up+to+24+Hours.1.1Qt&amp;qid=1620296112&amp;sr=8-4"/>
-    <hyperlink ref="A436" r:id="rId435" display="https://www.amazon.com/Clippers-Fingernail-Pedicure-Manicure-Stainless/dp/B07SVP4CWK/ref=sr_1_4_sspa?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNlNVWjRSMlFaTzFKJmVuY3J5cHRlZElkPUEwMjIxMTkwMUFQQUpFQ1JGWEVJVyZlbmNyeXB0ZWRBZElkPUEwMTYxNzI5MjFDWlU0VFFFQ0FaTiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A437" r:id="rId436" display="https://www.amazon.com/FIXBODY-Nail-Clipper-Set-Fingernails/dp/B07282RRFQ/ref=sr_1_1_sspa?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-1-spons&amp;psc=1&amp;smid=A1TXXLON680AN3&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNlNVWjRSMlFaTzFKJmVuY3J5cHRlZElkPUEwMjIxMTkwMUFQQUpFQ1JGWEVJVyZlbmNyeXB0ZWRBZElkPUEwMzE3ODM1MkNKTjJaWE5UN1k5QSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A438" r:id="rId437" display="https://www.amazon.com/Dr-Nail-Professional-Clippers-Artificial-Manicure/dp/B07GWQQW5K/ref=sr_1_1?dchild=1&amp;keywords=Dr.Nail+Professional+Acrylic+Nail+Clipper+False+Nails+Cutter+Fake+Nail+Clippers+Nail+Tip+Trimmer+for+Artificial+Nail+Art+Manicure+Tools+Clip+Tool+pink&amp;qid=1620297818&amp;sr=8-1"/>
-    <hyperlink ref="A439" r:id="rId438" display="https://www.amazon.com/MILEILUOYUE-clippers-stainless-oblique-suitable/dp/B07WN92KDD/ref=sr_1_11?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-11"/>
-    <hyperlink ref="A440" r:id="rId439" display="https://www.amazon.com/Clippers-Fingernail-Toenail-Clipper-HAWATOUR/dp/B083S6LFCS/ref=sr_1_12?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-12"/>
-    <hyperlink ref="A441" r:id="rId440" display="https://www.amazon.com/ArtNaturals-Foot-Spa-Massager-Heat/dp/B01N9QGDWC/ref=sr_1_1?dchild=1&amp;keywords=ArtNaturals+Foot+Spa+Massager+-+Lights+%26+Bubbles+-+Heated+-+Temperature+Control+-+Soothe+%26+Relax+Tired+Feet+w%2F+All+in+One+Therapeutic+Home+Salon+%26+Massager+Tub+-+Foot+Bath+Pedicure&amp;qid=1620331083&amp;sr=8-1"/>
-    <hyperlink ref="A442" r:id="rId441" display="https://www.amazon.com/Portable-Electric-Nail-Drill-Professional/dp/B07G45JDLD/ref=sr_1_20?crid=3PD3J9SQD3ZJH&amp;dchild=1&amp;keywords=nail+kit&amp;qid=1620330672&amp;sprefix=nail%2Caps%2C546&amp;sr=8-20"/>
-    <hyperlink ref="A443" r:id="rId442" display="https://www.amazon.com/Portable-Electric-Nail-Drill-Professional/dp/B01H05EDK0/ref=sr_1_20?crid=3PD3J9SQD3ZJH&amp;dchild=1&amp;keywords=nail%2Bkit&amp;qid=1620330672&amp;sprefix=nail%2Caps%2C546&amp;sr=8-20&amp;th=1"/>
-    <hyperlink ref="A444" r:id="rId443" display="https://www.amazon.com/Portable-Electric-Nail-Drill-Professional/dp/B07G44P9ZS/ref=sr_1_20?crid=3PD3J9SQD3ZJH&amp;dchild=1&amp;keywords=nail%2Bkit&amp;qid=1620330672&amp;sprefix=nail%2Caps%2C546&amp;sr=8-20&amp;th=1"/>
-    <hyperlink ref="A445" r:id="rId444" display="https://www.amazon.com/Beetles-Kaleidoscope-Collection-Manicure-Activator/dp/B08G1JH5LM/ref=sr_1_1?dchild=1&amp;keywords=Beetles+20+Pcs+Dip+Powder+Nail+Kit+Starter%2C+Rainbow+Dipping+Powder+Set+Nude+Glitter+Kaleidoscope+Collection+for+DIY+Salon+Nail+Art+Manicure+with+Base+Top+Coat+Activator+Brush+Saver&amp;qid=1620333025&amp;sr=8-1"/>
-    <hyperlink ref="A446" r:id="rId445" display="https://www.amazon.com/LiBa-Mildew-Resistant-Anti-Microbial-Curtain/dp/B0829F1BD6/ref=zg_bs_1063236_1?_encoding=UTF8&amp;psc=1&amp;refRID=D6SF4TPCW8QE0Y7T7RZM"/>
-    <hyperlink ref="A447" r:id="rId446" display="https://www.amazon.com/Gorilla-Grip-Original-Chenille-Absorbent/dp/B076DWG81H/ref=zg_bs_1063236_5?_encoding=UTF8&amp;refRID=D6SF4TPCW8QE0Y7T7RZM&amp;th=1"/>
-    <hyperlink ref="A448" r:id="rId447" display="https://www.amazon.com/Gorilla-Grip-Original-Antibacterial-Phthalate/dp/B071ZQVTRS/ref=zg_bs_1063236_8?_encoding=UTF8&amp;refRID=D6SF4TPCW8QE0Y7T7RZM&amp;th=1"/>
-    <hyperlink ref="A449" r:id="rId448" display="https://www.amazon.com/Anpro-Adjuster-Resizer-Please-Picture/dp/B073FDFLSF/ref=zg_bs_12896081_9?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A450" r:id="rId449" display="https://www.amazon.com/Mandrel-Measurement-Measure-Jeweler-Jewelers/dp/B08C5LQ8D6/ref=zg_bs_12896081_15?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A451" r:id="rId450" display="https://www.amazon.com/Daughter-Matching-Pendant-Necklace-Birthday/dp/B07BJGWG1T/ref=zg_bs_12896081_21?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A452" r:id="rId451" display="https://www.amazon.com/GWHOLE-Adjuster-Silver-Polishing-Cloth/dp/B01M0OX3EW/ref=zg_bs_12896081_23?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A453" r:id="rId452" display="https://www.amazon.com/Invisible-Adjuster-Loose-Jewelry-Polishing/dp/B07WK2NNR6/ref=zg_bs_12896081_25?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A454" r:id="rId453" display="https://www.amazon.com/Tiparts-Necklace-Extender-Bracelet-Lobster/dp/B07J9X7X5V/ref=zg_bs_12896081_38?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A455" r:id="rId454" display="https://www.amazon.com/TDHDIKE-Silicone-Jewelry-Multi-Purpose-Placemat/dp/B0876V1QYP/ref=zg_bs_12896081_42?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A456" r:id="rId455" display="https://www.amazon.com/Pairs-Bullet-Clutch-Earring-Safety/dp/B07HP3C39C/ref=zg_bs_12896081_50?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
-    <hyperlink ref="A457" r:id="rId456" display="https://www.amazon.com/BENECREAT-Aluminum-Bendable-Sculpting-Skeleton/dp/B082D9NQ3P/ref=zg_bs_12896081_57?_encoding=UTF8&amp;refRID=T5ZK000GMJJY2X634R14&amp;th=1"/>
-    <hyperlink ref="A458" r:id="rId457" display="https://www.amazon.com/Paxcoo-Jewelry-Beading-Making-Supplies/dp/B079234LMQ/ref=zg_bs_12896081_61?_encoding=UTF8&amp;psc=1&amp;refRID=T5ZK000GMJJY2X634R14"/>
-    <hyperlink ref="A459" r:id="rId458" display="https://www.amazon.com/Silicone-Scrubber-Exfoliating-Bristles-Sensitive/dp/B08JYHR5NR/ref=sr_1_3?dchild=1&amp;keywords=INNERNEED%2BSoft%2BSilicone%2BFace%2BBrush%2BCleanser%2Band%2BMassager%2BManual%2BCleansing%2BScrubber%2C%2Bwith%2BSilicone%2BBody%2BBrush%2BShower%2BScrubber%2B(Gray%2BBlue)%2BBlue%2Bwith%2B1%2Bbody%2Bbrush%2Bgray&amp;qid=1620553391&amp;s=beauty&amp;sr=1-3&amp;th=1"/>
-    <hyperlink ref="A460" r:id="rId459" display="https://www.amazon.com/Softsoap-Liquid-Hand-Soap-Aloe/dp/B079FYJC97/ref=zg_bs_3777891_3?_encoding=UTF8&amp;refRID=FVN3BA0CH7MVH9BPX6P8&amp;th=1"/>
-    <hyperlink ref="A461" r:id="rId460" display="https://www.amazon.com/Schick-Intuition-Sensitive-Moisturizing-Refills/dp/B004CCJH10/ref=sr_1_15?dchild=1&amp;keywords=healh+care&amp;qid=1620573817&amp;sr=8-15"/>
-    <hyperlink ref="A462" r:id="rId461" display="https://www.amazon.com/Compatible-OneBlade-Electric-Attachment-Accessories/dp/B08KZCYV2V/ref=sr_1_1?dchild=1&amp;keywords=Hard+Case+Compatible+with+Philips+Norelco+OneBlade+Face+Body+Hybrid+Electric+Trimmer+Shaver+QP2630%2F70%2F72%2F+90+QP2520%2F70%2F72%2F+90.+Storage+Carrying+Holder+Fits+for+Attachment+and+Accessories+%28Box+Only%29&amp;qid=1620574309&amp;sr=8-1"/>
-    <hyperlink ref="A463" r:id="rId462" display="https://www.amazon.com/Activity-MorePro-Temperature-Waterproof-Pedometer/dp/B08P6JHLS8/ref=sr_1_3?dchild=1&amp;keywords=2021+Activity+Fitness+Tracker%2C+MorePro+Temperature+Heart+Rate+Blood+Pressure+Monitor+IP68+Waterproof+Sport+Smart+Watch%2CSleep+Tracking+Pedometer+Calories+Counter+Health+Bracelet+for+Women+Men+Kids&amp;qid=1620574835&amp;sr=8-3"/>
-    <hyperlink ref="A464" r:id="rId463" display="https://www.amazon.com/Activity-MorePro-Temperature-Waterproof-Pedometer/dp/B08P6R63ZL/ref=sr_1_3?dchild=1&amp;keywords=2021%2BActivity%2BFitness%2BTracker%2C%2BMorePro%2BTemperature%2BHeart%2BRate%2BBlood%2BPressure%2BMonitor%2BIP68%2BWaterproof%2BSport%2BSmart%2BWatch%2CSleep%2BTracking%2BPedometer%2BCalories%2BCounter%2BHealth%2BBracelet%2Bfor%2BWomen%2BMen%2BKids&amp;qid=1620574835&amp;sr=8-3&amp;th=1"/>
-    <hyperlink ref="A465" r:id="rId464" display="https://www.amazon.com/Activity-MorePro-Temperature-Waterproof-Pedometer/dp/B08P6QGZQK/ref=sr_1_3?dchild=1&amp;keywords=2021%2BActivity%2BFitness%2BTracker%2C%2BMorePro%2BTemperature%2BHeart%2BRate%2BBlood%2BPressure%2BMonitor%2BIP68%2BWaterproof%2BSport%2BSmart%2BWatch%2CSleep%2BTracking%2BPedometer%2BCalories%2BCounter%2BHealth%2BBracelet%2Bfor%2BWomen%2BMen%2BKids&amp;qid=1620574835&amp;sr=8-3&amp;th=1"/>
-    <hyperlink ref="A466" r:id="rId465" display="https://www.amazon.com/Care-Touch-Automatic-Pressure-Monitor/dp/B01JPRM9LG/ref=sr_1_32?dchild=1&amp;keywords=healh+care&amp;qid=1620574691&amp;sr=8-32"/>
-    <hyperlink ref="A467" r:id="rId466" display="https://www.amazon.com/Coconut-Milk-Body-Scrub-Essential/dp/B07TH9YNL7/ref=sr_1_12?crid=16AFER19ZV1S0&amp;dchild=1&amp;keywords=body+scrub&amp;qid=1620576500&amp;sprefix=body+%2Caps%2C427&amp;sr=8-12"/>
-    <hyperlink ref="A468" r:id="rId467" display="https://www.amazon.com/Classic-Operation-Skill-Amazon-Exclusive/dp/B00000DMFM/ref=sr_1_52?dchild=1&amp;keywords=Board+games&amp;qid=1620472803&amp;sr=8-52"/>
-    <hyperlink ref="A469" r:id="rId468" display="https://www.amazon.com/Girls-Talking-Popular-Toddler-Electronic/dp/B07P9482PJ/ref=sr_1_3?dchild=1&amp;keywords=Beijue+16+Bit+Handheld+Games+for+Kids+Adults+3.0%27%27+Large+Screen+Preloaded+100+HD+Classic+Retro+Video+Games+no+Need+WiFi+USB+Rechargeable+Seniors+Electronic+Game+Player+Birthday+Xmas+Present+%28Blue%29&amp;qid=1620476366&amp;sr=8-3"/>
-    <hyperlink ref="A470" r:id="rId469" display="https://www.amazon.com/Interactive-Controlled-Repeating-Recognition-Recording/dp/B07Y1HK5BW/ref=sr_1_4?dchild=1&amp;keywords=Beijue%2B16%2BBit%2BHandheld%2BGames%2Bfor%2BKids%2BAdults%2B3.0%27%27%2BLarge%2BScreen%2BPreloaded%2B100%2BHD%2BClassic%2BRetro%2BVideo%2BGames%2Bno%2BNeed%2BWiFi%2BUSB%2BRechargeable%2BSeniors%2BElectronic%2BGame%2BPlayer%2BBirthday%2BXmas%2BPresent%2B(Blue)&amp;qid=1620476366&amp;sr=8-4&amp;th=1"/>
-    <hyperlink ref="A471" r:id="rId470" display="https://www.amazon.com/Hesung-Inflatable-Center-Backyard-Colorful/dp/B08P52913Y/ref=gbps_img_s-5_73d8_f814dd2f?smid=ATVPDKIKX0DER&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=BPC4431PTSWNJ6GDKGM5"/>
-    <hyperlink ref="A472" r:id="rId471" display="https://www.amazon.com/TP-Link-Kasa-Smart-Wifi-Plug/dp/B07RCNB2L3/ref=gbps_tit_s-5_73d8_84fa3e4d?smid=ATVPDKIKX0DER&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=BPC4431PTSWNJ6GDKGM5&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExTTgzTVBPSjdRNVc4JmVuY3J5cHRlZElkPUEwMDI2MzM5Mlk1S005NktBUVFMSyZlbmNyeXB0ZWRBZElkPUEwNjk1ODMzRE83RzdWSUcyTVNYJndpZGdldE5hbWU9c3BfZ2JfbWFpbl9zdXBwbGUmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A473" r:id="rId472" display="https://www.amazon.com/Multimineral-Multivitamin-Supplement-Antioxidant-Properties/dp/B01KE592JU/ref=gbps_tit_s-5_73d8_d9222763?smid=A63Q4LI2EE4BW&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=BPC4431PTSWNJ6GDKGM5&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExTTgzTVBPSjdRNVc4JmVuY3J5cHRlZElkPUEwMDI2MzM5Mlk1S005NktBUVFMSyZlbmNyeXB0ZWRBZElkPUEwMjg5MjExMkswU05FT0lCRzdFRCZ3aWRnZXROYW1lPXNwX2diX21haW5fc3VwcGxlJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A474" r:id="rId473" display="https://www.amazon.com/Mounting-Dream-600x400mm-Capacity-MD2268-LK/dp/B00NKYYMAW/ref=sr_1_1?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-1"/>
-    <hyperlink ref="A475" r:id="rId474" display="https://www.amazon.com/Bracket-Articulating-Rotation-600x400mm-Pipishell/dp/B07MZTT1BF/ref=sr_1_2?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-2"/>
-    <hyperlink ref="A476" r:id="rId475" display="https://www.amazon.com/Mounting-Dream-Articulating-400x400mm-MD2413-MX/dp/B00KXTZ3BE/ref=sr_1_3?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-3"/>
-    <hyperlink ref="A477" r:id="rId476" display="https://www.amazon.com/USX-MOUNT-XMM006-Articulating-400x400mm-Weight/dp/B07CXQRMLQ/ref=sr_1_4?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-4"/>
-    <hyperlink ref="A478" r:id="rId477" display="https://www.amazon.com/USX-MOUNT-TVs-Fits-600x400mm-Weight-Capacity/dp/B07CXF452P/ref=sr_1_6?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-6"/>
-    <hyperlink ref="A479" r:id="rId478" display="https://www.amazon.com/Articulating-Extension-Rotation-400x400mm-Pipishell/dp/B07PMBDZ7K/ref=sr_1_3?dchild=1&amp;keywords=TV+Wall+Mount+Bracket+Full+Motion+Dual+Swivel+Articulating+Arms+Extension+Tilt+Rotation%2C+Fits+Most+26-55+Inch+LED%2C+LCD%2C+OLED+Flat%26Curved+TVs%2C+Max+VESA+400x400mm+and+Holds+up+to+99lbs+by+Pipishell&amp;qid=1620656706&amp;sr=8-3"/>
-    <hyperlink ref="A480" r:id="rId479" display="https://www.amazon.com/Rubbermaid-2108377-Brilliance-14-Piece-Container/dp/B07X1TMQ34?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_7_0cb9e519"/>
-    <hyperlink ref="A481" r:id="rId480" display="https://www.amazon.com/Rubbermaid-2108371-Leak-Proof-Brilliance-Containers/dp/B07X6VT5DX/ref=sr_1_6?dchild=1&amp;keywords=Rubbermaid+Brilliance+Storage+14-Piece+Plastic+Lids%7CBPA+Free%2C+Leak+Proof+Food+Container%2C+Clear&amp;qid=1620667789&amp;s=home-garden&amp;sr=1-6"/>
-    <hyperlink ref="A482" r:id="rId481" display="https://www.amazon.com/KIPBELIF-Insulated-lunch-bags-women/dp/B08DKS2JB7?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_tlt_27_a4bcdd32&amp;th=1"/>
-    <hyperlink ref="A483" r:id="rId482" display="https://www.amazon.com/KIPBELIF-Insulated-lunch-bags-women/dp/B07ZGBZGDY?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_tlt_27_a4bcdd32&amp;th=1"/>
-    <hyperlink ref="A484" r:id="rId483" display="https://www.amazon.com/Belkin-3-Outlet-Protector-Electronics-Appliances/dp/B00ATZJ5YS?ref_=Oct_DLandingS_D_a8f318c4_61&amp;smid=ATVPDKIKX0DER"/>
-    <hyperlink ref="A485" r:id="rId484" display="https://www.amazon.com/Belkin-12-Outlet-Protector-6-Foot-BV112050-06/dp/B00966IFQ0?ref_=Oct_DLandingS_D_a8f318c4_62&amp;smid=ATVPDKIKX0DER"/>
-    <hyperlink ref="A486" r:id="rId485" display="https://www.amazon.com/Belkin-8-Outlet-Power-Strip-Protector/dp/B000HPZ954?ref_=Oct_DLandingS_D_a8f318c4_63&amp;smid=ATVPDKIKX0DER"/>
-    <hyperlink ref="A487" r:id="rId486" display="https://www.amazon.com/Belkin-8-Outlet-Pivot-Plug-Power-Protector/dp/B000JE9LCK?ref_=Oct_DLandingS_D_a8f318c4_64&amp;smid=ATVPDKIKX0DER"/>
-    <hyperlink ref="A488" r:id="rId487" display="https://www.amazon.com/Belkin-Pivot-Plug-Protector-Protection-BP108200-06/dp/B000JEACFK/ref=sr_1_1?dchild=1&amp;keywords=Belkin+8-Outlet+Pivot-Plug+Power+Strip+Surge+Protector+with+6-Foot+Power+Cord+and+Telephone+Protection%2C+1800+Joules+%28BP108200-06%29&amp;qid=1620670951&amp;s=electronics&amp;sr=1-1"/>
-    <hyperlink ref="A489" r:id="rId488" display="https://www.amazon.com/Belkin-6-Outlet-Commercial-Protector-BE106000-06-CM/dp/B002QQ5WGI?ref_=Oct_DLandingS_D_a8f318c4_69&amp;smid=ATVPDKIKX0DER"/>
-    <hyperlink ref="A490" r:id="rId489" display="https://www.amazon.com/Orthopedic-Comfortable-Cuddler-Washable-Cushion/dp/B07J334WTW/ref=sr_1_4?dchild=1&amp;keywords=Round+Dog+Bed+Cuddler+Washable+Round+Pet+Bed+for+Cats+and+Medium+Dogs+Comforting+Dog+Bed&amp;qid=1620671251&amp;sr=8-4"/>
-    <hyperlink ref="A491" r:id="rId490" display="https://www.amazon.com/Eureka-PowerSpeed-Bagless-Upright-Cleaner/dp/B07ZCZFL3G?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_49_f561f1f8&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExVzAwMVg1S0RGRENQJmVuY3J5cHRlZElkPUEwMTIzMTA5MVg4Q0FWV040S0pKVSZlbmNyeXB0ZWRBZElkPUEwODE1MDQ2V0hTMklSVzJDWTUyJndpZGdldE5hbWU9c3BfZ2JfbWFpbl9zdXBwbGUmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A492" r:id="rId491" display="https://www.amazon.com/ComfiLife-Orthopedic-Pillow-Sciatica-Pregnancy/dp/B01ARJ7SBM?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_55_6082e6dc"/>
-    <hyperlink ref="A493" r:id="rId492" display="https://www.amazon.com/Frownies-Forehead-Between-Eyes-Patches/dp/B00027DMSI?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_tlt_64_3e4e0553"/>
-    <hyperlink ref="A494" r:id="rId493" display="https://www.amazon.com/Etekcity-Lasergrip-774-Non-contact-Thermometer/dp/B00837ZGRY?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_78_ed8a4712"/>
-    <hyperlink ref="A495" r:id="rId494" display="https://www.amazon.com/Anker-Ultra-Compact-High-Speed-VoltageBoost-Technology/dp/B07QXV6N1B?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_4_1cfb57ce"/>
-    <hyperlink ref="A496" r:id="rId495" display="https://www.amazon.com/10-Security-Tinted-Self-Seal-Envelopes/dp/B01D0OANU4?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_12_b24065fd"/>
-    <hyperlink ref="A497" r:id="rId496" display="https://www.amazon.com/TaoTronics-Standing-Brightness-Adjustable-Gooseneck/dp/B07S86P7XP?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_20_b490e472"/>
-    <hyperlink ref="A498" r:id="rId497" display="https://www.amazon.com/dp/B07ZCV53MQ/ref=twister_B0866G3V3F?_encoding=UTF8&amp;psc=1"/>
-    <hyperlink ref="A499" r:id="rId498" display="https://www.amazon.com/Andlane-Tweezers-Set-Professional-Stainless/dp/B07P5GCZ6C/ref=sr_1_2?dchild=1&amp;keywords=Andlane+Tweezers+Set+-+Professional+Stainless+Steel+5-Piece+Precision+Tweezer+for+Men+%26+Women+-+Great+for+Facial+Hair+Removal%2C+Eyebrow+Shaping%2C+Splinters+%26+Ingrown+%28Pink%29&amp;qid=1620725301&amp;s=beauty&amp;sr=1-2"/>
-    <hyperlink ref="A500" r:id="rId499" display="https://www.amazon.com/RoosterCo-Eyebrow-Tweezer-Set-4-piece-Hair-Removal-Precision/dp/B07SSXX8MT/ref=sr_1_22?dchild=1&amp;keywords=New+Professional+Eyebrow+Hair+Stainless+Steel+Lady+Make+Up+Removal+Tweezer+Tips&amp;qid=1620725941&amp;s=beauty&amp;sr=1-22"/>
-    <hyperlink ref="A501" r:id="rId500" display="https://www.amazon.com/Organic-Aloe-Vera-Gel-Freshly/dp/B07J9YVK31?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_23_0adeb85f"/>
-    <hyperlink ref="A502" r:id="rId501" display="https://www.amazon.com/Equinox-Professional-Shears-Razor-Edge/dp/B00KVYBY8M/ref=sr_1_53?dchild=1&amp;keywords=New+Professional+Eyebrow+Hair+Stainless+Steel+Lady+Make+Up+Removal+Tweezer+Tips&amp;qid=1620728160&amp;s=beauty&amp;sr=1-53"/>
-    <hyperlink ref="A503" r:id="rId502" display="https://www.amazon.com/Mederma-Advanced-Scar-Gel-Recommended/dp/B001PQBEAI/ref=sr_1_10?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620734423&amp;s=beauty&amp;sr=1-10"/>
-    <hyperlink ref="A504" r:id="rId503" display="https://www.amazon.com/Philips-Norelco-OneBlade-QP2520-90/dp/B01D328BG6/ref=sr_1_2?dchild=1&amp;keywords=Nose%2C+Ear%2C+and+Eyebrow+hair+trimmer+NT5175%2F49+-+facial+hair+trimmer%2C+precision+styler%2C+%28series+5000%29%2C+Easily+andWalmartfortably+trim+unwanted+nose%2C+ear%2C+eyebrow%2C+neck%2C..%2C+By+Philips+Norelco&amp;qid=1620735114&amp;s=beauty&amp;sr=1-2"/>
-    <hyperlink ref="A505" r:id="rId504" display="https://www.amazon.com/Colgate-Toothbrushes-Premier-Extra-Clean/dp/B00I7HPNHS/ref=sr_1_5?dchild=1&amp;keywords=Colgate+Extra+Clean+Full+Head+ToothBrush%2C+Soft%2C+3+ea&amp;qid=1620737110&amp;s=beauty&amp;sr=1-5"/>
-    <hyperlink ref="A506" r:id="rId505" display="https://www.amazon.com/Panasonic-Trimmer-ER430K-Cleaning-Battery-Operated/dp/B000FYVOJC/ref=sr_1_12?dchild=1&amp;keywords=%22Happyline%22+Eyebrow+Hair+Remover+USB+Rechargeable+Eyebrow+Remover+Electric+Trimmer+Epilator+Painless+Eyebrow+Razor+for+Women+Eyebrow+Face+Lip+Hair+Remove&amp;qid=1620737145&amp;refresh=1&amp;s=beauty&amp;sr=1-12"/>
-    <hyperlink ref="A507" r:id="rId506" display="https://www.amazon.com/CeraVe-Hydrating-Facial-Cleanser-Fragrance/dp/B01MSSDEPK/ref=sr_1_22?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-22"/>
-    <hyperlink ref="A508" r:id="rId507" display="https://www.amazon.com/Certified-Kate-Stimulate-Eyelashes-Treatment/dp/B01NALN8Q9/ref=sr_1_26?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-26"/>
-    <hyperlink ref="A509" r:id="rId508" display="https://www.amazon.com/Clearoo-Removal-Endoscope-Wireless-Otoscope/dp/B083QLRKRD/ref=sr_1_1?dchild=1&amp;keywords=BEBIRD+Ear+Wax+Removal+Endoscope%2C+Earwax+Remover+Tool%2C+Ear+Camera%2C1080P+FHD+Wireless+Ear+Otoscope+with+6+LED+Lights%2CEar+Scope+with+Ear+Wax+Cleaner+Tool+for+iPhone%2C+iPad+%26+Android+Smart+Phones+%28Blue%29&amp;qid=1620763364&amp;sr=8-1"/>
-    <hyperlink ref="A510" r:id="rId509" display="https://www.amazon.com/Listerine-Anticavity-Mouthwash-Fluoride-Packaging/dp/B00495Q5OW/ref=sr_1_29?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-29"/>
-    <hyperlink ref="A511" r:id="rId510" display="https://www.amazon.com/Goody-Ouchless-Womens-Braided-Elastic/dp/B00DFSHD5O/ref=sr_1_30?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-30"/>
-    <hyperlink ref="A512" r:id="rId511" display="https://www.amazon.com/Neutrogena-Dry-Touch-Resistant-Non-Greasy-Sunscreen/dp/B002JAYMEE/ref=sr_1_32?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-32"/>
-    <hyperlink ref="A513" r:id="rId512" display="https://www.amazon.com/Carfidant-Black-Car-Scratch-Remover/dp/B07RXV9MWB/ref=zg_bs_15718271_33?_encoding=UTF8&amp;psc=1&amp;refRID=GCWZNEEQRWYWQ7197YDQ"/>
-    <hyperlink ref="A514" r:id="rId513" display="https://www.amazon.com/ONEST-Detailing-Including-Automotive-Conditioner/dp/B077C5M972/ref=zg_bs_15718271_40?_encoding=UTF8&amp;psc=1&amp;refRID=GCWZNEEQRWYWQ7197YDQ"/>
-    <hyperlink ref="A515" r:id="rId514" display="https://www.amazon.com/XINDELL-Windshield-Cleaning-Extendable-Microfiber/dp/B07SGQJ6C9/ref=zg_bs_15718271_55?_encoding=UTF8&amp;psc=1&amp;refRID=EBNBSADGJX808F093RZ5"/>
-    <hyperlink ref="A516" r:id="rId515" display="https://www.amazon.com/CERAKOTE-Ceramic-Trim-Coat-Kit/dp/B07SHJVK4G/ref=zg_bs_15718271_57?_encoding=UTF8&amp;psc=1&amp;refRID=EBNBSADGJX808F093RZ5"/>
-    <hyperlink ref="A517" r:id="rId516" display="https://www.amazon.com/Water-Davidoff-Women-Deodorant-Spray/dp/B000C1VVQO/ref=zg_bs_11056591_21?_encoding=UTF8&amp;psc=1&amp;refRID=ZGGFV82TJE5FQ4B4HHMX"/>
-    <hyperlink ref="A518" r:id="rId517" display="https://www.amazon.com/BIOLAGE-Colorlast-Shampoo-Color-Treated-Hair/dp/B0164ND75Q/ref=zg_bs_11057131_2?_encoding=UTF8&amp;refRID=M04NN10JFHHWDZEXYYP6&amp;th=1"/>
-    <hyperlink ref="A519" r:id="rId518" display="https://www.amazon.com/Dreamlover-Beige-Stocking-Stretchy-Contains/dp/B07RBKSYR9/ref=zg_bs_13105931_2?_encoding=UTF8&amp;psc=1&amp;refRID=WCX7636HN9WBEWQWTKT0"/>
-    <hyperlink ref="A520" r:id="rId519" display="https://www.amazon.com/Dreamlover-Beige-Stocking-Stretchy-Contains/dp/B07G27GXYC/ref=zg_bs_13105931_2?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1"/>
-    <hyperlink ref="A521" r:id="rId520" display="https://www.amazon.com/MORICA-Scrunchies-Extension-Synthetic-Hairpiece/dp/B07YQRD8VY/ref=zg_bs_13105931_3?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1"/>
-    <hyperlink ref="A522" r:id="rId521" display="https://www.amazon.com/MORICA-Scrunchies-Extension-Synthetic-Hairpiece/dp/B07YQR89TJ/ref=zg_bs_13105931_3?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1"/>
-    <hyperlink ref="A523" r:id="rId522" display="https://www.amazon.com/MORICA-Scrunchies-Extension-Synthetic-Hairpiece/dp/B07YQMJ991/ref=zg_bs_13105931_3?_encoding=UTF8&amp;refRID=WCX7636HN9WBEWQWTKT0&amp;th=1"/>
-    <hyperlink ref="A524" r:id="rId523" display="https://www.amazon.com/MORGLES-20pcs-Stretchy-Nylon-Stocking/dp/B07S21C4KY/ref=zg_bs_13105931_5?_encoding=UTF8&amp;psc=1&amp;refRID=WCX7636HN9WBEWQWTKT0"/>
-    <hyperlink ref="A525" r:id="rId524" display="https://www.amazon.com/Elizavecca-CER-100-Collagen-Coating-Treatment/dp/B01I2ZQJSG/ref=zg_bs_11057431_2?_encoding=UTF8&amp;psc=1&amp;refRID=0PSEG907NTP9Q4DBQD3B"/>
-    <hyperlink ref="A526" r:id="rId525" display="https://www.amazon.com/Pampers-Diaper-Wipes-Fresh-Pop-Top/dp/B08SSDH8H1/ref=zg_bs_baby-products_42?_encoding=UTF8&amp;psc=1&amp;refRID=F1Y9MYXC77XNG9J2763B"/>
-    <hyperlink ref="A527" r:id="rId526" display="https://www.amazon.com/Groomsman-rechargeable-mustache-sharpening-05622/dp/B07BB313YL/ref=sr_1_5?dchild=1&amp;keywords=Wahl+5567-200+Ear+Nose+Brow+Dual+Head+Trimmer+Hair+Grooming+Clipper+Cutter+NEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-5"/>
-    <hyperlink ref="A528" r:id="rId527" display="https://www.amazon.com/Groomsman-rechargeable-mustache-sharpening-05622/dp/B07B9Z8LV7/ref=sr_1_5?dchild=1&amp;keywords=Wahl%2B5567-200%2BEar%2BNose%2BBrow%2BDual%2BHead%2BTrimmer%2BHair%2BGrooming%2BClipper%2BCutter%2BNEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-5&amp;th=1"/>
-    <hyperlink ref="A529" r:id="rId528" display="https://www.amazon.com/Groomsman-rechargeable-mustache-sharpening-05622/dp/B07BBD6YVX/ref=sr_1_5?dchild=1&amp;keywords=Wahl%2B5567-200%2BEar%2BNose%2BBrow%2BDual%2BHead%2BTrimmer%2BHair%2BGrooming%2BClipper%2BCutter%2BNEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-5&amp;th=1"/>
-    <hyperlink ref="A530" r:id="rId529" display="https://www.amazon.com/Wahl-Clipper-Rechargeable-Professionals-9649/dp/B01N0993NM/ref=sr_1_3?dchild=1&amp;keywords=Wahl+5567-200+Ear+Nose+Brow+Dual+Head+Trimmer+Hair+Grooming+Clipper+Cutter+NEW&amp;qid=1620799899&amp;s=beauty&amp;sr=1-3"/>
-    <hyperlink ref="A531" r:id="rId530" display="https://www.amazon.com/Micro-Touch-Hair-Trimmer-Green/dp/B003ZW9LOQ/ref=sr_1_9?dchild=1&amp;keywords=LYUMO+4+In+1+Rechargeable+Men+Nose+Ear+Temple+Hair+Trimmer+Electric+Beard+Eyebrow+Clipper+Shaving+Kit%2C+Men+Hair+Trimmer+Shaver+Set%2C+Men+Nose+Hair+Trimmer+Set&amp;qid=1620738199&amp;s=beauty&amp;sr=1-9"/>
-    <hyperlink ref="A532" r:id="rId531" display="https://www.amazon.com/Majestic-Pure-Himalayan-Essential-Moisturize/dp/B01K8PEZMU/ref=sr_1_5?dchild=1&amp;keywords=3+Pack+-+Okay+African+Black+Soap%2C+Original%2C+5.5+oz&amp;qid=1620802189&amp;sr=8-5"/>
-    <hyperlink ref="A533" r:id="rId532" display="https://www.amazon.com/Sherpa-Pink-Gourmet-Himalayan-Salt/dp/B00IZL255O/ref=sr_1_10?dchild=1&amp;keywords=Indusclassic+Pure+Original+Himalayan+Pink+Crystal+Bath+and+Spa+Sea+Salt+-+2+Pound+Medium+Grain+1%7E3mm&amp;qid=1620802135&amp;sr=8-10"/>
-    <hyperlink ref="A534" r:id="rId533" display="https://www.amazon.com/Sherpa-Pink-Himalayan-Incredible-Nutrients/dp/B00HVJHNMQ/ref=sr_1_1?dchild=1&amp;keywords=Sherpa+Pink+Gourmet+Himalayan+Salt+-+10+lb.+Bulk+Bag+Extra-Fine+Grain+10+Pound+%28Pack+of+1%29&amp;qid=1620811905&amp;sr=8-1"/>
-    <hyperlink ref="A535" r:id="rId534" display="https://www.amazon.com/LOGROTATE-Control-Rechargeable-Birthday-Diameter/dp/B07FDXY48N/ref=sr_1_2?dchild=1&amp;keywords=Pink+Salt+Wall+-+Himalayan+Salt+Cross+Lamp+USB+Power+Pink+Salt+Lamp&amp;qid=1620812650&amp;sr=8-2"/>
-    <hyperlink ref="A536" r:id="rId535" display="https://www.amazon.com/Himalayan-Glow-1002-Pink-Crystal/dp/B001892AX2/ref=sr_1_3?dchild=1&amp;keywords=Spantik+7+inch+Himalayan+Salt+Lamp+with+Dimmer+Cord+-+Night+Light+Natural+Crystal+Rock+Classic+Wood+Base+Authentic+from+Pakistan&amp;qid=1620812352&amp;sr=8-3"/>
-    <hyperlink ref="A537" r:id="rId536" display="https://www.amazon.com/essence-Princess-Effect-Mascara-Cruelty/dp/B00T0C9XRK/ref=sr_1_35?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-35"/>
-    <hyperlink ref="A538" r:id="rId537" display="https://www.amazon.com/Colgate-Advanced-Whitening-Toothpaste-Sparkling/dp/B082F1QH7S/ref=sr_1_37?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620738192&amp;s=beauty&amp;sr=1-37"/>
-    <hyperlink ref="A539" r:id="rId538" display="https://www.amazon.com/LETSCOM-Dimmable-Ringlight-Photography-Compatible/dp/B086JKRNXW?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_img_40_7ea3c1b9"/>
-    <hyperlink ref="A540" r:id="rId539" display="https://www.amazon.com/HIWARE-All-Purpose-Shower-Squeegee-Bathroom/dp/B082HWYQVC?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_img_43_099d0a39&amp;th=1"/>
-    <hyperlink ref="A541" r:id="rId540" display="https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9AW/ref=sr_1_44?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-44"/>
-    <hyperlink ref="A542" r:id="rId541" display="https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9KC/ref=sr_1_44?dchild=1&amp;keywords=Zizzili%2BBasics%2BSurgical%2BGrade%2BStainless%2BSteel%2BFine%2BPointed%2BTweezers%7CPrecision%2BAligned%2BTips%2Bfor%2BSplinter%2C%2BEyebrow%2B%26%2BFacial%2BHair%2BRemoval%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-44&amp;th=1"/>
-    <hyperlink ref="A543" r:id="rId542" display="https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9EADS/ref=sr_1_44?dchild=1&amp;keywords=Zizzili%2BBasics%2BSurgical%2BGrade%2BStainless%2BSteel%2BFine%2BPointed%2BTweezers%7CPrecision%2BAligned%2BTips%2Bfor%2BSplinter%2C%2BEyebrow%2B%26%2BFacial%2BHair%2BRemoval%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-44&amp;th=1"/>
-    <hyperlink ref="A544" r:id="rId543" display="https://www.amazon.com/Colgate-Cavity-Protection-Toothpaste-Fluoride/dp/B01BNEWDFQ/ref=sr_1_48?dchild=1&amp;keywords=Zizzili+Basics+Surgical+Grade+Stainless+Steel+Fine+Pointed+Tweezers%7CPrecision+Aligned+Tips+for+Splinter%2C+Eyebrow+%26+Facial+Hair+Removal%7CBlack&amp;qid=1620806068&amp;s=beauty&amp;sr=1-48"/>
-    <hyperlink ref="A545" r:id="rId544" display="https://www.amazon.com/Colgate-Tartar-Protection-Toothpaste-Whitening/dp/B01BNF1USQ/ref=sr_1_1?dchild=1&amp;keywords=Colgate+Tartar+Protection+Toothpaste+with+Whitening%2C+Mint+-+6+ounce+%286+Pack%29+NEW&amp;qid=1620822270&amp;s=beauty&amp;sr=1-1"/>
-    <hyperlink ref="A546" r:id="rId545" display="https://www.amazon.com/Hollywood-Dimmable-Control-Bathroom-Included/dp/B07R1XJNT9?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_img_56_daa6553a"/>
-    <hyperlink ref="A547" r:id="rId546" display="https://www.amazon.com/Chende-Hollywood-Dimmable-Lighting-Dressing/dp/B075XLRHNQ/ref=sr_1_15?dchild=1&amp;keywords=Led+Vanity+Mirror+Lights%2C+Hollywood+Style+Vanity+Make+Up+Light%2C+10ft+Ultra+Bright+White+LED%2C+Dimmable+Touch+Control+Lights+Strip%2C+for+Makeup+Vanity+Table+%26+Bathroom+Mirror%2C+Mirror+Not+Included&amp;qid=1620825266&amp;s=hi&amp;sr=1-15"/>
-    <hyperlink ref="A548" r:id="rId547" display="https://www.amazon.com/Daybetter-Flexible-Changing-Remote-Control/dp/B08B8D53HS?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_tlt_5_9f1ea82e"/>
-    <hyperlink ref="A549" r:id="rId548" display="https://www.amazon.com/Adapter-QGeeM-Thunderbolt-Compatible-Pixelbook/dp/B07JW7GT7H?ref=deals_deals_deals-grid_slot-15_a393_dt_dcell_tlt_37_a6197f74"/>
-    <hyperlink ref="A550" r:id="rId549" display="https://www.amazon.com/Syncwire-Rotation-Universal-Kickstand-Compatible/dp/B07V6P9QT9/ref=sr_1_1?dchild=1&amp;keywords=Syncwire+Cell+Phone+Ring+Holder+Stand+%5B2+Pack%5D%2C+360+Degree+Rotation+Universal+Finger+Ring+Kickstand+With+Polished+Metal+Phone+Grip+For+Magnetic+Car+Mount+Compatible+With+Iphone%2C+Samsung%2C+Lg%2C+Sony&amp;qid=1620825825&amp;sr=8-1"/>
-    <hyperlink ref="A551" r:id="rId550" display="https://www.amazon.com/Plastic-HOMENOTE-Decorative-Drainage-Succulents/dp/B083LYM3TZ?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_tlt_130_8dd30d10&amp;th=1"/>
-    <hyperlink ref="A552" r:id="rId551" display="https://www.amazon.com/Glendan-Brush-Slicker-Grooming-Shedding/dp/B071RSQJSZ?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_img_305_0d437914&amp;th=1"/>
-    <hyperlink ref="A553" r:id="rId552" display="https://www.amazon.com/Paint-Painting-Ceramic-Acrylic-Markers/dp/B07485T22B?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_img_308_3f9fc022"/>
-    <hyperlink ref="A554" r:id="rId553" display="https://www.amazon.com/Bingcute-1-0MM-Elastic-Making-Jewelry/dp/B01LX50N4Y/ref=zg_bs_262593011_3?_encoding=UTF8&amp;refRID=HNB131RA07PZJH408Z2E&amp;th=1"/>
-    <hyperlink ref="A555" r:id="rId554" display="https://www.amazon.com/Bingcute-1-0MM-Elastic-Making-Jewelry/dp/B01LZQM2AH/ref=zg_bs_262593011_3?_encoding=UTF8&amp;refRID=HNB131RA07PZJH408Z2E&amp;th=1"/>
-    <hyperlink ref="A556" r:id="rId555" display="https://www.amazon.com/essence-Princess-Effect-Mascara-Cruelty/dp/B08JX7VS2P/ref=zg_bs_beauty_1?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1"/>
-    <hyperlink ref="A557" r:id="rId556" display="https://www.amazon.com/dp/B0861BJQ28/ref=twister_B07YNXDSCZ?_encoding=UTF8&amp;th=1"/>
-    <hyperlink ref="A558" r:id="rId557" display="https://www.amazon.com/Neutrogena-Cleansing-Towelettes-Alcohol-Free-Waterproof/dp/B07FLD6T6Q/ref=zg_bs_beauty_4?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1"/>
-    <hyperlink ref="A559" r:id="rId558" display="https://www.amazon.com/Softsoap-Liquid-Hand-Soap-Aloe/dp/B079FYJC97/ref=zg_bs_beauty_6?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1"/>
-    <hyperlink ref="A560" r:id="rId559" display="https://www.amazon.com/Tweezers-Set-Professional-Eyebrows/dp/B07QSY7XK6/ref=zg_bs_beauty_28?_encoding=UTF8&amp;psc=1&amp;refRID=8CFJXTMYMRAW91XMFGXQ"/>
-    <hyperlink ref="A561" r:id="rId560" display="https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9AW/ref=zg_bs_beauty_29?_encoding=UTF8&amp;psc=1&amp;refRID=8CFJXTMYMRAW91XMFGXQ"/>
-    <hyperlink ref="A562" r:id="rId561" display="https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9E9KC/ref=zg_bs_beauty_29?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1"/>
-    <hyperlink ref="A563" r:id="rId562" display="https://www.amazon.com/NYX-Mechanical-Eye-Pencil-Black/dp/B005G9EADS/ref=zg_bs_beauty_29?_encoding=UTF8&amp;refRID=8CFJXTMYMRAW91XMFGXQ&amp;th=1"/>
-    <hyperlink ref="A564" r:id="rId563" display="https://www.amazon.com/Measuring-Reusable-Finger-Measure-Jewelry/dp/B08JLW2C8J/ref=zg_bs_arts-crafts_27?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
-    <hyperlink ref="A565" r:id="rId564" display="https://www.amazon.com/Reynolds-Pitmasters-Choice-Strength-Aluminum/dp/B06XQ3KXYZ/ref=sr_1_1?dchild=1&amp;keywords=Reynolds+Wrap%C2%AE+Pitmaster%27s+Choice%E2%84%A2+Aluminum+Foil+37.5+sq.+ft.+Box&amp;qid=1620912827&amp;sr=8-1"/>
-    <hyperlink ref="A566" r:id="rId565" display="https://www.amazon.com/Reynolds-Wrap-Aluminum-Foil-Square/dp/B00UNT0Y2M/ref=sr_1_2?dchild=1&amp;keywords=Reynolds+Wrap+Heavy+Duty+Aluminum+Foil+Roll%2C+18%22+x+1000+ft%2C+Silver+-RFP625&amp;qid=1620925931&amp;sr=8-2"/>
-    <hyperlink ref="A567" r:id="rId566" display="https://www.amazon.com/Glad-Pressn-Seal-Plastic-Food/dp/B00KKC6C2I/ref=sr_1_5?dchild=1&amp;keywords=Fanci-Foil+Wrap+20%22X15%27-Silver&amp;qid=1620926112&amp;sr=8-5"/>
-    <hyperlink ref="A568" r:id="rId567" display="https://www.amazon.com/Reynolds-Kitchens-Parchment-Non-Stick-Square/dp/B07F6F631N/ref=sr_1_4?dchild=1&amp;keywords=Reynolds+Kitchens+Non-Stick+Baking+Parchment+Paper+Sheets+-+12x16+Inch%2C+22+Count&amp;qid=1620912644&amp;sr=8-4"/>
-    <hyperlink ref="A569" r:id="rId568" display="https://www.amazon.com/Range-Kleen-B24TC-Toaster-Cookie/dp/B00CXY9F2A/ref=sr_1_2?dchild=1&amp;keywords=Range+Kleen+Non+Stick+Toaster+Oven+Cookie+Sheet+8+Inches+by+10+Inches&amp;qid=1620926579&amp;sr=8-2"/>
-    <hyperlink ref="A570" r:id="rId569" display="https://www.amazon.com/Baking-Cooling-Nonstick-Stainless-Non-Toxic/dp/B08B5SVPJQ/ref=sr_1_1?dchild=1&amp;keywords=Baking+Sheet+with+Rack+Set+%5B2+Sheets%2B2+Racks%5D%2C+HUSHIDA+Stainless+Steel+Cookie+Sheet+Pan+with+Cooling+Rack+for+Oven%2816%22+x+12%22+x+1%22+%29%2C+Nonstick+Baking+Pans+Tray%2C+Non-Toxic%2C+Heavy+Duty%2C+Easy+Clean&amp;qid=1620974039&amp;sr=8-1"/>
-    <hyperlink ref="A571" r:id="rId570" display="https://www.amazon.com/Wilton-21-Inch-2105-0109-Perfect-Non-Stick/dp/B00KIF5LLK/ref=sr_1_1?dchild=1&amp;keywords=Wilton+Perfect+Results+Premium+Non-Stick+21+x+15-Inch+Mega+Baking+Pan&amp;qid=1620974429&amp;sr=8-1"/>
-    <hyperlink ref="A572" r:id="rId571" display="https://www.amazon.com/Fat-Daddios-PRD-83-Round-Silver/dp/B0013374AM/ref=sr_1_2?dchild=1&amp;keywords=Fat+Daddio%27s+Round+Springform+Cake+Baking+Pan+with+Steel+Buckle%2C+10+x+3+Inch&amp;qid=1620975021&amp;sr=8-2"/>
-    <hyperlink ref="A573" r:id="rId572" display="https://www.amazon.com/Sirius-Electronic-Distress-Daytime-Whistle/dp/B081GHJ9XC/ref=sr_1_3?dchild=1&amp;keywords=Whisk%2CStnls+Stl+Wires%2C11%22&amp;qid=1620976571&amp;sr=8-3"/>
-    <hyperlink ref="A574" r:id="rId573" display="https://www.amazon.com/Moretoes-10x10x5-Pastries-Cookies-Cupcakes/dp/B07RXVGKCC/ref=sr_1_3?dchild=1&amp;keywords=Cake+Boxes+8+x+8+x+4%2C+Bakery+Box+Has+Double+Window%2C+Cake+Supplies%2C+15+Pack.&amp;qid=1621005966&amp;sr=8-3"/>
-    <hyperlink ref="A575" r:id="rId574" display="https://www.amazon.com/Wilton-Elegance-Cupcake-Liners-150-Count/dp/B00TM6WZO2/ref=sr_1_5?dchild=1&amp;keywords=240+Pc+Colorful+Paper+Baking+Cups+Cupcake+Liners+Muffin+Mini+Cake+Mold+Assorted&amp;qid=1621007168&amp;sr=8-5"/>
-    <hyperlink ref="A576" r:id="rId575" display="https://www.amazon.com/Stainless-Steel-Salt-Pepper-Grinder/dp/B0788B6LC8/ref=sr_1_1?dchild=1&amp;keywords=Stainless+Steel+Salt+and+Pepper+Grinder+Set+-+Two+Piece+Set+-+Glass+and+Stainless+Steel+Mill+-+Large+Capacity+Shakers+-+Top+Loading+Design+By+Mason+Mills&amp;qid=1621008175&amp;sr=8-1"/>
-    <hyperlink ref="A577" r:id="rId576" display="https://www.amazon.com/Great-Credentials-Stainless-Versatile-Shakers/dp/B01LWX1UD1/ref=sr_1_4?dchild=1&amp;keywords=Set+of+2+10Ounce+Stainless+Steel+Dredge+Shaker+with+Handle+by+Tezzorio%2C+Commercial+Grade+Spice+Dredge+Shaker+for+Restaurants+Bak&amp;qid=1621008682&amp;sr=8-4"/>
-    <hyperlink ref="A578" r:id="rId577" display="https://www.amazon.com/Circleware-Dispenser-Container-Stainless-Himalayan/dp/B077QQZSFT/ref=sr_1_1?dchild=1&amp;keywords=Circleware+68252+Cafe+Contempo+Elegant+Glass+Salt+and+Pepper+Shakers+Dispenser%2C+Clear+Bottom+Jar+Bottle+Container+with+Stainless+Steel+Top%2C+Perfect+for+Himalayan+Seasoning+Herbs+Spices%2C+4.4+oz%2C+Copper&amp;qid=1621013545&amp;sr=8-1"/>
-    <hyperlink ref="A579" r:id="rId578" display="https://www.amazon.com/Rubbermaid-FreshWorks-Produce-Storage-Containers/dp/B01FCR7MYM/ref=sr_1_2?dchild=1&amp;keywords=Progressive+PKS-900+Prepworks+Large+Produce+ProKeeper&amp;qid=1621067068&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A580" r:id="rId579" display="https://www.amazon.com/Solutions-Progressive-GBK-8-Adjustable-Expandable/dp/B001BB2LMM/ref=sr_1_2?dchild=1&amp;keywords=Progressive+Adjustable+Bread+Keeper&amp;qid=1621067193&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A581" r:id="rId580" display="https://www.amazon.com/Prepworks-Progressive-ProKeeper-Air-Tight-Storage/dp/B016MZSSCI/ref=sr_1_4?dchild=1&amp;keywords=Progressive+Adjustable+Bread+Keeper&amp;qid=1621067193&amp;s=home-garden&amp;sr=1-4"/>
-    <hyperlink ref="A582" r:id="rId581" display="https://www.amazon.com/Homemade-Kozy-Kitchen-Foldable-Enhanced/dp/B07LHDJ4KT/ref=sr_1_1?dchild=1&amp;keywords=Bread+Slicers+for+Homemade+Bread+and+Loaf+Cakes+By+Kozy+Kitchen%2C+100%25+Organic+Bamboo+Bread+Slicing+Guide%2C+Compact+Foldable+Bread+Cutter+Guide%2C+Enhanced+Bamboo+Wooden+Bagel+Slicer&amp;qid=1621067824&amp;sr=8-1"/>
-    <hyperlink ref="A583" r:id="rId582" display="https://www.amazon.com/Swing-Top-Glass-Bottles-Chalkboard/dp/B01LB1862A/ref=sr_1_1_sspa?dchild=1&amp;keywords=Bormioli+Rocco+4L+Swing+Top+Fido+Glass+Jar&amp;qid=1621071477&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWloyUUZZVFVCQThVJmVuY3J5cHRlZElkPUEwMDk5OTU2MkQ2UlNVOTdVRVE2UiZlbmNyeXB0ZWRBZElkPUEwNzM2MjYxMUIwVTAwSjJVTkg3TiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A584" r:id="rId583" display="https://www.amazon.com/Bormioli-Rocco-149240M02121197-Canning-Italian/dp/B072M8G8NP/ref=sr_1_3?dchild=1&amp;keywords=Bormioli%2BRocco%2BFido%2BLarge%2B2L%2BGlass%2BJar%2B(2%2BPack)%2Bwith%2BAirtight%2BLid%2Bfor%2BFood%2BStorage&amp;qid=1621071655&amp;sr=8-3&amp;th=1"/>
-    <hyperlink ref="A585" r:id="rId584" display="https://www.amazon.com/Sensory-Fidget-Special-Anti-Anxiety-Assortment/dp/B08Y7QL9QN/ref=zg_bsnr_toys-and-games_2?_encoding=UTF8&amp;psc=1&amp;refRID=ZF1Y771R0RZJJGCZPTE0"/>
-    <hyperlink ref="A586" r:id="rId585" display="https://www.amazon.com/Deiss%C2%AE-Dual-Julienne-Vegetable-Peeler/dp/B00LKRZ9Y4/ref=sr_1_1?dchild=1&amp;keywords=ZYLISS+3-in-1+Mango+Slicer%2C+Peeler+and+Pit+Remover+Tool&amp;qid=1621164171&amp;sr=8-1"/>
-    <hyperlink ref="A587" r:id="rId586" display="https://www.amazon.com/Contigo-AUTOSEAL-Vaccuum-Insulated-Stainless-Travel/dp/B00KR9OIZM/ref=sr_1_4?dchild=1&amp;keywords=Contigo+AUTOSEAL+West+Loop+Vaccuum-Insulated+Stainless+Steel+Travel+Mug%2C+20+oz%2C+Latte&amp;qid=1621164995&amp;sr=8-4"/>
-    <hyperlink ref="A588" r:id="rId587" display="https://www.amazon.com/Gatorade-Thirst-Quencher-Powder-Glacier/dp/B0776HZ26P/ref=sr_1_8?dchild=1&amp;keywords=gatorade+stainless+steel+26+oz+bottle+-+green&amp;qid=1621165156&amp;sr=8-8"/>
-    <hyperlink ref="A589" r:id="rId588" display="https://www.amazon.com/HadinEEon-Electric-Cappuccino-Chocolate-Automatic/dp/B07PHSKR76/ref=sr_1_3?dchild=1&amp;keywords=Zyliss+Milk+Frother+in+Red&amp;qid=1621164782&amp;sr=8-3"/>
-    <hyperlink ref="A590" r:id="rId589" display="https://www.amazon.com/Kuhn-Rikon-2262-Safety-Master/dp/B000B6NXL6/ref=sr_1_6?dchild=1&amp;keywords=ZYLISS+Lock+N%27+Lift+Can+Opener+with+Lid+Lifter+Magnet%2C+White+%2F+Gray&amp;qid=1621170967&amp;sr=8-6"/>
-    <hyperlink ref="A591" r:id="rId590" display="https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B007Y6P5M6/ref=sr_1_3?dchild=1&amp;keywords=2+PACKS+%3A+Gatorade+G2+Sports+Drink%2C+Grape%2C+Low+Calorie%2C+12-Ounce+Bottles&amp;qid=1621171237&amp;sr=8-3"/>
-    <hyperlink ref="A592" r:id="rId591" display="https://www.amazon.com/Gatorade-Pods-Glacier-Freeze-3-25oz/dp/B08DKLR3BK/ref=sr_1_12?dchild=1&amp;keywords=Gatorade%2BFrost%2BThirst%2BQuencher%2C%2BArctic%2BBlitz%2C%2B12%2BOunce%2BBottles%2B(Pack%2Bof%2B24)&amp;qid=1621171509&amp;sr=8-12&amp;th=1"/>
-    <hyperlink ref="A593" r:id="rId592" display="https://www.amazon.com/OlarHike-Grilling-Accessories-Stainless-Thermometer/dp/B07VV58SW1/ref=sr_1_1?dchild=1&amp;keywords=IOTC+Kitchen+tool+Set+Accesories+Stainless+Steel+Cooking+Utensils%2C+One+Size%2C+Set+of+8&amp;qid=1621172929&amp;sr=8-1"/>
-    <hyperlink ref="A594" r:id="rId593" display="https://www.amazon.com/ThermoPro-TP50-Digital-Thermometer-Temperature/dp/B01H1R0K68/ref=sr_1_1?dchild=1&amp;keywords=ThermoPro+TP50%26TP52+Digital+Hygrometer+Indoor+Thermometer+Rome+Temperature+and+Humidity+Gauge+Monitor+Indicator+Meter&amp;qid=1621174224&amp;sr=8-1"/>
-    <hyperlink ref="A595" r:id="rId594" display="https://www.amazon.com/Medical-Thermometer-Temperature-Underarm-Children/dp/B07ZRN3QBY/ref=sr_1_12?dchild=1&amp;keywords=ThermoPro+TP49x+2+Pcs+Indoor+Thermometer+%26+Hygrometer+with+Humidity+Gauge+24hours&amp;qid=1621174400&amp;sr=8-12"/>
-    <hyperlink ref="A596" r:id="rId595" display="https://www.amazon.com/Stoner-Invisible-Glass-Windscreen-Cleaner/dp/B000M3V95U/ref=sr_1_4?dchild=1&amp;keywords=Invisible+Glass+Clean+and+Repel+19+oz+Aerosol+Can&amp;qid=1621444399&amp;s=automotive&amp;sr=1-4"/>
-    <hyperlink ref="A597" r:id="rId596" display="https://www.amazon.com/dp/B01HDL5B5C?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A598" r:id="rId597" display="https://www.amazon.com/Chemical-Guys-BUF_900-Conditioning-Brush/dp/B0023V727S/ref=sr_1_4?dchild=1&amp;keywords=Chemical+Guy+BUF900+Edge+Conditioning+Brush&amp;qid=1621444949&amp;s=automotive&amp;sr=1-4"/>
-    <hyperlink ref="A599" r:id="rId598" display="https://www.amazon.com/Casserole-Carrier-Food-Warmer-Portable/dp/B00H861ESQ/ref=sr_1_1?dchild=1&amp;keywords=Casserole+Carrier+and+Food+Warmer+-+Portable+Travel+Casserole+Tote+%28Holds+up+to+11%22x17%22+Casserole+-+Keeps+warm+up+to+one+hour%29-Red&amp;qid=1621424756&amp;sr=8-1"/>
-    <hyperlink ref="A600" r:id="rId599" display="https://www.amazon.com/Wilton-Candy-Melts-Dipping-Scoop/dp/B00HB555W0/ref=sr_1_2?dchild=1&amp;keywords=Wilton+Candy+Mold+Melt+Dipping+Scoop+Tool&amp;qid=1621411209&amp;sr=8-2"/>
-    <hyperlink ref="A601" r:id="rId600" display="https://www.amazon.com/Harris-Benzoyl-Peroxide-Bottle-Ounce/dp/B00D5X791C/ref=sr_1_5?dchild=1&amp;keywords=harris+benzoyl+peroxide+wash+5%25+bottle%2C+5+ounce&amp;qid=1621234458&amp;sr=8-5"/>
-    <hyperlink ref="A602" r:id="rId601" display="https://www.amazon.com/Perrigo-Benzoyl-Peroxide-Medication-Quantity/dp/B071HVKYJF/ref=sr_1_1?dchild=1&amp;keywords=Perrigo+Benzoyl+Peroxide+10%25+Acne+Medication+Face+Wash+5+Ounce&amp;qid=1621234737&amp;sr=8-1"/>
-    <hyperlink ref="A603" r:id="rId602" display="https://www.amazon.com/Hanging-Hanger-Kitchen-Closet-Plants/dp/B07Q6WRYBS/ref=sr_1_7?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-7"/>
-    <hyperlink ref="A604" r:id="rId603" display="https://www.walmart.com/ip/CeraVe-SA-Body-Wash-For-Rough-Bumpy-Skin-10-oz/506811454"/>
-    <hyperlink ref="A605" r:id="rId604" display="https://www.amazon.com/Saferell-Thermometer-Backlight-Calibration-Foldable/dp/B08MW1DSDZ/ref=sr_1_2?dchild=1&amp;keywords=GNP%2BDigital%2BThermometer%2Bwith%2BProbe%2BCovers.%2BFast%2BRead%2C%2BFlexible-tip&amp;qid=1621233483&amp;sr=8-2&amp;th=1"/>
-    <hyperlink ref="A606" r:id="rId605" display="https://www.amazon.com/Harris-Benzoyl-Peroxide-Bottle-Ounce/dp/B00D5X791C/ref=sr_1_5?dchild=1&amp;keywords=harris+benzoyl+peroxide+wash+5%25+bottle%2C+5+ounce&amp;qid=1621234458&amp;sr=8-5"/>
-    <hyperlink ref="A607" r:id="rId606" display="https://www.amazon.com/Perrigo-Benzoyl-Peroxide-Medication-Quantity/dp/B071HVKYJF/ref=sr_1_1?dchild=1&amp;keywords=Perrigo+Benzoyl+Peroxide+10%25+Acne+Medication+Face+Wash+5+Ounce&amp;qid=1621234737&amp;sr=8-1"/>
-    <hyperlink ref="A608" r:id="rId607" display="https://www.amazon.com/CeraVe-Salicylic-Ounce-Fragrance-Exfoliate/dp/B077TWXCQV/ref=sr_1_12?dchild=1&amp;keywords=Face+and+Body+Wash+with+Manuka+Honey%2C+Coconut+Oil+and+Aloe+Vera+-+Relieves+Symptoms+of+Acne%2C+Eczema%2C+Rosacea%2C+Psoriasis+%26+Seborrheic+Dermatitis+-+Treatment+for+Blemishes%2C+Dry+and+Itchy+Skin+%284oz%29&amp;qid=1621235263&amp;sr=8-12"/>
-    <hyperlink ref="A609" r:id="rId608" display="https://www.amazon.com/CeraVe-Moisturizing-Cream-Daily-Moisturizer/dp/B00TTD9BRC/ref=sr_1_1?dchild=1&amp;keywords=Face+and+Body+Cream+Moisturizer+-+Nourishing+Aloe+Vera+-+Manuka+Honey+for+Rosacea+Eczema+Psoriasis+Rashes+Itchiness+Redness+-+Natural+Organic+Cracked+Skin+Relief+-+Anti+Aging+-+Anti+Wrinkl&amp;qid=1621235325&amp;sr=8-1"/>
-    <hyperlink ref="A610" r:id="rId609" display="https://www.amazon.com/LilyAna-Naturals-Retinol-Cream-Moisturizer/dp/B01ES349CY/ref=sr_1_2?dchild=1&amp;keywords=Face+and+Body+Cream+Moisturizer+-+Nourishing+Aloe+Vera+-+Manuka+Honey+for+Rosacea+Eczema+Psoriasis+Rashes+Itchiness+Redness+-+Natural+Organic+Cracked+Skin+Relief+-+Anti+Aging+-+Anti+Wrinkl&amp;qid=1621235325&amp;sr=8-2"/>
-    <hyperlink ref="A611" r:id="rId610" display="https://www.amazon.com/Medication-Treatment-Prevention-Blackheads-Whiteheads/dp/B00OVIA1MY/ref=sr_1_1?dchild=1&amp;keywords=Benzoyl+Peroxide+5+%25+Generic+for+Oxy+Balance+Acne+Medication+Gel+for+Treatment+and+Prevention+of+Acne+Pimples%2C+Acne+Blemishes%2C+Blackheads+or+Whiteheads.+1.5+oz.+per+Tube+Pack+4+Toral+6+oz.&amp;qid=1621243093&amp;sr=8-1"/>
-    <hyperlink ref="A612" r:id="rId611" display="https://www.amazon.com/dp/B07TLNSYSF/ref=redir_mobile_desktop?_encoding=UTF8&amp;aaxitk=3642b012cebd01d23644ae247f18ed05&amp;hsa_cr_id=3554120140301&amp;pd_rd_plhdr=t&amp;pd_rd_r=933d1b57-3581-4bbc-ac7c-a24d51f98f00&amp;pd_rd_w=0PDiI&amp;pd_rd_wg=mUwqg&amp;ref_=sbx_be_s_sparkle_mcd_asin_2_title&amp;th=1"/>
-    <hyperlink ref="A613" r:id="rId612" display="https://www.amazon.com/PURPLE-CANYON-White-Sage-Bundles/dp/B08589GXMM/ref=sr_1_3?dchild=1&amp;keywords=5+Pcs+White+Sage+Bundles+4%22+%2B+15+Palo+Santo+Sticks+-+Smudge+Kit+Refills&amp;qid=1621262075&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A614" r:id="rId613" display="https://www.amazon.com/Cuisinart-CCJ-500-Control-Brushed-Stainless/dp/B004VS32HA/ref=sr_1_3?dchild=1&amp;keywords=FAGINEY+Manual+Press+juicer%2CNew+Stainless+Steel+Lemon+Squeezer+Citrus+Fruit+Orange+juice+Extractor%2C+Silver+plating&amp;qid=1621246770&amp;sr=8-3"/>
-    <hyperlink ref="A615" r:id="rId614" display="https://www.amazon.com/JAMIE-OLIVER-Stainless-Steel-Masher/dp/B0045EPNBI/ref=sr_1_2?dchild=1&amp;keywords=Jamie+Oliver+Stainless+Steel+Masher&amp;qid=1621247617&amp;sr=8-2"/>
-    <hyperlink ref="A616" r:id="rId615" display="https://www.amazon.com/U-S-Kitchen-Supply-Horizontal-Vegetables/dp/B01MD1D8TD/ref=sr_1_1?dchild=1&amp;keywords=U.S.+Kitchen+Supply+Stainless+Steel+Potato+Masher+with+our+Wide+and+Ergonomic+Horizontal+Handle&amp;qid=1621253284&amp;sr=8-1"/>
-    <hyperlink ref="A617" r:id="rId616" display="https://www.amazon.com/Farberware-5211438-Professional-Resistant-Masher-Safe/dp/B07D15V7T3/ref=sr_1_1_sspa?dchild=1&amp;keywords=Tovolo+Silicone+Potato+Masher+-+Charcoal&amp;qid=1621245524&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEySFJJOFBYNEY2WlZUJmVuY3J5cHRlZElkPUEwNDI2MTYyMUZaMEFBVEc0UE1DVyZlbmNyeXB0ZWRBZElkPUEwNDk5NDQ0M1NMTTMwN0VCTjdRJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
-    <hyperlink ref="A618" r:id="rId617" display="https://www.amazon.com/Howard-ORS016-Orange-Wood-Polish/dp/B000GLHW22/ref=sr_1_1?dchild=1&amp;keywords=Howard+Products+ORS016+Orange+Oil+Wood+Polish%2C+16+oz&amp;qid=1621255018&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A619" r:id="rId618" display="https://www.amazon.com/Rust-Oleum-245221-Universal-Surface-Metallic/dp/B0016HLAH8/ref=sr_1_1?dchild=1&amp;keywords=Rust-Oleum+245221+Universal+All+Surface+Spray+Paint%2C+11+oz%2C+Metallic+Pure+Gold&amp;qid=1621261463&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A620" r:id="rId619" display="https://www.amazon.com/Alternative-Imagination-Meditating-Sustainable-Harvested/dp/B019G1YO5A/ref=sr_1_3?dchild=1&amp;keywords=Allway+1-1%2F16+in.+W+x+10.25+in.+L+Stainless+Steel+Wire+Brush&amp;qid=1621253843&amp;s=home-garden&amp;sr=1-3"/>
-    <hyperlink ref="A621" r:id="rId620" display="https://www.amazon.com/HEM-Celestial-Incense-Variety-Planet/dp/B00LH1Q6V8/ref=sr_1_1?dchild=1&amp;keywords=hem+celestial+incense+variety+sun+moon+star+planet+galaxy%2C+100+stick&amp;qid=1621263191&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A622" r:id="rId621" display="https://www.amazon.com/Satya-Sandalwood-Patchouli-Lavender-Positive/dp/B01EB1QOGW/ref=sr_1_2?dchild=1&amp;keywords=Satya+Sai+Baba+Set+of+6+Nag+Champa+Incense+Scents+by+Original+Variety+Pack+of+6+Aromatic+Scents+to+Freshen+Air%2C+Purify%2C+Cleanse+%28Relaxation+Mix%29&amp;qid=1621263321&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A623" r:id="rId622" display="https://www.amazon.com/Popular-Incense-Scents-Sticks-Burner/dp/B01N8YTLRK/ref=sr_1_7?dchild=1&amp;keywords=Fragrance+Fengshui+Fire%2C+Metal%2C+Wood%2C+Earth%2C+Chakra+and+Meditation+Best+Sellers+Variety+Pack+of+6+Box+120+Incense+Sticks&amp;qid=1621262963&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A624" r:id="rId623" display="https://www.amazon.com/Salt-Pepper-Shakers-Glass-Clear/dp/B06XH11C7K/ref=sr_1_7?dchild=1&amp;keywords=Grant+Howard+39130+Modern+Square+4+Ounce+Glass+Salt+and+Pepper+Shaker+Set%2C+Clear&amp;qid=1621275735&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A625" r:id="rId624" display="https://www.amazon.com/Glass-Salt-Pepper-Shaker-Greenbrier/dp/B00LZE2314/ref=sr_1_1?dchild=1&amp;keywords=1x+glass+salt+%26+pepper+shaker+set+by+greenbrier&amp;qid=1621276094&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A626" r:id="rId625" display="https://www.amazon.com/Salt-Pepper-Shakers-JoyJolt-Dishwasher/dp/B07TWNXRTX/ref=sr_1_1_sspa?dchild=1&amp;keywords=JoyJolt+Revere+Glass+Salt+And+Pepper+Shaker&amp;qid=1621276356&amp;s=home-garden&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExU1dJUjBVRlBWMDg0JmVuY3J5cHRlZElkPUEwMzk0MjI3M0ZWMVMxU1A1R01aNiZlbmNyeXB0ZWRBZElkPUEwNjgyNjM0MkxPMTlWTFA3NzhBMSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
-    <hyperlink ref="A627" r:id="rId626" display="https://www.amazon.com/Folgers-Classic-Medium-Coffee-Keurig/dp/B07YF5C8RT/ref=sr_1_2?dchild=1&amp;keywords=Revival+Roaster%2C+96+Count+Variety+Pack+for+Keurig+K-cups+with+10+Different+Blends&amp;qid=1621276898&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A628" r:id="rId627" display="https://www.amazon.com/Lavazza-Coffee-Medium-Espresso-2-2-Pound/dp/B000SDKDM4/ref=sr_1_5?dchild=1&amp;keywords=Lavazza+Classico+Single-Serve+Coffee+K-Cups+for+Keurig+Brewer%2C+Medium+Roast%2C+16-Count+Box&amp;qid=1621277367&amp;s=home-garden&amp;sr=1-5"/>
-    <hyperlink ref="A629" r:id="rId628" display="https://www.amazon.com/Sunflower-Kitchen-Decor-Piece-Linen/dp/B01N8TK2N5/ref=sr_1_2?dchild=1&amp;keywords=Grant+Howard+28+Ounce+Small+Hand+Painted+Sunflower+Round+Kitchen+Storage+Jar&amp;qid=1621275709&amp;s=home-garden&amp;sr=1-2"/>
-    <hyperlink ref="A630" r:id="rId629" display="https://www.amazon.com/Sunflower-Kitchen-Decor-Piece-Linen/dp/B01N8TMPPV/ref=sr_1_2?dchild=1&amp;keywords=Grant%2BHoward%2B28%2BOunce%2BSmall%2BHand%2BPainted%2BSunflower%2BRound%2BKitchen%2BStorage%2BJar&amp;qid=1621275709&amp;s=home-garden&amp;sr=1-2&amp;th=1"/>
-    <hyperlink ref="A631" r:id="rId630" display="https://www.amazon.com/Sunflower-Kitchen-Decor-Piece-Linen/dp/B01MXIJBZG/ref=sr_1_2?dchild=1&amp;keywords=Grant%2BHoward%2B28%2BOunce%2BSmall%2BHand%2BPainted%2BSunflower%2BRound%2BKitchen%2BStorage%2BJar&amp;qid=1621275709&amp;s=home-garden&amp;sr=1-2&amp;th=1"/>
-    <hyperlink ref="A632" r:id="rId631" display="https://www.amazon.com/Peets-Coffee-Dickasons-Complex-Layered/dp/B01N2KFHRS/ref=sr_1_5?dchild=1&amp;keywords=Market+%26+Main+Coffee%2C+Donut+Shop%2C+Medium+Roast%2C+K+Cups%2C+80+Count&amp;qid=1621278921&amp;sr=8-5"/>
-    <hyperlink ref="A633" r:id="rId632" display="https://www.amazon.com/Starbucks-Medium-Single-Coffee-Brewers/dp/B009GDBNF8/ref=sr_1_1?dchild=1&amp;keywords=Starbucks+Pike+Place+K-Cups+%2872+ct.%29&amp;qid=1621279293&amp;sr=8-1"/>
-    <hyperlink ref="A634" r:id="rId633" display="https://www.amazon.com/Peets-Coffee-Brilliant-Ethiopian-Natural/dp/B01LWJLJ63/ref=sr_1_1_sspa?dchild=1&amp;keywords=Starbucks+Pike+Place+K-Cups+%2872+ct.%29&amp;qid=1621279421&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFJWUI3TUFUWTQ1UFomZW5jcnlwdGVkSWQ9QTAyOTQzNjMxNUhGMkoxNUlMMDYmZW5jcnlwdGVkQWRJZD1BMDc1MTU2ODFUWDY2Q0gzNVY5WTEmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
-    <hyperlink ref="A635" r:id="rId634" display="https://www.amazon.com/Folgers-Simply-Smooth-Ground-Coffee/dp/B010ULG4C6/ref=sr_1_2?dchild=1&amp;keywords=Folgers+Simply+Smooth+Coffee%2C+Mild+Roast+Ground+Coffee%2C+31.1+Ounces%2C+Packaging+May+Vary&amp;qid=1621280115&amp;s=grocery&amp;sr=1-2"/>
-    <hyperlink ref="A636" r:id="rId635" display="https://www.amazon.com/Folgers-Classic-Ground-Coffee-Medium/dp/B07CMCLT3X/ref=sr_1_3?dchild=1&amp;keywords=Folgers+Simply+Smooth+Coffee%2C+Medium+Roast+Ground+Coffee%2C+11.5+Ounces%2C+6+Count&amp;qid=1621280243&amp;s=grocery&amp;sr=1-3"/>
-    <hyperlink ref="A637" r:id="rId636" display="https://www.amazon.com/Gourmet-Collection-Mediterranean-Himalayan-Spice/dp/B00WBX0KQ8/ref=sr_1_1?dchild=1&amp;keywords=The+Gourmet+Collection+Mediterranean+Pink+Himalayan+Salt+7+Oz&amp;qid=1621280549&amp;s=grocery&amp;sr=1-1"/>
-    <hyperlink ref="A638" r:id="rId637" display="https://www.amazon.com/Amazon-Brand-Granulated-Garlic-Ounces/dp/B07QW1GKR1/ref=sr_1_1?dchild=1&amp;keywords=Moringa+Turmeric+5+Spice+Seasoning+Immunity+Booster+-+All+Organic+Turmeric+Spice%2C+Moringa+Leaf+Powder%2C+Pink+Himalayan+Sea+Salt%2C+Black+Pepper+%26+Garlic+Powder+in+a+4+oz+Glass+Salt+Shaker&amp;qid=1621281089&amp;s=grocery&amp;sr=1-1"/>
-    <hyperlink ref="A639" r:id="rId638" display="https://www.amazon.com/True-Lemon-Bulk-Dispenser-Count/dp/B003YP3MUS/ref=sr_1_8?dchild=1&amp;keywords=Shaker+for+Salt%2FPepper+Clear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-8"/>
-    <hyperlink ref="A640" r:id="rId639" display="https://www.amazon.com/SaltWorks-Mediterra-Mediterranean-Coarse-Grain/dp/B07JJLKR7F/ref=sr_1_5?dchild=1&amp;keywords=Shaker%2Bfor%2BSalt%2FPepper%2BClear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-5&amp;th=1"/>
-    <hyperlink ref="A641" r:id="rId640" display="https://www.amazon.com/SaltWorks-Mediterra-Mediterranean-Coarse-Grain/dp/B07JJFM6Y3/ref=sr_1_5?dchild=1&amp;keywords=Shaker%2Bfor%2BSalt%2FPepper%2BClear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-5&amp;th=1"/>
-    <hyperlink ref="A642" r:id="rId641" display="https://www.amazon.com/SaltWorks-Mediterra-Mediterranean-Coarse-Grain/dp/B07JJNR8HJ/ref=sr_1_5?dchild=1&amp;keywords=Shaker%2Bfor%2BSalt%2FPepper%2BClear&amp;qid=1621281260&amp;s=grocery&amp;sr=1-5&amp;th=1"/>
-    <hyperlink ref="A643" r:id="rId642" display="https://www.amazon.com/FIJI-Natural-Artesian-Water-Bottles/dp/B004CQWWKY/ref=sr_1_6?dchild=1&amp;keywords=TRUE+LIME+Water+Enhancer%2C+Bulk+Pack+%28500+Packets%29%7CZero+Calorie+Unsweetened+Water+Flavoring%7CFor+Water%2C+Bottled+Water+%26+Recipes%7CWater+Flavor+Packets+Made+with+Real+Limes&amp;qid=1621281973&amp;s=grocery&amp;sr=1-6"/>
-    <hyperlink ref="A644" r:id="rId643" display="https://www.amazon.com/Propel-Strawberry-Beverage-Electrolytes-Vitamins/dp/B016S52Q7U/ref=sr_1_7?dchild=1&amp;keywords=TRUE+LIME+Water+Enhancer%2C+Bulk+Pack+%28500+Packets%29%7CZero+Calorie+Unsweetened+Water+Flavoring%7CFor+Water%2C+Bottled+Water+%26+Recipes%7CWater+Flavor+Packets+Made+with+Real+Limes&amp;qid=1621281973&amp;s=grocery&amp;sr=1-7"/>
-    <hyperlink ref="A645" r:id="rId644" display="https://www.amazon.com/Propel-Calorie-Beverage-Electrolytes-Vitamins/dp/B016S52Q4I/ref=sr_1_1?dchild=1&amp;keywords=Propel%2C+Peach%2C+Zero+Calorie+Water+Beverage+with+Electrolytes+%26+Vitamins+C%26E%2C+24+Fl+Oz%2C+pack+of+12&amp;qid=1621323129&amp;s=grocery&amp;sr=1-1"/>
-    <hyperlink ref="A646" r:id="rId645" display="https://www.amazon.com/Propel-Nutrient-Enhanced-Beverage-strawberry/dp/B01HYGPR64/ref=sr_1_2?dchild=1&amp;keywords=Propel+Zero+Calorie+Nutrient+Enhanced+Water+Beverage+Mix+%2836+packets%29+%28berry%2C+grape+%26+kiwi+strawberry%29&amp;qid=1621323246&amp;s=grocery&amp;sr=1-2"/>
-    <hyperlink ref="A647" r:id="rId646" display="https://www.amazon.com/Sparkling-Strawberry-Antioxidants-Vitamins-Bottles/dp/B003P02I70/ref=sr_1_4?dchild=1&amp;keywords=Hint+Fruit+Water+Strawberry+And+Kiwi%2C+16+Fl+Oz&amp;qid=1621323428&amp;s=grocery&amp;sr=1-4"/>
-    <hyperlink ref="A648" r:id="rId647" display="https://www.amazon.com/Gatorade-Thirst-Quencher-Flavor-Variety/dp/B07MQNF2LL/ref=sr_1_2?dchild=1&amp;keywords=Propel%2C+Watermelon%2C+Zero+Calorie+Water+Beverage+with+Electrolytes+%26+Vitamins+C%26E%2C+24+Fl+Oz+%28Pack+of+12%29&amp;qid=1621323222&amp;s=grocery&amp;sr=1-2"/>
-    <hyperlink ref="A649" r:id="rId648" display="https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B008NYVYPK/ref=sr_1_4?dchild=1&amp;keywords=Level+Water+%28Ultra-Purified+Water%2B%29+16.9+oz%2C+Ionic+Minerals+Added+For+Superior+Taste+and+Hydration%2C+9.0%2B+pH%2C+24%2Fcase&amp;qid=1621330343&amp;s=grocery&amp;sr=1-4"/>
-    <hyperlink ref="A650" r:id="rId649" display="https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B008NYVYPK/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR+Sports+Drink+Sports+Beverage%2C+Tropical+Punch%2C+Natural+Flavor+With+Vitamins%2C+Potassium-Packed+Electrolytes%2C+No+Preservatives%2C+Perfect+For+Athletes%2C+16+Fl+Oz+%28Pack+of+12%29&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1"/>
-    <hyperlink ref="A651" r:id="rId650" display="https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B007Y6P4WM/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR%2BSports%2BDrink%2BSports%2BBeverage%2C%2BTropical%2BPunch%2C%2BNatural%2BFlavor%2BWith%2BVitamins%2C%2BPotassium-Packed%2BElectrolytes%2C%2BNo%2BPreservatives%2C%2BPerfect%2BFor%2BAthletes%2C%2B16%2BFl%2BOz%2B(Pack%2Bof%2B12)&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1&amp;th=1"/>
-    <hyperlink ref="A652" r:id="rId651" display="https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B007Y6P5M6/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR%2BSports%2BDrink%2BSports%2BBeverage%2C%2BTropical%2BPunch%2C%2BNatural%2BFlavor%2BWith%2BVitamins%2C%2BPotassium-Packed%2BElectrolytes%2C%2BNo%2BPreservatives%2C%2BPerfect%2BFor%2BAthletes%2C%2B16%2BFl%2BOz%2B(Pack%2Bof%2B12)&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1&amp;th=1"/>
-    <hyperlink ref="A653" r:id="rId652" display="https://www.amazon.com/BODYARMOR-Beverage-Potassium-Packed-Electrolytes-Preservatives/dp/B07SDPHWBC/ref=sr_1_1?dchild=1&amp;keywords=BODYARMOR%2BSports%2BDrink%2BSports%2BBeverage%2C%2BTropical%2BPunch%2C%2BNatural%2BFlavor%2BWith%2BVitamins%2C%2BPotassium-Packed%2BElectrolytes%2C%2BNo%2BPreservatives%2C%2BPerfect%2BFor%2BAthletes%2C%2B16%2BFl%2BOz%2B(Pack%2Bof%2B12)&amp;qid=1621330452&amp;s=grocery&amp;sr=1-1&amp;th=1"/>
-    <hyperlink ref="A654" r:id="rId653" display="https://www.amazon.com/Carfidant-Scratch-Swirl-Remover-Scratches/dp/B07HNHC828?ref=deals_deals_deals-grid_slot-15_67e5_dt_dcell_img_44_0d9f6747"/>
-    <hyperlink ref="A655" r:id="rId654" display="https://www.amazon.com/Carfidant-Black-Car-Scratch-Remover/dp/B07RXV9MWB/ref=sr_1_6?dchild=1&amp;keywords=Carfidant+Scratch+and+Swirl+Remover+-+Ultimate+Car+Scratch+Remover+-+Polish+%26+Paint+Restorer+-+Easily+Repair+Paint+Scratches%2C+Scratches%2C+Water+Spots%21+Car+Buffer+Kit&amp;qid=1621340429&amp;s=automotive&amp;sr=1-6"/>
-    <hyperlink ref="A656" r:id="rId655" display="https://www.amazon.com/Freshware-CB-306SC-12-Pack-Silicone-Reusable/dp/B00GASLY56/ref=sr_1_1?dchild=1&amp;keywords=Freshware+12-Pack+Mini+Rectangle+Reusable+Silicone+Baking+Cup%2C+Rainbow+Colors%2C+CB-308SC&amp;qid=1621365859&amp;sr=8-1"/>
-    <hyperlink ref="A657" r:id="rId656" display="https://www.amazon.com/Wilton-Perfect-Results-Non-Stick-Bakeware/dp/B001K26ZPG/ref=sr_1_1?dchild=1&amp;keywords=NOGIS+Mini+Muffin+Pan+-+Silicone+Cupcake+Molds+12+Pack+-+Small+Baking+Cups+Truffle+Cake+Pan+Set+Nonstick&amp;qid=1621366086&amp;sr=8-1"/>
-    <hyperlink ref="A658" r:id="rId657" display="https://www.amazon.com/Wilton-Non-Stick-Bakeware-Bar-Cookies-12-Cavity/dp/B008KE7JLG/ref=sr_1_7?dchild=1&amp;keywords=NOGIS+Mini+Muffin+Pan+-+Silicone+Cupcake+Molds+12+Pack+-+Small+Baking+Cups+Truffle+Cake+Pan+Set+Nonstick&amp;qid=1621366086&amp;sr=8-7"/>
-    <hyperlink ref="A659" r:id="rId658" display="https://www.amazon.com/Wilton-Decorating-Tools-5-Piece-Brush/dp/B00IE6Y6J8/ref=sr_1_3?dchild=1&amp;keywords=Wilton+Candy+Melts+Decorating+Tip+Set%2C+5+pc.&amp;qid=1621409525&amp;sr=8-3"/>
-    <hyperlink ref="A660" r:id="rId659" display="https://www.amazon.com/Individual-Cupcake-Container-Hamburgers-Sandwich/dp/B07PJHGP93/ref=sr_1_1?dchild=1&amp;keywords=50+Single+Individual+Cupcake+Container%2C+Plastic+Clear+Dome+Cupcake+Carrier%2C+Party+Favors+Cake+Boxes+%26+Muffin+Cases%2C+Cups+for+Hamburgers+Sandwich+Salad+Fruit+%28Pack+of+50%29&amp;qid=1621411088&amp;sr=8-1"/>
-    <hyperlink ref="A661" r:id="rId660" display="https://www.amazon.com/Wilton-Candy-Melts-Dipping-Scoop/dp/B00HB555W0/ref=sr_1_2?dchild=1&amp;keywords=Wilton+Candy+Mold+Melt+Dipping+Scoop+Tool&amp;qid=1621411209&amp;sr=8-2"/>
-    <hyperlink ref="A662" r:id="rId661" display="https://www.amazon.com/ecoZen-Lifestyle-Unicorn-Wrappers-Decorations/dp/B07NTTMMST/ref=sr_1_5?dchild=1&amp;keywords=DIY-Lish+Cupcake+Decorating+Kit-Mermaid&amp;qid=1621418186&amp;sr=8-5"/>
-    <hyperlink ref="A663" r:id="rId662" display="https://www.amazon.com/Silicone-Cooking-Utensils-Kitchen-Utensil/dp/B07HGCJB1F/ref=sr_1_4?dchild=1&amp;keywords=fatchoi+silicone+basting+pastry+%26+bbq+brushes%2Cdurable%2Cheat+resistant+kitchen+utensils+cooking+good+helper&amp;qid=1621418326&amp;sr=8-4"/>
-    <hyperlink ref="A664" r:id="rId663" display="https://www.amazon.com/Wilton-Meringue-Powder-8-oz/dp/B000ZNOVCA/ref=sr_1_9?dchild=1&amp;keywords=Wilton+Shimmer+Snowflake+Icing+Decorations%2C+24-count&amp;qid=1621418663&amp;sr=8-9"/>
-    <hyperlink ref="A665" r:id="rId664" display="https://www.amazon.com/AirBake-Natural-Pack-Cookie-Sheet/dp/B000063SKU/ref=sxin_7?asc_contentid=amzn1.osa.a21d4df0-f6f5-41f6-a2d8-ec5e0314c7dc.ATVPDKIKX0DER.en_US&amp;asc_contenttype=article&amp;ascsubtag=amzn1.osa.a21d4df0-f6f5-41f6-a2d8-ec5e0314c7dc.ATVPDKIKX0DER.en_US&amp;creativeASIN=B002HWSATC&amp;cv_ct_cx=Good%2BCook%2BSet%2BOf%2B3%2BNon-Stick%2BCookie%2BSheet&amp;cv_ct_id=amzn1.osa.a21d4df0-f6f5-41f6-a2d8-ec5e0314c7dc.ATVPDKIKX0DER.en_US&amp;cv_ct_pg=search&amp;cv_ct_we=asin&amp;cv_ct_wn=osp-single-source-earns-comm&amp;dchild=1&amp;keywords=Good%2BCook%2BSet%2BOf%2B3%2BNon-Stick%2BCookie%2BSheet&amp;linkCode=oas&amp;pd_rd_i=B002HWSATC&amp;pd_rd_r=c38bba36-6d76-4329-bd45-a46ae48343fa&amp;pd_rd_w=YUnKy&amp;pd_rd_wg=GP3rE&amp;pf_rd_p=c5aa77b7-f0ac-4b95-b207-5ef230c60c9b&amp;pf_rd_r=AK6CE7HGQJS321190WGV&amp;qid=1621419684&amp;sr=1-1-64f3a41a-73ca-403a-923c-8152c45485fe&amp;tag=pur0e40b-20&amp;th=1"/>
-    <hyperlink ref="A666" r:id="rId665" display="https://www.amazon.com/Scraper-Stainless-Polished-Measuring-Multipurpose/dp/B01D1GE1KE/ref=sr_1_7?dchild=1&amp;keywords=4-Inch+Super+heavy+173g+Stainless+Steel+Pizza+Cutter+Wheel%2C+Sharp+Cutters%2C+Pizza+Wheel%2C+Pizza+Slicer+-+For+Pizza+Lovers+Support+dishwasher+for+easy+cleaning&amp;qid=1621420088&amp;s=home-garden&amp;sr=1-7"/>
-    <hyperlink ref="A667" r:id="rId666" display="https://www.amazon.com/AirBake-Natural-Cookie-Sheet-16/dp/B000EOSFHC/ref=sr_1_5?dchild=1&amp;keywords=airbake+natural+cookie+sheet%2C+16x14+in&amp;qid=1621420441&amp;s=home-garden&amp;sr=1-5"/>
-    <hyperlink ref="A668" r:id="rId667" display="https://www.amazon.com/COSORI-Electric-Reminder-Touchscreen-Certified/dp/B07T2LCKNF/ref=sr_1_fkmr1_1?dchild=1&amp;keywords=T-fal%2BAirbake%2BNonstick%2BPizza%2BPan%2C%2BSet%2Bof%2B2%2C%2B12.75%22%2Band%2B15.75&amp;qid=1621419924&amp;s=home-garden&amp;sr=1-1-fkmr1&amp;th=1"/>
-    <hyperlink ref="A669" r:id="rId668" display="https://www.amazon.com/COSORI-Electric-Reminder-Touchscreen-Certified/dp/B07T2LGN8P/ref=sr_1_fkmr1_1?dchild=1&amp;keywords=T-fal%2BAirbake%2BNonstick%2BPizza%2BPan%2C%2BSet%2Bof%2B2%2C%2B12.75%22%2Band%2B15.75&amp;qid=1621419924&amp;s=home-garden&amp;sr=1-1-fkmr1&amp;th=1"/>
-    <hyperlink ref="A670" r:id="rId669" display="https://www.amazon.com/LEVOIT-Purifier-Home-Allergies-Pets/dp/B083TMWFSZ/ref=sr_1_fkmr5_2?dchild=1&amp;keywords=BLACK%2BDECKER%2BTabletop%2BAir%2BPurifier%2B-%2B3-Stage%2BFiltration%2BSystem%2B-%2BHEPA%2BAir%2BPurifiers%2Bfor%2BHome&amp;qid=1621421069&amp;s=home-garden&amp;sr=1-2-fkmr5&amp;th=1"/>
-    <hyperlink ref="A671" r:id="rId670" display="https://www.amazon.com/Casserole-Carrier-Food-Warmer-Portable/dp/B00H861ESQ/ref=sr_1_1?dchild=1&amp;keywords=Casserole+Carrier+and+Food+Warmer+-+Portable+Travel+Casserole+Tote+%28Holds+up+to+11%22x17%22+Casserole+-+Keeps+warm+up+to+one+hour%29-Red&amp;qid=1621424756&amp;sr=8-1"/>
-    <hyperlink ref="A672" r:id="rId671" display="https://www.amazon.com/XINDELL-Windshield-Cleaning-Extendable-Microfiber/dp/B07SGQJ6C9/ref=sr_1_1?dchild=1&amp;keywords=3+Pack+Microfiber+Windshield+Clean+Car+Auto+Wiper+Cleaner+Glass+Window+Brush+Kit&amp;qid=1621443944&amp;s=automotive&amp;sr=1-1"/>
-    <hyperlink ref="A673" r:id="rId672" display="https://www.amazon.com/Stoner-Invisible-Glass-Windscreen-Cleaner/dp/B000M3V95U/ref=sr_1_4?dchild=1&amp;keywords=Invisible+Glass+Clean+and+Repel+19+oz+Aerosol+Can&amp;qid=1621444399&amp;s=automotive&amp;sr=1-4"/>
-    <hyperlink ref="A674" r:id="rId673" display="https://www.amazon.com/Chemical-Guys-MIC498-Black-Microfiber/dp/B01JIHUNKM/ref=sr_1_2?dchild=1&amp;keywords=Car%2BWash%2BMitt%2B4%2BPack%2BExtra%2BLarge%2BSize%2BCleaning%2BTowels%2BTools%2BKits%2BPremium%2BChenille%2BMicrofiber%2BClean%2BTowel%2BMitts%2BWashing%2BGlove%2Bwith%2BLint%2BFree%2B%26%2BScratch%2BFree%2B(Light%2BBlue%2B%2B%2BDark%2BBlue%2B%2B%2BOrange%2B%2B%2BPurple)&amp;qid=1621443678&amp;s=automotive&amp;sr=1-2&amp;th=1"/>
-    <hyperlink ref="A675" r:id="rId674" display="https://www.amazon.com/Chemical-Guys-BUF_900-Conditioning-Brush/dp/B0023V727S/ref=sr_1_4?dchild=1&amp;keywords=Chemical+Guy+BUF900+Edge+Conditioning+Brush&amp;qid=1621444949&amp;s=automotive&amp;sr=1-4"/>
-    <hyperlink ref="A676" r:id="rId675" display="https://www.amazon.com/DII-Welcome-Seashells-Spring-Doormat/dp/B07SPXXW9N/ref=sr_1_1?dchild=1&amp;keywords=DII+Give+Thanks+Pumpkin+Doormat&amp;qid=1621503502&amp;s=lawn-garden&amp;sr=1-1"/>
-    <hyperlink ref="A677" r:id="rId676" display="https://www.amazon.com/dp/B01HDL5B5C?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A678" r:id="rId677" display="https://www.amazon.com/Gorilla-Grip-Original-Patented-Washable/dp/B01F5K9YNS/ref=sr_1_3?dchild=1&amp;keywords=The+Original+GORILLA+GRIP+Non-Slip+Area+Rug+Pad%2C+Made+In+USA+%285%5C%27+x+7%5C%27%29+NEW&amp;qid=1621505105&amp;sr=8-3"/>
-    <hyperlink ref="A679" r:id="rId678" display="https://www.amazon.com/Gorilla-Grip-Original-Patented-Washable/dp/B071ZQVTRS/ref=sr_1_3?dchild=1&amp;keywords=The%2BOriginal%2BGORILLA%2BGRIP%2BNon-Slip%2BArea%2BRug%2BPad%2C%2BMade%2BIn%2BUSA%2B(5%5C%27%2Bx%2B7%5C%27)%2BNEW&amp;qid=1621505105&amp;sr=8-3&amp;th=1"/>
-    <hyperlink ref="A680" r:id="rId679" display="https://www.amazon.com/Whitmor-Over-Rack-36-36-Pair-White/dp/B0019FOUQ0/ref=sr_1_5?dchild=1&amp;keywords=18-Pair+over-The-Door+Shoe+Rack&amp;qid=1621752775&amp;sr=8-5"/>
-    <hyperlink ref="A681" r:id="rId680" display="https://www.amazon.com/10-Shelf-Hanging-Organizer-Holder-Closet/dp/B01BCCMBII/ref=sr_1_3?dchild=1&amp;keywords=Zober%2B5-Shelf%2BHanging%2BCloset%2BOrganizer%2B12%2Bx%2B11%2B%C2%BD%2Bx%2B42%2Binches%2C%2B6%2BSide%2BMesh%2BPockets%2Band%2B2%2BSturdy%2BHooks%2C%2Bfor%2BClothes%2BStorage%2C%2Band%2BShoes%2C%2BEtc.%2B-%2BGrey&amp;qid=1621753067&amp;sr=8-3&amp;th=1"/>
-    <hyperlink ref="A682" r:id="rId681" display="https://www.amazon.com/Flexzion-Organizer-Footwear-Stationery-Accessories/dp/B07S69R3FT/ref=sr_1_1?dchild=1&amp;keywords=Hanging+Shoe+Organizer%2C+Over+the+Door+Closet+Shoes+Storage+Hanger%2C+Footwear+Holder%2C+24+Clear+Plastic+Pockets+w%2F+3+Steel+Hooks+for+Cloth+Cleaning+Supplies+House+Stationery+Accessories%2C+White&amp;qid=1621754127&amp;sr=8-1"/>
-    <hyperlink ref="A683" r:id="rId682" display="https://www.amazon.com/24-Pockets-SimpleHouseware-Crystal-Organizer/dp/B01D58DRVC/ref=sr_1_5?dchild=1&amp;keywords=Household+Essentials+311390+Hanging+Shoe+Storage+Organizer+for+Closets+-20+pocket+-+Natural+Canvas&amp;qid=1621754326&amp;sr=8-5"/>
-    <hyperlink ref="A684" r:id="rId683" display="https://www.amazon.com/MISSLO-Organizer-Large-Pockets-White/dp/B01N2JICUM/ref=sr_1_3?dchild=1&amp;keywords=12+Large+Mesh+Pockets+non-woven+Fabrics+Hanging+Shoe+Organiser+Rack+Behind+Doors+Shoes+Rack+Storage+Wall+Bag&amp;qid=1621754574&amp;sr=8-3"/>
-    <hyperlink ref="A685" r:id="rId684" display="https://www.amazon.com/MISSLO-Organizer-Large-Pockets-White/dp/B01D9VYQTC/ref=sr_1_3?dchild=1&amp;keywords=12%2BLarge%2BMesh%2BPockets%2Bnon-woven%2BFabrics%2BHanging%2BShoe%2BOrganiser%2BRack%2BBehind%2BDoors%2BShoes%2BRack%2BStorage%2BWall%2BBag&amp;qid=1621754574&amp;sr=8-3&amp;th=1"/>
-    <hyperlink ref="A686" r:id="rId685" display="https://www.amazon.com/Amooca-Headrest-Organizer-Uiversal-Universal/dp/B07SGBR7T8/ref=sr_1_3?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-3"/>
-    <hyperlink ref="A687" r:id="rId686" display="https://www.amazon.com/JINSHUNFA-Wall-Transparent-Reusable-Waterproof/dp/B074Y4V445/ref=sr_1_5?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-5"/>
-    <hyperlink ref="A688" r:id="rId687" display="https://www.amazon.com/Adhesive-Mounted-Hanging-Bedroom-Entryway/dp/B08JHNZMDG/ref=sr_1_1?dchild=1&amp;keywords=4+Pack+Adhesive+Hooks+Metal+Heavy+Duty+Wall+Mounted+3M+Sticky+Hook+for+Hanging+Coat%2C+Scarf%2C+Bag%2C+Towel%2C+Keys+for+Home%2C+Bedroom%2C+Entryway+NO+Damage+Wall+Hangers+Round+Matte+Black&amp;qid=1621759232&amp;sr=8-1"/>
-    <hyperlink ref="A689" r:id="rId688" display="https://www.amazon.com/SAVORI-Organizer-Headrest-Backseat-Universal/dp/B07S6SGPM7/ref=sr_1_9?dchild=1&amp;keywords=4%2BPACK%2BCar%2BHeadrest%2BHooks%2B-%2BVehicle%2BUniversal%2BCar%2BOrganizer%2BCar%2BBack%2BSeat%2BHeadrest%2BHanger%2BHolder%2BHook%2Bfor%2BBag%2BPurse%2BCloth%2BGrocery%2C%2BBlack-%2BColoured&amp;qid=1621758957&amp;sr=8-9&amp;th=1"/>
-    <hyperlink ref="A690" r:id="rId689" display="https://www.amazon.com/SAVORI-Organizer-Headrest-Backseat-Universal/dp/B07RZXPZ45/ref=sr_1_1?dchild=1&amp;keywords=SAVORI+Auto+Hooks+Bling+Car+Hangers+Organizer+Seat+Headrest+Hooks+Strong+and+Durable+Backseat+Hanger+Storage+Universal+for+SUV+Truck+Vehicle+2+Pack+%28Sky+Blue%29&amp;qid=1621759491&amp;sr=8-1"/>
-    <hyperlink ref="A691" r:id="rId690" display="https://www.amazon.com/Sunferno-Headrest-Hooks-Pack-Exceptionally/dp/B07CCHR66G/ref=sr_1_17?dchild=1&amp;keywords=4+PACK+Car+Headrest+Hooks+-+Vehicle+Universal+Car+Organizer+Car+Back+Seat+Headrest+Hanger+Holder+Hook+for+Bag+Purse+Cloth+Grocery%2C+Black-+Coloured&amp;qid=1621758957&amp;sr=8-17"/>
-    <hyperlink ref="A692" r:id="rId691" display="https://www.amazon.com/High-Road-Contour-Headrest-Hangers/dp/B018Y0ZOYY/ref=sr_1_38?dchild=1&amp;keywords=4+PACK+Car+Headrest+Hooks+-+Vehicle+Universal+Car+Organizer+Car+Back+Seat+Headrest+Hanger+Holder+Hook+for+Bag+Purse+Cloth+Grocery%2C+Black-+Coloured&amp;qid=1621758957&amp;sr=8-38"/>
-    <hyperlink ref="A693" r:id="rId692" display="https://www.amazon.com/Butterfly-Craze-Floor-Pillow-Cover/dp/B074Q36KZ1/ref=sr_1_1?dchild=1&amp;keywords=butterfly+craze+kid%27s+floor+pillow+bed+cover+-+use+as+nap+mat%2C+portable+toddler+bed+alternative+for+sleepovers%2C+travel%2C+napping%2C+or+as+a+lounger+for+reading%2C+playing.+cover+only%21&amp;qid=1621760049&amp;s=home-garden&amp;sr=1-1"/>
-    <hyperlink ref="A694" r:id="rId693" display="https://www.amazon.com/IMILLET-Holder-Mounted-Organizer-Storage/dp/B07TWF7V2Q/ref=sr_1_5?dchild=1&amp;keywords=Mop+and+Broom+Holder%2C+Wall+Mounted+Organizer-Mop+and+Broom+Storage+Tool+Rack+with+4+Ball+Slots+and+5+Hooks&amp;qid=1621761971&amp;sr=8-5"/>
-    <hyperlink ref="A695" r:id="rId694" display="https://www.amazon.com/Hanging-Hanger-Kitchen-Closet-Plants/dp/B07Q6WRYBS/ref=sr_1_7?dchild=1&amp;keywords=2-Pack+Over+Door+Hanging+Purse+and+Accessory+Storage+-+DURABLE%2C+Holds+50+POUNDS%2C+ROTATES+360+for+easy+access%3B+Purses%2C+Handbags%2C+Satchels%2C+Crossovers%2C+Backpacks%2C12+Hooks%2C+Chrome+%28Set+of+2%29&amp;qid=1621758415&amp;sr=8-7"/>
-    <hyperlink ref="A696" r:id="rId695" display="https://www.amazon.com/Tenby-Living-2-Pack-Organizer-Hanger/dp/B01HFJYEQE/ref=sr_1_4?dchild=1&amp;keywords=Longstem+Organizer+Tie+Belt+Rack+Hanging+Closet+Valet+Accessory+Organizer+in+Black&amp;qid=1621762731&amp;sr=8-4"/>
-    <hyperlink ref="A697" r:id="rId696" display="https://www.amazon.com/Magazine-Storage-Pockets-Organizational-School/dp/B0019S20CS/ref=sr_1_1?dchild=1&amp;keywords=over+The+Door+Magazine+Storage+Pockets+Hooks+Books+Organizational+Back+To+School+Office+Home%2C+14%27W+X32H%2C+Color%3A+Black+%26&amp;qid=1621763186&amp;sr=8-1"/>
-    <hyperlink ref="A698" r:id="rId697" display="https://www.amazon.com/dp/B07RFSQYSG?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A699" r:id="rId698" display="https://www.amazon.com/mDesign-Cabinet-Kitchen-Storage-Organizer/dp/B07CS6L9CY/ref=sr_1_1?dchild=1&amp;keywords=mDesign+Farmhouse+Metal+Wire+Wall+%26+Cabinet+Door+Mount+Kitchen+Storage+Organizer+Basket+Rack+-+Mount+to+Walls+and+Cabinet+Doors+in+Kitchen%2C+Pantry%2C+and+Under+Sink+-+Satin&amp;qid=1621763950&amp;sr=8-1"/>
-    <hyperlink ref="A700" r:id="rId699" display="https://www.amazon.com/dp/B07LC45CZM?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A701" r:id="rId700" display="https://www.amazon.com/dp/B07BNSMFB7?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A702" r:id="rId701" display="https://www.amazon.com/dp/B07D5JD1VD?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A703" r:id="rId702" display="https://www.amazon.com/dp/B07CS8ZSP3?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A704" r:id="rId703" display="https://www.amazon.com/dp/B07NQV2XLW?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A705" r:id="rId704" display="https://www.amazon.com/dp/B07MQGJ1JY?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A706" r:id="rId705" display="https://www.amazon.com/dp/B07G3LC3BS?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A707" r:id="rId706" display="https://www.amazon.com/dp/B07SKCCKVN?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-feature-pcomp-wm-11&amp;ref=aa_pcomp_patf1_xcta1"/>
-    <hyperlink ref="A708" r:id="rId707" display="https://www.amazon.com/Mkeke-Compatible-iPhone-Protector-Tempered/dp/B07HRN9J19/ref=zg_bs_wireless_1?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A709" r:id="rId708" display="https://www.amazon.com/Temdan-Clear-Case-Compatible-iPhone/dp/B08JYYPT33/ref=zg_bs_wireless_15?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A710" r:id="rId709" display="https://www.amazon.com/QHOHQ-iPhone-12-Pro-Max/dp/B088DXSTNW/ref=zg_bs_wireless_17?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A711" r:id="rId710" display="https://www.amazon.com/JETech-Screen-Protector-6-1-Inch-Tempered/dp/B07GZSDHSK/ref=zg_bs_wireless_19?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A712" r:id="rId711" display="https://www.amazon.com/JETech-iPhone-6-1-Inch-Shock-Absorption-Bumper/dp/B07H9PN1KF/ref=sr_1_9?dchild=1&amp;keywords=JETech+Case+for+Apple+iPhone+XR+6.1-Inch%2C+Shock-Absorption+Bumper+Cover%2C+HD+Clear&amp;qid=1621261491&amp;sr=8-9"/>
-    <hyperlink ref="A713" r:id="rId712" display="https://www.amazon.com/Charger-LUOATIP-Adapter-Charging-Replacement/dp/B07TK6MPNB/ref=zg_bs_wireless_24?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A714" r:id="rId713" display="https://www.amazon.com/Protector-Compatible-Tempered-Anti-Scratch-Friendly/dp/B01LXZDPDR/ref=zg_bs_wireless_30?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A715" r:id="rId714" display="https://www.amazon.com/JETech-Screen-Protector-5-5-Inch-Tempered/dp/B01KNVY2FO/ref=zg_bs_wireless_39?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A716" r:id="rId715" display="https://www.amazon.com/pzoz-Compatible-Protector-Accessories-Coverage/dp/B07R4HQRXP/ref=zg_bs_wireless_44?_encoding=UTF8&amp;psc=1&amp;refRID=BJDRZDYW137M0PDW2SHQ"/>
-    <hyperlink ref="A717" r:id="rId716" display="https://www.amazon.com/dp/B08NWCQ92L/ref=twister_B08MZW4JJ1?_encoding=UTF8&amp;th=1"/>
-    <hyperlink ref="A718" r:id="rId717" display="https://www.amazon.com/JETech-Screen-Protector-4-7-Inch-Tempered/dp/B07QQZDDR4/ref=zg_bs_wireless_56?_encoding=UTF8&amp;psc=1&amp;refRID=MKV33J1RRW63362ZCAJM"/>
-    <hyperlink ref="A719" r:id="rId718" display="https://www.amazon.com/Zarbees-Naturals-Gummies-Melatonin-Natural/dp/B076KTYCD3/ref=sr_1_1?dchild=1&amp;keywords=Zarbee%27s+Naturals+Sleep+with+Melatonin+Natural+Mixed+Fruit+Flavor+Supplement%2C+60+count&amp;qid=1621620462&amp;s=hpc&amp;sr=1-1"/>
-    <hyperlink ref="A720" r:id="rId719" display="https://www.amazon.com/Gigantic-Earrings-Plated-Silver-Hypoallergenic/dp/B07GZRS2P5/ref=zg_bs_3880961_7?_encoding=UTF8&amp;refRID=9RNGSA6NY0VNXDK2412B&amp;th=1"/>
-    <hyperlink ref="A721" r:id="rId720" display="https://www.amazon.com/Styles-Invisible-Adjuster-Loose-Rings/dp/B07P95BW9M/ref=sr_1_1?dchild=1&amp;keywords=2+Styles+Invisible+Ring+Size+Adjuster+for+Loose+Rings+%E2%80%93+Ring+Guard%2C+Ring+Sizer%2C+11+Sizes+Fit+for+Man+and+Woman+Ring&amp;qid=1621759429&amp;s=arts-crafts&amp;sr=1-1"/>
-    <hyperlink ref="A722" r:id="rId721" display="https://www.amazon.com/Silicone-Earring-Safety-Hypoallergenic-Yalis/dp/B07BBN671P/ref=sr_1_2?dchild=1&amp;keywords=1000+Pcs+Clear+Earring+Backs+Safety+Silicone+Bullet+Earring+Clutch+Earrings+Jewelry+Accessories&amp;qid=1621760334&amp;sr=8-2"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://www.amazon.com/NATIONAL-GEOGRAPHIC-Earth-Science-Kit/dp/B082ZLM39R/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
+    <hyperlink ref="A4" r:id="rId2" display="https://www.amazon.com/SwimWays-Baby-Spring-Float-Canopy/dp/B01N52SYAZ/ref=sr_1_1?dchild=1&amp;keywords=B01N52SYAZ&amp;qid=1619294793&amp;sr=8-1"/>
+    <hyperlink ref="A5" r:id="rId3" display="https://www.amazon.com/TeeTurtle-Reversible-Octopus-Mini-Plush/dp/B07H4YQF3Q/ref=zg_bs_toys-and-games_1?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.amazon.com/NATIONAL-GEOGRAPHIC-Earth-Science-Kit/dp/B082ZLM39R/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
+    <hyperlink ref="A7" r:id="rId5" display="https://www.amazon.com/BunMo-Sensory-Autistic-Children-Fidgets/dp/B088SZ9SPH/ref=zg_bs_toys-and-games_10?_encoding=UTF8&amp;psc=1&amp;refRID=C5E2VY43MY7Z4TV12908"/>
+    <hyperlink ref="A8" r:id="rId6" display="https://www.amazon.com/YRYM-HT-Alignment-Application-Silhouette/dp/B07KPB38LK/ref=zg_bs_arts-crafts_9?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
+    <hyperlink ref="A9" r:id="rId7" display="https://www.amazon.com/Canson-Watercolor-Textured-Charcoal-7022446/dp/B0049UXGD0/ref=zg_bs_arts-crafts_25?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
+    <hyperlink ref="A10" r:id="rId8" display="https://www.amazon.com/Cricut-FabricGrip-Cutting-12x12-Pack/dp/B079W93LJ4/ref=zg_bs_arts-crafts_33?_encoding=UTF8&amp;refRID=49P5KA9NAP4JNGG6XX6C&amp;th=1"/>
+    <hyperlink ref="A11" r:id="rId9" display="https://www.amazon.com/Crayola-Construction-Classic-Projects-Classrooms/dp/B003W0PBR2/ref=zg_bs_arts-crafts_42?_encoding=UTF8&amp;psc=1&amp;refRID=49P5KA9NAP4JNGG6XX6C"/>
+    <hyperlink ref="A12" r:id="rId10" display="https://www.amazon.com/Disney-Pixar-Story-Alien-Remix/dp/B08F31J1ZP/ref=sr_1_3?dchild=1&amp;keywords=Disney%2FPixar+Toy+Story+Lotso+Plush&amp;qid=1619282124&amp;sr=8-3"/>
+    <hyperlink ref="A13" r:id="rId11" display="https://www.amazon.com/Seventh-Generation-Diapers-Sensitive-Protection/dp/B08399LKT9/ref=sr_1_12?dchild=1&amp;keywords=Seventh+Generation+Baby+Diapers%2C+Size+5%2C+132+count%2C+One+Month+Supply%2C+for+Sensitive+Skin&amp;qid=1619336559&amp;s=hpc&amp;sr=1-12"/>
+    <hyperlink ref="A14" r:id="rId12" display="https://www.amazon.com/Seventh-Generation-Diapers-Count-Sensitive/dp/B084H4LCNN/ref=sr_1_10?dchild=1&amp;keywords=Seventh+Generation+Baby+Diapers%2C+Size+5%2C+132+count%2C+One+Month+Supply%2C+for+Sensitive+Skin&amp;qid=1619336559&amp;s=hpc&amp;sr=1-10"/>
+    <hyperlink ref="A15" r:id="rId13" display="https://www.amazon.com/Dove-Body-Wash-Pump-Moisture/dp/B00MEDOY2G/ref=sr_1_6?crid=FATV902REHPB&amp;dchild=1&amp;keywords=body+wash&amp;qid=1619417238"/>
+    <hyperlink ref="A16" r:id="rId14" display="https://www.amazon.com/Frequency-BeautyHuoLian-Portable-Tightening-Wrinkles/dp/B07VSPYY4Q/ref=sr_1_1?dchild=1&amp;keywords=High+Frequency+Facial+Machine%2C+FAZJEUNE+Portable+High+Frequency+Machine+Skin+Therapy+Wand+Handle+Skin+Tightening+Acne+Spot+Wrinkles+Reducing+Puffy+Eyes+Dark+Circles+Dispel+Freckle+4+in+1&amp;qid=1619347939&amp;sr=8-1"/>
+    <hyperlink ref="A17" r:id="rId15" display="https://www.amazon.com/Grout-Sealer-Spray-Bottle-Silicone/dp/B074M77F9N/ref=sr_1_1?dchild=1&amp;keywords=Homax+Tile+Guard+Penetrating+Grout+Sealer+Spray%2C+22+Ounce&amp;qid=1619426065&amp;sr=8-1"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://www.amazon.com/dp/B08B5XH1JN/ref=sspa_dk_detail_4?psc=1&amp;pd_rd_i=B08B5XH1JN&amp;pd_rd_w=R9s43&amp;pf_rd_p=cbc856ed-1371-4f23-b89d-d3fb30edf66d&amp;pd_rd_wg=Y9YOL&amp;pf_rd_r=YBQ04YMVG1XWTSX4F8BW&amp;pd_rd_r=93fe595c-997f-4073-acc1-47a70370cb29&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE1UUg1U09GNzgyMFcmZW5jcnlwdGVkSWQ9QTEwMDQ3NTkxMFJJWUkwMlJXTFJIJmVuY3J5cHRlZEFkSWQ9QTA5NjcwNzAyREJOQlM5RENWMUsmd2lkZ2V0TmFtZT1zcF9kZXRhaWxfdGhlbWF0aWMmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://www.amazon.com/Oviitech-Protector-Outlets-Charging-Extension/dp/B07Q5DWKRC/ref=sr_1_1?dchild=1&amp;keywords=Oviitech+Surge+Protector+Power+Strip+Tower+5+AC+Outlets+with+3+USB+Charging+Ports%283.1A+Total%29%2C+4+Feet+Cord+Wire+Extension%2CWhite+and+Gray%2C+ETL+Listed&amp;qid=1619429198&amp;s=electronics&amp;sr=1-1"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://www.amazon.com/Vertical-EletecPro-Extension-Protector-Protection/dp/B074PMPM2B/ref=sr_1_3?dchild=1&amp;keywords=Power+Strip+Tower%2CEletecPro+Surge+Protector+Electric+Charging+Station+2500W+10A%2CSmart+Extension+Lead+Socket+2M%2F5.56ft+Overload+Protection+8+outlets+and+4+USB+Ports+Universal+Socket%28White%29&amp;qid=1619429513&amp;s=electronics&amp;sr=1-3"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://www.amazon.com/Insect-Lore-Butterfly-Garden-Caterpillars/dp/B087YKKT98/ref=zg_bs_toys-and-games_6?_encoding=UTF8&amp;psc=1&amp;refRID=JDBHHMCF6GFJAH70HKFE"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://www.amazon.com/ZNNCO-Silicone-Special-Reliever-Emotional/dp/B08SCHX7PJ/ref=zg_bs_toys-and-games_4?_encoding=UTF8&amp;psc=1&amp;refRID=JDBHHMCF6GFJAH70HKFE"/>
+    <hyperlink ref="A23" r:id="rId21" display="https://www.amazon.com/TOUGS-Pumice-Stone-Feet-Exfoliation/dp/B07XS3SM71/ref=sr_1_1?dchild=1&amp;keywords=TOUGS+Pumice+Stone+for+Feet%2C+Hard+Skin+Callus+Remover+and+Scrubber%2C+Callus+Remover+Foot+Scrubber+Home+Pedicure+Exfoliation%2C+4+Pack&amp;qid=1619468057&amp;s=beauty&amp;sr=1-1"/>
+    <hyperlink ref="A24" r:id="rId22" display="https://www.amazon.com/Lansinoh-Breastmilk-Breastfeeding-Directly-Essentials/dp/B006XISCNA/ref=zg_bs_baby-products_12?_encoding=UTF8&amp;psc=1&amp;refRID=DM81VBVKBE9QM30FEMBP"/>
+    <hyperlink ref="A25" r:id="rId23" display="https://www.amazon.com/Haakaa-Breast-Manual-Silicone-Breastfeeding/dp/B07CWK4S5W/ref=bmx_2?pd_rd_w=ciRNf&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=DQ05AH6D7G5RX27S5YNE&amp;pd_rd_r=70b19ad7-0f3b-4707-ae11-c44c7ff9dbd5&amp;pd_rd_wg=9XbHs&amp;pd_rd_i=B07CWK4S5W&amp;psc=1"/>
+    <hyperlink ref="A26" r:id="rId24" display="https://www.amazon.com/Dr-Browns-Piece-Breastmilk-Storage/dp/B07KGL4NQJ/ref=bmx_5?pd_rd_w=ciRNf&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=DQ05AH6D7G5RX27S5YNE&amp;pd_rd_r=70b19ad7-0f3b-4707-ae11-c44c7ff9dbd5&amp;pd_rd_wg=9XbHs&amp;pd_rd_i=B07KGL4NQJ&amp;psc=1"/>
+    <hyperlink ref="A27" r:id="rId25" display="https://www.amazon.com/Amazon-Brand-Diaper-Refills-Genie/dp/B06Y2731JC/ref=zg_bs_baby-products_22?_encoding=UTF8&amp;psc=1&amp;refRID=1TC15A7WPRAXKE4VH2YR"/>
+    <hyperlink ref="A28" r:id="rId26" display="https://www.amazon.com/Nuby-Floating-Purple-Octopus-Interactive/dp/B083ZZSGLR/ref=sr_1_4?dchild=1&amp;fst=as%3Aoff&amp;m=ATVPDKIKX0DER&amp;pf_rd_i=165793011&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_p=ea45a373-9b52-4966-a0a7-59ff9594ea26&amp;pf_rd_r=647HFARZPBGXYFHCT3EB&amp;pf_rd_s=merchandised-search-6&amp;pf_rd_t=101&amp;qid=1619514021&amp;refinements=p_6%3AATVPDKIKX0DER%2Cp_36%3A-1000&amp;rnid=386491011&amp;s=toys-and-games&amp;sr=1-4"/>
+    <hyperlink ref="A29" r:id="rId27" display="https://www.amazon.com/Munchkin-Rinse-Shampoo-Rinser-Blue/dp/B01M6416TW/ref=pd_rhf_ee_s_pd_crcd_2?pd_rd_w=O9Q76&amp;pf_rd_p=8019ba47-0a12-4976-b76b-5c932d60db6f&amp;pf_rd_r=DN6XM5Q4BQ3Y5WAKVMTS&amp;pd_rd_r=d92b0098-50f3-4886-8b3b-f05f33dbabbe&amp;pd_rd_wg=c9cBP&amp;pd_rd_i=B01M6416TW&amp;psc=1"/>
+    <hyperlink ref="A30" r:id="rId28" display="https://www.amazon.com/Plackers-Twin-Line-Dental-Floss-Picks/dp/B003N2DXPG/ref=sr_1_7?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Dental+Floss+%26+Picks&amp;qid=1619518560&amp;s=beauty&amp;sr=1-7&amp;ts_id=13213824011"/>
+    <hyperlink ref="A31" r:id="rId29" display="https://www.amazon.com/Bath-Body-Works-BORA-Fragrance/dp/B085FV83GV/ref=sr_1_8?dchild=1&amp;keywords=Bath+and+Body+Works+Lavender+in+Bloom+Fine+Fragrance+Mist+8+Ounce+Fall+2020&amp;qid=1619551276&amp;s=beauty&amp;sr=1-8"/>
+    <hyperlink ref="A32" r:id="rId30" display="https://www.amazon.com/Bath-Body-Works-Fragrance-Mango/dp/B00UI3O2ZS/ref=rtpb_4?pd_rd_w=vWGyl&amp;pf_rd_p=be844577-fee7-4bbc-8dda-083e56cc6f0d&amp;pf_rd_r=7ES4RR5ZA7DXSZQSH87M&amp;pd_rd_r=f7dabcdb-75c2-4019-9ef5-7ca6962475db&amp;pd_rd_wg=KFZhX&amp;pd_rd_i=B00UI3O2ZS&amp;psc=1"/>
+    <hyperlink ref="A33" r:id="rId31" display="https://www.amazon.com/dp/B0013G6M8O/ref=sspa_dk_detail_9?psc=1&amp;pd_rd_i=B0013G6M8O&amp;pd_rd_w=vXBRe&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=76lgD&amp;pf_rd_r=CZTN2P1CNBJXQRNG3SG8&amp;pd_rd_r=7f099d4d-ca1e-42fe-b116-1e420e2edbc9&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFZMFBDNkZMV1VYVlUmZW5jcnlwdGVkSWQ9QTAxNjE4NTczNVpQQklXMllVTjdVJmVuY3J5cHRlZEFkSWQ9QTA3NDYxNDMzVjJJOVdOTVE4WEQ0JndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A34" r:id="rId32" display="https://www.amazon.com/s?k=Gorilla+Grip+Original+Premium+Luxury+Bath+Rug%2C+30x20+Inch%2C+Incredibly+Soft%2C+Thick%2C+Absorbent+Bathroom+Mat+Rugs%2C+Machine+Wash+and+Dry%2C+Plush+Carpet+Mats+for+Bath+Room%2C+Shower%2C+Hot+Tub%2C+Coral&amp;i=garden&amp;ref=nb_sb_noss"/>
+    <hyperlink ref="A35" r:id="rId33" display="https://www.amazon.com/CHULUX-Single-Coffee-Travel-Brewer/dp/B016UO0GDA/ref=sr_1_14_sspa?dchild=1&amp;keywords=Cafflano+World%27s+First+Portable+All-in-one+Coffee+Maker+Tumbler+Hand+Mill+Grinder+Dripper&amp;qid=1619173773&amp;sr=8-14-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFPUkRYRlJKWUdVSVcmZW5jcnlwdGVkSWQ9QTA1MTk3NzJTV1hZTjRWWERISlgmZW5jcnlwdGVkQWRJZD1BMDczMDk5MjNDVkNOVzY1N0JLNjUmd2lkZ2V0TmFtZT1zcF9idGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A36" r:id="rId34" display="https://www.amazon.com/Royal-Gourmet-Portable-4-Burner-Versatile/dp/B01ENV3UDA/ref=sr_1_1?dchild=1&amp;keywords=Royal+Gourmet+GD401+Portable+Propane+Gas+Grill+and+Griddle+Combo+with+Side+Table%7C4-Burner%2C+Folding+Legs%2CVersatile%2C+Outdoor%7CBlack&amp;qid=1619178096&amp;s=lawn-garden&amp;sr=1-1"/>
+    <hyperlink ref="A37" r:id="rId35" display="https://www.amazon.com/Zacurate-Fingertip-Oximeter-Saturation-Batteries/dp/B07PQ8WTC4/ref=sr_1_1?dchild=1&amp;keywords=Zacurate+Pro+Series+500DL+Fingertip+Pulse+Oximeter+Blood+Oxygen+Saturation+Monitor+with+Silicon+Cover%2C+Batteries+and+Lanyard+%28Royal+Black%29&amp;qid=1619241932&amp;s=hpc&amp;sr=1-1"/>
+    <hyperlink ref="A38" r:id="rId36" display="https://www.amazon.com/Quarts-Kitchen-Convection-Oven-Countertop/dp/B01JIBOA7U/ref=sr_1_1?dchild=1&amp;keywords=NutriChef+PKSTIND48+-+Electric+Induction+Cooktop+-+Digital+Kitchen+Countertop+Hot+Plate+Burners+with+Adjustable+Temperature+Control%2C+Ceramic+Glass+%28Dual+Zone%29&amp;qid=1619243721&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A39" r:id="rId37" display="https://www.amazon.com/Hamilton-Beach-Countertop-Toaster-Roll-Top/dp/B06WGNC8Q4/ref=sr_1_4?dchild=1&amp;keywords=Hamilton+Beach+Convection+Toaster+Oven%7CModel%23+31331&amp;qid=1619244383&amp;s=home-garden&amp;sr=1-4"/>
+    <hyperlink ref="A40" r:id="rId38" display="https://www.amazon.com/McCulloch-MC1275-Heavy-Duty-Cleaner-Accessories/dp/B0000DF0RB/ref=sr_1_1_sspa?dchild=1&amp;keywords=McCulloch+MC-1275+Heavy-Duty+Steam+Cleaner&amp;qid=1619245217&amp;s=home-garden&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzVUs3QjlDODFVUTc3JmVuY3J5cHRlZElkPUEwNTgxNzMzMjUzRlJHUUJPSzhNSSZlbmNyeXB0ZWRBZElkPUEwNTkxMzY3MTZDMFZaNlNZMEgzVCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A41" r:id="rId39" display="https://www.amazon.com/BISSELL-CrossWave-Cleaner-Wet-Dry-1785A/dp/B01DTYAZO4/ref=sr_1_2_sspa?dchild=1&amp;keywords=BISSELL+SpinWave+Hard+Floor+Spin+Mop&amp;qid=1619277455&amp;s=home-garden&amp;sr=1-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWDZHVEJSQjFJUThMJmVuY3J5cHRlZElkPUEwNjgzMjc5MUxaSVI1WVZHUENKMSZlbmNyeXB0ZWRBZElkPUEwMjc3ODMxMkRZR1o3MVRJOFFKVCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A42" r:id="rId40" display="https://www.amazon.com/BISSELL-Crosswave-Vacuum-Cleaner-2306A/dp/B079WCPPQD/ref=sr_1_1?dchild=1&amp;keywords=BISSELL+Crosswave+Pet+Pro+All+in+One+Wet+Dry+Vacuum+Cleaner+and+Mop+for+Hard+Floors+and+Area+Rugs%2C+2306A&amp;qid=1619278049&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A43" r:id="rId41" display="https://www.amazon.com/WX030L-Power-Portable-Vacuum-Cleaner/dp/B085T48S7K/ref=sr_1_1?dchild=1&amp;keywords=WORX+WX030L+-+Vacuum+cleaner+-+portable+-+bagless&amp;qid=1619280049&amp;s=appliances&amp;sr=1-1"/>
+    <hyperlink ref="A44" r:id="rId42" display="https://www.amazon.com/Tineco-Cordless-Lightweight-Powerful-Multi-Surface/dp/B082VRFWB8/ref=sr_1_1?dchild=1&amp;keywords=Tineco+FloorOne+S3+Smart+Cordless+Hard+Floor+Cleaner+Wet+Dry+Vacuum&amp;qid=1619286813&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A45" r:id="rId43" display="https://www.amazon.com/Tineco-Cordless-Handheld-Charging-Hardwood/dp/B07R9KDNKL/ref=sr_1_1?dchild=1&amp;keywords=Tineco+A11+Hero+Cordless+Lightweight+Stick%2FHandheld+Vacuum+Cleaner%2C+450W+Motor+for+Ultra+Powerful+Suction+for+Carpet%2C+Hard+Floor+%26+Pet&amp;qid=1619287316&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A46" r:id="rId44" display="https://www.amazon.com/Brentwood-TS-292BL-Touch-2-Slice-Toaster/dp/B07VD9ZK2N/ref=sr_1_2?dchild=1&amp;keywords=Btwd+Cool+Touch+2-Slice+Extra+Wide+Slot+Retro+Toaster+in+Blue&amp;qid=1619290294&amp;s=home-garden&amp;sr=1-2"/>
+    <hyperlink ref="A47" r:id="rId45" display="https://www.amazon.com/Stainless-Countertop-Portable-Electric-CMHP-C180/dp/B07DPDNTJT/ref=sr_1_2?dchild=1&amp;keywords=Elite+EDB-302BF+Cuisine+Electric+Double+Cast+Burner+Hot+Plate+Black&amp;qid=1619291668&amp;sr=8-2"/>
+    <hyperlink ref="A48" r:id="rId46" display="https://www.amazon.com/Cusimax-Electric-Cast-Iron-Portable-Upgraded/dp/B07D71TD67/ref=sr_1_1?dchild=1&amp;keywords=CUSIMAX+Electric+Hot+Plate+for+Cooking+Portable+Single+Burner+1500W+Cast+Iron+hot+plates+Heat-up+in+Seconds+Adjustable+Temperature+Control+Stainless+Steel+Non-Slip+Rubber+Feet+Upgraded+Version+B101&amp;qid=1619292012&amp;sr=8-1"/>
+    <hyperlink ref="A49" r:id="rId47" display="https://www.amazon.com/Elite-Cuisine-EDB-302BF-Temperature-Indicator/dp/B00C8C5I8M/ref=sr_1_1_sspa?dchild=1&amp;keywords=IMUSA+USA+GAU-80306+1500W+Electric+Double+Burner%2C+Black&amp;qid=1619292413&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyWEZDTUMyNFlMRVlUJmVuY3J5cHRlZElkPUEwNTMyNzI3MU5FWUJTQVEzVkZNSiZlbmNyeXB0ZWRBZElkPUEwNTA5NDE3MVJMT0tDQ1dFUUhRVyZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A50" r:id="rId48" display="https://www.amazon.com/Cuisinart-ICE-30BC-Indulgence-2-Quart-Automatic/dp/B0006ONQOC/ref=sr_1_5?dchild=1&amp;keywords=Cuisinart+Specialty+Appliances+Countertop+Single+Burner&amp;qid=1619292832&amp;sr=8-5"/>
+    <hyperlink ref="A51" r:id="rId49" display="https://www.amazon.com/Cuisinart-WAF-F10-Belgian-Waffle-Stainless/dp/B01IU7JPT6/ref=sr_1_2?dchild=1&amp;keywords=Cuisinart+Double+Belgian+Waffle+Maker+Round%2C+Stainless+Steel%7CWAF-F20&amp;qid=1619294490&amp;sr=8-2"/>
+    <hyperlink ref="A52" r:id="rId50" display="https://www.amazon.com/DECKER-Rotating-Waffle-Black-WMD200B/dp/B00UH1Z2OG/ref=sr_1_1?dchild=1&amp;keywords=BLACK%2BDECKER+Rotating+Waffle+Maker+with+Dual+Cooking+Plates%2C+Black%2C+WMD200B&amp;qid=1619294823&amp;sr=8-1"/>
+    <hyperlink ref="A53" r:id="rId51" display="https://www.amazon.com/DECKER-Belgian-Waffle-Stainless-WMB500/dp/B000BQO7ZM/ref=sr_1_4?dchild=1&amp;keywords=BLACK%2BDECKER+Rotating+Waffle+Maker+with+Dual+Cooking+Plates%2C+Black%2C+WMD200B&amp;qid=1619295007&amp;sr=8-4"/>
+    <hyperlink ref="A54" r:id="rId52" display="https://www.amazon.com/Victoria-GAD-025-Pre-Seasoned-Bacon-Weight/dp/B00HWEY616/ref=sr_1_3?dchild=1&amp;keywords=Victoria+Cast+Iron+Panini%2C+Burger%2C+Bacon%2C+Grill+Press+Seasoned+with+100%25+Kosher+Certified+Non-GMO+Flaxseed+Oil%2C+8.3+x+4.4+Inch%2C+Black&amp;qid=1619295358&amp;sr=8-3"/>
+    <hyperlink ref="A55" r:id="rId53" display="https://www.amazon.com/Cuisinart-ICE-21PK-Frozen-Yogurt-Sorbet/dp/B01CUT54SG/ref=sr_1_4?dchild=1&amp;keywords=Frozen+Yogurt+-+Ice+Cream+%26+Sorbet+Maker&amp;qid=1619295898&amp;sr=8-4"/>
+    <hyperlink ref="A56" r:id="rId54" display="https://www.amazon.com/Cuisinart-ICE-21-Quart-Frozen-Yogurt-Ice/dp/B003KYSLMW/ref=sr_1_4?dchild=1&amp;keywords=Cuisinart+ICE-21R+Frozen+Yogurt%2C+Ice+Cream+%26+Sorbet+Maker%2C+Red+%28Certified+Refurbished%29&amp;qid=1619296106&amp;sr=8-4"/>
+    <hyperlink ref="A57" r:id="rId55" display="https://www.amazon.com/Presto-04830-PowerPop-Microwave-Multi-Popper/dp/B00005IBXK/ref=sr_1_3?dchild=1&amp;keywords=Ecolution+Original+Microwave+Micro-Pop+Popcorn+Popper+Borosilicate+Glass%2C+3-in-1+Silicone+Lid%2C+Dishwasher+Safe%2C+BPA+Free%2C+3+Qt+-+Family+Size%2C+Red&amp;qid=1619357863&amp;sr=8-3"/>
+    <hyperlink ref="A58" r:id="rId56" display="https://www.amazon.com/Cuisinart-TOB-260N1-Convection-Toaster-Stainless/dp/B01M0AWSJX/ref=sr_1_9?dchild=1&amp;keywords=Cuisinart+CCO-50BKN+Deluxe+Electric+Can+Opener%2C+Black+%5BKitchen%5D&amp;qid=1619358995&amp;sr=8-9"/>
+    <hyperlink ref="A59" r:id="rId57" display="https://www.amazon.com/Cuisinart-CTG-00-SMB-Stainless-Steel-Mixing/dp/B004YZEO9K/ref=sr_1_7?dchild=1&amp;keywords=Cuisinart+CTG-00-BCR7+Barrel+Crock+with+Tools%2C+Set+of+7&amp;qid=1619361200&amp;sr=8-7"/>
+    <hyperlink ref="A60" r:id="rId58" display="https://www.amazon.com/SHARDOR-Electric-Removable-Stainless-grinding/dp/B07LG33LV3/ref=sr_1_1?dchild=1&amp;keywords=DR+MILLS+DM-7441+Electric+Dried+Spice+and+Coffee+Grinder%2C+Blade+%26+cup+made+with+SUS304+stianlees+steel&amp;qid=1619369129&amp;s=home-garden&amp;sr=1-1-catcorr"/>
+    <hyperlink ref="A61" r:id="rId59" display="https://www.amazon.com/BLACK-DECKER-Thermal-Coffeemaker-CM2035B/dp/B00LU2I3V0/ref=sr_1_3?dchild=1&amp;keywords=BLACK%2BDECKER+12-Cup*+Replacement+Carafe%2C+Glass%2C+GC3000B-T&amp;qid=1619369470&amp;s=home-garden&amp;sr=1-3"/>
+    <hyperlink ref="A62" r:id="rId60" display="https://www.amazon.com/U-Taste-Piece-Measuring-Spoons-Stainless/dp/B01L26QE14/ref=sr_1_3?dchild=1&amp;keywords=Akurn+10-Piece+Measuring+Cups+and+Spoons+Set%2C+Includes+5+Measuring+Cups+and+5+Measuring+Spoons%2C+Stainless+Steel+Measuring+Cups+and+Spoons+with+Non-Slip+Multi-Color+Silicone+Grips%2C+Dishwasher-Safe&amp;qid=1619424163&amp;s=home-garden&amp;sr=1-3"/>
+    <hyperlink ref="A63" r:id="rId61" display="https://www.amazon.com/Chefs-Path-Airtight-Storage-Container/dp/B08J6LRKL4/ref=sr_1_1?dchild=1&amp;keywords=Chef%27s+Path+Airtight+Food+Storage+Container+Set+-+8+PC+-+Kitchen+%26+Pantry+Organization+-+BPA-Free+-+Plastic+Canisters+with+Durable+Lids+Ideal+for+Cereal%2C+Flour+%26+Sugar+-+Labels%2C+Marker+%26+Spoon+Set&amp;qid=1619434916&amp;sr=8-1"/>
+    <hyperlink ref="A64" r:id="rId62" display="https://www.amazon.com/Bayco-Containers-Airtight-BPA-Free-Approved/dp/B07VT1YYXG/ref=sr_1_7?dchild=1&amp;keywords=Bayco+8+Pack+Glass+Meal+Prep+Containers+3+Compartment%2C+Glass+Food+Storage+Containers+with+Lids%2C+Airtight+Glass+Lunch+Bento+Boxes%2C+BPA-Free+%26+Leak+Proof+%288+lids+%26+8+Containers%29+-+White&amp;qid=1619435636&amp;s=home-garden&amp;sr=1-7"/>
+    <hyperlink ref="A65" r:id="rId63" display="https://www.amazon.com/Compartment-Meal-Prep-Containers-Microwavable/dp/B073N49WSY/ref=sr_1_1?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436509&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A66" r:id="rId64" display="https://www.amazon.com/Compartment-Meal-Prep-Containers-Microwavable/dp/B01J93IP3C/ref=sr_1_3_sspa?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-3-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzOTJWVUdXWkVVM0FCJmVuY3J5cHRlZElkPUExMDQyNjI3MlRHSk1SRzhYWk1aSCZlbmNyeXB0ZWRBZElkPUEwNDU1NjM3MU0yWjZENENQTzgyMiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A67" r:id="rId65" display="https://www.amazon.com/Igluu-Meal-Prep-Plastic-Containers/dp/B07VF6LYJN/ref=sr_1_9?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-9"/>
+    <hyperlink ref="A68" r:id="rId66" display="https://www.amazon.com/Containers-Storage-Airtight-Microwave-Dishwasher/dp/B07R8BQD66/ref=sr_1_17?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-17"/>
+    <hyperlink ref="A69" r:id="rId67" display="https://www.amazon.com/Containers-Storage-Microwave-Freezer-Dishwasher/dp/B07HRRV96C/ref=sr_1_27?dchild=1&amp;keywords=Igluu+Meal+Prep+Containers+%5B10+pack%5D+1+Compartment+with+Airtight+Lids+-+Plastic+Food+Storage+Bento+Box+-+BPA+Free+-+Reusable+Lunch+Boxes+-+Microwavable%2C+Freezer+and+Dishwasher+Safe+%2828+oz%29&amp;qid=1619436615&amp;s=home-garden&amp;sr=1-27"/>
+    <hyperlink ref="A70" r:id="rId68" display="https://www.amazon.com/Kitchen-Mama-Electric-Can-Opener/dp/B087NK4RMV/ref=sr_1_1?dchild=1&amp;keywords=Kitchen+Mama+Electric+Can+Opener%3A+Open+Your+Cans+with+A+Simple+Push+of+Button+-+No+Sharp+Edge%2C+Food-Safe+and+Battery+Operated+Handheld+Can+Opener%28Red%29&amp;qid=1619443751&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A71" r:id="rId69" display="https://www.amazon.com/Cuisinart-CCO-50BKN-Deluxe-Electric-Opener/dp/B001C2F5NW/ref=sr_1_3?dchild=1&amp;keywords=Kitchen+Mama+One+Touch+Electric+Can+Opener%3A+Open+Your+Cans+with+A+Simple+Push+of+Button+and+Automatic+Shut-off+-+No+Sharp+Edge%2C+Food-Safe+and+Battery+Powered+Can+Opener+%28Purple%29&amp;qid=1619444132&amp;s=home-garden&amp;sr=1-3-catcorr"/>
+    <hyperlink ref="A72" r:id="rId70" display="https://www.amazon.com/Prepworks-Progressive-Collapsible-Salad-Spinner/dp/B0050EF6RS/ref=sr_1_11?dchild=1&amp;keywords=MUELLER+Large+5L+Salad+Spinner+Vegetable+Washer+with+Bowl%2C+Anti-Wobble+Tech%2C+Lockable+Colander+Basket+and+Smart+Lock+Lid+-+Lettuce+Washer+and+Dryer+-+Easy+Water+Drain+System+and+Compact+Storage&amp;qid=1619445329&amp;s=home-garden&amp;sr=1-11"/>
+    <hyperlink ref="A73" r:id="rId71" display="https://www.amazon.com/Presto-22-inch-Electric-Griddle-Removable/dp/B005FYF3OY/ref=zg_bs_kitchen_58?_encoding=UTF8&amp;psc=1&amp;refRID=9W9PYDF4K6AM7TKNQFHE"/>
+    <hyperlink ref="A74" r:id="rId72" display="https://www.amazon.com/Non-Stick-Even-Heating-Tortillas-Quesadillas-Immersible/dp/B08L6SJG3N/ref=sr_1_1_sspa?dchild=1&amp;keywords=Presto+07061+22-inch+Electric+Griddle+With+Removable+Handles%2CBlack&amp;qid=1619446121&amp;s=home-garden&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFPU0oyMVBJMlVOSkcmZW5jcnlwdGVkSWQ9QTA3Mjc5NzAzSlNNVjMwT1RFNERSJmVuY3J5cHRlZEFkSWQ9QTAzNjExOTYzUzBIS0gxN01TWFNVJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A75" r:id="rId73" display="https://www.amazon.com/Presto-16-inch-Electric-Foldaway-Skillet/dp/B00591GG58/ref=sr_1_5?dchild=1&amp;keywords=Presto+07061+22-inch+Electric+Griddle+With+Removable+Handles%2CBlack&amp;qid=1619446121&amp;s=home-garden&amp;sr=1-5"/>
+    <hyperlink ref="A76" r:id="rId74" display="https://www.amazon.com/Presto-06850-16-inch-Electric-Skillet/dp/B0000BYC7K/ref=sr_1_8?dchild=1&amp;keywords=Presto+06857+16-inch+Electric+Foldaway+Skillet%2C+Black&amp;qid=1619446689&amp;s=home-garden&amp;sr=1-8"/>
+    <hyperlink ref="A77" r:id="rId75" display="https://www.amazon.com/BELLA-14607-Immersible-Non-Stick-Multipurpose/dp/B01LZZGH3R/ref=sr_1_11_sspa?dchild=1&amp;keywords=Presto+06850+16-inch+Electric+Skillet&amp;qid=1619447220&amp;s=home-garden&amp;sr=1-11-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEySzQ1OExHVENQMVhUJmVuY3J5cHRlZElkPUEwODQ1ODcyM1I2UjFBVDVSRDhWQiZlbmNyeXB0ZWRBZElkPUEwMzA2MzMzM05IN1JNN0tYTUJETCZ3aWRnZXROYW1lPXNwX210ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A78" r:id="rId76" display="https://www.amazon.com/NESCO-ES-08-Electric-Skillet-Black/dp/B00NXZQGBQ/ref=pd_di_sccai_1?pd_rd_w=ZBezn&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=ZBHHK7W3WWCKTZ68KB7D&amp;pd_rd_r=1f949785-a7bc-4a47-9d8b-a9c250f42187&amp;pd_rd_wg=hV7tu&amp;pd_rd_i=B00NXZQGBQ&amp;psc=1"/>
+    <hyperlink ref="A79" r:id="rId77" display="https://www.amazon.com/Ultrean-Airfryer-Programmable-Detachable-Anti-scratch/dp/B07FF117K7/ref=sr_1_7?dchild=1&amp;keywords=Philips+HD9220%2F29+Airfryer%2C+1.8lb%2F2.75qt%2C+Black&amp;qid=1619457740&amp;s=home-garden&amp;sr=1-7"/>
+    <hyperlink ref="A80" r:id="rId78" display="https://www.amazon.com/Cuisinart-CBM-18N-Programmable-Conical-Burr/dp/B001NGO28Q/ref=sr_1_3?dchild=1&amp;keywords=Cuisinart+DBM-8+Stainless+Steel+Supreme+Grind+Automatic+Burr+Mill&amp;qid=1619510687&amp;sr=8-3"/>
+    <hyperlink ref="A81" r:id="rId79" display="https://www.amazon.com/Stainless-Adjustable-Settings-Electric-Percolator/dp/B07Z8P348W/ref=sr_1_13?dchild=1&amp;keywords=Baratza+Sette+270+Conical+Burr+Grinder&amp;qid=1619512091&amp;sr=8-13"/>
+    <hyperlink ref="A82" r:id="rId80" display="https://www.amazon.com/Sensarte-Nonstick-Pro-Grid-Reversible-Aluminum/dp/B086PMZ68G/ref=sr_1_2_sspa?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619514695&amp;s=home-garden&amp;sr=1-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTzVZVFFLWjRGMFpPJmVuY3J5cHRlZElkPUEwNDgwNjEzMUdEUVY4OFlMMEMwNSZlbmNyeXB0ZWRBZElkPUEwODM1NTE3M1FSU0YxR1BWMFlDUSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A83" r:id="rId81" display="https://www.amazon.com/Lodge-Reversible-Griddle-Combo-Double-Sided/dp/B002CMLTXG/ref=sr_1_4?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619514695&amp;s=home-garden&amp;sr=1-4"/>
+    <hyperlink ref="A84" r:id="rId82" display="https://www.amazon.com/Lodge-Pro-Grid-Griddle-Reversible-Easy-Grip/dp/B00008GKDQ/ref=sr_1_5?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619514695&amp;s=home-garden&amp;sr=1-5"/>
+    <hyperlink ref="A85" r:id="rId83" display="https://www.amazon.com/Cast-Iron-Square-Grill-Glass/dp/B07VPLR9RS/ref=sr_1_4?dchild=1&amp;keywords=Cast+Iron+Square+Grill+Pan+with+Glass+Lid+-+10.5+Inch+Pre-Seasoned+Skillet+with+Handle+Cover+and+Pan+Scraper+-+Grill%2C+Stovetop%2C+Induction+Safe+-+Indoor+and+Outdoor+Use+-+for+Grilling%2C+Frying%2C+Sauteing&amp;qid=1619516155&amp;s=home-garden&amp;sr=1-4"/>
+    <hyperlink ref="A86" r:id="rId84" display="https://www.amazon.com/BELLA-14606-Titanium-Non-Stick-Electric-griddles/dp/B01LZZNGD7/ref=sr_1_59?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619516269&amp;s=home-garden&amp;sr=1-59"/>
+    <hyperlink ref="A87" r:id="rId85" display="https://www.amazon.com/Professional-Griddle-Spatula-Set-Accessories/dp/B07H4QVVMF/ref=sr_1_296?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619523021&amp;s=home-garden&amp;sr=1-296"/>
+    <hyperlink ref="A88" r:id="rId86" display="https://www.amazon.com/New-Star-Foodservice-38309-8-5-Inch/dp/B00NHMQ1B0/ref=sr_1_297?dchild=1&amp;keywords=Griddles+%26+Grill+Pans&amp;qid=1619523021&amp;s=home-garden&amp;sr=1-297"/>
+    <hyperlink ref="A89" r:id="rId87" display="https://www.amazon.com/New-Star-Foodservice-43068-6-5-Inch/dp/B019R31DJC/ref=sr_1_3?dchild=1&amp;keywords=New+Star+Foodservice+38309+Wood+Handle+Slant+Edge+Grill+Scraper%2C+4-Inch+x+8.5-Inch&amp;qid=1619523560&amp;s=home-garden&amp;sr=1-3"/>
+    <hyperlink ref="A90" r:id="rId88" display="https://www.amazon.com/New-Star-Foodservice-36152-Hamburger/dp/B00NHMQ0PW/ref=sr_1_2?dchild=1&amp;keywords=New+Star+Foodservice+36299+Wood+Handle+Heavy+Duty+Hamburger+Turner%2FSpatula+with+Cutting+Edge%2C+11.5-Inch&amp;qid=1619523664&amp;s=home-garden&amp;sr=1-2"/>
+    <hyperlink ref="A91" r:id="rId89" display="https://www.amazon.com/New-Star-Foodservice-38200-21-Inch/dp/B00BGDRUIU/ref=sr_1_1?dchild=1&amp;keywords=New+Star+Foodservice+38200+Wood+Handle+Flexible+Grill+Turner%2FSpatula%2C+21-Inch&amp;qid=1619523797&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A92" r:id="rId90" display="https://www.amazon.com/Seville-Classics-Foldable-Handwoven-Hyacinth/dp/B00C78TRG6/ref=sr_1_6?dchild=1&amp;keywords=Storage+Baskets+%26+Bins&amp;qid=1619530747&amp;s=home-garden&amp;sr=1-6"/>
+    <hyperlink ref="A93" r:id="rId91" display="https://www.amazon.com/Storage-Collapsible-Organizer-Nursery-Geometric/dp/B075JDWPCJ/ref=sr_1_10?dchild=1&amp;keywords=Storage+Baskets+%26+Bins&amp;qid=1619530747&amp;s=home-garden&amp;sr=1-10"/>
+    <hyperlink ref="A94" r:id="rId92" display="https://www.amazon.com/INDRESSME-XXXLarge-Laundry-Comforter-Cushions/dp/B085HFHW42/ref=sr_1_30?dchild=1&amp;keywords=Storage%2BBaskets%2B%26%2BBins&amp;qid=1619531935&amp;s=home-garden&amp;sr=1-30&amp;th=1"/>
+    <hyperlink ref="A95" r:id="rId93" display="https://www.amazon.com/Set-Refrigerator-Pantry-Organizer-Countertops/dp/B07TVTSHHJ/ref=sr_1_10?dchild=1&amp;keywords=Set+Of+4+Clear+Pantry+Organizer+Bins+Stackable+Household+Plastic+Food+Storage+Basket+with+Wide+Open+Front+for+Kitchen%2C+Countertops%2C+Cabinets%2C+Refrigerator%2C+Freezer%2C+Bedrooms%2C+Bathrooms+-+12%22+Wide&amp;qid=1619533521&amp;s=home-garden&amp;sr=1-10"/>
+    <hyperlink ref="A96" r:id="rId94" display="https://www.amazon.com/mDesign-Household-Organizer-Cabinets-Bathroom/dp/B078YXHF1R/ref=sr_1_1?dchild=1&amp;keywords=mDesign+Household+Metal+Wire+Storage+Organizer+Bins+Basket+with+Handles+for+Kitchen+Cabinets%2C+Pantry%2C+Bathroom%2C+Landry+Room%2C+Closets%2C+Garage+-+4+Pack%2C+12%22+x+6%22+x+8%22%2C+Chrome&amp;qid=1619599997&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A97" r:id="rId95" display="https://www.amazon.com/Smart-Design-Adjustable-Organizer-Shelves/dp/B00683MM9K/ref=sr_1_1?dchild=1&amp;keywords=Smart+Design+Over+The+Door+Adjustable+Pantry+Organizer+Rack+w%2F+6+Adjustable+Shelves+-+Large+58+Inch+-+Steel+Construction+w%2F+Hooks+%26+Screws+-+for+Cans%2C+Food%2C+Misc.+Item+-+Kitchen+%5BWhite%5D&amp;qid=1619600689&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A98" r:id="rId96" display="https://www.amazon.com/Simple-Trending-Stackable-Expandable-Adjustable/dp/B07RVG3S1D/ref=sr_1_7?dchild=1&amp;keywords=SEGMART+Shoe+Rack+Bench%2C+3-Tier+35%22+x+11%22+x+18%22+Bamboo+Shoe+Organizer%2C+Sturdy+Storage+Shelf+Holds+Up+to+551+Lbs%2C+Ideal+for+Entryway+Bathroom+Living+Corridor+Wardrobe+Cabinet+Garage+Foyer%2C+Q8637&amp;qid=1619602769&amp;s=home-garden&amp;sr=1-7"/>
+    <hyperlink ref="A99" r:id="rId97" display="https://www.amazon.com/HOMFA-Bamboo-Organizer-Entryway-Storage/dp/B0723BNHVQ/ref=sr_1_33?dchild=1&amp;keywords=SEGMART+Shoe+Rack+Bench%2C+3-Tier+35%22+x+11%22+x+18%22+Bamboo+Shoe+Organizer%2C+Sturdy+Storage+Shelf+Holds+Up+to+551+Lbs%2C+Ideal+for+Entryway+Bathroom+Living+Corridor+Wardrobe+Cabinet+Garage+Foyer%2C+Q8637&amp;qid=1619603448&amp;s=home-garden&amp;sr=1-33"/>
+    <hyperlink ref="A100" r:id="rId98" display="https://www.amazon.com/Countertop-Tabletop-Perfect-Kitchen-Storage/dp/B07WJDXZKT/ref=sr_1_11?dchild=1&amp;keywords=Bar+%26+Wine+Accessories&amp;qid=1619604250&amp;s=home-garden&amp;sr=1-11"/>
+    <hyperlink ref="A101" r:id="rId99" display="https://www.amazon.com/Expert-Cocktail-Shaker-Home-Bar/dp/B01MXRSMZP/ref=sr_1_30?dchild=1&amp;keywords=Bar+%26+Wine+Accessories&amp;qid=1619604648&amp;s=home-garden&amp;sr=1-30"/>
+    <hyperlink ref="A102" r:id="rId100" display="https://www.amazon.com/MyGift-Modern-Copper-Stemless-Glasses/dp/B07F3FMJZ5/ref=sr_1_32?dchild=1&amp;keywords=Bar+%26+Wine+Accessories&amp;qid=1619604648&amp;s=home-garden&amp;sr=1-32"/>
+    <hyperlink ref="A103" r:id="rId101" display="https://www.amazon.com/MyGift-Copper-Toned-Stemmed-Wine-Glasses/dp/B07S7Y5M4F/ref=sr_1_1?dchild=1&amp;keywords=14+oz+Copper-Toned+Stemmed+Wine+Glasses%2C+Set+of+4&amp;qid=1619635223&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A104" r:id="rId102" display="https://www.amazon.com/MyGift-Modern-Tilted-Stemless-Glasses/dp/B07V9J6X2Y/ref=sr_1_1?dchild=1&amp;keywords=MyGift%2BModern%2BTilted%2BSilver%2BStemless%2BWine%2BGlasses%2C%2BSet%2Bof%2B4&amp;qid=1619605834&amp;s=home-garden&amp;sr=1-1&amp;th=1"/>
+    <hyperlink ref="A105" r:id="rId103" display="https://www.amazon.com/OUII-Flat-Griddle-Accessories-Blackstone/dp/B08C4XG1HQ/ref=sr_1_1?dchild=1&amp;keywords=OUII+Flat+Top+Griddle+Accessories+Set+for+Blackstone+and+Camp+Chef+Griddle+-+9+Pieces+Set+with+Griddle+Cleaning+Kit+and+Carry+Bag%21+Metal+Spatula%2C+Scraper+for+Hibachi+Grill+and+Teppanyaki+Grill&amp;qid=1619606830&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A106" r:id="rId104" display="https://www.amazon.com/T-fal-Anodized-Cookware-Thermo-Spot-Indicator/dp/B00TQJWF1I/ref=sr_1_2_sspa?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619611892&amp;s=home-garden&amp;sr=1-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQ1hHNzE5VDE3MDlVJmVuY3J5cHRlZElkPUEwNzk5NDU3MUlRMDNJUlhaQVAxMyZlbmNyeXB0ZWRBZElkPUEwNTg5NTAxMzFYVTcwTkRJWUdUVCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A107" r:id="rId105" display="https://www.amazon.com/Rachael-Ray-Porcelain-Nonstick-Cookware/dp/B00JYHNNYK/ref=sr_1_4?dchild=1&amp;keywords=Pots%2B%26%2BPans&amp;qid=1619611892&amp;s=home-garden&amp;sr=1-4&amp;th=1"/>
+    <hyperlink ref="A108" r:id="rId106" display="https://www.amazon.com/YouCopia-50157-Store-Adjustable-Large/dp/B07T2JZ1WP/ref=sr_1_53?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619617771&amp;s=home-garden&amp;sr=1-53"/>
+    <hyperlink ref="A109" r:id="rId107" display="https://www.amazon.com/Expandable-Organizers-AHNR-Adjustable-Compartments/dp/B07X3TLXN7/ref=sr_1_49?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619617771&amp;s=home-garden&amp;sr=1-49"/>
+    <hyperlink ref="A110" r:id="rId108" display="https://www.amazon.com/Updated-Organizer-Cabinet-Adjustable-ORDORA/dp/B08DY9HRWD/ref=sr_1_51?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619617771&amp;s=home-garden&amp;sr=1-51"/>
+    <hyperlink ref="A111" r:id="rId109" display="https://www.amazon.com/Love-KANKEI-Organizer-Cookware-Utensils-Organization/dp/B07L2XP76X/ref=sr_1_104?dchild=1&amp;keywords=Pots+%26+Pans&amp;qid=1619620449&amp;s=home-garden&amp;sr=1-104"/>
+    <hyperlink ref="A112" r:id="rId110" display="https://www.amazon.com/Cuisinart-CPS-445-Pizza-Grilling-Set/dp/B00F3BH9Y6/ref=sr_1_3?dchild=1&amp;keywords=Chef+Pomodoro+Aluminum+Metal+Pizza+Peel+with+Foldable+Wood+Handle+for+Easy+Storage+12-Inch+x+14-Inch%2C+Gourmet+Luxury+Pizza+Paddle+for+Baking+Homemade+Pizza+Bread&amp;qid=1619621283&amp;s=home-garden&amp;sr=1-3"/>
+    <hyperlink ref="A113" r:id="rId111" display="https://www.amazon.com/Pizza-Cutter-Kitchenstar-Stainless-Slicer/dp/B01MXXD7QS/ref=sr_1_1?dchild=1&amp;keywords=14%E2%80%9D+Pizza+Cutter+by+Kitchenstar%7CSharp+Stainless+Steel+Slicer+Knife+-+Rocker+Style+w+Blade+Cover%7CChop+and+Slices+Perfect+Portions+%2B+Dishwasher+Safe+%E2%80%93+Premium+Pizza+Oven+Accessories&amp;qid=1619622372&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A114" r:id="rId112" display="https://www.amazon.com/Terra-Flame-Stone-Fire-Table/dp/B08DTD2NTJ/ref=sr_1_1?dchild=1&amp;keywords=Terra+Flame+Tabletop+Fire+Bowls+%E2%80%93+Graphite+Table+Top+Fire+Bowl+for+Indoor+and+Outdoor%2C+Portable+Fireplace+and+Table+Top+Fire+Pit+for+Patio%2C+Stone+Design+Centrepiece&amp;qid=1619690296&amp;sr=8-1"/>
+    <hyperlink ref="A115" r:id="rId113" display="https://www.amazon.com/Rocky-Mountain-Goods-Fireplace-Poker/dp/B01N6IPOSH/ref=sr_1_10?dchild=1&amp;keywords=Sunnydaze+Fire+Pit+Poker+Stick+-+Durable+Heat+Resistant+Handle+-+Outdoor+Campfire+Accessory+-+Fireplace+Tool+-+Indoor+%26+Outdoor+Steel+Camping+Tool+-+16+Inch&amp;qid=1619690496&amp;sr=8-10"/>
+    <hyperlink ref="A116" r:id="rId114" display="https://www.amazon.com/Rocky-Mountain-Goods-Firewood-Tongs/dp/B01MXBQMVF/ref=sr_1_12?dchild=1&amp;keywords=Sunnydaze+Fire+Pit+Poker+Stick+-+Durable+Heat+Resistant+Handle+-+Outdoor+Campfire+Accessory+-+Fireplace+Tool+-+Indoor+%26+Outdoor+Steel+Camping+Tool+-+16+Inch&amp;qid=1619690496&amp;sr=8-12"/>
+    <hyperlink ref="A117" r:id="rId115" display="https://www.amazon.com/VicTsing-Burner-Grill-Cover-Brands/dp/B01IBOH0HW/ref=sr_1_5?dchild=1&amp;keywords=Gas+Grill+Cover+Heavy+Duty+Waterproof+Replacement+for+Weber+GENESIS+SILVER+A+NG+W%2FCAST+IRON+GRATES+%282000-2001%29+-+52+inch+W+x+26+inch+D+x+43+inch+H&amp;qid=1619691733&amp;sr=8-5"/>
+    <hyperlink ref="A118" r:id="rId116" display="https://www.amazon.com/Dyna-Glo-Signature-DGSS1382VCS-D-Heavy-Duty-Vertical/dp/B06W5R4XTQ/ref=sr_1_8?dchild=1&amp;keywords=Smokers&amp;qid=1619692155&amp;sr=8-8"/>
+    <hyperlink ref="A119" r:id="rId117" display="https://www.amazon.com/Weber-711001-Mountain-14-Inch-Charcoal/dp/B00FKE67V2/ref=sr_1_13?dchild=1&amp;keywords=Smokers&amp;qid=1619692155&amp;sr=8-13"/>
+    <hyperlink ref="A120" r:id="rId118" display="https://www.amazon.com/Char-Broil-American-Gourmet-Offset-Standard/dp/B00365FI9E/ref=sr_1_20?dchild=1&amp;keywords=Smokers&amp;qid=1619692155&amp;sr=8-20"/>
+    <hyperlink ref="A121" r:id="rId119" display="https://www.amazon.com/Realcook-Vertical-Charcoal-Outdoor-Cooking/dp/B07QKH47TM/ref=sr_1_21?dchild=1&amp;keywords=Smokers&amp;qid=1619692318&amp;sr=8-21"/>
+    <hyperlink ref="A122" r:id="rId120" display="https://www.amazon.com/ASMOKE-AS300-Tailgating-Waterproof-Stainless/dp/B08JCQ4C79/ref=sr_1_1?dchild=1&amp;keywords=ASMOKE+AS300+Electric+Portable+Wood+Pellet+Tailgating+tabletop+Grill+and+Smoker+w%2F+Waterproof+Cover+and+Stainless+Steel+Meat+Probe%2C256+Sq.+in.+Cooking+Area%2C8+in+1+BBQ+Set%2CPID+Control%2C+Apple+Red&amp;qid=1619693458&amp;sr=8-1"/>
+    <hyperlink ref="A123" r:id="rId121" display="https://www.amazon.com/ASMOKE-Portable-Pellet-Control-Cooking/dp/B08GLBD2R4/ref=sr_1_32_sspa?dchild=1&amp;keywords=Smokers&amp;qid=1619692318&amp;sr=8-32-spons&amp;psc=1&amp;smid=A3OL44O6TXPJBK&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFFSlNGQ0c3TjdJUFYmZW5jcnlwdGVkSWQ9QTAwNDE4MTlLMjZITFNKNUU1UzgmZW5jcnlwdGVkQWRJZD1BMDgxMDM3N0FOMjBTMUFNQTk4NCZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A124" r:id="rId122" display="https://www.amazon.com/ASMOKE-Portable-Pellet-Control-Cooking/dp/B08KZWFSXL/ref=sr_1_32_sspa?dchild=1&amp;keywords=Smokers&amp;qid=1619692318&amp;sr=8-32-spons&amp;smid=A3OL44O6TXPJBK&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFFSlNGQ0c3TjdJUFYmZW5jcnlwdGVkSWQ9QTAwNDE4MTlLMjZITFNKNUU1UzgmZW5jcnlwdGVkQWRJZD1BMDgxMDM3N0FOMjBTMUFNQTk4NCZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
+    <hyperlink ref="A125" r:id="rId123" display="https://www.amazon.com/Camp-Chef-MS2HP-Mountain-Pressure/dp/B004S3HDBO/ref=sr_1_3?dchild=1&amp;keywords=camp+chef+18%22+propane+smoker+vault+with+matchless+ignition&amp;qid=1619696721&amp;sr=8-3"/>
+    <hyperlink ref="A126" r:id="rId124" display="https://www.amazon.com/Masterbuilt-MB20074719-Bluetooth-Digital-Electric/dp/B07NQPLB19/ref=sr_1_65_sspa?dchild=1&amp;keywords=Smokers&amp;qid=1619696639&amp;sr=8-65-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMEhOWUVGN1RVUlBYJmVuY3J5cHRlZElkPUEwNDAwMTI3MjBCRDZaV0UyREVIVyZlbmNyeXB0ZWRBZElkPUEwNDQzMDgzMk9SQlo0WVJSVE4zNiZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A127" r:id="rId125" display="https://www.amazon.com/12-Inch-Pellet-Smoker-Tube-Heavy-Duty/dp/B08DKRY641/ref=sr_1_68?dchild=1&amp;keywords=Smokers&amp;qid=1619697072&amp;sr=8-68"/>
+    <hyperlink ref="A128" r:id="rId126" display="https://www.amazon.com/Unifit-Electric-Temperature-Controller-Replacement/dp/B07XYW7K9M/ref=sr_1_5?dchild=1&amp;keywords=Stanbroil+Replacement+Part+Electric+Smoker+and+Grill+Heating+Element+with+Adjustable+Thermostat+Cord+Controller&amp;qid=1619697775&amp;sr=8-5"/>
+    <hyperlink ref="A129" r:id="rId127" display="https://www.amazon.com/WEWE-Brushed-Kitchen-Stainless-Faucets/dp/B01H3OMH7Y/ref=sr_1_2_sspa?dchild=1&amp;keywords=Kitchen+Faucets&amp;qid=1619698309&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExVDRRSDdOME1GNVcxJmVuY3J5cHRlZElkPUEwODQ4OTMwMk1DTTRaQ0FMTTlYMyZlbmNyeXB0ZWRBZElkPUEwNDg2NDI4M0JITEhRQUxMRjFMTSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A130" r:id="rId128" display="https://www.amazon.com/Moen-87233SRS-One-Handle-Pulldown-Stainless/dp/B082VWC75W/ref=sr_1_6?dchild=1&amp;keywords=Kitchen+Faucets&amp;qid=1619698309&amp;sr=8-6"/>
+    <hyperlink ref="A131" r:id="rId129" display="https://www.amazon.com/Kitchen-Contemporary-Gooseneck-Stainless-Sprayer/dp/B07KT2VF3H/ref=sr_1_1?dchild=1&amp;keywords=Pull+Down+Kitchen+Sink+Faucet+-Arofa+A02BY+Contemporary+Matte+Black+Single+Handle+Gooseneck+Stainless+Steel+Pull+Out+Kitchen+Faucet+with+Sprayer&amp;qid=1619704716&amp;sr=8-1"/>
+    <hyperlink ref="A132" r:id="rId130" display="https://www.amazon.com/Aimadi-Contemporary-Kitchen-Sink-Faucet/dp/B07C1L5GL5/ref=sr_1_54?dchild=1&amp;keywords=Kitchen+Faucets&amp;qid=1619705170&amp;sr=8-54"/>
+    <hyperlink ref="A133" r:id="rId131" display="https://www.amazon.com/KOHLER-1155355-VS-Spray-Vibrant-Stainless/dp/B006VRBLZO/ref=sr_1_9?dchild=1&amp;keywords=Kohler+K-22035+Simplice+4+GPM+Deck+Mounted+Single+Lever+Laundry+Pull-Out+Spray+Faucet&amp;qid=1619705472&amp;sr=8-9"/>
+    <hyperlink ref="A134" r:id="rId132" display="https://www.amazon.com/Vornado-Large-Whole-Room-Circulator/dp/B00KF60O00/ref=sr_1_6?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-6"/>
+    <hyperlink ref="A135" r:id="rId133" display="https://www.amazon.com/Vornado-Heavy-Duty-Circulator-High-Impact-Collapsible/dp/B078HWWJ8S/ref=sr_1_5?dchild=1&amp;keywords=Vornado+EXO51+Heavy+Duty+Small+Air+Circulator&amp;qid=1619769433&amp;s=home-garden&amp;sr=1-5"/>
+    <hyperlink ref="A136" r:id="rId134" display="https://www.amazon.com/Taotronics-Oscillating-Space-Saving-Portable-Bladeless/dp/B085TKZDQC/ref=sr_1_7?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-7"/>
+    <hyperlink ref="A137" r:id="rId135" display="https://www.amazon.com/Vornado-Energy-Circulator-Variable-Control/dp/B019VW6PDI/ref=sr_1_3?dchild=1&amp;keywords=Vornado+6803DC+Energy+Smart+Pedestal+Air+Circulator+with+Variable+Speed+Control&amp;qid=1619769816&amp;s=home-garden&amp;sr=1-3"/>
+    <hyperlink ref="A138" r:id="rId136" display="https://www.amazon.com/Oscillating-Cooling-Settings-Portable-Children/dp/B07ZYTMQ2V/ref=sr_1_28?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-28"/>
+    <hyperlink ref="A139" r:id="rId137" display="https://www.amazon.com/Vornado-Flippi-Personal-Circulator-Vintage/dp/B004HI7950/ref=sr_1_29?dchild=1&amp;keywords=Basics%2BAir-Circulator%2B3%2BSpeed%2BSmall%2BRoom%2BFloor%2BFan&amp;qid=1619768811&amp;s=home-garden&amp;sr=1-29&amp;th=1"/>
+    <hyperlink ref="A140" r:id="rId138" display="https://www.amazon.com/Honeywell-HYF290B-Quietset-Whole-Room-Oscillating/dp/B01N0LQJN6/ref=sr_1_1?dchild=1&amp;keywords=Woozoo+7%27+Blade+Personal+Air+Circulator+Fan%2C+Black+PCF-HE18N&amp;qid=1619773028&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A141" r:id="rId139" display="https://www.amazon.com/Vornado-Whole-Room-Tower-Circulator/dp/B0084DAI3O/ref=sr_1_33?dchild=1&amp;keywords=Basics+Air-Circulator+3+Speed+Small+Room+Floor+Fan&amp;qid=1619772583&amp;s=home-garden&amp;sr=1-33"/>
+    <hyperlink ref="A142" r:id="rId140" display="https://www.amazon.com/Harbor-Breeze-Brushed-Ceiling-3-Blade/dp/B071GCWSHJ/ref=sr_1_21?dchild=1&amp;keywords=Ceiling+Fans&amp;qid=1619768420&amp;sr=8-21"/>
+    <hyperlink ref="A143" r:id="rId141" display="https://www.amazon.com/Vornado-Full-Size-Circulator-Variable-Adjustable/dp/B01NAYU9MY/ref=sr_1_1?dchild=1&amp;keywords=Vornado+783DC+Energy+Smart+Full-Size+Air+Circulator+Fan+with+Variable+Speed+Control+and+Adjustable+Height&amp;qid=1619774729&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A144" r:id="rId142" display="https://www.amazon.com/Brother-ST150HDH-Strong-Computerized-Machine/dp/B07V9PC6XT/ref=sr_1_1?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-1"/>
+    <hyperlink ref="A145" r:id="rId143" display="https://www.amazon.com/Brother-Quilting-Stitches-Auto-Size-Buttonholes/dp/B000JQM1DE/ref=sr_1_3?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-3"/>
+    <hyperlink ref="A146" r:id="rId144" display="https://www.amazon.com/Brother-1034D-Thread-Serger-Differential/dp/B0000CBK1L/ref=sr_1_6?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-6"/>
+    <hyperlink ref="A147" r:id="rId145" display="https://www.amazon.com/dp/B00VWK4B0M?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-org00-win10-other-nomod-us000-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1_xcta1"/>
+    <hyperlink ref="A148" r:id="rId146" display="https://www.amazon.com/Brother-Quilting-Computerized-Stitches-Included/dp/B088JDJ6MS/ref=sr_1_7?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-7"/>
+    <hyperlink ref="A149" r:id="rId147" display="https://www.amazon.com/MumCraft-Multipurpose-Sewing-Package-Assorted/dp/B001PNIWT2/ref=sr_1_21?dchild=1&amp;keywords=Brother+Strong+%26+Tough+ST150HDH+Heavy+Duty+Computerized+Sewing+Machine&amp;qid=1619775451&amp;sr=8-21"/>
+    <hyperlink ref="A150" r:id="rId148" display="https://www.amazon.com/MumCraft-Multipurpose-Sewing-Package-Assorted/dp/B001PNIWT2/ref=sr_1_2?dchild=1&amp;keywords=Multipurpose+Sewing+Clips+with+Tin+Box+Package%2C+Assorted+Colors%2C+Pack+of+100&amp;qid=1619776467&amp;sr=8-2"/>
+    <hyperlink ref="A151" r:id="rId149" display="https://www.amazon.com/Twinkle-Window-Curtain-String-Light/dp/B01LLSNG1E/ref=sr_1_1?dchild=1&amp;keywords=home+decorRustic+Wall+Sconces+Mason+Jar+Sconces+Handmade+Wall+Art+Hanging+Design+with+Remote+Control+LED+Fairy+Lights+and+White+Peony%2CFarmhouse+Kitchen+Decorations+Wall+Home+Decor+Living+Room+Lights+Set+of+Two&amp;qid=1619784146&amp;sr=8-1"/>
+    <hyperlink ref="A152" r:id="rId150" display="https://www.amazon.com/Sullivans-Ceramic-Various-Distressed-CM2333/dp/B07DQCJ84X/ref=sr_1_5?dchild=1&amp;keywords=home+decor&amp;qid=1619784140&amp;sr=8-5"/>
+    <hyperlink ref="A153" r:id="rId151" display="https://www.amazon.com/Bloom-Times-Bathroom-Artificial-Decorations/dp/B07698CVNW/ref=sr_1_3?dchild=1&amp;keywords=2pcs+Retro+Artificial+Succulents+Simulation+Green+Plants+Creative+Fake+Potted+Bonsai+Decor+for+Home&amp;qid=1619785253&amp;sr=8-3"/>
+    <hyperlink ref="A154" r:id="rId152" display="https://www.amazon.com/Bloom-Times-Artificial-Eucalyptus-Farmhouse/dp/B07W5DZ84J/ref=sr_1_1?dchild=1&amp;keywords=THE+BLOOM+TIMES+Set+of+3+Small+Potted+Artificial+Plants+Plastic+Fake+Greenery+Faux+Plants+in+Pots+for+Rustic+Home+Office+Desk+Farmhouse+Bathroom+Kitchen+Indoor+Decor&amp;qid=1619785401&amp;sr=8-1"/>
+    <hyperlink ref="A155" r:id="rId153" display="https://www.amazon.com/MIAIU-Artificial-Greenery-Farmhouse-Bathroom/dp/B07YYWGK66/ref=sr_1_19?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-19"/>
+    <hyperlink ref="A156" r:id="rId154" display="https://www.amazon.com/CEWOR-Artificial-Bathroom-Decorations-Multicolored/dp/B07CMXM45H/ref=sr_1_45?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-45"/>
+    <hyperlink ref="A157" r:id="rId155" display="https://www.amazon.com/UArtlines-Artificial-Bathroom-Decorations-Colorful/dp/B07DVGGL39/ref=sr_1_53?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-53"/>
+    <hyperlink ref="A158" r:id="rId156" display="https://www.amazon.com/Nubry-Succulent-Artificial-Succulents-Decoration/dp/B083J1Q24G/ref=sr_1_1?dchild=1&amp;keywords=Nubry+Mini+Fake+Succulent+Plants+Artificial+Plastic+Succulents+Potted+Faux+Assorted+Plants+for+Home+Office+Table+Decoration%2C+Set+of+6&amp;qid=1619786094&amp;sr=8-1"/>
+    <hyperlink ref="A159" r:id="rId157" display="https://www.amazon.com/COCOBOO-Plants-Bathroom-Balcony-Decoration/dp/B08GKD4NWM/ref=sr_1_57_sspa?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785511&amp;sr=8-57-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFDSEJWMVhRNlhXMFYmZW5jcnlwdGVkSWQ9QTA1MzQ5NDAxSVQ2RlZSVTJHQ1RMJmVuY3J5cHRlZEFkSWQ9QTAyODU0MTMyRDNDME5WTExUQzlIJndpZGdldE5hbWU9c3BfYnRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A160" r:id="rId158" display="https://www.amazon.com/CEWOR-Plants-Artificial-Plastic-Decoration/dp/B07PJZ5BCR/ref=sr_1_54?dchild=1&amp;keywords=THE+BLOOM+TIMES+2+PCS+Small+Fake+Plants+for+Bathroom+Home+Farmhouse+Decor%2C+Mini+Artificial+Potted+Flowers+Plastic+Faux+Topiary+Indoor+Office+Table+Desk+Shelf+Decoration&amp;qid=1619785600&amp;sr=8-54"/>
+    <hyperlink ref="A161" r:id="rId159" display="https://www.amazon.com/Artificial-Succulent-Decorative-Succulents-Decoration/dp/B0814B4KG8/ref=sr_1_1?dchild=1&amp;keywords=Artificial+Succulent+Plants+Potted%2C+Set+of+6+Mini+Artificial+Plants+with+Pots+Assorted+Decorative+Faux+Succulents+in+Pots+for+Office+Wedding+Home+Decoration+Ultra+Realistic+Design&amp;qid=1619788433&amp;sr=8-1"/>
+    <hyperlink ref="A162" r:id="rId160" display="https://www.amazon.com/Succulents-Plants-Artificial-Potted-Wedding/dp/B07L6Y1PL9/ref=sr_1_55?dchild=1&amp;keywords=Nubry+Mini+Fake+Succulent+Plants+Artificial+Plastic+Succulents+Potted+Faux+Assorted+Plants+for+Home+Office+Table+Decoration%2C+Set+of+6&amp;qid=1619788982&amp;sr=8-55"/>
+    <hyperlink ref="A163" r:id="rId161" display="https://www.amazon.com/Zcaukya-Artificial-Eucalyptus-Rosemary-Greenery/dp/B0819RS59C/ref=sr_1_35?dchild=1&amp;keywords=JC+nateva+Set+of+6+Packs+Mini+Potted+Fake+Plants+Faux+Eucalyptus+Plants+Artificial+Plants+for+Home+Decor+Indoor&amp;qid=1619785193&amp;sr=8-35"/>
+    <hyperlink ref="A164" r:id="rId162" display="https://www.amazon.com/Modern-Realistic-Looking-Potted-Plants/dp/B07Z9TQXRX/ref=sr_1_59?dchild=1&amp;keywords=Nubry+Mini+Fake+Succulent+Plants+Artificial+Plastic+Succulents+Potted+Faux+Assorted+Plants+for+Home+Office+Table+Decoration%2C+Set+of+6&amp;qid=1619788982&amp;sr=8-59"/>
+    <hyperlink ref="A165" r:id="rId163" display="https://www.amazon.com/Nearly-Natural-5357-Golden-4-Feet/dp/B00FUNF4NK/ref=sr_1_1_sspa?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExQzZUNVpLUFEwMTIxJmVuY3J5cHRlZElkPUEwNTAzMjIyMktKS0kxTThSWFFTUiZlbmNyeXB0ZWRBZElkPUEwOTcyNjA3SERSWEhTOElJWVlOJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A166" r:id="rId164" display="https://www.amazon.com/Nearly-Natural-5660-Paradise-Artificial/dp/B07CL7F52T/ref=sr_1_5?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-5"/>
+    <hyperlink ref="A167" r:id="rId165" display="https://www.amazon.com/4-5ft-Paradise-Artificial-Plant-Touch/dp/B08DP4B4L9/ref=sr_1_1?dchild=1&amp;keywords=Nearly+Natural+4.5ft.+Bird+of+Paradise+Artificial+Plant+%28Real+Touch%29&amp;qid=1619852687&amp;sr=8-1"/>
+    <hyperlink ref="A168" r:id="rId166" display="https://www.amazon.com/Nearly-Natural-5289-Golden-6-5-Feet/dp/B004XWCZXQ/ref=sr_1_14?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-14"/>
+    <hyperlink ref="A169" r:id="rId167" display="https://www.amazon.com/Nearly-Natural-5295-Kentia-4-Feet/dp/B004XWD0OO/ref=sr_1_31?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-31"/>
+    <hyperlink ref="A170" r:id="rId168" display="https://www.amazon.com/Nearly-Natural-5000-Decorative-3-Feet/dp/B008XUZO96/ref=sr_1_43?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619785780&amp;sr=8-43"/>
+    <hyperlink ref="A171" r:id="rId169" display="https://www.amazon.com/Nearly-Natural-8083-Planter-Artificial/dp/B07CJNYFJ3/ref=sr_1_60?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619854180&amp;sr=8-60"/>
+    <hyperlink ref="A172" r:id="rId170" display="https://www.amazon.com/Nearly-Natural-5437-Hawaiian-6-Feet/dp/B00ODS8A7A/ref=sr_1_61?dchild=1&amp;keywords=4.5%22+Paradise+Palm+Artificial+Tree+in+White+Planter&amp;qid=1619854180&amp;sr=8-61"/>
+    <hyperlink ref="A173" r:id="rId171" display="https://www.amazon.com/LIGHTSHARE-Lighted-Decorate-Birthday-Christmas/dp/B00NOLU4VM/ref=sr_1_3?dchild=1&amp;keywords=Lightshare+5ft.+Green+Palm+Tree+with+56+LED+Lights&amp;qid=1619854011&amp;sr=8-3"/>
+    <hyperlink ref="A174" r:id="rId172" display="https://www.amazon.com/Lightshare-Blossom-included-Festival-Christmas/dp/B00KAS8G1W/ref=sr_1_18?dchild=1&amp;keywords=Lightshare+5ft.+Green+Palm+Tree+with+56+LED+Lights&amp;qid=1619854011&amp;sr=8-18"/>
+    <hyperlink ref="A175" r:id="rId173" display="https://www.amazon.com/National-Tree-Crestwood-Bristles-CW7-306-30WBC1/dp/B074D8DTLV/ref=sr_1_14?dchild=1&amp;keywords=National+Tree+30+inch+Glittery+Pomegranate+Pine+Wreath+with+Battery+Operated+LED+Lights-Size%3A24%22&amp;qid=1619853673&amp;sr=8-14"/>
+    <hyperlink ref="A176" r:id="rId174" display="https://www.amazon.com/Vanthylit-Pre-lit-Halloween-Branches-Waterproof/dp/B0863R9PPD/ref=sr_1_1?dchild=1&amp;keywords=Vanthylit+Pre-lit+3PK+Multi+Color+Twig+Branches+Light+with+30%27%27+60+LED+Bulbs+Waterproof+Plug+in+Brown+Willow+Branch+Lights+for+Outdoor+and+Indoor+Decor&amp;qid=1619858777&amp;sr=8-1"/>
+    <hyperlink ref="A177" r:id="rId175" display="https://www.amazon.com/Pack-Branch-Lights-Decorative-Decoration/dp/B076NGT3PZ/ref=sr_1_15?dchild=1&amp;keywords=DK177+Led+Branch+Light+Battery+Operated+Lighted+Branch+Vase+Filler+Willow+Tree+Artificial+Little+Twig+Power+Brown+30+Inch+20+LED+for+Home+Romantic+Decoration%2C+Pack+of+2%2C+Warm+White&amp;qid=1619858589&amp;sr=8-15"/>
+    <hyperlink ref="A178" r:id="rId176" display="https://www.amazon.com/Lxcom-Decoration-Festival-Decorations-Crafting/dp/B07KT1ZC63/ref=sr_1_7?dchild=1&amp;keywords=DK177+Led+Branch+Light+Battery+Operated+Lighted+Branch+Vase+Filler+Willow+Tree+Artificial+Little+Twig+Power+Brown+30+Inch+20+LED+for+Home+Romantic+Decoration%2C+Pack+of+2%2C+Warm+White&amp;qid=1619858589&amp;sr=8-7"/>
+    <hyperlink ref="A179" r:id="rId177" display="https://www.amazon.com/Nearly-Natural-9641-Artificial-Planter/dp/B07PXTYMFL/ref=sr_1_4?dchild=1&amp;keywords=Nearly+Natural+4%E2%80%99+Sansevieria+Artificial+White+Tower+Planter+Silk+Plants+Green&amp;qid=1619854434&amp;sr=8-4"/>
+    <hyperlink ref="A180" r:id="rId178" display="https://www.amazon.com/Nearly-Natural-Artificial-Silver-Planter/dp/B076BS92BF/ref=sr_1_47?dchild=1&amp;keywords=Nearly+Natural+4%E2%80%99+Sansevieria+Artificial+White+Tower+Planter+Silk+Plants+Green&amp;qid=1619854434&amp;sr=8-47"/>
+    <hyperlink ref="A181" r:id="rId179" display="https://www.amazon.com/Nearly-Natural-8472-Succulent-Artificial/dp/B07MWSNWBC/ref=sr_1_1?dchild=1&amp;keywords=Nearly+Natural+8%3F+Triple+Agave+Succulent+Artificial+Plant+in+White+Vase&amp;qid=1619860689&amp;sr=8-1"/>
+    <hyperlink ref="A182" r:id="rId180" display="https://www.amazon.com/YSBER-Gypsophila-Artificial-Wedding-Decoration/dp/B07R76NYJY/ref=sr_1_38?dchild=1&amp;keywords=PU%2BMini%2BArtificial%2BTulip%2BFake%2BFlower%2BReal%2BTouch%2BWedding%2BFlower%2BBouquet%2Bfor%2BHome%2BParty%2BDecoration%2BPack%2Bof%2B10&amp;qid=1619875152&amp;sr=8-38&amp;th=1"/>
+    <hyperlink ref="A183" r:id="rId181" display="https://www.amazon.com/AGEOMET-Artificial-Greenery-Resistant-Decoration/dp/B07Q9QHP7V/ref=sr_1_6?dchild=1&amp;keywords=YXYQR+8+Pack+UV+Resistant+Outdoor+Artificial+Flowers+Bulk+Faux+Plastic+Plants+Outside+Indoor+Fake+Hanging+Greenery+Shrubs+Arrangement+for+Backyard+Window+Box+Porch+Home+Decoration+%28Red%29&amp;qid=1619790469&amp;s=home-garden&amp;sr=1-6"/>
+    <hyperlink ref="A184" r:id="rId182" display="https://www.amazon.com/Artificial-Outdoor-Resistant-Branches-Greenery/dp/B07QC6RCHG/ref=sr_1_7?dchild=1&amp;keywords=YXYQR+8+Pack+UV+Resistant+Outdoor+Artificial+Flowers+Bulk+Faux+Plastic+Plants+Outside+Indoor+Fake+Hanging+Greenery+Shrubs+Arrangement+for+Backyard+Window+Box+Porch+Home+Decoration+%28Red%29&amp;qid=1619790469&amp;s=home-garden&amp;sr=1-7"/>
+    <hyperlink ref="A185" r:id="rId183" display="https://www.amazon.com/CEWOR-Artificial-Boxwood-Courtyard-Decoration/dp/B07PKK8W4Y/ref=sr_1_19?dchild=1&amp;keywords=YXYQR+8+Pack+UV+Resistant+Outdoor+Artificial+Flowers+Bulk+Faux+Plastic+Plants+Outside+Indoor+Fake+Hanging+Greenery+Shrubs+Arrangement+for+Backyard+Window+Box+Porch+Home+Decoration+%28Red%29&amp;qid=1619790469&amp;s=home-garden&amp;sr=1-19"/>
+    <hyperlink ref="A186" r:id="rId184" display="https://www.amazon.com/Homesick-Scented-Candle-Mississippi-Version/dp/B088SD7R7K/ref=sr_1_4?dchild=1&amp;keywords=Homesick+Scented+Candle%2C+Mississippi&amp;qid=1619877934&amp;s=home-garden&amp;sr=1-4"/>
+    <hyperlink ref="A187" r:id="rId185" display="https://www.amazon.com/Scented-Candle-Soy-Candles-Aromatherapy/dp/B07NMPYQC6/ref=sr_1_1?dchild=1&amp;keywords=Benevolence+LA+Premium+Oud+Wood+Hand+Poured+Scented+Candles%2C+8+oz%7C45+Hour+Burn%2C+Long+Lasting%2C+Highly+Scented%2C+All+Natural+Soy+Candles%7CRelaxing+Aromatherapy+Candle+with+Matte+Black+Glass+Gift+Box&amp;qid=1619878736&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A188" r:id="rId186" display="https://www.amazon.com/dp/B08PYHCCQY/ref=cm_gf_abbm_iaad_d_p0_qd0_uxDcWTIjtwbJ5MYsbWY4"/>
+    <hyperlink ref="A189" r:id="rId187" display="https://www.amazon.com/dp/B08PK5ZTXB/ref=cm_gf_abbm_iaab_d_p0_qd0_lMvvOGH6rHvV2ba2ehDj"/>
+    <hyperlink ref="A190" r:id="rId188" display="https://www.amazon.com/Aussie-Miracle-Conditioner-Treatment-Australian/dp/B0857LTYZ2/ref=zg_bs_17911767011_3?_encoding=UTF8&amp;psc=1&amp;refRID=Z0AF5D8CNA8DBBTDSJHZ"/>
+    <hyperlink ref="A191" r:id="rId189" display="https://www.amazon.com/Conditioner-Thinning-Thickening-Treatment-Regrowth/dp/B07ZTQN7JP/ref=sr_1_5?dchild=1&amp;keywords=Biotin+Shampoo+and+Conditioner+for+Thinning+Hair+Growth+Thickening+Shampoo+for+Hair+Loss+Treatment+NATURAL+Sulfate+Free+for+Color+Treated+Hair+Regrowth+Treatment+for+Men+and+Women&amp;qid=1619794847&amp;s=beauty&amp;sr=1-5"/>
+    <hyperlink ref="A192" r:id="rId190" display="https://www.amazon.com/Aussie-Clarifying-Refreshing-Australian-Pepperberry/dp/B08833JPSD/ref=sr_1_1?dchild=1&amp;keywords=Destress+Clarifying+Shampoo%2C+Infused+with+Reing+Mosa+Mint+and+Australian+Pepperberry%2C+Fresh%2C+10.1+Fl+Oz&amp;qid=1619795326&amp;s=beauty&amp;sr=1-1"/>
+    <hyperlink ref="A193" r:id="rId191" display="https://www.amazon.com/Essential-Shampoo-Conditioner-Botanic-Hearth/dp/B081B9T4Z1/ref=sr_1_1?dchild=1&amp;keywords=Top+6+Essential+Oils+Herbal+Shampoo+and+Conditioner+Set+By+Botanic+Hearth+-+Sulfate+%26+Paraben+Free+-+Hair+Growth+Stimulating+for+Daily+Use%2C+Men+and+Women+%28Packaging+May+Vary%29+-+16+fl+oz+each&amp;qid=1619796255&amp;s=beauty&amp;sr=1-1"/>
+    <hyperlink ref="A194" r:id="rId192" display="https://www.amazon.com/Neutrogena-Conditioner-Over-Processed-Intensive-Meadowfoam/dp/B001E6TZTG/ref=sr_1_fkmr1_1?dchild=1&amp;keywords=PNPJLRTLFFPJ+Neutrogena+Triple+Moisture+Daily+Deep+Conditioner+for+Extra+Dry+Hair%2C+Damaged+%26+Over-Processed+Hair%2C+Intensive+Hydrating+Conditioner+with+Olive%2C+Meadowfoam+%26+Sweet+Almond%2C+8.5+fl.+oz+%28Pack+of+3%29+Neutrogena+https%3A%2F%2Fwww.walmart.com%2Fip%2FNeutrogena-Triple-Moisture-Daily-Deep-Conditioner-Extra-Dry-Hair-Damaged-Over-Processed-Intensive-Hydrating-Olive-Meadowfoam-Sweet-Almond-8-5-fl-oz-P%2F822877594+74388a98-1df5-40ca-b9d4-9fecdca1f895.a235c84467e57cb75c6a06d2ad709e33.jpeg+52.97&amp;qid=1619796714&amp;s=beauty&amp;sr=1-1-fkmr1"/>
+    <hyperlink ref="A195" r:id="rId193" display="https://www.amazon.com/Hygge-Games-Should-Known-Trivia/dp/B0778TY7XP/ref=zg_bs_toys-and-games_1?_encoding=UTF8&amp;psc=1&amp;refRID=W8J3S260V7932SSRC0S0"/>
+    <hyperlink ref="A196" r:id="rId194" display="https://www.amazon.com/Digimon-Original-Digivice-Virtual-Monster/dp/B0846PQT2M/ref=sr_1_2?dchild=1&amp;keywords=Digimon+Bandai+Original+Digivice+Virtual+Pet+Monster+-+Translucent+Purple&amp;qid=1619797579&amp;s=toys-and-games&amp;sr=1-2"/>
+    <hyperlink ref="A197" r:id="rId195" display="https://www.amazon.com/Digimon-Original-Digivice-Virtual-Monster/dp/B0846PDD1B/ref=sr_1_1?dchild=1&amp;keywords=Bandai+Digimon+Original+Digivice+Virtual+Pet+Monster+Handheld+Game+-+Green+Pink&amp;qid=1619797647&amp;s=toys-and-games&amp;sr=1-1"/>
+    <hyperlink ref="A198" r:id="rId196" display="https://www.amazon.com/Thats-Natural-Children-No-Sugar-Preservatives/dp/B075SM6DKW/ref=sr_1_1?dchild=1&amp;keywords=That%27s+it+Apple+%2B+Banana+100%25+Natural+Real+Fruit+Bar%2C+Best+High+Fiber+Vegan%2C+Gluten+Free+Healthy+Snack%2C+Paleo+for+Children+%26+Adults%2C+Non+GMO+Sugar-Free%2C+No+Preservatives+Energy+Food+%2812+Pack%29&amp;qid=1619798402&amp;s=grocery&amp;sr=1-1"/>
+    <hyperlink ref="A199" r:id="rId197" display="https://www.amazon.com/WUQID-Infinity-Relieving-Fidgeting-Anxiety/dp/B08KGV5MZD/ref=zg_bs_toys-and-games_38?_encoding=UTF8&amp;psc=1&amp;refRID=W8J3S260V7932SSRC0S0"/>
+    <hyperlink ref="A200" r:id="rId198" display="https://www.amazon.com/Real-Littles-Collectible-Stationary-Surprises/dp/B08GD2GTG9/ref=sr_1_1_sspa?dchild=1&amp;keywords=5+Surprise+Mini+Brands+Mystery+Capsule+Real+Miniature+Brands+Collectible+Toy+by+ZURU+%283+Pack%29&amp;qid=1619799115&amp;s=toys-and-games&amp;sr=1-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyUEVXS1RBWDVYM1hZJmVuY3J5cHRlZElkPUEwNzg0NDQ3SzRaSUNDTzdNM1MzJmVuY3J5cHRlZEFkSWQ9QTA4OTQ3MzgzOVVHV0tOWDBDTjgwJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A201" r:id="rId199" display="https://www.amazon.com/Mega-Bloks-80-Piece-Building-Classic/dp/B007GE75HY/ref=zg_bs_toys-and-games_52?_encoding=UTF8&amp;psc=1&amp;refRID=WXQY8207YJ862NX001HY"/>
+    <hyperlink ref="A202" r:id="rId200" display="https://www.amazon.com/IronBuddy-Rabbit-Moving-Jumping-Winter/dp/B07GDCFG34/ref=zg_bs_toys-and-games_64?_encoding=UTF8&amp;psc=1&amp;refRID=WXQY8207YJ862NX001HY"/>
+    <hyperlink ref="A203" r:id="rId201" display="https://www.amazon.com/Ethereal-Nature-Hair-Oil-Peppermint/dp/B07XSBNCF2/ref=sr_1_2?dchild=1&amp;keywords=Ethereal+Nature+Hair+Oil+Peppermint+75+Ml&amp;qid=1619806711&amp;sr=8-2"/>
+    <hyperlink ref="A204" r:id="rId202" display="https://www.amazon.com/Zerhunt-Machine-Durable-Automatic-Operated/dp/B07VZF7X31/ref=zg_bs_toys-and-games_97?_encoding=UTF8&amp;psc=1&amp;refRID=Y0GSCMQSJ838X9N3H2JM"/>
+    <hyperlink ref="A205" r:id="rId203" display="https://www.amazon.com/Hairfinity-Nourishing-Botanical-Naturally-Ingredients/dp/B01LXJHTSO/ref=sr_1_5?dchild=1&amp;keywords=Hairfinity+Botanical+Hair+Oil+-+Growth+Treatment+for+Dry+Damaged+Hair+and+Scalp+with+Jojoba%2C+Olive%2C+Sweet+Almond+Oils+and+More+-+Silicone+and+Sulfate+Free+1.76+oz&amp;qid=1619806806&amp;sr=8-5"/>
+    <hyperlink ref="A206" r:id="rId204" display="https://www.amazon.com/Ethereal-Nature-Blends-Natural-Happy/dp/B07N7HYX61/ref=sr_1_6?dchild=1&amp;keywords=Ethereal+Nature+Hair+Oil+Peppermint+75+Ml&amp;qid=1619806748&amp;sr=8-6"/>
+    <hyperlink ref="A207" r:id="rId205" display="https://www.amazon.com/Ethereal-Nature-Lemon-Fluid-Ounce/dp/B07P5SPY3C/ref=sr_1_8?dchild=1&amp;keywords=Ethereal+Nature+Hair+Oil+Peppermint+75+Ml&amp;qid=1619806748&amp;sr=8-8"/>
+    <hyperlink ref="A208" r:id="rId206" display="https://www.amazon.com/Hairfinity-Nourishing-Botanical-Naturally-Ingredients/dp/B01LXJHTSO/ref=sr_1_5?dchild=1&amp;keywords=Hairfinity+Botanical+Hair+Oil+-+Growth+Treatment+for+Dry+Damaged+Hair+and+Scalp+with+Jojoba%2C+Olive%2C+Sweet+Almond+Oils+and+More+-+Silicone+and+Sulfate+Free+1.76+oz&amp;qid=1619806806&amp;sr=8-5"/>
+    <hyperlink ref="A209" r:id="rId207" display="https://www.amazon.com/LAMAZE-L27014A1-Lamaze-Mortimer-Moose/dp/B000I2MRLU/ref=sr_1_23?dchild=1&amp;keywords=baby+toys&amp;qid=1619810844&amp;sr=8-23"/>
+    <hyperlink ref="A210" r:id="rId208" display="https://www.amazon.com/Pinkfong-Baby-Shark-Sing-Alongs-Sound/dp/B08BHX1RMV/ref=sr_1_28?dchild=1&amp;keywords=baby+toys&amp;qid=1619810844&amp;sr=8-28"/>
+    <hyperlink ref="A211" r:id="rId209" display="https://www.amazon.com/Sassy-Fishy-Fascination-Station-Removable/dp/B01M1YKAT9/ref=sr_1_42?dchild=1&amp;keywords=baby+toys&amp;qid=1619810844&amp;sr=8-42"/>
+    <hyperlink ref="A212" r:id="rId210" display="https://www.amazon.com/dp/B085ZNBR2S/ref=sspa_dk_detail_1?psc=1&amp;pd_rd_i=B085ZNBR2S&amp;pd_rd_w=GzJDW&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=uvVWp&amp;pf_rd_r=ABK4BT96RKHDS61WQMGM&amp;pd_rd_r=28621f51-cc54-4e97-8008-519035ea8da7&amp;smid=A240RAB5V5497R&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExR05YTEw5SjNBQjBMJmVuY3J5cHRlZElkPUEwOTU2MzE0RkZPVFU0WU9FVzY3JmVuY3J5cHRlZEFkSWQ9QTA4Mzc2MzEyQVlIM1VGUzRDMVZFJndpZGdldE5hbWU9c3BfZGV0YWlsJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A213" r:id="rId211" display="https://www.amazon.com/Yeetec-Sensory-Puzzles-Fillers-Favours/dp/B07PS6JW56/ref=zg_bs_toys-and-games_85?_encoding=UTF8&amp;psc=1&amp;refRID=0TQ8MW5G8G9ZVWQ5Z5YT"/>
+    <hyperlink ref="A214" r:id="rId212" display="https://www.amazon.com/Case-Throw-Burrito-Exploding-Kittens/dp/B088LZLS9J/ref=sr_1_1?dchild=1&amp;keywords=Case+for+Throw+Throw+Burrito+by+Exploding+Kittens+-+A+Dodgeball+Card+Game+-+Family-Friendly+Party+Games+-+Card+Games+for+Adults%2C+Teens+%26+Kids+Not+Fits+for+Extreme+Outdoor+Edition%3FRainbow%3F%28CASE+ONLY%29&amp;qid=1619850780&amp;s=toys-and-games&amp;sr=1-1"/>
+    <hyperlink ref="A215" r:id="rId213" display="https://www.amazon.com/dp/B08DHVW3KP/ref=sspa_dk_detail_4?psc=1&amp;pd_rd_i=B08DHVW3KP&amp;pd_rd_w=eFy4C&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=kqbv8&amp;pf_rd_r=29JDZVYP1Q8RDPHS42H7&amp;pd_rd_r=00d3b570-766d-4332-b3ba-8f746ff64f79&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTjNIU1ZGWkcwNFg0JmVuY3J5cHRlZElkPUEwNjc0ODQ5MkIxUkkwQUJKOUxaUiZlbmNyeXB0ZWRBZElkPUEwNzA1NzQ5MVRHNzNNWlU3UVU1SiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A216" r:id="rId214" display="https://www.amazon.com/Corner-Shower-Caddy-Suction-Cup/dp/B08BHY41CY/ref=sr_1_1?dchild=1&amp;keywords=Corner+Shower+Caddy+Suction+Cup+Wall+Mounted+Shower+Shelf+Bathroom+Storage+Basket+No-Drilling&amp;qid=1619865695&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A217" r:id="rId215" display="https://www.amazon.com/ThermoPro-Thermometer-Grilling-Waterproof-Ambidextrous/dp/B07XXSYLL8/ref=gbps_tit_s-5_73d8_6341e5e9?smid=ASOOYMPIKYKXM&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
+    <hyperlink ref="A218" r:id="rId216" display="https://www.amazon.com/Grinder-Adjustable-ceramic-grinding-Spices-2/dp/B072MS24SG/ref=sr_1_1?dchild=1&amp;keywords=Wooden+Salt+Pepper+Grinder+Wood+Spice+Grinder+8+inch+OAK+Wood+Spice+Grinder+Shaker+Salt+and+Pepper+Grinder+Combo%28Set+of+2%29&amp;qid=1619865986&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A219" r:id="rId217" display="https://www.amazon.com/COLE-MASON-Derwent-Pepper-Grinder/dp/B003OICYZO/ref=pd_di_sccai_7?pd_rd_w=YWDn9&amp;pf_rd_p=c9443270-b914-4430-a90b-72e3e7e784e0&amp;pf_rd_r=QYG2KEBC6NF6E3T104RM&amp;pd_rd_r=8c0055f6-f89a-447f-9fc0-7bde1ff29612&amp;pd_rd_wg=QsBZ4&amp;pd_rd_i=B003OICYZO&amp;psc=1"/>
+    <hyperlink ref="A220" r:id="rId218" display="https://www.amazon.com/Childom-Colorful-Girlfriend-Valentines-Anniversary/dp/B082KGXWTQ/ref=gbps_tit_s-5_73d8_8f3d7893?smid=A1CBUH4GU178NF&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMDhSMUEwRzFOT0lHJmVuY3J5cHRlZElkPUEwMDM5NjYzMVhFTVZYQllaMFo5TSZlbmNyeXB0ZWRBZElkPUEwMTg4NzgxM043WkxDSk9FOTVUQSZ3aWRnZXROYW1lPXNwX2diX21haW5fc3VwcGxlJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A221" r:id="rId219" display="https://www.amazon.com/Colorful-Artificial-Christmas-Valentines-Anniversary/dp/B07ZR8RRX5/ref=sr_1_4?dchild=1&amp;keywords=Mom+Gifts%2C+Mother%27s+Day+Birthday+Gifts+Colorful+Artificial+Flower+Rose+Gift+Led+Light+String+on+The+Colorful+Flower%2C+Lasts+Forever+in+A+Glass+Dome%2C+Unique+Gifts+for+Mom+Mothers+Day+Anniversary&amp;qid=1619867495&amp;s=home-garden&amp;sr=1-4"/>
+    <hyperlink ref="A222" r:id="rId220" display="https://www.amazon.com/dp/B07BLLMLFC/ref=sspa_dk_detail_6?psc=1&amp;pd_rd_i=B07BLLMLFC&amp;pd_rd_w=GmWMI&amp;pf_rd_p=09863aa3-e7de-40af-890c-436734981743&amp;pd_rd_wg=rlcxB&amp;pf_rd_r=KQH4SJ7J42HP3GEPYDW7&amp;pd_rd_r=5a163af7-514a-431a-bb16-80d0b7406399&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzMDIyQjJEUFlNWDlSJmVuY3J5cHRlZElkPUExMDM4MDI0MVVRNzlMQUVWVTNLQiZlbmNyeXB0ZWRBZElkPUExMDQ1MjIwVko0VU9HRUtEV0tZJndpZGdldE5hbWU9c3BfZGV0YWlsX3RoZW1hdGljJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A223" r:id="rId221" display="https://www.amazon.com/Seropy-Kitchen-Foldable-Stainless-17-8x11-8/dp/B08S6M3NXV/ref=gbps_tit_s-5_73d8_96e3f427?smid=A1DEM51R5GTSWS&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
+    <hyperlink ref="A224" r:id="rId222" display="https://www.amazon.com/Nicewell-Digital-Stainless-Graduation-Tempered/dp/B08LVH11XB/ref=gbps_tit_s-5_73d8_ff1e5b74?smid=A28HMYRLN7K5RQ&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
+    <hyperlink ref="A225" r:id="rId223" display="https://www.amazon.com/MLVOC-Comfortable-Breathable-Washable-Contoured/dp/B082K8ZNQ1/ref=gbps_tit_s-5_73d8_04bc9ac9?smid=A1J6G81LV8GYZO&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=QKR53HA7Y2KFFSQNHJGP"/>
+    <hyperlink ref="A226" r:id="rId224" display="https://www.amazon.com/Burn-XT-Thermogenic-Fat-Burner-Suppressant/dp/B01BXLYEQ0/ref=sr_1_6?dchild=1&amp;keywords=Snap+Keto+%26+Detox+Pills+Advanced+Weight+Loss+Bundle+-+Colon+Cleanser%2C+fat+burner%2C+Ketosis+Diet+Pills+for+Women+and+Men+-+120+Capsules&amp;qid=1619937270&amp;sr=8-6"/>
+    <hyperlink ref="A227" r:id="rId225" display="https://www.amazon.com/Vinegar-Capsules-Formula-Appetite-suppressant/dp/B07GNZNNFN/ref=sr_1_7?dchild=1&amp;keywords=Snap+Keto+%26+Detox+Pills+Advanced+Weight+Loss+Bundle+-+Colon+Cleanser%2C+fat+burner%2C+Ketosis+Diet+Pills+for+Women+and+Men+-+120+Capsules&amp;qid=1619937270&amp;sr=8-7"/>
+    <hyperlink ref="A228" r:id="rId226" display="https://www.amazon.com/AirHeads-Chewy-Fruit-Variety-Packaging/dp/B0017L4PH0/ref=sr_1_2?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-2"/>
+    <hyperlink ref="A229" r:id="rId227" display="https://www.amazon.com/Neliblu-Fingers-Stretchy-Glitter-Birthday/dp/B01NCBCMD9/ref=sr_1_16?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-16"/>
+    <hyperlink ref="A230" r:id="rId228" display="https://www.amazon.com/40-Piece-Bubble-Wands-Assortment-Favors/dp/B06VTXPFHJ/ref=sr_1_20?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-20"/>
+    <hyperlink ref="A231" r:id="rId229" display="https://www.amazon.com/Building-Creative-Birthday-Carnival-Supplies/dp/B07Q81FRHN/ref=sr_1_23?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-23"/>
+    <hyperlink ref="A232" r:id="rId230" display="https://www.amazon.com/Super-Outlet-Treasure-Activity-Decorations/dp/B0149IF78I/ref=sr_1_46?dchild=1&amp;keywords=Disney+Aladdin+Party+Supplies+Mega+Mix+Value+Favor+Pack%2C+48+piece+pack&amp;qid=1619951759&amp;sr=8-46"/>
+    <hyperlink ref="A233" r:id="rId231" display="https://www.amazon.com/Construction-Birthday-Supplies-Complete-Decorations/dp/B083D77CJ6/ref=sxin_9_pa_sp_search_thematic_sspa?cv_ct_cx=Birthday+Party+Decorations&amp;dchild=1&amp;keywords=Birthday+Party+Decorations&amp;pd_rd_i=B083D77CJ6&amp;pd_rd_r=667a2d6b-1c39-409b-9a30-4b58e18a50ad&amp;pd_rd_w=rhErO&amp;pd_rd_wg=egdEp&amp;pf_rd_p=9d5c7dec-ad7e-424f-9792-7751bf0f49a3&amp;pf_rd_r=069MH2JQWNE5EQ09C6SH&amp;qid=1619970292&amp;sr=1-2-a73d1c8c-2fd2-4f19-aa41-2df022bcb241-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExQTBGRkJLVzRGNTdMJmVuY3J5cHRlZElkPUEwMTM4NDY2MjFOOFZQRU9UUFZTUCZlbmNyeXB0ZWRBZElkPUEwNjEzNTI2MjMxTDhJSktCWlFYNCZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A234" r:id="rId232" display="https://www.amazon.com/PartyHooman-16th-Birthday-Decorations-Box/dp/B07P8DQ776/ref=sr_1_3?dchild=1&amp;keywords=Sweet+16+Party+Supplies+WITH+Photo+Booth+Backdrop+and+Props+-Rose+Gold+Sweet+16+Decorations+-+16th+Birthday+Party+Supplies+WITH+Happy+Birthday+Banner%2C+16%2C+Confetti+and+Mylar+Balloons%7CSweet+Sixteen&amp;qid=1619972552&amp;sr=8-3"/>
+    <hyperlink ref="A235" r:id="rId233" display="https://www.amazon.com/Birthday-Decorations-Supplies-balloons-Confetti/dp/B07FPWTCMD/ref=sr_1_2?dchild=1&amp;keywords=Sweet+16+Party+Supplies+WITH+Photo+Booth+Backdrop+and+Props+-Rose+Gold+Sweet+16+Decorations+-+16th+Birthday+Party+Supplies+WITH+Happy+Birthday+Banner%2C+16%2C+Confetti+and+Mylar+Balloons%7CSweet+Sixteen&amp;qid=1619972665&amp;sr=8-2"/>
+    <hyperlink ref="A236" r:id="rId234" display="https://www.amazon.com/Rose-Gold-Birthday-Party-Decoration/dp/B08CKBNKYG/ref=sr_1_9?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-9"/>
+    <hyperlink ref="A237" r:id="rId235" display="https://www.amazon.com/Partyville-Dinosaur-Party-Decorations-Birthday/dp/B08LLF9F2G/ref=sr_1_11?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-11"/>
+    <hyperlink ref="A238" r:id="rId236" display="https://www.amazon.com/THAWAY-Pineapple-Decorations-Artificial-Pineapples/dp/B07TT9JZKS/ref=sr_1_23?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-23"/>
+    <hyperlink ref="A239" r:id="rId237" display="https://www.amazon.com/CHRORINE-Birthday-Decorations-Snowflake-Snowflakes/dp/B08B4JQSPM/ref=sr_1_43?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619970292&amp;sr=8-43"/>
+    <hyperlink ref="A240" r:id="rId238" display="https://www.amazon.com/Surprise-Hanging-Swirl-Decorations-12pc/dp/B07FMB86WB/ref=sr_1_2?dchild=1&amp;keywords=LOL+Surprise%21+Hanging+Swirl+Decorations+%2812pc%29&amp;qid=1619974903&amp;sr=8-2"/>
+    <hyperlink ref="A241" r:id="rId239" display="https://www.amazon.com/Dodecagon-12-Side-Relieves-Depression-Children/dp/B071CFZ4BD/ref=sr_1_1?dchild=1&amp;keywords=Fidget+Dodecagon+%26ndash%3B12-Side+Fidget+Cube+Relieves+Stress+and+Anxiety+Anti+Depression+Cube+for+Children+and+Adults+with+ADHD+ADD+OCD+Autism+%28A1+Black%29&amp;qid=1619938799&amp;sr=8-1"/>
+    <hyperlink ref="A242" r:id="rId240" display="https://www.amazon.com/Amazon-Brand-Solimo-Magnesium-Sulfate/dp/B07NJPMVG9/ref=zg_bs_beauty_18?_encoding=UTF8&amp;psc=1&amp;refRID=FR39RJ9QPK8RTTAMQW1A"/>
+    <hyperlink ref="A243" r:id="rId241" display="https://www.amazon.com/Coach-Soak-Recovery-Magnesium-Essential/dp/B07W4M3797/ref=sr_1_8?dchild=1&amp;keywords=Lavender+Epsom+Salt+%281+Gallon+Bucket%2C+8+lb%29+by+Earthborn+Elements%2C+Infused+with+Lavender+Essential+Oil%2C+Promotes+Relaxation+%26+Sleep%2C+Stress+Relief%2C+Aromatherapy&amp;qid=1619938677&amp;s=hpc&amp;sr=1-8"/>
+    <hyperlink ref="A244" r:id="rId242" display="https://www.amazon.com/Zak-Plastic-Sandwich-Storage-Containers/dp/B07622H15N/ref=sr_1_3?dchild=1&amp;keywords=Zak+Designs+Hello+Kitty+Plastic+Travel+Tumbler+5.0+average+based+on+1+product+rating+5+1+4+0+3+0+2+0+1+0+Would+recommend+Good+value+Good+quality&amp;qid=1619939507&amp;sr=8-3"/>
+    <hyperlink ref="A245" r:id="rId243" display="https://www.amazon.com/Zak-Designs-VMPA-0010-Vampirina-Gregoria/dp/B07DQ8YRW5/ref=sr_1_1_sspa?dchild=1&amp;keywords=Zak+Vampirina+Divided+Plate&amp;qid=1619939900&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE5MEFZRDlJNDNORkwmZW5jcnlwdGVkSWQ9QTA4NjczMjgyREc5QkFKVFhTT0NTJmVuY3J5cHRlZEFkSWQ9QTA2MDUyODM5RUJJUURMRzZCTkUmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A246" r:id="rId244" display="https://www.amazon.com/McCook-Pieces-Stainless-Sharpening-Kitchen/dp/B07XSC4GF2/ref=sr_1_1_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Chef%27s+Knives&amp;qid=1619940235&amp;s=kitchen&amp;sr=1-1-spons&amp;ts_id=289857&amp;psc=1&amp;smid=A25JCRI82MG2LI&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFaVkNSWDFYWlRKR1cmZW5jcnlwdGVkSWQ9QTAzNTE4NzcxSEFGMlc5WlhaVVgyJmVuY3J5cHRlZEFkSWQ9QTAzNzkwMzRXUTlPODA0OVdPVjAmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A247" r:id="rId245" display="https://www.amazon.com/Gorilla-Grip-Sharpener-Professional-Sharpening/dp/B089H2BF2T/ref=sr_1_1_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Knife+Sharpeners&amp;qid=1619941884&amp;s=kitchen&amp;sr=1-1-spons&amp;ts_id=289867&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzTUxDQVRHTkVQR1NLJmVuY3J5cHRlZElkPUEwMjE5NTI3OElaUVBFTDlaV1NOJmVuY3J5cHRlZEFkSWQ9QTA1NzE1MTMyVjhaQlE1S1I0QUlQJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A248" r:id="rId246" display="https://www.amazon.com/dp/B077BBDFK2/ref=cm_gf_aajy_iaal_d_p0_qd0_V1Q9Gsf4KS0jZqhfJGpB"/>
+    <hyperlink ref="A249" r:id="rId247" display="https://www.amazon.com/dp/B08PNYYL72/ref=sspa_dk_detail_0?pd_rd_i=B08Z3D3399&amp;pd_rd_w=nFh0l&amp;pf_rd_p=085568d9-3b13-4ac1-8ae4-24a26c00cb0c&amp;pd_rd_wg=TpWm6&amp;pf_rd_r=EKS0BMDC6A93JSF3TK5Z&amp;pd_rd_r=8a6bd001-3f1d-443c-9b3a-e3e9167252a8&amp;smid=A2G3XCNY3AIGWM&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyNjJCVEtVWFhKVUJKJmVuY3J5cHRlZElkPUEwMTg4NDk1MzhCREQ0VUIxUEcwRSZlbmNyeXB0ZWRBZElkPUEwNzQ0MTY5MUpFR1NLVE5VWkJENiZ3aWRnZXROYW1lPXNwX2RldGFpbCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
+    <hyperlink ref="A250" r:id="rId248" display="https://www.amazon.com/dp/B01FOS1WJK/ref=cm_gf_aajy_iaam_d_p0_qd2_dUgLPei4nchqtqXdzpCI"/>
+    <hyperlink ref="A251" r:id="rId249" display="https://www.amazon.com/dp/B0713ZFTLX/ref=twister_B08JCDWN7X?_encoding=UTF8&amp;psc=1"/>
+    <hyperlink ref="A252" r:id="rId250" display="https://www.amazon.com/321-STRONG-Foam-Roller-Myofascial/dp/B017TDA0ZK/ref=sr_1_1?dchild=1&amp;keywords=321%2BSTRONG%2BFoam%2BRoller%2B-%2BMedium%2BDensity%2BDeep%2BTissue%2BMassager%2Bfor%2BMuscle%2BMassage%2Band%2BMyofascial%2BTrigger%2BPoint%2BRelease%2C%2Bwith%2B4K%2BeBook(Red)&amp;qid=1619947409&amp;s=sporting-goods&amp;sr=1-1&amp;th=1"/>
+    <hyperlink ref="A253" r:id="rId251" display="https://www.amazon.com/madesmart-2-Tier-Organizer-Dividers-Large/dp/B06Y2FS8FK/ref=sr_1_3?dchild=1&amp;keywords=madesmart+2-Tier+Organizer+Bath+Collection+Slide-out+Baskets+with+Handles%2C+Space+Saving%2C+Multi-purpose+Storage+%26+BPA-Fre%2C+Large%2C+Frost-with+Dividers&amp;qid=1619951846&amp;s=home-garden&amp;sr=1-3"/>
+    <hyperlink ref="A254" r:id="rId252" display="https://www.amazon.com/Laundry-Hosiery-Stocking-Underwear-Lingerie/dp/B017NEYOQQ?ref_=Oct_s9_apbd_oup_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=ac3936e9-35c3-52af-b60d-bd74d73d8163&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841"/>
+    <hyperlink ref="A255" r:id="rId253" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07RSMBZ6H?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841"/>
+    <hyperlink ref="A256" r:id="rId254" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07H8MFRT8?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
+    <hyperlink ref="A257" r:id="rId255" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07K2JQM3N?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
+    <hyperlink ref="A258" r:id="rId256" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B07H8M99BT?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
+    <hyperlink ref="A259" r:id="rId257" display="https://www.amazon.com/Br%C3%BCMate-Hopsulator-Double-walled-Stainless-Insulated/dp/B082YVR2PL?ref_=Oct_s9_apbd_obs_hd_bw_bF9LN&amp;pf_rd_r=DTDZQQSYQBK3T95C6WFS&amp;pf_rd_p=fa344f83-0fb4-56b7-bda3-26c14e2a98ac&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=3610841&amp;th=1"/>
+    <hyperlink ref="A260" r:id="rId258" display="https://www.amazon.com/LITOM-Landscape-Spotlights-Waterproof-Landscaping/dp/B083PTZVZB/ref=sr_1_1?dchild=1&amp;keywords=LITOM+12+LEDs+Solar+Landscape+Spotlights%2C+IP67+Waterproof+Solar+Powered+Wall+Lights+2-in-1+Wireless+Outdoor+Solar+Landscaping+Light+for+Yard+Garden+Driveway+Porch+Walkway+Pool+Patio+6+Pack+Cold+White&amp;qid=1620050475&amp;sr=8-1"/>
+    <hyperlink ref="A261" r:id="rId259" display="https://www.amazon.com/WERNNSAI-Video-Game-Party-Supplies/dp/B07MMTPBKT/ref=sr_1_68?dchild=1&amp;keywords=Birthday+Party+Decorations&amp;qid=1619976788&amp;sr=8-68"/>
+    <hyperlink ref="A262" r:id="rId260" display="https://www.amazon.com/Birthday-Lettering-Inflatable-Decorations-Ecofriendly/dp/B07GXQ4ZV2/ref=sr_1_3?dchild=1&amp;keywords=Happy+Birthday+Decoration+Set+with+Inflator+Letter+Balloons+Banner+Bunting+Paper+Pompoms+Foil+Unicorn+Cute+Kids+Gifts&amp;qid=1620035219&amp;sr=8-3"/>
+    <hyperlink ref="A263" r:id="rId261" display="https://www.amazon.com/AOZITA-Mason-Jar-Bathroom-Accessories/dp/B07Y4Q4J9H/ref=sr_1_1?dchild=1&amp;keywords=Mason+Jar+Bathroom+Accessories+Set+4+Pcs+-+Mason+Jar+Soap+Dispenser+%26+2+Apothecary+Jars+%26+Toothbrush+Holder+-+Rustic+Farmhouse+Decor%2C+Bathroom+Home+Decor+Clearance%2C+Countertop+Vanity+Organize+-+Black&amp;qid=1620036072&amp;sr=8-1"/>
+    <hyperlink ref="A264" r:id="rId262" display="https://www.amazon.com/Ferrero-Collection-Assorted-Chocolates-Piece/dp/B01BDI89SW/ref=sr_1_1?dchild=1&amp;keywords=Ferrero+Rocher+Fine+Hazelnut+Milk+Chocolates%2C+24+Count%2C+Assorted+Coconut+Candy+and+Chocolate+Collection+Gift+Box%2C+9.1+oz&amp;qid=1620037419&amp;s=grocery&amp;sr=1-1"/>
+    <hyperlink ref="A265" r:id="rId263" display="https://www.amazon.com/dp/B004MPA8P6/ref=cm_gf_abdf_iaaa_d_p0_qd0_ktUs1IzdOruQzdgunlIY"/>
+    <hyperlink ref="A266" r:id="rId264" display="https://www.amazon.com/WELCHS-Mixed-Fruit-Snacks-Ounce/dp/B00HFC2E82/ref=sr_1_3?dchild=1&amp;keywords=My+College+Crate+Microwaveables+Ultimate+Snack+Care+Package+for+College+Students+-+Variety+Assortment+of+Microwaveables%2C+Mac+%26+Cheese%2C+Popcorn%2C+Ramen%2C+Chips%2C+Gummies+%26+Candies+%2850+Snacks%29&amp;qid=1620037716&amp;s=grocery&amp;sr=1-3"/>
+    <hyperlink ref="A267" r:id="rId265" display="https://www.amazon.com/Kidde-468093-Two-Story-Anti-Slip-13-Foot/dp/B00005OU7B/ref=sr_1_4_sspa?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNzI4QUwxM1oyWEgyJmVuY3J5cHRlZElkPUEwNjIxNTUyMlhVUkJQWERVT0FMWSZlbmNyeXB0ZWRBZElkPUEwMTA1NTUwMkZWRDFESjNMQ0pBTiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A268" r:id="rId266" display="https://www.amazon.com/SABRE-Wedge-Security-Alarm-Siren/dp/B00M30SQGA/ref=sr_1_13?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-13"/>
+    <hyperlink ref="A269" r:id="rId267" display="https://www.amazon.com/Toeeson-Triggered-Security-Burglar-Windows/dp/B07PGXQYC9/ref=sr_1_15?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-15"/>
+    <hyperlink ref="A270" r:id="rId268" display="https://www.amazon.com/Defender-Security-10827-Door-Reinforcement/dp/B00D2K367Y/ref=sr_1_18?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-18"/>
+    <hyperlink ref="A271" r:id="rId269" display="https://www.amazon.com/Medical-Adjustable-Stability-Tool-Free-Assembly/dp/B06ZZVW94J/ref=sr_1_25?dchild=1&amp;keywords=Home+Safety&amp;qid=1620047362&amp;sr=8-25"/>
+    <hyperlink ref="A272" r:id="rId270" display="https://www.amazon.com/SentrySafe-CHW20205-Fireproof-Waterproof-Interior/dp/B015P0X7F4/ref=sr_1_1?dchild=1&amp;keywords=SentrySafe+CHW20205+Fireproof+Waterproof+Box+with+Key+Lock+and+Interior+Light%2C+0.28+Cubic+Feet&amp;qid=1620049685&amp;sr=8-1"/>
+    <hyperlink ref="A273" r:id="rId271" display="https://www.amazon.com/Babyproofing-Wappa-Baby-Protectors-Installation/dp/B01N7H7J47/ref=sr_1_54?dchild=1&amp;keywords=Home+Safety&amp;qid=1620050118&amp;sr=8-54"/>
+    <hyperlink ref="A274" r:id="rId272" display="https://www.amazon.com/Bug-Zapper-Attractant-Waterproof-Electronic/dp/B083RBJ6F6/ref=sr_1_5?dchild=1&amp;keywords=Intelabe+Bug+Zapper%2C+Mosquito+Killer+USB+Rechargeable+Electric+Fly+Swatter+for+Home%2C+Outdoor%2C+Powerful+4000V+Grid%2C+Detachable+Flashlight%2C+LED+Light%2C+Safe+to+Touch+with+3-Layer+Safety+Mesh-White&amp;qid=1620050980&amp;sr=8-5"/>
+    <hyperlink ref="A275" r:id="rId273" display="https://www.amazon.com/Perfect-Birthday-Childrens-Shooting-Compatible/dp/B08HZF6V5X/ref=sr_1_2?dchild=1&amp;keywords=Gun+Toy+Gift+for+Boys+Age+of+4+5+6+7+8+9+10+11+12+Years+Old+Kids+Girls+Perfect+Present+for+Birthday+Children%27s+Day+with+Moving+Shooting+Target+2+Blaster+Gun+and+18+Foam+Balls%2C+Compatible+with+NERF+Gun&amp;qid=1619981925&amp;sr=8-2"/>
+    <hyperlink ref="A276" r:id="rId274" display="https://www.amazon.com/USA-Toyz-Compatible-Targets-Shooting/dp/B07GDNPGBS/ref=sr_1_2?dchild=1&amp;keywords=USA+Toyz+Astroshot+Zero+G+Shooting+Game+-+Nerf+Compatible+Floating+Hovering+Ball+Targets+for+Shooting+with+1+Foam+Blaster+Toy+Gun%2C+10+Floating+Ball+Gun+Targets%2C+12+Foam+Darts%2C+and+1+Foam+Dart+Holder&amp;qid=1619982053&amp;sr=8-2"/>
+    <hyperlink ref="A277" r:id="rId275" display="https://www.amazon.com/USA-Toyz-AstroShot-Shooting-Games/dp/B08B472W13/ref=sr_1_1?dchild=1&amp;keywords=USA+Toyz+AstroShot+Zero+GSX+Glow+in+The+Dark+Shooting+Games+-+Compatible+Nerf+Target%2C+Floating+Ball+Shooting+Game+for+Kids+with+Foam+Dart+Toy+Gun%2C+10+Floating+Ball+Targets%2C+and+5+Flip+Targets&amp;qid=1619982189&amp;sr=8-1"/>
+    <hyperlink ref="A278" r:id="rId276" display="https://www.amazon.com/SaltWorks-French-Flower-Artisan-Shaker/dp/B01N6VT89L/ref=sr_1_1?dchild=1&amp;keywords=SaltWorks%2C+Artisan+Salt+Company+Fleur+de+Sel+French+Flower+of+Salt%2C+Shaker+Jar%2C+Sea+Salt%2C+5.5+Oz%2C+%28Pack+Of+1%29&amp;qid=1619982789&amp;sr=8-1"/>
+    <hyperlink ref="A279" r:id="rId277" display="https://www.amazon.com/dp/B00GHAGGOG/ref=s9_acsd_otopr_hd_bw_bBGS71_c2_x_1_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-11&amp;pf_rd_r=7436Y67P7NZSFJCMS32A&amp;pf_rd_t=101&amp;pf_rd_p=2b72e6e2-4702-5ced-b555-8de815dd282f&amp;pf_rd_i=166461011"/>
+    <hyperlink ref="A280" r:id="rId278" display="https://www.amazon.com/dp/B089F7YR1T/ref=s9_acsd_otopr_hd_bw_bBGS71_c2_x_5_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-11&amp;pf_rd_r=7436Y67P7NZSFJCMS32A&amp;pf_rd_t=101&amp;pf_rd_p=2b72e6e2-4702-5ced-b555-8de815dd282f&amp;pf_rd_i=166461011"/>
+    <hyperlink ref="A281" r:id="rId279" display="https://www.amazon.com/dp/B01NCUPCD4/ref=s9_acsd_otopr_hd_bw_bBGS71_c2_x_7_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-11&amp;pf_rd_r=7436Y67P7NZSFJCMS32A&amp;pf_rd_t=101&amp;pf_rd_p=2b72e6e2-4702-5ced-b555-8de815dd282f&amp;pf_rd_i=166461011"/>
+    <hyperlink ref="A282" r:id="rId280" display="https://www.amazon.com/Mattel-Games-Magic-Ball-Retro/dp/B0149MC426/ref=sr_1_22?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Toys+%26+Games+Activities+%26+Amusements&amp;qid=1619989021&amp;s=toys-and-games&amp;sr=1-22&amp;ts_id=166027011"/>
+    <hyperlink ref="A283" r:id="rId281" display="https://www.amazon.com/Sticky-Classic-Indoor-Outdoor-Activity/dp/B086PZLD69/ref=sr_1_29_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Toys+%26+Games+Activities+%26+Amusements&amp;qid=1619989021&amp;s=toys-and-games&amp;sr=1-29-spons&amp;ts_id=166027011&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNUtZUzRFQURFUjFZJmVuY3J5cHRlZElkPUEwMzA3ODUxMU9KWDM5WENPNUxZVyZlbmNyeXB0ZWRBZElkPUEwMTEzNzUyMzZOVjdWVjM4MlYxSSZ3aWRnZXROYW1lPXNwX2J0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A284" r:id="rId282" display="https://www.amazon.com/Maui-Vera-Organic-Sunburn-Moisturizer/dp/B06WD47PDL/ref=sr_1_1?dchild=1&amp;keywords=Maui+Vera+Organic+Sunburn+Relief+%26+After+Sun+Moisturizer%2C+6.5+ounce&amp;qid=1620025501&amp;s=beauty&amp;sr=1-1"/>
+    <hyperlink ref="A285" r:id="rId283" display="https://www.amazon.com/dp/B08N9Q24M9/ref=s9_acsd_ri_bw_c2_x_2_t?pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_s=merchandised-search-6&amp;pf_rd_r=BNTJGK6TJQ77FK181D6R&amp;pf_rd_t=101&amp;pf_rd_p=6359c963-d826-464b-bb12-76e3482a54bc&amp;pf_rd_i=289754"/>
+    <hyperlink ref="A286" r:id="rId284" display="https://www.amazon.com/Lodge-Skillet-Pre-Seasoned-Ready-Stove/dp/B00006JSUA/ref=lp_289814_1_1"/>
+    <hyperlink ref="A287" r:id="rId285" display="https://www.amazon.com/Lodge-Skillet-Pre-Seasoned-Ready-Stove/dp/B00006JSUA/ref=lp_289814_1_1"/>
+    <hyperlink ref="A288" r:id="rId286" display="https://www.amazon.com/Lodge-Square-Pre-seasoned-Draining-Grilling/dp/B0000CF66W/ref=lp_289814_1_10"/>
+    <hyperlink ref="A289" r:id="rId287" display="https://www.amazon.com/Contour-Gauge-Duplication-Profile-Tool-Adjustable-Lock/dp/B08B8RGZCS/ref=sr_1_1?dchild=1&amp;pf_rd_i=510136&amp;pf_rd_p=e99ef764-988c-547d-af5e-9379bdbb5519&amp;pf_rd_r=2FXWZ7NP7QJY7TCPACY9&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;qid=1620030064&amp;sr=8-1"/>
+    <hyperlink ref="A290" r:id="rId288" display="https://www.amazon.com/Gorilla-Grip-Original-Non-Adhesive-Cabinets/dp/B07GJWL9PT/ref=sr_1_4?dchild=1&amp;keywords=Gorilla%2BGrip%2BOriginal%2BOversized%2BCutting%2BBoard%2C%2B3%2BPiece%2C%2BJuice%2BGrooves%2C%2BLarger%2BThicker%2BBoards%2C%2BEasy%2BGrip%2BHandle%2C%2BPerfect%2Bfor%2Bthe%2BDishwasher%2C%2BNon%2BPorous%2C%2BExtra%2BLarge%2C%2BKitchen%2C%2BSet%2Bof%2B3%2C%2BBlack%2BGray&amp;qid=1620032805&amp;s=home-garden&amp;sr=1-4&amp;th=1"/>
+    <hyperlink ref="A291" r:id="rId289" display="https://www.amazon.com/Organic-Bamboo-Cutting-Board-Groove/dp/B08VD26MQ4?ref_=Oct_s9_apbd_obs_hd_bw_b1DP1&amp;pf_rd_r=SK4G2QKN0J14SXVMWFS9&amp;pf_rd_p=9fbb06f2-7e23-5438-b252-b0af0bfdda24&amp;pf_rd_s=merchandised-search-10&amp;pf_rd_t=BROWSE&amp;pf_rd_i=289851"/>
+    <hyperlink ref="A292" r:id="rId290" display="https://www.amazon.com/Komax-2-4-quart-Suitable-Lemonade-Leakproof/dp/B082FMVZZM/ref=sr_1_3?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Carafes+%26+Pitchers&amp;qid=1620036856&amp;s=kitchen&amp;sr=1-3&amp;ts_id=13217521"/>
+    <hyperlink ref="A293" r:id="rId291" display="https://www.amazon.com/Honeysuckle-Planter-Patio-Pot-Tequila/dp/B07B5GJ6MJ/ref=sr_1_11?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Planters&amp;qid=1620038294&amp;s=lawn-garden&amp;sr=1-11&amp;ts_id=553798"/>
+    <hyperlink ref="A294" r:id="rId292" display="https://www.amazon.com/Honeysuckle-Planter-Patio-Pot-Vanilla/dp/B072VM7YTZ/ref=sr_1_2?dchild=1&amp;keywords=Honeysuckle+Planter%2C+Patio+Pot%2C+15%22+Vanilla&amp;qid=1620038569&amp;s=lawn-garden&amp;sr=1-2"/>
+    <hyperlink ref="A295" r:id="rId293" display="https://www.amazon.com/Accessories-Dispenser-Toothbrush-Apothecary-Countertop/dp/B08VHWLZ7K/ref=sr_1_18?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Bathroom+Accessories&amp;qid=1620038116&amp;s=bedbath&amp;sr=1-18&amp;ts_id=1063238"/>
+    <hyperlink ref="A296" r:id="rId294" display="https://www.amazon.com/LiBa-Mildew-Resistant-Anti-Bacterial-Curtain/dp/B00LS9UD2M/ref=sr_1_11?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Shower+Curtains%2C+Hooks+%26+Liners&amp;qid=1620038838&amp;s=bedbath&amp;sr=1-11&amp;ts_id=1063246"/>
+    <hyperlink ref="A297" r:id="rId295" display="https://www.amazon.com/HBlife-Acrylic-Jewelry-Cosmetic-Organizer/dp/B08FFNWF99/ref=sr_1_4?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Cosmetic+Display+Cases&amp;qid=1620038092&amp;s=beauty&amp;sr=1-4&amp;ts_id=13861693011"/>
+    <hyperlink ref="A298" r:id="rId296" display="https://www.amazon.com/AMEITECH-Organizer-Adjustable-Lipsticks-Transparent/dp/B073S4PQ6H/ref=sr_1_5?dchild=1&amp;keywords=Makeup+Organizer%2C+360+Degree+Rotating+Adjustable+Cosmetic+Storage+Display+Case+with+8+Layers+Large+Capacity%2C+Fits+Jewelry%2CMakeup+Brushes%2C+Lipsticks+and+More%2C+Clear+Transparent&amp;qid=1620773989&amp;sr=8-5"/>
+    <hyperlink ref="A299" r:id="rId297" display="https://www.amazon.com/Dublin-Decorative-Toilet-Cleaning-Holder/dp/B075X3G25Z/ref=bmx_1?pd_rd_w=bi8Ez&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=HSG5PPF13AEXDYX77146&amp;pd_rd_r=4e3f6d64-0f32-4d13-8fe6-6bf5129d2cf1&amp;pd_rd_wg=JOqOC&amp;pd_rd_i=B075X3G25Z&amp;psc=1"/>
+    <hyperlink ref="A300" r:id="rId298" display="https://www.amazon.com/Weiai-Organizer-Acrylic-Cosmetics-Solution/dp/B07ZT6H5TH/ref=pd_pspc_cs_dps_d_0?pd_rd_w=Q0O7s&amp;pf_rd_p=b5eb2e75-f9f6-41f5-b1a4-f525faf5a1f1&amp;pf_rd_r=BXBH55D6MG1TJ6XSZKET&amp;pd_rd_r=e01690d9-20f1-46d5-8c64-ec2dfb8a7261&amp;pd_rd_wg=Oivjj&amp;pd_rd_i=B07ZT6H5TH"/>
+    <hyperlink ref="A301" r:id="rId299" display="https://www.amazon.com/Zapper-Outdoor-Electric-Mosquito-Zappers/dp/B08C7YRNPK/ref=sr_1_10?dchild=1&amp;keywords=Flowtron+BK-40D+Electronic+Insect+Killer%2C+1+Acre+Coverage%2CBlack&amp;qid=1620051338&amp;s=lawn-garden&amp;sr=1-10"/>
+    <hyperlink ref="A302" r:id="rId300" display="https://www.amazon.com/Greluna-Waterproof-Lighting-Landscape-Driveway/dp/B07BC4S8S6/ref=sr_1_27?dchild=1&amp;keywords=Pack+of+4+Solar+Powered+Outdoor+Landscape+Warm+Light+for+Garden+Yard+Fence&amp;qid=1620050415&amp;sr=8-27"/>
+    <hyperlink ref="A303" r:id="rId301" display="https://www.amazon.com/GIGALUMI-Pathway-Waterproof-Landscape-Stainless/dp/B086GKPHKP/ref=sr_1_59?dchild=1&amp;keywords=Pack%2Bof%2B4%2BSolar%2BPowered%2BOutdoor%2BLandscape%2BWarm%2BLight%2Bfor%2BGarden%2BYard%2BFence&amp;qid=1620117579&amp;sr=8-59&amp;th=1"/>
+    <hyperlink ref="A304" r:id="rId302" display="https://www.amazon.com/GIGALUMI-Pathway-Waterproof-Landscape-Driveway/dp/B07YZ4LTH3/ref=sr_1_1?dchild=1&amp;keywords=GIGALUMI+12+Pack+Solar+Pathway+Lights+Outdoor%2C+Waterproof+Outdoor+Solar+Lights+for+Garden%2C+Landscape%2C+Path%2C+Yard%2C+Patio%2C+Driveway%2C+Walkway&amp;qid=1620123876&amp;sr=8-1"/>
+    <hyperlink ref="A305" r:id="rId303" display="https://www.amazon.com/Waterproof-Crystal-Lighting-Outdoor-Decorations/dp/B07PF3FLDX/ref=sr_1_2?dchild=1&amp;keywords=20ft%2B30%2BLED%2BSolar%2BString%2BBall%2BLights%2BOutdoor%2BWaterproof%2BWarm%2BWhite%2BGarden%2BDecor&amp;qid=1620124204&amp;sr=8-2&amp;th=1"/>
+    <hyperlink ref="A306" r:id="rId304" display="https://www.amazon.com/Joomer-Christmas-Waterproof-Decorative-Decoration/dp/B07L86TVQF/ref=sr_1_2?dchild=1&amp;keywords=Joomer+2+Pack+Solar+Christmas+Lights+72ft+200+LED+8+Modes+Solar+String+Lights+Waterproof+Solar+Fairy+Lights+for+Garden%2C+Patio%2C+Fence%2C+Balcony%2C+Outdoors+%28Green%29&amp;qid=1620124705&amp;sr=8-2"/>
+    <hyperlink ref="A307" r:id="rId305" display="https://www.amazon.com/Joomer-Christmas-Waterproof-Decorative-Decoration/dp/B07L88CFZZ/ref=sr_1_2?dchild=1&amp;keywords=Joomer%2B2%2BPack%2BSolar%2BChristmas%2BLights%2B72ft%2B200%2BLED%2B8%2BModes%2BSolar%2BString%2BLights%2BWaterproof%2BSolar%2BFairy%2BLights%2Bfor%2BGarden%2C%2BPatio%2C%2BFence%2C%2BBalcony%2C%2BOutdoors%2B(Green)&amp;qid=1620124705&amp;sr=8-2&amp;th=1"/>
+    <hyperlink ref="A308" r:id="rId306" display="https://www.amazon.com/Joomer-Christmas-Waterproof-Outdoor-Gardens/dp/B07H7HB5SL/ref=sr_1_1?dchild=1&amp;keywords=Joomer+Solar+Christmas+Lights+72ft+200+LED+8+Modes+Solar+String+Lights+Waterproof+Solar+Fairy+Lights+for+Garden%2C+Patio%2C+Fence%2C+Balcony%2C+Outdoors+%28Green%29&amp;qid=1620124989&amp;sr=8-1"/>
+    <hyperlink ref="A309" r:id="rId307" display="https://www.amazon.com/Waterproof-Crystal-Lighting-Christmas-Decorations/dp/B07J631GXC/ref=sr_1_2?dchild=1&amp;keywords=Joomer+Globe+Solar+String+Lights%2C+20ft+30+LED+Outdoor+Bulb+String+Lights%2CWaterproof+8+Modes+Solar+Patio+Lights+for+Patio%2C+Garden%2C+Gazebo%2C+Yard%2C+Outdoors+%28White%29&amp;qid=1620125085&amp;sr=8-2"/>
+    <hyperlink ref="A310" r:id="rId308" display="https://www.amazon.com/Waterproof-Connectable-Outdoor-Landscape-Lighting/dp/B07VBKFQ1C/ref=sr_1_8?dchild=1&amp;keywords=Walcut+50Ft+2+Wire+LED+Rope+Lights%2C+Cool+White+Lights+with+Clear+PVC+Jacket%2C+Connectable+and+Flexible%2C+for+Indoor+Wedding+Christmas+Party+and+Waterproof+for+Outdoor+Decoration&amp;qid=1620125252&amp;s=hi&amp;sr=1-8"/>
+    <hyperlink ref="A311" r:id="rId309" display="https://www.amazon.com/Outdoor-Crystal-Decorative-Waterproof-Christmas/dp/B0881RDRMJ/ref=sxin_9_pa_sp_search_thematic_sspa?cv_ct_cx=20ft+30+LED+Solar+String+Ball+Lights+Outdoor+Waterproof+Warm+White+Garden+Decor&amp;dchild=1&amp;keywords=20ft+30+LED+Solar+String+Ball+Lights+Outdoor+Waterproof+Warm+White+Garden+Decor&amp;pd_rd_i=B0881RDRMJ&amp;pd_rd_r=7514efce-c125-4c59-8780-afa94d443c26&amp;pd_rd_w=up9Q9&amp;pd_rd_wg=RRK3v&amp;pf_rd_p=9d5c7dec-ad7e-424f-9792-7751bf0f49a3&amp;pf_rd_r=PQ6DCKQ8G7DFDNED6BFH&amp;qid=1620124204&amp;sr=1-2-a73d1c8c-2fd2-4f19-aa41-2df022bcb241-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyRTE1WVRVUTVZMTUwJmVuY3J5cHRlZElkPUEwNDgzNzQxMlFEWks2QlBLRVRQMyZlbmNyeXB0ZWRBZElkPUEwMTE0Mjc4Mzk4WERHTFMyNDZMTyZ3aWRnZXROYW1lPXNwX3NlYXJjaF90aGVtYXRpYyZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A312" r:id="rId310" display="https://www.amazon.com/LAFEINA-String-Waterproof-Ball-Decorations/dp/B07MFJJ2CR/ref=sr_1_1?dchild=1&amp;keywords=Solar+String+Lights+Outdoor%2C+23ft+50+LED+Waterproof+Crystal+Ball+Fairy+Lights+Outside+Decorative+Lighting+for+Garden+Patio+Holiday+Decorations+%28Pink%29&amp;qid=1620125963&amp;s=lawn-garden&amp;sr=1-1"/>
+    <hyperlink ref="A313" r:id="rId311" display="https://www.amazon.com/Brightech-Ambience-Pro-Waterproof-Commercial/dp/B01IQVWJIA/ref=sr_1_1?dchild=1&amp;keywords=Brightech+Ambience+Pro+-+Waterproof+LED+Outdoor+String+Lights+-+Hanging%2C+Dimmable+2w+Vintage+Edison+Bulbs+-+24+Ft+Commercial+Grade+Patio+Lights+Create+Cafe+Ambience+In+Your+Backyard+-+black&amp;qid=1620127072&amp;sr=8-1"/>
+    <hyperlink ref="A314" r:id="rId312" display="https://www.amazon.com/TONULAX-Solar-Lights-Outdoor-Multi-Color/dp/B07DCSYTSR/ref=sr_1_4?dchild=1&amp;keywords=Solar+Flower+Lights+with+20+Cherry+Blossom%2COutdoor+Solar+Lights%2C+2+Pack+Solar+Fairy+Lights+Waterproof+Multi-Color+Solar+Powered+Garden+Lights%2C+Bigger+Solar+Panel+for+Pathway+Patio+Yard+Christmas+Decor&amp;qid=1620117229&amp;sr=8-4"/>
+    <hyperlink ref="A315" r:id="rId313" display="https://www.amazon.com/Solar-Lights-Outdoor-Multi-Color-Decoration/dp/B07GP2S846/ref=sr_1_1?dchild=1&amp;keywords=Solar+Lights+Outdoor+-+New+Upgraded+Solar+Garden+Lights%2C+Multi-Color+Changing+Lily+Solar+Flower+Lights+for+Patio%2CYard+Decoration%2C+Bigger+Flower+and+Wider+Solar+Panel+%282+Pack%2CBlue+and+White%29&amp;qid=1620135651&amp;sr=8-1"/>
+    <hyperlink ref="A316" r:id="rId314" display="https://www.amazon.com/Maggift-Powered-Garden-Lights-Automatic/dp/B01M9F6P2G/ref=sr_1_7?dchild=1&amp;keywords=Solar+Flower+Lights+with+20+Cherry+Blossom%2COutdoor+Solar+Lights%2C+2+Pack+Solar+Fairy+Lights+Waterproof+Multi-Color+Solar+Powered+Garden+Lights%2C+Bigger+Solar+Panel+for+Pathway+Patio+Yard+Christmas+Decor&amp;qid=1620117229&amp;sr=8-7"/>
+    <hyperlink ref="A317" r:id="rId315" display="https://www.amazon.com/TONULAX-Solar-Garden-Lights-Decorative/dp/B0831J58HD/ref=sr_1_10?dchild=1&amp;keywords=Solar+Flower+Lights+with+20+Cherry+Blossom%2COutdoor+Solar+Lights%2C+2+Pack+Solar+Fairy+Lights+Waterproof+Multi-Color+Solar+Powered+Garden+Lights%2C+Bigger+Solar+Panel+for+Pathway+Patio+Yard+Christmas+Decor&amp;qid=1620117229&amp;sr=8-10"/>
+    <hyperlink ref="A318" r:id="rId316" display="https://www.amazon.com/TONULAX-Flickering-Landscape-Decoration-Lighting/dp/B083NST39D/ref=sr_1_1?dchild=1&amp;keywords=TONULAX+Solar+Lights+Outdoor%2CStump+On+Fire+Torch+Lights%2CFlickering+Flame+Lantern+Lights%2CSolar+Powered+Landscape+Decoration+Lighting+for+Garden+Patio+Pathway+Deck+Yard+Decor%282+Pack%29&amp;qid=1620136474&amp;sr=8-1"/>
+    <hyperlink ref="A319" r:id="rId317" display="https://www.amazon.com/Centerpieces-Operated-Waterproof-Children-Decorations/dp/B07MDGQRLY/ref=sr_1_1?dchild=1&amp;keywords=Flower+String+Lights+for+Girls+Kids+Bedroom+Decorations+-+Pink+Cherry+Blossom+30+LED+Decorative+Fairy+Night+Light+-+Waterproof+Indoor+Outdoor+Wedding+Birthday+Party+Wall+Decor+Battery+Operated+10FT&amp;qid=1620136936&amp;sr=8-1"/>
+    <hyperlink ref="A320" r:id="rId318" display="https://www.amazon.com/Bona-Lemon-Mint-Floor-Care/dp/B0821WZK6N/ref=sr_1_5?dchild=1&amp;keywords=Bona%C2%AE+Hard-Surface+Floor+Cleaner+36oz&amp;qid=1620198207&amp;sr=8-5"/>
+    <hyperlink ref="A321" r:id="rId319" display="https://www.amazon.com/FloorPops-FP2942-Medina-Stick-Floor/dp/B07QFBX8R1/ref=sr_1_3?dchild=1&amp;keywords=118%27%27x7.87%22+Self+Adhesive+Vinyl+Floor+Tiles+Waterproof+Stain+Resistant+Wall+Tile&amp;qid=1620198874&amp;sr=8-3"/>
+    <hyperlink ref="A322" r:id="rId320" display="https://www.amazon.com/MTO0302-Beveled-Metallic-Mosaic-Tile/dp/B07F7FPJQH/ref=sr_1_1?dchild=1&amp;keywords=MTO0302+Modern+Beveled+Hexagon+Beige+White+Glossy+Metallic+Glass+Mosaic+Tile&amp;qid=1620199239&amp;sr=8-1"/>
+    <hyperlink ref="A323" r:id="rId321" display="https://www.amazon.com/Contour-Legacy-Support-Sciatica-Pressure/dp/B07MFN8FRT/ref=sr_1_4?dchild=1&amp;keywords=Elevated+Wellness+Pillow+for+Sleeping+%E2%80%93+Shredded+Memory+Foam+%E2%80%93+Queen+%E2%80%93+Cooling+Bamboo+Cover&amp;qid=1620205989&amp;sr=8-4"/>
+    <hyperlink ref="A324" r:id="rId322" display="https://www.amazon.com/Munchkin-Piece-Snack-Catcher-Green/dp/B01GKZNWTO/ref=sr_1_4?dchild=1&amp;keywords=zak%21snak+Spider-Man+Snack+%26+Drink+Cups+10+oz.&amp;qid=1620206688&amp;sr=8-4"/>
+    <hyperlink ref="A325" r:id="rId323" display="https://www.amazon.com/Munchkin-Divided-Suction-Plates-Green/dp/B07G8RZG7K/ref=sr_1_5?dchild=1&amp;keywords=Munchkin+Splash+Toddler+Divided+Plates%2C+Blue%2FGreen%2C+2+Pack%2C+Colors+May+Vary&amp;qid=1620206963&amp;sr=8-5"/>
+    <hyperlink ref="A326" r:id="rId324" display="https://www.amazon.com/Munchkin-Fresh-Food-Feeder-Green/dp/B000GK5XY2/ref=sr_1_4?dchild=1&amp;keywords=2+Pack+-+Munchkin+Healthflow+Fresh+Food+Feeder+1+Each&amp;qid=1620207613&amp;sr=8-4"/>
+    <hyperlink ref="A327" r:id="rId325" display="https://www.amazon.com/Munchkin-Fresh-Food-Feeder-Green/dp/B000GK5XY2/ref=sr_1_4?dchild=1&amp;keywords=2+Pack+-+Munchkin+Healthflow+Fresh+Food+Feeder+1+Each&amp;qid=1620207613&amp;sr=8-5"/>
+    <hyperlink ref="A328" r:id="rId326" display="https://www.amazon.com/Munchkin-White-Hot-Safety-Spoons/dp/B0013NB70A/ref=sr_1_2?dchild=1&amp;keywords=Munchkin+Deluxe+Fresh+Food+Feeder%2C+1+Pack%2C+Colors+Vary&amp;qid=1620207836&amp;sr=8-2"/>
+    <hyperlink ref="A329" r:id="rId327" display="https://www.amazon.com/Munchkin-Piece-Soft-Tip-Infant-Spoons/dp/B006VB29D8/ref=sr_1_4?dchild=1&amp;keywords=Munchkin+Deluxe+Fresh+Food+Feeder%2C+1+Pack%2C+Colors+Vary&amp;qid=1620207836&amp;sr=8-4"/>
+    <hyperlink ref="A330" r:id="rId328" display="https://www.amazon.com/Munchkin-Stay-Suction-Bowl-Pack/dp/B07L4P5MLB/ref=sr_1_6?dchild=1&amp;keywords=3+Pack+-+Munchkin+Soft-Tip+Infant+Spoons%2C+Assorted+Colors+6+ea&amp;qid=1620208027&amp;sr=8-6"/>
+    <hyperlink ref="A331" r:id="rId329" display="https://www.amazon.com/Munchkin-16104-Bath-Bobbers-Toy/dp/B01G1JQY2G/ref=sr_1_8?dchild=1&amp;keywords=3+Pack+-+Munchkin+Soft-Tip+Infant+Spoons%2C+Assorted+Colors+6+ea&amp;qid=1620208027&amp;sr=8-8"/>
+    <hyperlink ref="A332" r:id="rId330" display="https://www.amazon.com/Munchkin-Piece-Fork-Spoon-Set/dp/B006SFUCSG/ref=sr_1_7?dchild=1&amp;keywords=3+Pack+-+Munchkin+Soft-Tip+Infant+Spoons%2C+Assorted+Colors+6+ea&amp;qid=1620208027&amp;sr=8-7"/>
+    <hyperlink ref="A333" r:id="rId331" display="https://www.amazon.com/LEGO-30302-Ultimate-Spider-Man-Polybag/dp/B00K5TK0AG/ref=sr_1_1?dchild=1&amp;keywords=LEGO+Marvel+Super+Heroes+30302+Ultimate+Spider-Man+Glider+Polybag&amp;qid=1620209723&amp;sr=8-1"/>
+    <hyperlink ref="A334" r:id="rId332" display="https://www.amazon.com/Cascade-Platinum-Dishwasher-Detergent-Actionpacs/dp/B07CTQ8THP/ref=sr_1_1?dchild=1&amp;keywords=Cascade+Platinum+Plus+Dishwasher+Pods%2C+ActionPacs+Detergent%2C+Lemon%2C+70+Count&amp;qid=1620669825&amp;sr=8-1"/>
+    <hyperlink ref="A335" r:id="rId333" display="https://www.amazon.com/Supplement-Melatonin-L-Theanine-Chamomile-BlackBerry/dp/B07H8NZZJB/ref=sr_1_4?dchild=1&amp;keywords=Olly+Sleep+Melatonin+Gummy%2C+3Mgper+Serving%2C+All+Natural+Flavor+%26+Colors.+35+Day+Supply+%2870+Gummies%29%2C+L+Theanine%2C+Chamomile%2C+Lemon+Balm&amp;qid=1620218078&amp;sr=8-4"/>
+    <hyperlink ref="A336" r:id="rId334" display="https://www.amazon.com/Finish-5170078234-NULL-75-O/dp/B000VDRF18/ref=sr_1_1?dchild=1&amp;keywords=Finish+Powder+Dishwasher+Detergent%2C+Lemon+Fresh+Scent%2C+75+oz%28Pack+of+2%29&amp;qid=1620218354&amp;sr=8-1"/>
+    <hyperlink ref="A337" r:id="rId335" display="https://www.amazon.com/COSRX-Advanced-Snail-Essence-Renewal/dp/B07N3SMBRM/ref=sr_1_1?dchild=1&amp;keywords=%28+2pack+%29+%5B+COSRX+%5D+Advanced+Snail+96+Mucin+Power+Essence+100ml&amp;qid=1620219518&amp;sr=8-1"/>
+    <hyperlink ref="A338" r:id="rId336" display="https://www.amazon.com/Affresh-W10282479-Dishwasher-Cleaner-Tablets/dp/B002R0DXQE/ref=sr_1_14?dchild=1&amp;keywords=Affresh+W10282479+Dishwasher+Cleaner%2C+6+Tablets&amp;qid=1620220225&amp;sr=8-14"/>
+    <hyperlink ref="A339" r:id="rId337" display="https://www.amazon.com/SweetLeaf-Natural-Stevia-Sweetener-70/dp/B00430EJR8/ref=sr_1_1?dchild=1&amp;keywords=Sweetleaf+Sweetener+Packets+70+ct%2C+70+PC+%28Pack+of+3%29&amp;qid=1620220697&amp;sr=8-1"/>
+    <hyperlink ref="A340" r:id="rId338" display="https://www.amazon.com/Resolve-Professional-Strength-Carpet-Cleaner/dp/B011O2T8A0/ref=sr_1_1?dchild=1&amp;keywords=Resolve+Professional+Strength+Spot+and+Stain+Carpet+Cleaner%2C+32+oz&amp;qid=1620230976&amp;sr=8-1"/>
+    <hyperlink ref="A341" r:id="rId339" display="https://www.amazon.com/AIMAIAIMAI-Silicone-Bathroom-Draining-Waterfall/dp/B08B4TT9QM/ref=sr_1_1?dchild=1&amp;keywords=HEMOTON+3pcs+Soap+Holder+Lightweight+Portable+Soap+Saver+Easy+Cleaning+Soap+Dish+with+Drain+Soap+Box+for+Bathroom+Shower+%28Creamy+White%29&amp;qid=1620233411&amp;sr=8-1"/>
+    <hyperlink ref="A342" r:id="rId340" display="https://www.amazon.com/Popular-Bath-Dispenser-Lotion-Collection/dp/B004GXAJ12/ref=sr_1_2?dchild=1&amp;keywords=Popular+Bath+Phoenix+Beige+%26+Copper+Bath+Collection+Tumbler+Hand+Crafted&amp;qid=1620235461&amp;sr=8-2"/>
+    <hyperlink ref="A343" r:id="rId341" display="https://www.amazon.com/Chef-Craft-12001-6-Silver/dp/B001WS77SC/ref=sr_1_2?dchild=1&amp;keywords=Short+Turner+Grey+Nylon+Select&amp;qid=1620240052&amp;sr=8-2"/>
+    <hyperlink ref="A344" r:id="rId342" display="https://www.amazon.com/Chef-Craft-13010-Premium-Silicone/dp/B01BKAU5WQ/ref=sr_1_2?dchild=1&amp;keywords=Chef+Craft+Premium+Red+Silicone+Turner%2FSpatula&amp;qid=1620240178&amp;sr=8-2"/>
+    <hyperlink ref="A345" r:id="rId343" display="https://www.amazon.com/Chef-Craft-13010-Premium-Silicone/dp/B01BKAU66G/ref=sr_1_2?dchild=1&amp;keywords=Chef%2BCraft%2BPremium%2BRed%2BSilicone%2BTurner%2FSpatula&amp;qid=1620240178&amp;sr=8-2&amp;th=1"/>
+    <hyperlink ref="A346" r:id="rId344" display="https://www.amazon.com/Spatula-Resistant-Silicone-Stainless-Steel/dp/B015W8IUQU/ref=sr_1_18_sspa?dchild=1&amp;keywords=Chef+Craft+Premium+Orange+Silicone+Spatula&amp;qid=1620240508&amp;sr=8-18-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFQMkpLNzVWUDFSMkYmZW5jcnlwdGVkSWQ9QTA0NDM2NDIySVRFQ1pXT1BYOEFXJmVuY3J5cHRlZEFkSWQ9QTA1OTgxNjcyWlNBS1ZBTUFJM09SJndpZGdldE5hbWU9c3BfbXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A347" r:id="rId345" display="https://www.amazon.com/Chef-Craft-13465-11-Blue/dp/B01BKAUK7G/ref=sr_1_2_sspa?dchild=1&amp;keywords=Chef+Craft+Premium+Blue+Silicone+Spatula&amp;qid=1620240696&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyQTlZUjJUSTAwTlMzJmVuY3J5cHRlZElkPUEwNDM5NTgyNVhTTUZPMko1S0Q3JmVuY3J5cHRlZEFkSWQ9QTAyOTE0MzIySk9JVFI1TUVLNVY2JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A348" r:id="rId346" display="https://www.amazon.com/Deiss-Citrus-Zester-Cheese-Grater/dp/B0738C7RXF/ref=sr_1_2?dchild=1&amp;keywords=DI+ORO+2-Piece+Kitchen+Grater+Set+%E2%80%93+Handheld+Coarse+Cheese+Grater+and+Fine+Lemon+Zester+%E2%80%93+Effortlessly+Grates+All+Food+Types+and+Cleans+Easy+%E2%80%93+Ergonomic+Comfort+Grip+and+Razor+Sharp+Stainless+Steel&amp;qid=1620241006&amp;s=home-garden&amp;sr=1-2"/>
+    <hyperlink ref="A349" r:id="rId347" display="https://www.amazon.com/YFWOOD-Basting-Replacement-Grilling-Smoking/dp/B07WBY55V4/ref=sr_1_1?dchild=1&amp;keywords=Cotonie+BBQ+Basting+Mops+18+Inch+Grill+Basting+Brush+Wooden+Long+Handle+with&amp;qid=1620283239&amp;sr=8-1"/>
+    <hyperlink ref="A350" r:id="rId348" display="https://www.amazon.com/hblife-Acrylic-Decorative-Rhinestones-Bathroom/dp/B077F7XKZH/ref=pd_rhf_se_s_gcx-rhf_1?pd_rd_w=PqZa1&amp;pf_rd_p=2ae4ccb1-7034-4114-8654-5ba995870d70&amp;pf_rd_r=JTB83BNP55BQ7SR5WFCN&amp;pd_rd_r=0ef5e942-9a8a-4160-b8de-f379ddd753c6&amp;pd_rd_wg=ccf8f&amp;pd_rd_i=B01N2Z2YQ4&amp;th=1"/>
+    <hyperlink ref="A351" r:id="rId349" display="https://www.amazon.com/YATTICH-Electric-Patterns-Furniture-YT-191/dp/B083CZ6ZQ5/ref=sr_1_1?dchild=1&amp;keywords=PaintWIZ+HandHeld+Paint+Sprayer+PRO%2C+PW25150+HVLP+Spray+Gun+Spray+System&amp;qid=1620287397&amp;sr=8-1"/>
+    <hyperlink ref="A352" r:id="rId350" display="https://www.amazon.com/YATTICH-Sprayer-Patterns-Furniture-Cabinets/dp/B08THKLXKL/ref=sr_1_1?dchild=1&amp;keywords=Yattich+Paint+Sprayer%2C+700W+High+Power+Hvlp+Spray+Gun+With+5+Copper+Nozzles+%26+3+Patterns%2C+Easy+To+Spray+And+Clean%2C+For+Furniture%2C+Cabinets%2C+Fence%2C+Railing%2C+Garden+Chairs+Etc.+Yt-201-A+%28Yellow%29&amp;qid=1620287678&amp;sr=8-1"/>
+    <hyperlink ref="A353" r:id="rId351" display="https://www.amazon.com/YATTICH-Sprayer-Patterns-Furniture-Cabinets/dp/B089YV1D4K/ref=sr_1_1?dchild=1&amp;keywords=YATTICH+Paint+Sprayer%2C+700W+High+Power+HVLP+Spray+Gun%2C+5+Copper+Nozzles+%26+3+Patterns%2C+Easy+to+Clean%2C+for+Furniture%2C+Cabinets%2C+Fence%2C+Car%2C+Bicycle%2C+Garden+Chairs+etc.+YT-201-A&amp;qid=1620287736&amp;sr=8-1"/>
+    <hyperlink ref="A354" r:id="rId352" display="https://www.amazon.com/Dicfeos-Container-Furniture-Spraying-Cleaning/dp/B082HGH48D/ref=sr_1_1?dchild=1&amp;keywords=Dicfeos+Paint+Sprayer%2C+700W+High+Power+Hvlp+Home+Spray+Gun+With+1300Ml+Container%2C+4+Nozzle+Sizes+For+Fence%2C+Cabinet+And+Furniture%2C+Easy+Spraying+And+Cleaning&amp;qid=1620287842&amp;sr=8-1"/>
+    <hyperlink ref="A355" r:id="rId353" display="https://www.amazon.com/Tooluxe-31209L-Cleaning-Maintenance-Complete/dp/B00GGQKK52/ref=sr_1_11?dchild=1&amp;keywords=4+Piece+HVLP+Air+Powered+Gravity+Feed+Fed+and+Pot+Spray+Gun+Paint+Sprayer+Set&amp;qid=1620288164&amp;sr=8-11"/>
+    <hyperlink ref="A356" r:id="rId354" display="https://www.amazon.com/Cuisipro-Silicone-Wok-Turner-12-5-Inch/dp/B00TZLUOJW/ref=sr_1_5?dchild=1&amp;keywords=Cuisipro+Silicone+%26+Stainless+Steel+Wok+Turner%2C+Red&amp;qid=1620289526&amp;sr=8-5"/>
+    <hyperlink ref="A357" r:id="rId355" display="https://www.amazon.com/KitchenAid-KO038OHOBA-Gourmet-Cookie-Lifter/dp/B07TMR7THF/ref=sr_1_22?dchild=1&amp;keywords=oxo+good+grips+silicone+cookie+spatula&amp;qid=1620290418&amp;sr=8-22"/>
+    <hyperlink ref="A358" r:id="rId356" display="https://www.amazon.com/KitchenAid-KO031OHOBA-Gourmet-Scraper-Spatula/dp/B07TMR8B28/ref=sr_1_1?dchild=1&amp;keywords=KitchenAid+KO031OHOBA+Gourmet+Scraper+Spatula%2C+one+size%2C+Matte+Black&amp;qid=1620290560&amp;sr=8-1"/>
+    <hyperlink ref="A359" r:id="rId357" display="https://www.amazon.com/KitchenAid-KO031OHOBA-Gourmet-Scraper-Spatula/dp/B07TLNSW2Z/ref=sr_1_1?dchild=1&amp;keywords=KitchenAid%2BKO031OHOBA%2BGourmet%2BScraper%2BSpatula%2C%2Bone%2Bsize%2C%2BMatte%2BBlack&amp;qid=1620290560&amp;sr=8-1&amp;th=1"/>
+    <hyperlink ref="A360" r:id="rId358" display="https://www.amazon.com/KitchenAid-KO031OHOBA-Gourmet-Scraper-Spatula/dp/B07TPYD8N2/ref=sr_1_1?dchild=1&amp;keywords=KitchenAid%2BKO031OHOBA%2BGourmet%2BScraper%2BSpatula%2C%2Bone%2Bsize%2C%2BMatte%2BBlack&amp;qid=1620290560&amp;sr=8-1&amp;th=1"/>
+    <hyperlink ref="A361" r:id="rId359" display="https://www.amazon.com/Joseph-UNITG0100SW-Uni-Tool-Utensil-Slotted/dp/B002STMD0Q/ref=sr_1_10?dchild=1&amp;keywords=Two-in-one+Turners+Silicone+Spatula+For+Frying+Steak+High+Temperature+Resistance+Household+Kitchen+Tools&amp;qid=1620301788&amp;sr=8-10"/>
+    <hyperlink ref="A362" r:id="rId360" display="https://www.amazon.com/Lifewit-Laundry-Freestanding-Water-Resistant-Bathroom/dp/B07CWSCN3L/ref=sr_1_1?dchild=1&amp;keywords=Outtop+Waterproof+Sheets+Laundry+Clothes+Laundry+Basket+Storage+Basket+Folding+Storage&amp;qid=1620302819&amp;sr=8-1"/>
+    <hyperlink ref="A363" r:id="rId361" display="https://www.amazon.com/Tovolo-Tight-Fitting-Stacking-Sweet-Treat/dp/B00JRXQ6CC/ref=sr_1_2?dchild=1&amp;keywords=Tovolo+Mini+Melamine+Berry+Colander+-+Blue&amp;qid=1620456938&amp;s=home-garden&amp;sr=1-2"/>
+    <hyperlink ref="A364" r:id="rId362" display="https://www.amazon.com/Regency-Natural-Cooking-Twine-Cotton/dp/B002NU6HOI/ref=sr_1_4?dchild=1&amp;keywords=Regency+Natural+Ultra+Fine+100%25+Cotton+Cheesecloth+9+sq.ft&amp;qid=1620458645&amp;sr=8-4"/>
+    <hyperlink ref="A365" r:id="rId363" display="https://www.amazon.com/Cuisinart-CTG-00-3MS-Stainless-Steel-Strainers/dp/B007TUQF9O/ref=sr_1_1?dchild=1&amp;keywords=cuisinart+set+of+3+fine+mesh+stainless+steel+strainer&amp;qid=1620458776&amp;sr=8-1"/>
+    <hyperlink ref="A366" r:id="rId364" display="https://www.amazon.com/Fengbao-2PCS-Kitchen-Sink-Strainer/dp/B01CWXLMB8/ref=sr_1_1?dchild=1&amp;keywords=Unique+Bargains+Kitchen+Stainless+Steel+Round+Shape+Mesh+Screen+Sink+Strainer+8.5cm+Dia+2+Pcs&amp;qid=1620460669&amp;sr=8-1"/>
+    <hyperlink ref="A367" r:id="rId365" display="https://www.amazon.com/AquaBliss-Output-12-Stage-Shower-Filter/dp/B01MUBU0YC/ref=sr_1_3?dchild=1&amp;keywords=Cloth+coffee+strainer+colador.+Wood+handle+with+metal+ring.+Pack+of+3&amp;qid=1620460797&amp;sr=8-3"/>
+    <hyperlink ref="A368" r:id="rId366" display="https://www.amazon.com/AquaDance-Experience-Officially-Independently-Performance/dp/B07WGWHV2G/ref=sr_1_2?dchild=1&amp;keywords=AquaDance%2B7%22%2BPremium%2BHigh%2BPressure%2B3-Way%2BRainfall%2BCombo%2Bwith%2BStainless%2BSteel%2BHose%2B%E2%80%93%2BEnjoy%2BLuxurious%2B6-setting%2BRain%2BShower%2BHead%2Band%2BHand%2BHeld%2BShower%2BSeparately%2Bor%2BTogether%2B%E2%80%93%2BBrushed%2BNickel%2BFinish&amp;qid=1620460967&amp;sr=8-2&amp;th=1"/>
+    <hyperlink ref="A369" r:id="rId367" display="https://www.amazon.com/Resistance-Bands-Set-Accessories-Stackable/dp/B08J7ZL2P1/ref=sr_1_4_sspa?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-4-spons&amp;psc=1&amp;smid=A3DXZQUC71AZXG&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFZVUw0S1VVV1dTTFUmZW5jcnlwdGVkSWQ9QTA2OTQ1MDEzTTVDREU3SlI5QkUwJmVuY3J5cHRlZEFkSWQ9QTAyODkzOTMzMEoySUZTS0xQSjI3JndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A370" r:id="rId368" display="https://www.amazon.com/Sunny-Health-Fitness-Elliptical-Frictionless/dp/B07QZHNWK8/ref=sr_1_5?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-5"/>
+    <hyperlink ref="A371" r:id="rId369" display="https://www.amazon.com/Sunny-Health-Fitness-Treadmill-Mat/dp/B0786PLYTR/ref=sr_1_21?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-21"/>
+    <hyperlink ref="A372" r:id="rId370" display="https://www.amazon.com/Giotto-Gallon-Motivational-Paracord-Removable/dp/B0878R9YQN/ref=sr_1_25?dchild=1&amp;keywords=Fitness&amp;qid=1620467755&amp;sr=8-25"/>
+    <hyperlink ref="A373" r:id="rId371" display="https://www.amazon.com/Brieftons-Glass-Water-Bottles-Stainless/dp/B01DN6001G/ref=sr_1_2?dchild=1&amp;keywords=Borosilicate+Glass+Water+Bottle%2C+BPA+Free+Glass+Drinking+Bottle+with+Neoprene+Sleeve+and+Leak-Proof+Stainless+Steel+Lid%2832oz+Wine+red%29&amp;qid=1620469331&amp;sr=8-2"/>
+    <hyperlink ref="A374" r:id="rId372" display="https://www.amazon.com/Hygge-Games-Should-Known-Trivia/dp/B0778TY7XP/ref=sr_1_6?dchild=1&amp;keywords=Board+games&amp;qid=1620469601&amp;sr=8-6"/>
+    <hyperlink ref="A375" r:id="rId373" display="https://www.amazon.com/Hasbro-Gaming-Kingdom-Adventures-Exclusive/dp/B00000DMF5/ref=sr_1_7?dchild=1&amp;keywords=Board+games&amp;qid=1620469601&amp;sr=8-7"/>
+    <hyperlink ref="A376" r:id="rId374" display="https://www.amazon.com/Jax-8002-Sequence-Game/dp/B00000IVAK/ref=sr_1_15?dchild=1&amp;keywords=Board+games&amp;qid=1620469601&amp;sr=8-15"/>
+    <hyperlink ref="A377" r:id="rId375" display="https://www.amazon.com/Hasbro-Gaming-Board-Amazon-Exclusive/dp/B06XY48MK1/ref=sr_1_28?dchild=1&amp;keywords=Board+games&amp;qid=1620472803&amp;sr=8-28"/>
+    <hyperlink ref="A378" r:id="rId376" display="https://www.amazon.com/Hunt-Killer-Immersive-Independent-Detectives/dp/B085ZNYPR3/ref=sr_1_35?dchild=1&amp;keywords=Board+games&amp;qid=1620472803&amp;sr=8-35"/>
+    <hyperlink ref="A379" r:id="rId377" display="https://www.amazon.com/ThinkFun-Zingo-Builder-Early-Reading/dp/B00GRV5JMU/ref=sr_1_2?dchild=1&amp;keywords=ThinkFun+Zingo+Word+Builder+Early+Reading+Game+-+Award+Winning+Game+for+Pre-Readers+and+Early+Readers&amp;qid=1620474435&amp;sr=8-2"/>
+    <hyperlink ref="A380" r:id="rId378" display="https://www.amazon.com/ThinkFun-Zingo-Sight-Words-Reading/dp/B008RU8GC4/ref=sr_1_1?dchild=1&amp;keywords=ThinkFun+Zingo+Sight+Words+Award+Winning+Early+Reading+Game+for+Pre-K+to+2nd+Grade+-+Toy+of+the+Year+Finalist%2C+A+Fun+and+Educational+Game+Developed+by+Educators+for+Boys+and+Girls+-+Style%3A+Zingo+Sight&amp;qid=1620474522&amp;sr=8-1"/>
+    <hyperlink ref="A381" r:id="rId379" display="https://www.amazon.com/Skin-Scrubber-Blackhead-Comedones-Extractor/dp/B07TY46K8Q/ref=sr_1_1?dchild=1&amp;keywords=facial+product&amp;qid=1620068599&amp;sr=8-1"/>
+    <hyperlink ref="A382" r:id="rId380" display="https://www.amazon.com/Humidifier-Atomizer-Moisturizing-Cleansing-Blackhead/dp/B07MFKH5NS/ref=sxin_10?asc_contentid=amzn1.osa.0652660b-f329-4157-8db2-53c85f209d43.ATVPDKIKX0DER.en_US&amp;asc_contenttype=article&amp;ascsubtag=amzn1.osa.0652660b-f329-4157-8db2-53c85f209d43.ATVPDKIKX0DER.en_US&amp;creativeASIN=B07MFKH5NS&amp;cv_ct_cx=facial+product&amp;cv_ct_id=amzn1.osa.0652660b-f329-4157-8db2-53c85f209d43.ATVPDKIKX0DER.en_US&amp;cv_ct_pg=search&amp;cv_ct_we=asin&amp;cv_ct_wn=osp-single-source-pecos-desktop&amp;dchild=1&amp;keywords=facial+product&amp;linkCode=oas&amp;pd_rd_i=B07MFKH5NS&amp;pd_rd_r=375d9f2f-9fa1-4ee0-ac56-a1c765e16127&amp;pd_rd_w=ENvc2&amp;pd_rd_wg=O7LSJ&amp;pf_rd_p=9ca0c43d-5b2f-4d08-be2c-4bf20950d3e4&amp;pf_rd_r=9CMXCS2GSJ8286ADTP0A&amp;qid=1620068599&amp;sr=1-3-c26ac7f6-b43f-4741-a772-17cad7536576&amp;tag=buyersguide0e-20"/>
+    <hyperlink ref="A383" r:id="rId381" display="https://www.amazon.com/Cr%C3%A9pe-Erase-Advanced-Restorative-Introductory/dp/B07SQPSMC6/ref=pd_rhf_se_s_sspa_dk_rhf_search_pt_sub_0_1/138-3300996-7449919?_encoding=UTF8&amp;pd_rd_i=B07SQPSMC6&amp;pd_rd_r=d6fa41a2-f1a4-46c4-b4a1-a78f4a414158&amp;pd_rd_w=bueh9&amp;pd_rd_wg=Doxtp&amp;pf_rd_p=e680275b-9049-45d9-8358-fb967c5fbab8&amp;pf_rd_r=ATTEC5JQWA1H4PQ66D0K&amp;psc=1&amp;refRID=ATTEC5JQWA1H4PQ66D0K&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyTUZWQjE1OVFIOFdDJmVuY3J5cHRlZElkPUEwNTE2ODMxM0paTjhXN1VNTDNJNCZlbmNyeXB0ZWRBZElkPUEwMDM0MjQ5MVI2QVZGUTFKT0ZCViZ3aWRnZXROYW1lPXNwX3JoZl9zZWFyY2hfcGVyc29uYWxpemVkJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A384" r:id="rId382" display="https://www.amazon.com/Cocktail-Shaker-Bar-Set-Cresimo/dp/B07T4SDTQC/ref=sr_1_50?crid=31BSX5OQFUZIB&amp;dchild=1&amp;keywords=home+accessories&amp;qid=1620071025&amp;sprefix=home+a%2Caps%2C548&amp;sr=8-50"/>
+    <hyperlink ref="A385" r:id="rId383" display="https://www.amazon.com/Mixology-Bartender-Kit-Bartending-Experience/dp/B07DZS2VXJ/ref=sr_1_4?dchild=1&amp;keywords=Mixology+Bartender+Kit%3A+11-Piece+Bar+Tool+Set+with+Rustic+Wood+Stand+-+Perfect+Home+Bartending+Kit+and+Cocktail+Shaker+Set+For+an+Awesome+Drink+Mixing+Experience+%28Silver%29&amp;qid=1620072412&amp;s=home-garden&amp;sr=1-4"/>
+    <hyperlink ref="A386" r:id="rId384" display="https://www.amazon.com/PharMeDoc-Pregnancy-Maternity-Detachable-Extension/dp/B07JR3T1G6/ref=sr_1_14?crid=21VRBFZZUDLUH&amp;dchild=1&amp;keywords=body+pillow&amp;qid=1620072930&amp;sprefix=body%2Caps%2C506&amp;sr=8-14"/>
+    <hyperlink ref="A387" r:id="rId385" display="https://www.amazon.com/Beauticom-Acrylic-Cosmetics-Ointments-Products/dp/B01KU3UPSS/ref=sr_1_19?crid=34EEIEX1LS3N0&amp;dchild=1&amp;keywords=hair%2Bproducts&amp;qid=1620119084&amp;s=apparel&amp;sprefix=hair%2Bpro%2Cfashion%2C431&amp;sr=1-19&amp;th=1"/>
+    <hyperlink ref="A388" r:id="rId386" display="https://www.amazon.com/Microfiber-26inch-Purple-Absorbent-Turban/dp/B07R6PQVW5/ref=sr_1_2_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Hair%2BDrying%2BTowels&amp;qid=1620124895&amp;s=beauty&amp;sr=1-2-spons&amp;ts_id=3784491&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzQlI0WVpVTkVPSFFWJmVuY3J5cHRlZElkPUEwMTI5NzQ0MklIOEI1MFZOMDFYNCZlbmNyeXB0ZWRBZElkPUEwMjk5MDg5M1RVV1NVTU8zRFcyNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
+    <hyperlink ref="A389" r:id="rId387" display="https://www.amazon.com/Microfiber-26inch-Purple-Absorbent-Turban/dp/B07KM3CMZM/ref=sr_1_2_sspa?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Hair%2BDrying%2BTowels&amp;qid=1620124895&amp;s=beauty&amp;sr=1-2-spons&amp;ts_id=3784491&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzQlI0WVpVTkVPSFFWJmVuY3J5cHRlZElkPUEwMTI5NzQ0MklIOEI1MFZOMDFYNCZlbmNyeXB0ZWRBZElkPUEwMjk5MDg5M1RVV1NVTU8zRFcyNCZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
+    <hyperlink ref="A390" r:id="rId388" display="https://www.amazon.com/Conair-Double-Ceramic-Curling-1-inch/dp/B07CKKGR83/ref=sr_1_10?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Styling%2BTools%2B%26%2BAppliances&amp;qid=1620125463&amp;s=beauty&amp;sr=1-10&amp;ts_id=11058091&amp;th=1"/>
+    <hyperlink ref="A391" r:id="rId389" display="https://www.amazon.com/Conair-Double-Ceramic-Curling-1-inch/dp/B07CKT4DFR/ref=sr_1_10?_encoding=UTF8&amp;c=ts&amp;dchild=1&amp;keywords=Styling%2BTools%2B%26%2BAppliances&amp;qid=1620125463&amp;s=beauty&amp;sr=1-10&amp;ts_id=11058091&amp;th=1"/>
+    <hyperlink ref="A392" r:id="rId390" display="https://www.amazon.com/Utoplike-Bathtub-Extending-Relaxing-Organizer/dp/B07H3MYDWJ/ref=sr_1_5?dchild=1&amp;keywords=Utoplike+Bathtub+Caddy+Tray+Shelf+Across+Tub%2C+Bamboo+Expandable+Bath+Tub+Rack+Holds+Book+Wine+Glass+Towel+ipad+Phone+Food+Tablet+Soap+for+Bathroom+Spa&amp;qid=1620138925&amp;sr=8-5"/>
+    <hyperlink ref="A393" r:id="rId391" display="https://www.amazon.com/Mind-Reader-3TOILR-BLK-Accessories-Organizer/dp/B07N9F5HL6/ref=sr_1_2_sspa?dchild=1&amp;keywords=Mind+Reader+3TOILR-BLK+3+Tier+Organizer%2C+Bathroom+Space+Saver%2C+Over+The+Toilet+Rack%2C+Black&amp;qid=1620139837&amp;sr=8-2-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzVDI2NExQUERJTEQ3JmVuY3J5cHRlZElkPUEwNjEyOTc1UEYwVjNaRVMwQ1VMJmVuY3J5cHRlZEFkSWQ9QTAzMjQwOTkzMTc4QVk2Njc5UVpBJndpZGdldE5hbWU9c3BfYXRmJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A394" r:id="rId392" display="https://www.amazon.com/Luxetique-Lavender-Drawstring-Birthday-Christmas/dp/B07TVR4836/ref=sr_1_1?dchild=1&amp;keywords=Spa+Luxetique+Spa+Gift+Baskets%2C+Spa+Gift+Box%2C+Lavender+Bath+Set%2C+6+Pcs+Home+Spa+Set+Includes+Body+Lotion%2C+Shower+Gel%2C+Bubble+Bath%2C+Hand+Cream%2C+Travel+Bag.+Best+Gift+Sets+for+Women.&amp;qid=1620140111&amp;sr=8-1"/>
+    <hyperlink ref="A395" r:id="rId393" display="https://www.amazon.com/dp/B07F38QHYW?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
+    <hyperlink ref="A396" r:id="rId394" display="https://www.amazon.com/dp/B07JQF1YY1?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
+    <hyperlink ref="A397" r:id="rId395" display="https://www.amazon.com/dp/B07G7Z88CV?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
+    <hyperlink ref="A398" r:id="rId396" display="https://www.amazon.com/dp/B07P1KFDT5?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-0&amp;ref=aa_pcomp_patf1&amp;th=1"/>
+    <hyperlink ref="A399" r:id="rId397" display="https://www.amazon.com/Bomb-Fortune-telling-Purple-Mystic/dp/B01LZHZN7A/ref=sr_1_1?dchild=1&amp;keywords=Da+Bomb+Fortune+Telling+Bath+Bomb%2C+Blue%2FPurple&amp;qid=1620195410&amp;sr=8-1"/>
+    <hyperlink ref="A400" r:id="rId398" display="https://www.amazon.com/Bomb-Tattoo-Yellow-Sandalwood-Ounce/dp/B07CTQ35XQ/ref=sr_1_6?dchild=1&amp;keywords=Set+of+4+-+Da+Bomb+Bath+Fizzers+Cupid+Bath+Bomb+-+3.5oz+-+Strawberry+Scent&amp;qid=1620195581&amp;sr=8-6"/>
+    <hyperlink ref="A401" r:id="rId399" display="https://www.amazon.com/Bomb-Dragon-White-Fresh-Ounce/dp/B07CV8KDPW/ref=sr_1_7?dchild=1&amp;keywords=Set+of+4+-+Da+Bomb+Bath+Fizzers+Cupid+Bath+Bomb+-+3.5oz+-+Strawberry+Scent&amp;qid=1620195581&amp;sr=8-7"/>
+    <hyperlink ref="A402" r:id="rId400" display="https://www.amazon.com/Bomb-Treasure-bomb-Gold-Coconut/dp/B0764HJSWD/ref=sr_1_24?dchild=1&amp;keywords=Set+of+4+-+Da+Bomb+Bath+Fizzers+Cupid+Bath+Bomb+-+3.5oz+-+Strawberry+Scent&amp;qid=1620195581&amp;sr=8-24"/>
+    <hyperlink ref="A403" r:id="rId401" display="https://www.amazon.com/V-TOP-Stopper-Silicone-Bathtub-Bathroom/dp/B076JD153W/ref=sr_1_100_sspa?dchild=1&amp;keywords=bath+product&amp;qid=1620198807&amp;sr=8-100-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUE4TERXSUNZNFZLSVAmZW5jcnlwdGVkSWQ9QTAwNjkxMTUzRUJJVkRQSFdQQkFKJmVuY3J5cHRlZEFkSWQ9QTA0NTkwNTRCNDYyVFFTTzgxTUsmd2lkZ2V0TmFtZT1zcF9hdGZfbmV4dCZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A404" r:id="rId402" display="https://www.amazon.com/Bomb-Fairy-Purple-Buttercup-Ounce/dp/B07CTKH9BT/ref=sr_1_1?dchild=1&amp;keywords=Da+Bomb+Fairy+Bath+Bomb&amp;qid=1620196682&amp;sr=8-1"/>
+    <hyperlink ref="A405" r:id="rId403" display="https://www.amazon.com/dp/B003E2PGMI?tag=amz-mkt-chr-us-20&amp;ascsubtag=1ba00-01000-a0027-win10-other-nomod-us000-pcomp-feature-pcomp-wm-8&amp;ref=aa_pcomp_patf1"/>
+    <hyperlink ref="A406" r:id="rId404" display="https://www.amazon.com/dp/B07TV9B4DV/ref=twister_B07YF3FRFM?_encoding=UTF8&amp;psc=1"/>
+    <hyperlink ref="A407" r:id="rId405" display="https://www.amazon.com/amFilm-Tempered-Screen-Protector-Nintendo-Switch/dp/B01N3ASPNV/ref=sr_1_2?dchild=1&amp;keywords=DWK+Animal+Napkin+and+Salt+and+Pepper+Holder%7CNapkin+Holders+for+Tables%7CNapkin+Holders+for+Kitchen%7CKitchen+Table+Decor%7CSalt+and+Pepper+Shaker%7CKitchen+Decor+-White+Tiger&amp;qid=1620203312&amp;sr=8-2"/>
+    <hyperlink ref="A408" r:id="rId406" display="https://www.amazon.com/Umite-Chef-Utensils-Non-stick-Resistant/dp/B087TDMVM8/ref=sr_1_3?dchild=1&amp;keywords=Umite+Chef+Kitchen+Cooking+Utensils+Set%2C+24+pcs+Non-stick+Silicone+Cooking+Kitchen+Utensils+Spatula+Set+with+Holder%2C+Wooden+Handle+Heat+Resistant+Silicone+Kitchen+Gadgets+Utensil+Set+%28Colorful%29&amp;qid=1620206984&amp;sr=8-3"/>
+    <hyperlink ref="A409" r:id="rId407" display="https://www.amazon.com/Kitchen-Gizmo-Snap-Strain-Red/dp/B081FGJHC9/ref=sr_1_13?dchild=1&amp;keywords=kitchen%2Baccesories&amp;qid=1620206628&amp;sr=8-13&amp;th=1"/>
+    <hyperlink ref="A410" r:id="rId408" display="https://www.amazon.com/Porcelain-Condiment-Spice-Container-Lids/dp/B076H6459H/ref=sr_1_1?dchild=1&amp;keywords=Porcelain+Condiment+Jar+Spice+Container+with+Lids+-+Bamboo+Cap+Holder+Spot%2C+Ceramic+Serving+Spoon%2C+Wooden+Tray+-+Best+Pottery+Cruet+Pot+for+Your+Home%2C+Kitchen%2C+Counter.+White%2C170+ML+%285.8+OZ%29%2C+Set+of+3&amp;qid=1620208007&amp;s=home-garden&amp;sr=1-1"/>
+    <hyperlink ref="A411" r:id="rId409" display="https://www.amazon.com/Sweejar-Royal-Ceramic-Sugar-Creamer/dp/B07X94PLLQ/ref=bmx_4?pd_rd_w=9V8FT&amp;pf_rd_p=b56a886c-2bb4-4e74-b4cf-23d7a76693c8&amp;pf_rd_r=JS8NVY0SC4RBPHD70PYW&amp;pd_rd_r=cc41db8e-ce42-4a13-9599-e25a93326282&amp;pd_rd_wg=28l8o&amp;pd_rd_i=B07X7Z961K&amp;th=1"/>
+    <hyperlink ref="A412" r:id="rId410" display="https://www.amazon.com/DOAROCA-Electric-Efficiency-Stainless-Attachments/dp/B08LGC65Y9/ref=sr_1_1?dchild=1&amp;keywords=DOAROCA+Electric+Hand+Mixer+5+Speed+Handhold+Mixer%2C+400w+Ultra+Power+High+Speed+%26+Efficiency+Kitchen+Mixer+with+6+Stainless+Steel+Attachments%2C+Storage+Stand&amp;qid=1620212223&amp;sr=8-1"/>
+    <hyperlink ref="A413" r:id="rId411" display="https://www.amazon.com/Grant-Howard-Rooster-Vinegar-Multicolor/dp/B001Q8I1WE/ref=sr_1_1?dchild=1&amp;keywords=Grant+Howard+39264+Rooster+Glass+Oil+%26+Vinegar+Cruet+Dispenser+Bottle%2C+16+Ounce&amp;qid=1620212739&amp;sr=8-1"/>
+    <hyperlink ref="A414" r:id="rId412" display="https://www.amazon.com/Function-Overload-Protection-Certification-Supports/dp/B07Q2P77JL/ref=sr_1_1?dchild=1&amp;keywords=Smart+Plug+Gosund+15A+Smart+Home+WiFi+Outlet+Work+with+Alexa+Google+Home%2C4+Pack+Mini+Socket+with+Timer+Function+and+Overload+Protection%2C+Support+High+Power+Appliance%2C+Fcc&amp;qid=1620224150&amp;sr=8-1"/>
+    <hyperlink ref="A415" r:id="rId413" display="https://www.amazon.com/Amazer-Toothbrush-Stainless-Toothpaste-Multi-Functional/dp/B07BMVGH5H/ref=sr_1_34?crid=26Z23Y4QOOX8W&amp;dchild=1&amp;keywords=home+assecories&amp;qid=1620224076&amp;sprefix=home+assec%2Caps%2C420&amp;sr=8-34"/>
+    <hyperlink ref="A416" r:id="rId414" display="https://www.amazon.com/Mason-Jar-Toothbrush-Holder-Accessories/dp/B07PFPFW3Z/ref=sr_1_1?dchild=1&amp;keywords=Mason%2BJar%2BToothbrush%2BHolder%2B-%2BBronze%2B-%2Bwith%2B16%2Bounce%2BBall%2BMason%2BJar%2CPremium%2BRustproof%2B304%2BStainless%2BSteel%2BLid%2Band%2BChalkboard%2BLabels%2B-%2BRustic%2BFarmhouse%2BDecor%2BBronze%2BBathroom%2BAccessories%2B%2F%2BBronze&amp;qid=1620225244&amp;sr=8-1&amp;th=1"/>
+    <hyperlink ref="A417" r:id="rId415" display="https://www.amazon.com/Mason-Jar-Toothbrush-Holder-Accessories/dp/B07PFPFW3Z/ref=sr_1_1?dchild=1&amp;keywords=Mason%2BJar%2BToothbrush%2BHolder%2B-%2BBronze%2B-%2Bwith%2B16%2Bounce%2BBall%2BMason%2BJar%2CPremium%2BRustproof%2B304%2BStainless%2BSteel%2BLid%2Band%2BChalkboard%2BLabels%2B-%2BRustic%2BFarmhouse%2BDecor%2BBronze%2BBathroom%2BAccessories%2B%2F%2BBronze&amp;qid=1620225244&amp;sr=8-1&amp;th=1"/>
+    <hyperlink ref="A418" r:id="rId416" display="https://www.amazon.com/Macaron-Acrylic-Handmade-Barettes-Accessories/dp/B07ZK64XZJ/ref=sr_1_2?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620239684&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-2"/>
+    <hyperlink ref="A419" r:id="rId417" display="https://www.amazon.com/Allucho-Headbands-Hairband-Accessories-Christmas/dp/B07WYLS2NP/ref=sr_1_8?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620239684&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-8"/>
+    <hyperlink ref="A420" r:id="rId418" display="https://www.amazon.com/Merroyal-Fascinator-Feathers-Headband-Favors/dp/B07Y76VMC7/ref=sr_1_51_sspa?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair%2Baccessories&amp;qid=1620241280&amp;s=apparel&amp;sprefix=hair%2B%2Cfashion%2C433&amp;sr=1-51-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyMktYWTA5TVdPUUUzJmVuY3J5cHRlZElkPUEwNzEyMDYyMzlQTzFRWkpHNFNZUyZlbmNyeXB0ZWRBZElkPUEwMzAyNjE3MTRZM0FHTTA5RUZRWSZ3aWRnZXROYW1lPXNwX2F0Zl9uZXh0JmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ&amp;th=1"/>
+    <hyperlink ref="A421" r:id="rId419" display="https://www.amazon.com/Segbeauty-Continuous-Aerosol-Trigger-Hairstyling/dp/B08BRKHM1H/ref=sr_1_64?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair%2Baccessories&amp;qid=1620241280&amp;s=apparel&amp;sprefix=hair%2B%2Cfashion%2C433&amp;sr=1-64&amp;th=1"/>
+    <hyperlink ref="A422" r:id="rId420" display="https://www.amazon.com/Relavel-Cosmetic-Organizer-Adjustable-Shoulder/dp/B087RMXZ3F/ref=sr_1_78?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620241280&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-78"/>
+    <hyperlink ref="A423" r:id="rId421" display="https://www.amazon.com/SWEETV-Jeweled-Baroque-Queen-Crown/dp/B074M6577N/ref=sr_1_177?crid=1R8K17NTD3C5M&amp;dchild=1&amp;keywords=hair+accessories&amp;qid=1620242681&amp;s=apparel&amp;sprefix=hair+%2Cfashion%2C433&amp;sr=1-177"/>
+    <hyperlink ref="A424" r:id="rId422" display="https://www.amazon.com/Furora-LIGHTING-Flameless-Operated-Flickering/dp/B07V3532SD/ref=sr_1_1_sspa?dchild=1&amp;keywords=room%2Bdecor&amp;qid=1620246120&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEyR0IzN0M0MVdCN1pWJmVuY3J5cHRlZElkPUEwMjU0MzUxMUtGM09IMkhRTjU1NyZlbmNyeXB0ZWRBZElkPUEwNjgyODU2M0tOSTM4TVdTUEZFWSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU&amp;th=1"/>
+    <hyperlink ref="A425" r:id="rId423" display="https://www.amazon.com/Steamer-Nano-Humidifier-Atomizer-Moisturizing-Stainless/dp/B0835669M4/ref=sr_1_1_sspa?crid=9TFHTVYT33T9&amp;dchild=1&amp;keywords=facial+steamer&amp;qid=1620248156&amp;sprefix=facial%2Caps%2C489&amp;sr=8-1-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFaMlNNWlQzM1k1VSZlbmNyeXB0ZWRJZD1BMDIzMjY3NDEyRTNTQldQNVlNSDYmZW5jcnlwdGVkQWRJZD1BMDk0OTE2ODFHS1VPWE1SQTJZOFUmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A426" r:id="rId424" display="https://www.amazon.com/Steamer-Nano-Humidifier-Atomizer-Moisturizing-Stainless/dp/B0878XF7B9/ref=sr_1_1_sspa?crid=9TFHTVYT33T9&amp;dchild=1&amp;keywords=facial%2Bsteamer&amp;qid=1620248156&amp;sprefix=facial%2Caps%2C489&amp;sr=8-1-spons&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUFaMlNNWlQzM1k1VSZlbmNyeXB0ZWRJZD1BMDIzMjY3NDEyRTNTQldQNVlNSDYmZW5jcnlwdGVkQWRJZD1BMDk0OTE2ODFHS1VPWE1SQTJZOFUmd2lkZ2V0TmFtZT1zcF9hdGYmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl&amp;th=1"/>
+    <hyperlink ref="A427" r:id="rId425" display="https://www.amazon.com/Jasfura-Spring-Flower-Decorative-Cushion/dp/B08R9JK5KS/ref=sr_1_5?dchild=1&amp;keywords=Popeven%2BSet%2Bof%2B4%2BSpring%2BTeal%2BFlower%2BThrow%2BPillow%2BCovers%2B18x18%2BInch%2BDecorative%2BCouch%2BPillow%2BCases%2BCotton%2BLinen%2BCase%2BSquare%2BCushion%2BCovers%2Bfor%2BLiving%2BRoom%2C%2BBed%2C%2BSofa%2Band%2BCar%2B(Teal)&amp;qid=1620279050&amp;s=home-garden&amp;sr=1-5&amp;th=1"/>
+    <hyperlink ref="A428" r:id="rId426" display="https://www.amazon.com/MIZON-Black-Snail-Repair-Cream/dp/B00B4PWEJU/ref=sr_1_1?dchild=1&amp;keywords=Premium+Snail+Repair+Cream%2C+Intensive+Care%2C+Korean+Skin+Care+With+Black+Snail+Mucin+%26+Plant+Extracts%2C+Facial+Moisturizing+Snail+Mucin+Extract%2C+Wrinkle+Care%2C+Blemish+Care+And+Firming+%2875Ml%2C+2.5+Fl+Oz%29&amp;qid=1620281171&amp;sr=8-1"/>
+    <hyperlink ref="A429" r:id="rId427" display="https://www.amazon.com/MIZON-Snail-Repair-Cream-75ml/dp/B00NTWT90I/ref=sr_1_5?dchild=1&amp;keywords=Korean+Skin+Care+Set%3A+Mizon%27s+All+in+One+Snail+Repair+Cream+2+Pack%2C+Face+Moisturizer+with+Snail+Mucin+Extract%2C+Anti-wrinkles%2C+Acne+Scars+and+Dark+Spots+Treatment%2C+5.06+Oz+%2875ml+x2%29&amp;qid=1620281454&amp;sr=8-5"/>
+    <hyperlink ref="A430" r:id="rId428" display="https://www.amazon.com/Mizon-Original-Skin-Energy-Hyaluronic/dp/B00HSFXEYO/ref=sr_1_16?dchild=1&amp;keywords=Mizon+All+In+One+Snail+Repair+Cream%2C+2.53+Oz&amp;qid=1620281745&amp;sr=8-16"/>
+    <hyperlink ref="A431" r:id="rId429" display="https://www.amazon.com/Cracked-Moisturizing-Soothing-Ingredients-Elbows/dp/B0872YW6BX/ref=sr_1_8?dchild=1&amp;keywords=Mizon+All+In+One+Snail+Repair+Cream%2C+2.53+Oz&amp;qid=1620281745&amp;sr=8-8"/>
+    <hyperlink ref="A432" r:id="rId430" display="https://www.amazon.com/COSRX-Hyaluronic-Intensive-Cream-100ml/dp/B072FH17NJ/ref=sr_1_22?dchild=1&amp;keywords=korean+cosmetics+elensilia+escargot+original+repair+cream+with+snail+extracts+50g%2B50g+2ea&amp;qid=1620281822&amp;sr=8-22"/>
+    <hyperlink ref="A433" r:id="rId431" display="https://www.amazon.com/Elensilia-French-Propolis-Resistem-Cream/dp/B00TP4GEE8/ref=sr_1_55?dchild=1&amp;keywords=korean+cosmetics+elensilia+escargot+original+repair+cream+with+snail+extracts+50g%2B50g+2ea&amp;qid=1620291125&amp;sr=8-55"/>
+    <hyperlink ref="A434" r:id="rId432" display="https://www.amazon.com/Essence-Moisturizing-Brighten-Nourishing-Collagen/dp/B07Z3WYFJ3/ref=sr_1_53?dchild=1&amp;keywords=korean+cosmetics+elensilia+escargot+original+repair+cream+with+snail+extracts+50g%2B50g+2ea&amp;qid=1620291125&amp;sr=8-53"/>
+    <hyperlink ref="A435" r:id="rId433" display="https://www.amazon.com/Stanley-Classic-Vacuum-Bottle-Hammertone/dp/B000FZX93K/ref=sr_1_4?dchild=1&amp;keywords=Roll+over+image+to+zoom+in+Stanley+Classic+Vacuum+Insulated+Wide+Mouth+Bottle+-+BPA-Free+18%2F8+Stainless+Steel+Thermos+for+Cold+and+Hot+Beverages+%E2%80%93+Keeps+Liquid+Hot+or+Cold+for+Up+to+24+Hours.1.1Qt&amp;qid=1620296112&amp;sr=8-4"/>
+    <hyperlink ref="A436" r:id="rId434" display="https://www.amazon.com/Clippers-Fingernail-Pedicure-Manicure-Stainless/dp/B07SVP4CWK/ref=sr_1_4_sspa?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-4-spons&amp;psc=1&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNlNVWjRSMlFaTzFKJmVuY3J5cHRlZElkPUEwMjIxMTkwMUFQQUpFQ1JGWEVJVyZlbmNyeXB0ZWRBZElkPUEwMTYxNzI5MjFDWlU0VFFFQ0FaTiZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A437" r:id="rId435" display="https://www.amazon.com/FIXBODY-Nail-Clipper-Set-Fingernails/dp/B07282RRFQ/ref=sr_1_1_sspa?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-1-spons&amp;psc=1&amp;smid=A1TXXLON680AN3&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUEzNlNVWjRSMlFaTzFKJmVuY3J5cHRlZElkPUEwMjIxMTkwMUFQQUpFQ1JGWEVJVyZlbmNyeXB0ZWRBZElkPUEwMzE3ODM1MkNKTjJaWE5UN1k5QSZ3aWRnZXROYW1lPXNwX2F0ZiZhY3Rpb249Y2xpY2tSZWRpcmVjdCZkb05vdExvZ0NsaWNrPXRydWU="/>
+    <hyperlink ref="A438" r:id="rId436" display="https://www.amazon.com/Dr-Nail-Professional-Clippers-Artificial-Manicure/dp/B07GWQQW5K/ref=sr_1_1?dchild=1&amp;keywords=Dr.Nail+Professional+Acrylic+Nail+Clipper+False+Nails+Cutter+Fake+Nail+Clippers+Nail+Tip+Trimmer+for+Artificial+Nail+Art+Manicure+Tools+Clip+Tool+pink&amp;qid=1620297818&amp;sr=8-1"/>
+    <hyperlink ref="A439" r:id="rId437" display="https://www.amazon.com/MILEILUOYUE-clippers-stainless-oblique-suitable/dp/B07WN92KDD/ref=sr_1_11?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-11"/>
+    <hyperlink ref="A440" r:id="rId438" display="https://www.amazon.com/Clippers-Fingernail-Toenail-Clipper-HAWATOUR/dp/B083S6LFCS/ref=sr_1_12?crid=3AYZ8PLMJX260&amp;dchild=1&amp;keywords=nail+cutter&amp;qid=1620296551&amp;sprefix=nail+c%2Caps%2C473&amp;sr=8-12"/>
+    <hyperlink ref="A441" r:id="rId439" display="https://www.amazon.com/ArtNaturals-Foot-Spa-Massager-Heat/dp/B01N9QGDWC/ref=sr_1_1?dchild=1&amp;keywords=ArtNaturals+Foot+Spa+Massager+-+Lights+%26+Bubbles+-+Heated+-+Temperature+Control+-+Soothe+%26+Relax+Tired+Feet+w%2F+All+in+One+Therapeutic+Home+Salon+%26+Massager+Tub+-+Foot+Bath+Pedicure&amp;qid=1620331083&amp;sr=8-1"/>
+    <hyperlink ref="A442" r:id="rId440" display="https://www.amazon.com/Portable-Electric-Nail-Drill-Professional/dp/B07G45JDLD/ref=sr_1_20?crid=3PD3J9SQD3ZJH&amp;dchild=1&amp;keywords=nail+kit&amp;qid=1620330672&amp;sprefix=nail%2Caps%2C546&amp;sr=8-20"/>
+    <hyperlink ref="A443" r:id="rId441" display="https://www.amazon.com/Portable-Electric-Nail-Drill-Professional/dp/B01H05EDK0/ref=sr_1_20?crid=3PD3J9SQD3ZJH&amp;dchild=1&amp;keywords=nail%2Bkit&amp;qid=1620330672&amp;sprefix=nail%2Caps%2C546&amp;sr=8-20&amp;th=1"/>
+    <hyperlink ref="A444" r:id="rId442" display="https://www.amazon.com/Portable-Electric-Nail-Drill-Professional/dp/B07G44P9ZS/ref=sr_1_20?crid=3PD3J9SQD3ZJH&amp;dchild=1&amp;keywords=nail%2Bkit&amp;qid=1620330672&amp;sprefix=nail%2Caps%2C546&amp;sr=8-20&amp;th=1"/>
+    <hyperlink ref="A445" r:id="rId443" display="https://www.amazon.com/Beetles-Kaleidoscope-Collection-Manicure-Activator/dp/B08G1JH5LM/ref=sr_1_1?dchild=1&amp;keywords=Beetles+20+Pcs+Dip+Powder+Nail+Kit+Starter%2C+Rainbow+Dipping+Powder+Set+Nude+Glitter+Kaleidoscope+Collection+for+DIY+Salon+Nail+Art+Manicure+with+Base+Top+Coat+Activator+Brush+Saver&amp;qid=1620333025&amp;sr=8-1"/>
+    <hyperlink ref="A446" r:id="rId444" display="https://www.amazon.com/LiBa-Mildew-Resistant-Anti-Microbial-Curtain/dp/B0829F1BD6/ref=zg_bs_1063236_1?_encoding=UTF8&amp;psc=1&amp;refRID=D6SF4TPCW8QE0Y7T7RZM"/>
+    <hyperlink ref="A447" r:id="rId445" display="https://www.amazon.com/Gorilla-Grip-Original-Chenille-Absorbent/dp/B076DWG81H/ref=zg_bs_1063236_5?_encoding=UTF8&amp;refRID=D6SF4TPCW8QE0Y7T7RZM&amp;th=1"/>
+    <hyperlink ref="A448" r:id="rId446" display="https://www.amazon.com/Gorilla-Grip-Original-Antibacterial-Phthalate/dp/B071ZQVTRS/ref=zg_bs_1063236_8?_encoding=UTF8&amp;refRID=D6SF4TPCW8QE0Y7T7RZM&amp;th=1"/>
+    <hyperlink ref="A449" r:id="rId447" display="https://www.amazon.com/Anpro-Adjuster-Resizer-Please-Picture/dp/B073FDFLSF/ref=zg_bs_12896081_9?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A450" r:id="rId448" display="https://www.amazon.com/Mandrel-Measurement-Measure-Jeweler-Jewelers/dp/B08C5LQ8D6/ref=zg_bs_12896081_15?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A451" r:id="rId449" display="https://www.amazon.com/Daughter-Matching-Pendant-Necklace-Birthday/dp/B07BJGWG1T/ref=zg_bs_12896081_21?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A452" r:id="rId450" display="https://www.amazon.com/GWHOLE-Adjuster-Silver-Polishing-Cloth/dp/B01M0OX3EW/ref=zg_bs_12896081_23?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A453" r:id="rId451" display="https://www.amazon.com/Invisible-Adjuster-Loose-Jewelry-Polishing/dp/B07WK2NNR6/ref=zg_bs_12896081_25?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A454" r:id="rId452" display="https://www.amazon.com/Tiparts-Necklace-Extender-Bracelet-Lobster/dp/B07J9X7X5V/ref=zg_bs_12896081_38?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A455" r:id="rId453" display="https://www.amazon.com/TDHDIKE-Silicone-Jewelry-Multi-Purpose-Placemat/dp/B0876V1QYP/ref=zg_bs_12896081_42?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A456" r:id="rId454" display="https://www.amazon.com/Pairs-Bullet-Clutch-Earring-Safety/dp/B07HP3C39C/ref=zg_bs_12896081_50?_encoding=UTF8&amp;psc=1&amp;refRID=RAZN8WS9433GMN1SW99W"/>
+    <hyperlink ref="A457" r:id="rId455" display="https://www.amazon.com/BENECREAT-Aluminum-Bendable-Sculpting-Skeleton/dp/B082D9NQ3P/ref=zg_bs_12896081_57?_encoding=UTF8&amp;refRID=T5ZK000GMJJY2X634R14&amp;th=1"/>
+    <hyperlink ref="A458" r:id="rId456" display="https://www.amazon.com/Paxcoo-Jewelry-Beading-Making-Supplies/dp/B079234LMQ/ref=zg_bs_12896081_61?_encoding=UTF8&amp;psc=1&amp;refRID=T5ZK000GMJJY2X634R14"/>
+    <hyperlink ref="A459" r:id="rId457" display="https://www.amazon.com/Silicone-Scrubber-Exfoliating-Bristles-Sensitive/dp/B08JYHR5NR/ref=sr_1_3?dchild=1&amp;keywords=INNERNEED%2BSoft%2BSilicone%2BFace%2BBrush%2BCleanser%2Band%2BMassager%2BManual%2BCleansing%2BScrubber%2C%2Bwith%2BSilicone%2BBody%2BBrush%2BShower%2BScrubber%2B(Gray%2BBlue)%2BBlue%2Bwith%2B1%2Bbody%2Bbrush%2Bgray&amp;qid=1620553391&amp;s=beauty&amp;sr=1-3&amp;th=1"/>
+    <hyperlink ref="A460" r:id="rId458" display="https://www.amazon.com/Softsoap-Liquid-Hand-Soap-Aloe/dp/B079FYJC97/ref=zg_bs_3777891_3?_encoding=UTF8&amp;refRID=FVN3BA0CH7MVH9BPX6P8&amp;th=1"/>
+    <hyperlink ref="A461" r:id="rId459" display="https://www.amazon.com/Schick-Intuition-Sensitive-Moisturizing-Refills/dp/B004CCJH10/ref=sr_1_15?dchild=1&amp;keywords=healh+care&amp;qid=1620573817&amp;sr=8-15"/>
+    <hyperlink ref="A462" r:id="rId460" display="https://www.amazon.com/Compatible-OneBlade-Electric-Attachment-Accessories/dp/B08KZCYV2V/ref=sr_1_1?dchild=1&amp;keywords=Hard+Case+Compatible+with+Philips+Norelco+OneBlade+Face+Body+Hybrid+Electric+Trimmer+Shaver+QP2630%2F70%2F72%2F+90+QP2520%2F70%2F72%2F+90.+Storage+Carrying+Holder+Fits+for+Attachment+and+Accessories+%28Box+Only%29&amp;qid=1620574309&amp;sr=8-1"/>
+    <hyperlink ref="A463" r:id="rId461" display="https://www.amazon.com/Activity-MorePro-Temperature-Waterproof-Pedometer/dp/B08P6JHLS8/ref=sr_1_3?dchild=1&amp;keywords=2021+Activity+Fitness+Tracker%2C+MorePro+Temperature+Heart+Rate+Blood+Pressure+Monitor+IP68+Waterproof+Sport+Smart+Watch%2CSleep+Tracking+Pedometer+Calories+Counter+Health+Bracelet+for+Women+Men+Kids&amp;qid=1620574835&amp;sr=8-3"/>
+    <hyperlink ref="A464" r:id="rId462" display="https://www.amazon.com/Activity-MorePro-Temperature-Waterproof-Pedometer/dp/B08P6R63ZL/ref=sr_1_3?dchild=1&amp;keywords=2021%2BActivity%2BFitness%2BTracker%2C%2BMorePro%2BTemperature%2BHeart%2BRate%2BBlood%2BPressure%2BMonitor%2BIP68%2BWaterproof%2BSport%2BSmart%2BWatch%2CSleep%2BTracking%2BPedometer%2BCalories%2BCounter%2BHealth%2BBracelet%2Bfor%2BWomen%2BMen%2BKids&amp;qid=1620574835&amp;sr=8-3&amp;th=1"/>
+    <hyperlink ref="A465" r:id="rId463" display="https://www.amazon.com/Activity-MorePro-Temperature-Waterproof-Pedometer/dp/B08P6QGZQK/ref=sr_1_3?dchild=1&amp;keywords=2021%2BActivity%2BFitness%2BTracker%2C%2BMorePro%2BTemperature%2BHeart%2BRate%2BBlood%2BPressure%2BMonitor%2BIP68%2BWaterproof%2BSport%2BSmart%2BWatch%2CSleep%2BTracking%2BPedometer%2BCalories%2BCounter%2BHealth%2BBracelet%2Bfor%2BWomen%2BMen%2BKids&amp;qid=1620574835&amp;sr=8-3&amp;th=1"/>
+    <hyperlink ref="A466" r:id="rId464" display="https://www.amazon.com/Care-Touch-Automatic-Pressure-Monitor/dp/B01JPRM9LG/ref=sr_1_32?dchild=1&amp;keywords=healh+care&amp;qid=1620574691&amp;sr=8-32"/>
+    <hyperlink ref="A467" r:id="rId465" display="https://www.amazon.com/Coconut-Milk-Body-Scrub-Essential/dp/B07TH9YNL7/ref=sr_1_12?crid=16AFER19ZV1S0&amp;dchild=1&amp;keywords=body+scrub&amp;qid=1620576500&amp;sprefix=body+%2Caps%2C427&amp;sr=8-12"/>
+    <hyperlink ref="A468" r:id="rId466" display="https://www.amazon.com/Classic-Operation-Skill-Amazon-Exclusive/dp/B00000DMFM/ref=sr_1_52?dchild=1&amp;keywords=Board+games&amp;qid=1620472803&amp;sr=8-52"/>
+    <hyperlink ref="A469" r:id="rId467" display="https://www.amazon.com/Girls-Talking-Popular-Toddler-Electronic/dp/B07P9482PJ/ref=sr_1_3?dchild=1&amp;keywords=Beijue+16+Bit+Handheld+Games+for+Kids+Adults+3.0%27%27+Large+Screen+Preloaded+100+HD+Classic+Retro+Video+Games+no+Need+WiFi+USB+Rechargeable+Seniors+Electronic+Game+Player+Birthday+Xmas+Present+%28Blue%29&amp;qid=1620476366&amp;sr=8-3"/>
+    <hyperlink ref="A470" r:id="rId468" display="https://www.amazon.com/Interactive-Controlled-Repeating-Recognition-Recording/dp/B07Y1HK5BW/ref=sr_1_4?dchild=1&amp;keywords=Beijue%2B16%2BBit%2BHandheld%2BGames%2Bfor%2BKids%2BAdults%2B3.0%27%27%2BLarge%2BScreen%2BPreloaded%2B100%2BHD%2BClassic%2BRetro%2BVideo%2BGames%2Bno%2BNeed%2BWiFi%2BUSB%2BRechargeable%2BSeniors%2BElectronic%2BGame%2BPlayer%2BBirthday%2BXmas%2BPresent%2B(Blue)&amp;qid=1620476366&amp;sr=8-4&amp;th=1"/>
+    <hyperlink ref="A471" r:id="rId469" display="https://www.amazon.com/Hesung-Inflatable-Center-Backyard-Colorful/dp/B08P52913Y/ref=gbps_img_s-5_73d8_f814dd2f?smid=ATVPDKIKX0DER&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=BPC4431PTSWNJ6GDKGM5"/>
+    <hyperlink ref="A472" r:id="rId470" display="https://www.amazon.com/TP-Link-Kasa-Smart-Wifi-Plug/dp/B07RCNB2L3/ref=gbps_tit_s-5_73d8_84fa3e4d?smid=ATVPDKIKX0DER&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=BPC4431PTSWNJ6GDKGM5&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExTTgzTVBPSjdRNVc4JmVuY3J5cHRlZElkPUEwMDI2MzM5Mlk1S005NktBUVFMSyZlbmNyeXB0ZWRBZElkPUEwNjk1ODMzRE83RzdWSUcyTVNYJndpZGdldE5hbWU9c3BfZ2JfbWFpbl9zdXBwbGUmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A473" r:id="rId471" display="https://www.amazon.com/Multimineral-Multivitamin-Supplement-Antioxidant-Properties/dp/B01KE592JU/ref=gbps_tit_s-5_73d8_d9222763?smid=A63Q4LI2EE4BW&amp;pf_rd_p=053dbaf4-c04d-4cb8-a61c-d2729fac73d8&amp;pf_rd_s=slot-5&amp;pf_rd_t=701&amp;pf_rd_i=gb_main&amp;pf_rd_m=ATVPDKIKX0DER&amp;pf_rd_r=BPC4431PTSWNJ6GDKGM5&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExTTgzTVBPSjdRNVc4JmVuY3J5cHRlZElkPUEwMDI2MzM5Mlk1S005NktBUVFMSyZlbmNyeXB0ZWRBZElkPUEwMjg5MjExMkswU05FT0lCRzdFRCZ3aWRnZXROYW1lPXNwX2diX21haW5fc3VwcGxlJmFjdGlvbj1jbGlja1JlZGlyZWN0JmRvTm90TG9nQ2xpY2s9dHJ1ZQ=="/>
+    <hyperlink ref="A474" r:id="rId472" display="https://www.amazon.com/Mounting-Dream-600x400mm-Capacity-MD2268-LK/dp/B00NKYYMAW/ref=sr_1_1?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-1"/>
+    <hyperlink ref="A475" r:id="rId473" display="https://www.amazon.com/Bracket-Articulating-Rotation-600x400mm-Pipishell/dp/B07MZTT1BF/ref=sr_1_2?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-2"/>
+    <hyperlink ref="A476" r:id="rId474" display="https://www.amazon.com/Mounting-Dream-Articulating-400x400mm-MD2413-MX/dp/B00KXTZ3BE/ref=sr_1_3?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-3"/>
+    <hyperlink ref="A477" r:id="rId475" display="https://www.amazon.com/USX-MOUNT-XMM006-Articulating-400x400mm-Weight/dp/B07CXQRMLQ/ref=sr_1_4?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-4"/>
+    <hyperlink ref="A478" r:id="rId476" display="https://www.amazon.com/USX-MOUNT-TVs-Fits-600x400mm-Weight-Capacity/dp/B07CXF452P/ref=sr_1_6?dchild=1&amp;keywords=In+Stock+32-70%22+Adjustable+Wall+Mount+Bracket+Rotatable+TV+Stand+With+Spirit+Level&amp;qid=1620648114&amp;sr=8-6"/>
+    <hyperlink ref="A479" r:id="rId477" display="https://www.amazon.com/Articulating-Extension-Rotation-400x400mm-Pipishell/dp/B07PMBDZ7K/ref=sr_1_3?dchild=1&amp;keywords=TV+Wall+Mount+Bracket+Full+Motion+Dual+Swivel+Articulating+Arms+Extension+Tilt+Rotation%2C+Fits+Most+26-55+Inch+LED%2C+LCD%2C+OLED+Flat%26Curved+TVs%2C+Max+VESA+400x400mm+and+Holds+up+to+99lbs+by+Pipishell&amp;qid=1620656706&amp;sr=8-3"/>
+    <hyperlink ref="A480" r:id="rId478" display="https://www.amazon.com/Rubbermaid-2108377-Brilliance-14-Piece-Container/dp/B07X1TMQ34?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_7_0cb9e519"/>
+    <hyperlink ref="A481" r:id="rId479" display="https://www.amazon.com/Rubbermaid-2108371-Leak-Proof-Brilliance-Containers/dp/B07X6VT5DX/ref=sr_1_6?dchild=1&amp;keywords=Rubbermaid+Brilliance+Storage+14-Piece+Plastic+Lids%7CBPA+Free%2C+Leak+Proof+Food+Container%2C+Clear&amp;qid=1620667789&amp;s=home-garden&amp;sr=1-6"/>
+    <hyperlink ref="A482" r:id="rId480" display="https://www.amazon.com/KIPBELIF-Insulated-lunch-bags-women/dp/B08DKS2JB7?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_tlt_27_a4bcdd32&amp;th=1"/>
+    <hyperlink ref="A483" r:id="rId481" display="https://www.amazon.com/KIPBELIF-Insulated-lunch-bags-women/dp/B07ZGBZGDY?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_tlt_27_a4bcdd32&amp;th=1"/>
+    <hyperlink ref="A484" r:id="rId482" display="https://www.amazon.com/Belkin-3-Outlet-Protector-Electronics-Appliances/dp/B00ATZJ5YS?ref_=Oct_DLandingS_D_a8f318c4_61&amp;smid=ATVPDKIKX0DER"/>
+    <hyperlink ref="A485" r:id="rId483" display="https://www.amazon.com/Belkin-12-Outlet-Protector-6-Foot-BV112050-06/dp/B00966IFQ0?ref_=Oct_DLandingS_D_a8f318c4_62&amp;smid=ATVPDKIKX0DER"/>
+    <hyperlink ref="A486" r:id="rId484" display="https://www.amazon.com/Belkin-8-Outlet-Power-Strip-Protector/dp/B000HPZ954?ref_=Oct_DLandingS_D_a8f318c4_63&amp;smid=ATVPDKIKX0DER"/>
+    <hyperlink ref="A487" r:id="rId485" display="https://www.amazon.com/Belkin-8-Outlet-Pivot-Plug-Power-Protector/dp/B000JE9LCK?ref_=Oct_DLandingS_D_a8f318c4_64&amp;smid=ATVPDKIKX0DER"/>
+    <hyperlink ref="A488" r:id="rId486" display="https://www.amazon.com/Belkin-Pivot-Plug-Protector-Protection-BP108200-06/dp/B000JEACFK/ref=sr_1_1?dchild=1&amp;keywords=Belkin+8-Outlet+Pivot-Plug+Power+Strip+Surge+Protector+with+6-Foot+Power+Cord+and+Telephone+Protection%2C+1800+Joules+%28BP108200-06%29&amp;qid=1620670951&amp;s=electronics&amp;sr=1-1"/>
+    <hyperlink ref="A489" r:id="rId487" display="https://www.amazon.com/Belkin-6-Outlet-Commercial-Protector-BE106000-06-CM/dp/B002QQ5WGI?ref_=Oct_DLandingS_D_a8f318c4_69&amp;smid=ATVPDKIKX0DER"/>
+    <hyperlink ref="A490" r:id="rId488" display="https://www.amazon.com/Orthopedic-Comfortable-Cuddler-Washable-Cushion/dp/B07J334WTW/ref=sr_1_4?dchild=1&amp;keywords=Round+Dog+Bed+Cuddler+Washable+Round+Pet+Bed+for+Cats+and+Medium+Dogs+Comforting+Dog+Bed&amp;qid=1620671251&amp;sr=8-4"/>
+    <hyperlink ref="A491" r:id="rId489" display="https://www.amazon.com/Eureka-PowerSpeed-Bagless-Upright-Cleaner/dp/B07ZCZFL3G?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_49_f561f1f8&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExVzAwMVg1S0RGRENQJmVuY3J5cHRlZElkPUEwMTIzMTA5MVg4Q0FWV040S0pKVSZlbmNyeXB0ZWRBZElkPUEwODE1MDQ2V0hTMklSVzJDWTUyJndpZGdldE5hbWU9c3BfZ2JfbWFpbl9zdXBwbGUmYWN0aW9uPWNsaWNrUmVkaXJlY3QmZG9Ob3RMb2dDbGljaz10cnVl"/>
+    <hyperlink ref="A492" r:id="rId490" display="https://www.amazon.com/ComfiLife-Orthopedic-Pillow-Sciatica-Pregnancy/dp/B01ARJ7SBM?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_55_6082e6dc"/>
+    <hyperlink ref="A493" r:id="rId491" display="https://www.amazon.com/Frownies-Forehead-Between-Eyes-Patches/dp/B00027DMSI?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_tlt_64_3e4e0553"/>
+    <hyperlink ref="A494" r:id="rId492" display="https://www.amazon.com/Etekcity-Lasergrip-774-Non-contact-Thermometer/dp/B00837ZGRY?ref=deals_deals_deals-grid_slot-15_1992_dt_dcell_img_78_ed8a4712"/>
+    <hyperlink ref="A495" r:id="rId493" display="https://www.amazon.com/Anker-Ultra-Compact-High-Speed-VoltageBoost-Technology/dp/B07QXV6N1B?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_4_1cfb57ce"/>
+    <hyperlink ref="A496" r:id="rId494" display="https://www.amazon.com/10-Security-Tinted-Self-Seal-Envelopes/dp/B01D0OANU4?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_12_b24065fd"/>
+    <hyperlink ref="A497" r:id="rId495" display="https://www.amazon.com/TaoTronics-Standing-Brightness-Adjustable-Gooseneck/dp/B07S86P7XP?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_20_b490e472"/>
+    <hyperlink ref="A498" r:id="rId496" display="https://www.amazon.com/dp/B07ZCV53MQ/ref=twister_B0866G3V3F?_encoding=UTF8&amp;psc=1"/>
+    <hyperlink ref="A499" r:id="rId497" display="https://www.amazon.com/Andlane-Tweezers-Set-Professional-Stainless/dp/B07P5GCZ6C/ref=sr_1_2?dchild=1&amp;keywords=Andlane+Tweezers+Set+-+Professional+Stainless+Steel+5-Piece+Precision+Tweezer+for+Men+%26+Women+-+Great+for+Facial+Hair+Removal%2C+Eyebrow+Shaping%2C+Splinters+%26+Ingrown+%28Pink%29&amp;qid=1620725301&amp;s=beauty&amp;sr=1-2"/>
+    <hyperlink ref="A500" r:id="rId498" display="https://www.amazon.com/RoosterCo-Eyebrow-Tweezer-Set-4-piece-Hair-Removal-Precision/dp/B07SSXX8MT/ref=sr_1_22?dchild=1&amp;keywords=New+Professional+Eyebrow+Hair+Stainless+Steel+Lady+Make+Up+Removal+Tweezer+Tips&amp;qid=1620725941&amp;s=beauty&amp;sr=1-22"/>
+    <hyperlink ref="A501" r:id="rId499" display="https://www.amazon.com/Organic-Aloe-Vera-Gel-Freshly/dp/B07J9YVK31?ref=deals_deals_deals-grid_slot-15_8796_dt_dcell_img_23_0adeb85f"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
